--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21912400</v>
+        <v>23884900</v>
       </c>
       <c r="E8" s="3">
-        <v>21344900</v>
+        <v>22163300</v>
       </c>
       <c r="F8" s="3">
-        <v>22897400</v>
+        <v>21589300</v>
       </c>
       <c r="G8" s="3">
-        <v>25662400</v>
+        <v>23159600</v>
       </c>
       <c r="H8" s="3">
-        <v>23694300</v>
+        <v>25956200</v>
       </c>
       <c r="I8" s="3">
-        <v>23631200</v>
+        <v>23965600</v>
       </c>
       <c r="J8" s="3">
+        <v>23901800</v>
+      </c>
+      <c r="K8" s="3">
         <v>23673100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25760100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14207200</v>
+        <v>14932800</v>
       </c>
       <c r="E9" s="3">
-        <v>15819100</v>
+        <v>14369900</v>
       </c>
       <c r="F9" s="3">
-        <v>15754400</v>
+        <v>16000200</v>
       </c>
       <c r="G9" s="3">
-        <v>16506900</v>
+        <v>15934800</v>
       </c>
       <c r="H9" s="3">
-        <v>15020700</v>
+        <v>16695900</v>
       </c>
       <c r="I9" s="3">
-        <v>15417800</v>
+        <v>15192700</v>
       </c>
       <c r="J9" s="3">
+        <v>15594300</v>
+      </c>
+      <c r="K9" s="3">
         <v>16181800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16710100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7705200</v>
+        <v>8952100</v>
       </c>
       <c r="E10" s="3">
-        <v>5525900</v>
+        <v>7793400</v>
       </c>
       <c r="F10" s="3">
-        <v>7143000</v>
+        <v>5589100</v>
       </c>
       <c r="G10" s="3">
-        <v>9155500</v>
+        <v>7224800</v>
       </c>
       <c r="H10" s="3">
-        <v>8673600</v>
+        <v>9260300</v>
       </c>
       <c r="I10" s="3">
-        <v>8213400</v>
+        <v>8772900</v>
       </c>
       <c r="J10" s="3">
+        <v>8307400</v>
+      </c>
+      <c r="K10" s="3">
         <v>7491300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9049900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3909400</v>
+        <v>4044100</v>
       </c>
       <c r="E12" s="3">
-        <v>3697800</v>
+        <v>3954200</v>
       </c>
       <c r="F12" s="3">
-        <v>3002700</v>
+        <v>3740200</v>
       </c>
       <c r="G12" s="3">
-        <v>3411300</v>
+        <v>3037100</v>
       </c>
       <c r="H12" s="3">
-        <v>3741900</v>
+        <v>3450400</v>
       </c>
       <c r="I12" s="3">
-        <v>3259700</v>
+        <v>3784700</v>
       </c>
       <c r="J12" s="3">
+        <v>3297000</v>
+      </c>
+      <c r="K12" s="3">
         <v>3323800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3641400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>879000</v>
+        <v>187600</v>
       </c>
       <c r="E14" s="3">
-        <v>2698900</v>
+        <v>889100</v>
       </c>
       <c r="F14" s="3">
-        <v>777800</v>
+        <v>2729800</v>
       </c>
       <c r="G14" s="3">
-        <v>523800</v>
+        <v>786700</v>
       </c>
       <c r="H14" s="3">
-        <v>151300</v>
+        <v>529800</v>
       </c>
       <c r="I14" s="3">
-        <v>462800</v>
+        <v>153100</v>
       </c>
       <c r="J14" s="3">
+        <v>468100</v>
+      </c>
+      <c r="K14" s="3">
         <v>159400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>237600</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21783300</v>
+        <v>22774500</v>
       </c>
       <c r="E17" s="3">
-        <v>24955800</v>
+        <v>22032700</v>
       </c>
       <c r="F17" s="3">
-        <v>22358400</v>
+        <v>25241500</v>
       </c>
       <c r="G17" s="3">
-        <v>23396200</v>
+        <v>22614400</v>
       </c>
       <c r="H17" s="3">
-        <v>21947500</v>
+        <v>23664100</v>
       </c>
       <c r="I17" s="3">
-        <v>21776600</v>
+        <v>22198800</v>
       </c>
       <c r="J17" s="3">
+        <v>22025900</v>
+      </c>
+      <c r="K17" s="3">
         <v>22586200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23728100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>129100</v>
+        <v>1110500</v>
       </c>
       <c r="E18" s="3">
-        <v>-3610800</v>
+        <v>130600</v>
       </c>
       <c r="F18" s="3">
-        <v>539100</v>
+        <v>-3652200</v>
       </c>
       <c r="G18" s="3">
-        <v>2266200</v>
+        <v>545300</v>
       </c>
       <c r="H18" s="3">
-        <v>1746800</v>
+        <v>2292100</v>
       </c>
       <c r="I18" s="3">
-        <v>1854600</v>
+        <v>1766800</v>
       </c>
       <c r="J18" s="3">
+        <v>1875900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1086900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2032000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-177500</v>
+        <v>14800</v>
       </c>
       <c r="E20" s="3">
-        <v>-19500</v>
+        <v>-179500</v>
       </c>
       <c r="F20" s="3">
-        <v>-97500</v>
+        <v>-19800</v>
       </c>
       <c r="G20" s="3">
-        <v>-52500</v>
+        <v>-98600</v>
       </c>
       <c r="H20" s="3">
-        <v>39500</v>
+        <v>-53100</v>
       </c>
       <c r="I20" s="3">
-        <v>69100</v>
+        <v>39900</v>
       </c>
       <c r="J20" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K20" s="3">
         <v>151500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>218800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>705000</v>
+        <v>2021800</v>
       </c>
       <c r="E21" s="3">
-        <v>-2748600</v>
+        <v>703800</v>
       </c>
       <c r="F21" s="3">
-        <v>1368800</v>
+        <v>-2790900</v>
       </c>
       <c r="G21" s="3">
-        <v>3280400</v>
+        <v>1373000</v>
       </c>
       <c r="H21" s="3">
-        <v>2822000</v>
+        <v>3304800</v>
       </c>
       <c r="I21" s="3">
-        <v>2983300</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2841600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3004400</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3277900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>103600</v>
+        <v>204200</v>
       </c>
       <c r="E22" s="3">
-        <v>106700</v>
+        <v>104800</v>
       </c>
       <c r="F22" s="3">
-        <v>140800</v>
+        <v>108000</v>
       </c>
       <c r="G22" s="3">
+        <v>142400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>150100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>144600</v>
+      </c>
+      <c r="J22" s="3">
         <v>148400</v>
       </c>
-      <c r="H22" s="3">
-        <v>143000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>146700</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>180200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>193700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-152000</v>
+        <v>921100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3737100</v>
+        <v>-153800</v>
       </c>
       <c r="F23" s="3">
-        <v>300800</v>
+        <v>-3779900</v>
       </c>
       <c r="G23" s="3">
-        <v>2065300</v>
+        <v>304200</v>
       </c>
       <c r="H23" s="3">
-        <v>1643200</v>
+        <v>2088900</v>
       </c>
       <c r="I23" s="3">
-        <v>1777000</v>
+        <v>1662100</v>
       </c>
       <c r="J23" s="3">
+        <v>1797300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1058200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2057100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>500200</v>
+        <v>727600</v>
       </c>
       <c r="E24" s="3">
-        <v>-366400</v>
+        <v>505900</v>
       </c>
       <c r="F24" s="3">
-        <v>195600</v>
+        <v>-370500</v>
       </c>
       <c r="G24" s="3">
-        <v>644300</v>
+        <v>197800</v>
       </c>
       <c r="H24" s="3">
-        <v>485100</v>
+        <v>651600</v>
       </c>
       <c r="I24" s="3">
-        <v>511800</v>
+        <v>490700</v>
       </c>
       <c r="J24" s="3">
+        <v>517600</v>
+      </c>
+      <c r="K24" s="3">
         <v>441100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>630300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-652300</v>
+        <v>193400</v>
       </c>
       <c r="E26" s="3">
-        <v>-3370800</v>
+        <v>-659700</v>
       </c>
       <c r="F26" s="3">
-        <v>105200</v>
+        <v>-3409400</v>
       </c>
       <c r="G26" s="3">
-        <v>1421000</v>
+        <v>106400</v>
       </c>
       <c r="H26" s="3">
-        <v>1158100</v>
+        <v>1437300</v>
       </c>
       <c r="I26" s="3">
-        <v>1265200</v>
+        <v>1171400</v>
       </c>
       <c r="J26" s="3">
+        <v>1279700</v>
+      </c>
+      <c r="K26" s="3">
         <v>617100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1426800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-678700</v>
+        <v>233700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3385600</v>
+        <v>-686400</v>
       </c>
       <c r="F27" s="3">
-        <v>86600</v>
+        <v>-3424400</v>
       </c>
       <c r="G27" s="3">
-        <v>1408100</v>
+        <v>87600</v>
       </c>
       <c r="H27" s="3">
-        <v>1202300</v>
+        <v>1424300</v>
       </c>
       <c r="I27" s="3">
-        <v>1247700</v>
+        <v>1216000</v>
       </c>
       <c r="J27" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="K27" s="3">
         <v>600200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1384300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>177500</v>
+        <v>-14800</v>
       </c>
       <c r="E32" s="3">
-        <v>19500</v>
+        <v>179500</v>
       </c>
       <c r="F32" s="3">
-        <v>97500</v>
+        <v>19800</v>
       </c>
       <c r="G32" s="3">
-        <v>52500</v>
+        <v>98600</v>
       </c>
       <c r="H32" s="3">
-        <v>-39500</v>
+        <v>53100</v>
       </c>
       <c r="I32" s="3">
-        <v>-69100</v>
+        <v>-39900</v>
       </c>
       <c r="J32" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-151500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-218800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-678700</v>
+        <v>233700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3385600</v>
+        <v>-686400</v>
       </c>
       <c r="F33" s="3">
-        <v>86600</v>
+        <v>-3424400</v>
       </c>
       <c r="G33" s="3">
-        <v>1408100</v>
+        <v>87600</v>
       </c>
       <c r="H33" s="3">
-        <v>1202300</v>
+        <v>1424300</v>
       </c>
       <c r="I33" s="3">
-        <v>1247700</v>
+        <v>1216000</v>
       </c>
       <c r="J33" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="K33" s="3">
         <v>600200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1384300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-678700</v>
+        <v>233700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3385600</v>
+        <v>-686400</v>
       </c>
       <c r="F35" s="3">
-        <v>86600</v>
+        <v>-3424400</v>
       </c>
       <c r="G35" s="3">
-        <v>1408100</v>
+        <v>87600</v>
       </c>
       <c r="H35" s="3">
-        <v>1202300</v>
+        <v>1424300</v>
       </c>
       <c r="I35" s="3">
-        <v>1247700</v>
+        <v>1216000</v>
       </c>
       <c r="J35" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="K35" s="3">
         <v>600200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1384300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1974500</v>
+        <v>1842600</v>
       </c>
       <c r="E41" s="3">
-        <v>1912600</v>
+        <v>2019300</v>
       </c>
       <c r="F41" s="3">
-        <v>6500100</v>
+        <v>1956100</v>
       </c>
       <c r="G41" s="3">
-        <v>2331300</v>
+        <v>6647700</v>
       </c>
       <c r="H41" s="3">
-        <v>3081500</v>
+        <v>2384200</v>
       </c>
       <c r="I41" s="3">
-        <v>2974300</v>
+        <v>3151500</v>
       </c>
       <c r="J41" s="3">
+        <v>3041800</v>
+      </c>
+      <c r="K41" s="3">
         <v>4643800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4390500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2703800</v>
+        <v>3667200</v>
       </c>
       <c r="E42" s="3">
-        <v>2514500</v>
+        <v>2765200</v>
       </c>
       <c r="F42" s="3">
-        <v>2568500</v>
+        <v>2571600</v>
       </c>
       <c r="G42" s="3">
-        <v>4556200</v>
+        <v>2626900</v>
       </c>
       <c r="H42" s="3">
-        <v>4418000</v>
+        <v>4659600</v>
       </c>
       <c r="I42" s="3">
-        <v>5037600</v>
+        <v>4518300</v>
       </c>
       <c r="J42" s="3">
+        <v>5152000</v>
+      </c>
+      <c r="K42" s="3">
         <v>3328500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4752600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8743100</v>
+        <v>7359600</v>
       </c>
       <c r="E43" s="3">
-        <v>15146800</v>
+        <v>8941600</v>
       </c>
       <c r="F43" s="3">
-        <v>18576800</v>
+        <v>15490700</v>
       </c>
       <c r="G43" s="3">
-        <v>9194800</v>
+        <v>18998600</v>
       </c>
       <c r="H43" s="3">
-        <v>9686400</v>
+        <v>9403600</v>
       </c>
       <c r="I43" s="3">
-        <v>8720000</v>
+        <v>9906300</v>
       </c>
       <c r="J43" s="3">
+        <v>8918000</v>
+      </c>
+      <c r="K43" s="3">
         <v>8527800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9211600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3040500</v>
+        <v>3280400</v>
       </c>
       <c r="E44" s="3">
-        <v>2655100</v>
+        <v>3109500</v>
       </c>
       <c r="F44" s="3">
-        <v>6435900</v>
+        <v>2715400</v>
       </c>
       <c r="G44" s="3">
-        <v>2955400</v>
+        <v>6582000</v>
       </c>
       <c r="H44" s="3">
-        <v>2928200</v>
+        <v>3022500</v>
       </c>
       <c r="I44" s="3">
-        <v>2365300</v>
+        <v>2994700</v>
       </c>
       <c r="J44" s="3">
+        <v>2419100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2993400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3754100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>288200</v>
+        <v>209600</v>
       </c>
       <c r="E45" s="3">
-        <v>425200</v>
+        <v>294700</v>
       </c>
       <c r="F45" s="3">
-        <v>726800</v>
+        <v>434800</v>
       </c>
       <c r="G45" s="3">
-        <v>659700</v>
+        <v>743300</v>
       </c>
       <c r="H45" s="3">
-        <v>857800</v>
+        <v>674700</v>
       </c>
       <c r="I45" s="3">
-        <v>742600</v>
+        <v>877300</v>
       </c>
       <c r="J45" s="3">
+        <v>759400</v>
+      </c>
+      <c r="K45" s="3">
         <v>591500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>460800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16750100</v>
+        <v>16359500</v>
       </c>
       <c r="E46" s="3">
-        <v>15945300</v>
+        <v>17130400</v>
       </c>
       <c r="F46" s="3">
-        <v>18197800</v>
+        <v>16307300</v>
       </c>
       <c r="G46" s="3">
-        <v>19697300</v>
+        <v>18611100</v>
       </c>
       <c r="H46" s="3">
-        <v>20971900</v>
+        <v>20144600</v>
       </c>
       <c r="I46" s="3">
-        <v>19839800</v>
+        <v>21448200</v>
       </c>
       <c r="J46" s="3">
+        <v>20290300</v>
+      </c>
+      <c r="K46" s="3">
         <v>20084900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22569600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3517700</v>
+        <v>3319100</v>
       </c>
       <c r="E47" s="3">
-        <v>3637200</v>
+        <v>3597600</v>
       </c>
       <c r="F47" s="3">
-        <v>2136100</v>
+        <v>3719800</v>
       </c>
       <c r="G47" s="3">
-        <v>977600</v>
+        <v>2184600</v>
       </c>
       <c r="H47" s="3">
-        <v>1108400</v>
+        <v>999800</v>
       </c>
       <c r="I47" s="3">
-        <v>980900</v>
+        <v>1133600</v>
       </c>
       <c r="J47" s="3">
+        <v>1003200</v>
+      </c>
+      <c r="K47" s="3">
         <v>881500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1553100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1335400</v>
+        <v>2374200</v>
       </c>
       <c r="E48" s="3">
-        <v>1336200</v>
+        <v>1365700</v>
       </c>
       <c r="F48" s="3">
-        <v>3478300</v>
+        <v>1366600</v>
       </c>
       <c r="G48" s="3">
-        <v>1652600</v>
+        <v>3557300</v>
       </c>
       <c r="H48" s="3">
-        <v>1386500</v>
+        <v>1690100</v>
       </c>
       <c r="I48" s="3">
-        <v>1188200</v>
+        <v>1418000</v>
       </c>
       <c r="J48" s="3">
+        <v>1215200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1194500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1224700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>3922900</v>
+        <v>4010400</v>
       </c>
       <c r="E49" s="3">
-        <v>3799300</v>
+        <v>4012000</v>
       </c>
       <c r="F49" s="3">
-        <v>12307400</v>
+        <v>3885500</v>
       </c>
       <c r="G49" s="3">
-        <v>5809300</v>
+        <v>12586900</v>
       </c>
       <c r="H49" s="3">
-        <v>5657300</v>
+        <v>5941200</v>
       </c>
       <c r="I49" s="3">
-        <v>4958200</v>
+        <v>5785800</v>
       </c>
       <c r="J49" s="3">
+        <v>5070800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5138900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4999900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2406200</v>
+        <v>3313500</v>
       </c>
       <c r="E52" s="3">
-        <v>2291600</v>
+        <v>2460800</v>
       </c>
       <c r="F52" s="3">
-        <v>1766600</v>
+        <v>2343600</v>
       </c>
       <c r="G52" s="3">
-        <v>1417100</v>
+        <v>1806700</v>
       </c>
       <c r="H52" s="3">
-        <v>1385300</v>
+        <v>1449300</v>
       </c>
       <c r="I52" s="3">
-        <v>1009800</v>
+        <v>1416700</v>
       </c>
       <c r="J52" s="3">
+        <v>1032700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1280500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1478000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>27932300</v>
+        <v>29376700</v>
       </c>
       <c r="E54" s="3">
-        <v>27009500</v>
+        <v>28566600</v>
       </c>
       <c r="F54" s="3">
-        <v>29531700</v>
+        <v>27622900</v>
       </c>
       <c r="G54" s="3">
-        <v>29553800</v>
+        <v>30202300</v>
       </c>
       <c r="H54" s="3">
-        <v>30509500</v>
+        <v>30224900</v>
       </c>
       <c r="I54" s="3">
-        <v>27976900</v>
+        <v>31202300</v>
       </c>
       <c r="J54" s="3">
+        <v>28612200</v>
+      </c>
+      <c r="K54" s="3">
         <v>28580300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31825200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3105700</v>
+        <v>3231500</v>
       </c>
       <c r="E57" s="3">
-        <v>2735400</v>
+        <v>3176300</v>
       </c>
       <c r="F57" s="3">
-        <v>5317300</v>
+        <v>2797600</v>
       </c>
       <c r="G57" s="3">
-        <v>2326900</v>
+        <v>5438000</v>
       </c>
       <c r="H57" s="3">
-        <v>2543500</v>
+        <v>2379700</v>
       </c>
       <c r="I57" s="3">
-        <v>2130800</v>
+        <v>2601200</v>
       </c>
       <c r="J57" s="3">
+        <v>2179200</v>
+      </c>
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>234400</v>
+        <v>1246400</v>
       </c>
       <c r="E58" s="3">
-        <v>264500</v>
+        <v>239700</v>
       </c>
       <c r="F58" s="3">
-        <v>1669700</v>
+        <v>270500</v>
       </c>
       <c r="G58" s="3">
-        <v>246900</v>
+        <v>1707700</v>
       </c>
       <c r="H58" s="3">
-        <v>237100</v>
+        <v>252500</v>
       </c>
       <c r="I58" s="3">
-        <v>767800</v>
+        <v>242400</v>
       </c>
       <c r="J58" s="3">
+        <v>785300</v>
+      </c>
+      <c r="K58" s="3">
         <v>495600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>881500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8187200</v>
+        <v>7938800</v>
       </c>
       <c r="E59" s="3">
-        <v>10157000</v>
+        <v>8373100</v>
       </c>
       <c r="F59" s="3">
-        <v>12776000</v>
+        <v>10387600</v>
       </c>
       <c r="G59" s="3">
-        <v>6477400</v>
+        <v>13066100</v>
       </c>
       <c r="H59" s="3">
-        <v>7698100</v>
+        <v>6624500</v>
       </c>
       <c r="I59" s="3">
-        <v>6594800</v>
+        <v>7872900</v>
       </c>
       <c r="J59" s="3">
+        <v>6744500</v>
+      </c>
+      <c r="K59" s="3">
         <v>9619100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10121700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11527300</v>
+        <v>12416700</v>
       </c>
       <c r="E60" s="3">
-        <v>10344000</v>
+        <v>11789000</v>
       </c>
       <c r="F60" s="3">
-        <v>10476500</v>
+        <v>10578900</v>
       </c>
       <c r="G60" s="3">
-        <v>9051300</v>
+        <v>10714400</v>
       </c>
       <c r="H60" s="3">
-        <v>10478600</v>
+        <v>9256800</v>
       </c>
       <c r="I60" s="3">
-        <v>9493400</v>
+        <v>10716600</v>
       </c>
       <c r="J60" s="3">
+        <v>9709000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10123200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11014700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3208300</v>
+        <v>3810700</v>
       </c>
       <c r="E61" s="3">
-        <v>3169900</v>
+        <v>3281200</v>
       </c>
       <c r="F61" s="3">
-        <v>1938600</v>
+        <v>3241800</v>
       </c>
       <c r="G61" s="3">
-        <v>2363800</v>
+        <v>1982600</v>
       </c>
       <c r="H61" s="3">
-        <v>2272300</v>
+        <v>2417500</v>
       </c>
       <c r="I61" s="3">
-        <v>2293400</v>
+        <v>2323900</v>
       </c>
       <c r="J61" s="3">
+        <v>2345500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2483700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2640000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4074800</v>
+        <v>4446500</v>
       </c>
       <c r="E62" s="3">
-        <v>3355100</v>
+        <v>4167300</v>
       </c>
       <c r="F62" s="3">
-        <v>3059400</v>
+        <v>3431300</v>
       </c>
       <c r="G62" s="3">
-        <v>2823100</v>
+        <v>3128900</v>
       </c>
       <c r="H62" s="3">
-        <v>2656600</v>
+        <v>2887200</v>
       </c>
       <c r="I62" s="3">
-        <v>1471200</v>
+        <v>2716900</v>
       </c>
       <c r="J62" s="3">
+        <v>1504600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1580900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1679400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18892700</v>
+        <v>20601600</v>
       </c>
       <c r="E66" s="3">
-        <v>16935100</v>
+        <v>19321700</v>
       </c>
       <c r="F66" s="3">
-        <v>15544600</v>
+        <v>17319600</v>
       </c>
       <c r="G66" s="3">
-        <v>14325500</v>
+        <v>15897600</v>
       </c>
       <c r="H66" s="3">
-        <v>15511800</v>
+        <v>14650800</v>
       </c>
       <c r="I66" s="3">
-        <v>13405500</v>
+        <v>15864000</v>
       </c>
       <c r="J66" s="3">
+        <v>13709900</v>
+      </c>
+      <c r="K66" s="3">
         <v>14354100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15579900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4736600</v>
+        <v>4130900</v>
       </c>
       <c r="E72" s="3">
-        <v>5771400</v>
+        <v>4844200</v>
       </c>
       <c r="F72" s="3">
-        <v>9685700</v>
+        <v>5902500</v>
       </c>
       <c r="G72" s="3">
-        <v>10940500</v>
+        <v>9905600</v>
       </c>
       <c r="H72" s="3">
-        <v>10709900</v>
+        <v>11188900</v>
       </c>
       <c r="I72" s="3">
-        <v>10283600</v>
+        <v>10953100</v>
       </c>
       <c r="J72" s="3">
+        <v>10517100</v>
+      </c>
+      <c r="K72" s="3">
         <v>9938400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11579800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9039600</v>
+        <v>8775200</v>
       </c>
       <c r="E76" s="3">
-        <v>10074500</v>
+        <v>9244900</v>
       </c>
       <c r="F76" s="3">
-        <v>13987100</v>
+        <v>10303200</v>
       </c>
       <c r="G76" s="3">
-        <v>15228300</v>
+        <v>14304700</v>
       </c>
       <c r="H76" s="3">
-        <v>14997700</v>
+        <v>15574100</v>
       </c>
       <c r="I76" s="3">
-        <v>14571400</v>
+        <v>15338300</v>
       </c>
       <c r="J76" s="3">
+        <v>14902300</v>
+      </c>
+      <c r="K76" s="3">
         <v>14226300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16245300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-678700</v>
+        <v>233700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3385600</v>
+        <v>-686400</v>
       </c>
       <c r="F81" s="3">
-        <v>86600</v>
+        <v>-3424400</v>
       </c>
       <c r="G81" s="3">
-        <v>1408100</v>
+        <v>87600</v>
       </c>
       <c r="H81" s="3">
-        <v>1202300</v>
+        <v>1424300</v>
       </c>
       <c r="I81" s="3">
-        <v>1247700</v>
+        <v>1216000</v>
       </c>
       <c r="J81" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="K81" s="3">
         <v>600200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1384300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>750500</v>
+        <v>903900</v>
       </c>
       <c r="E83" s="3">
-        <v>878300</v>
+        <v>759100</v>
       </c>
       <c r="F83" s="3">
-        <v>923500</v>
+        <v>888400</v>
       </c>
       <c r="G83" s="3">
-        <v>1062500</v>
+        <v>934100</v>
       </c>
       <c r="H83" s="3">
-        <v>1031700</v>
+        <v>1074600</v>
       </c>
       <c r="I83" s="3">
-        <v>1055400</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1043500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1067500</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1025800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>970900</v>
+        <v>1773700</v>
       </c>
       <c r="E89" s="3">
-        <v>997800</v>
+        <v>982000</v>
       </c>
       <c r="F89" s="3">
-        <v>1456100</v>
+        <v>1009300</v>
       </c>
       <c r="G89" s="3">
-        <v>2140600</v>
+        <v>1472700</v>
       </c>
       <c r="H89" s="3">
-        <v>1943700</v>
+        <v>2165200</v>
       </c>
       <c r="I89" s="3">
-        <v>1807200</v>
+        <v>1966000</v>
       </c>
       <c r="J89" s="3">
+        <v>1827900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2289700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1133200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-413100</v>
+        <v>-538000</v>
       </c>
       <c r="E91" s="3">
-        <v>-402900</v>
+        <v>-417900</v>
       </c>
       <c r="F91" s="3">
-        <v>-637000</v>
+        <v>-407600</v>
       </c>
       <c r="G91" s="3">
-        <v>-866600</v>
+        <v>-644300</v>
       </c>
       <c r="H91" s="3">
-        <v>-553100</v>
+        <v>-876500</v>
       </c>
       <c r="I91" s="3">
-        <v>-468000</v>
+        <v>-559400</v>
       </c>
       <c r="J91" s="3">
+        <v>-473400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-564200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-566900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-429400</v>
+        <v>-372200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1670200</v>
+        <v>-434400</v>
       </c>
       <c r="F94" s="3">
-        <v>-860900</v>
+        <v>-1689300</v>
       </c>
       <c r="G94" s="3">
-        <v>-830100</v>
+        <v>-870700</v>
       </c>
       <c r="H94" s="3">
-        <v>-780800</v>
+        <v>-839600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1154600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-789800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1167800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>515500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-356000</v>
+        <v>-467800</v>
       </c>
       <c r="E96" s="3">
-        <v>-355900</v>
+        <v>-360000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1274500</v>
+        <v>-359900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1178300</v>
+        <v>-1289100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1023300</v>
+        <v>-1191700</v>
       </c>
       <c r="I96" s="3">
-        <v>-951300</v>
+        <v>-1035000</v>
       </c>
       <c r="J96" s="3">
+        <v>-962200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-897100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-846300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-423700</v>
+        <v>-725300</v>
       </c>
       <c r="E100" s="3">
-        <v>569300</v>
+        <v>-428600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1220300</v>
+        <v>575800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1113100</v>
+        <v>-1234300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1894100</v>
+        <v>-1125800</v>
       </c>
       <c r="I100" s="3">
-        <v>-988200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1915800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-999500</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-737200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>142600</v>
+        <v>27100</v>
       </c>
       <c r="E101" s="3">
-        <v>-9500</v>
+        <v>144200</v>
       </c>
       <c r="F101" s="3">
-        <v>286500</v>
+        <v>-9600</v>
       </c>
       <c r="G101" s="3">
-        <v>-276900</v>
+        <v>289800</v>
       </c>
       <c r="H101" s="3">
-        <v>616200</v>
+        <v>-280000</v>
       </c>
       <c r="I101" s="3">
-        <v>66600</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>623300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>260300</v>
+        <v>703300</v>
       </c>
       <c r="E102" s="3">
-        <v>-112500</v>
+        <v>263300</v>
       </c>
       <c r="F102" s="3">
-        <v>-338600</v>
+        <v>-113700</v>
       </c>
       <c r="G102" s="3">
-        <v>-79400</v>
+        <v>-342500</v>
       </c>
       <c r="H102" s="3">
-        <v>-115100</v>
+        <v>-80300</v>
       </c>
       <c r="I102" s="3">
-        <v>-268900</v>
+        <v>-116400</v>
       </c>
       <c r="J102" s="3">
+        <v>-271900</v>
+      </c>
+      <c r="K102" s="3">
         <v>624200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>886800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23884900</v>
+        <v>26082100</v>
       </c>
       <c r="E8" s="3">
-        <v>22163300</v>
+        <v>24202100</v>
       </c>
       <c r="F8" s="3">
-        <v>21589300</v>
+        <v>23575300</v>
       </c>
       <c r="G8" s="3">
-        <v>23159600</v>
+        <v>25290100</v>
       </c>
       <c r="H8" s="3">
-        <v>25956200</v>
+        <v>28343900</v>
       </c>
       <c r="I8" s="3">
-        <v>23965600</v>
+        <v>26170200</v>
       </c>
       <c r="J8" s="3">
-        <v>23901800</v>
+        <v>26100500</v>
       </c>
       <c r="K8" s="3">
         <v>23673100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14932800</v>
+        <v>16306500</v>
       </c>
       <c r="E9" s="3">
-        <v>14369900</v>
+        <v>15691800</v>
       </c>
       <c r="F9" s="3">
-        <v>16000200</v>
+        <v>17472100</v>
       </c>
       <c r="G9" s="3">
-        <v>15934800</v>
+        <v>17400700</v>
       </c>
       <c r="H9" s="3">
-        <v>16695900</v>
+        <v>18231800</v>
       </c>
       <c r="I9" s="3">
-        <v>15192700</v>
+        <v>16590300</v>
       </c>
       <c r="J9" s="3">
-        <v>15594300</v>
+        <v>17028900</v>
       </c>
       <c r="K9" s="3">
         <v>16181800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8952100</v>
+        <v>9775600</v>
       </c>
       <c r="E10" s="3">
-        <v>7793400</v>
+        <v>8510300</v>
       </c>
       <c r="F10" s="3">
-        <v>5589100</v>
+        <v>6103300</v>
       </c>
       <c r="G10" s="3">
-        <v>7224800</v>
+        <v>7889400</v>
       </c>
       <c r="H10" s="3">
-        <v>9260300</v>
+        <v>10112200</v>
       </c>
       <c r="I10" s="3">
-        <v>8772900</v>
+        <v>9579900</v>
       </c>
       <c r="J10" s="3">
-        <v>8307400</v>
+        <v>9071600</v>
       </c>
       <c r="K10" s="3">
         <v>7491300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4044100</v>
+        <v>4416100</v>
       </c>
       <c r="E12" s="3">
-        <v>3954200</v>
+        <v>4317900</v>
       </c>
       <c r="F12" s="3">
-        <v>3740200</v>
+        <v>4084200</v>
       </c>
       <c r="G12" s="3">
-        <v>3037100</v>
+        <v>3316500</v>
       </c>
       <c r="H12" s="3">
-        <v>3450400</v>
+        <v>3767800</v>
       </c>
       <c r="I12" s="3">
-        <v>3784700</v>
+        <v>4132900</v>
       </c>
       <c r="J12" s="3">
-        <v>3297000</v>
+        <v>3600300</v>
       </c>
       <c r="K12" s="3">
         <v>3323800</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>187600</v>
+        <v>204900</v>
       </c>
       <c r="E14" s="3">
-        <v>889100</v>
+        <v>970900</v>
       </c>
       <c r="F14" s="3">
-        <v>2729800</v>
+        <v>2980900</v>
       </c>
       <c r="G14" s="3">
-        <v>786700</v>
+        <v>859100</v>
       </c>
       <c r="H14" s="3">
-        <v>529800</v>
+        <v>578500</v>
       </c>
       <c r="I14" s="3">
-        <v>153100</v>
+        <v>167100</v>
       </c>
       <c r="J14" s="3">
-        <v>468100</v>
+        <v>511200</v>
       </c>
       <c r="K14" s="3">
         <v>159400</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22774500</v>
+        <v>24869500</v>
       </c>
       <c r="E17" s="3">
-        <v>22032700</v>
+        <v>24059500</v>
       </c>
       <c r="F17" s="3">
-        <v>25241500</v>
+        <v>27563500</v>
       </c>
       <c r="G17" s="3">
-        <v>22614400</v>
+        <v>24694700</v>
       </c>
       <c r="H17" s="3">
-        <v>23664100</v>
+        <v>25841000</v>
       </c>
       <c r="I17" s="3">
-        <v>22198800</v>
+        <v>24240900</v>
       </c>
       <c r="J17" s="3">
-        <v>22025900</v>
+        <v>24052100</v>
       </c>
       <c r="K17" s="3">
         <v>22586200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1110500</v>
+        <v>1212600</v>
       </c>
       <c r="E18" s="3">
-        <v>130600</v>
+        <v>142600</v>
       </c>
       <c r="F18" s="3">
-        <v>-3652200</v>
+        <v>-3988100</v>
       </c>
       <c r="G18" s="3">
-        <v>545300</v>
+        <v>595400</v>
       </c>
       <c r="H18" s="3">
-        <v>2292100</v>
+        <v>2503000</v>
       </c>
       <c r="I18" s="3">
-        <v>1766800</v>
+        <v>1929300</v>
       </c>
       <c r="J18" s="3">
-        <v>1875900</v>
+        <v>2048400</v>
       </c>
       <c r="K18" s="3">
         <v>1086900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14800</v>
+        <v>16200</v>
       </c>
       <c r="E20" s="3">
-        <v>-179500</v>
+        <v>-196100</v>
       </c>
       <c r="F20" s="3">
-        <v>-19800</v>
+        <v>-21600</v>
       </c>
       <c r="G20" s="3">
-        <v>-98600</v>
+        <v>-107700</v>
       </c>
       <c r="H20" s="3">
-        <v>-53100</v>
+        <v>-58000</v>
       </c>
       <c r="I20" s="3">
-        <v>39900</v>
+        <v>43600</v>
       </c>
       <c r="J20" s="3">
-        <v>69900</v>
+        <v>76300</v>
       </c>
       <c r="K20" s="3">
         <v>151500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2021800</v>
+        <v>2211200</v>
       </c>
       <c r="E21" s="3">
-        <v>703800</v>
+        <v>771400</v>
       </c>
       <c r="F21" s="3">
-        <v>-2790900</v>
+        <v>-3044300</v>
       </c>
       <c r="G21" s="3">
-        <v>1373000</v>
+        <v>1502900</v>
       </c>
       <c r="H21" s="3">
-        <v>3304800</v>
+        <v>3612900</v>
       </c>
       <c r="I21" s="3">
-        <v>2841600</v>
+        <v>3107000</v>
       </c>
       <c r="J21" s="3">
-        <v>3004400</v>
+        <v>3284900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>91</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>204200</v>
+        <v>223000</v>
       </c>
       <c r="E22" s="3">
-        <v>104800</v>
+        <v>114400</v>
       </c>
       <c r="F22" s="3">
-        <v>108000</v>
+        <v>117900</v>
       </c>
       <c r="G22" s="3">
-        <v>142400</v>
+        <v>155500</v>
       </c>
       <c r="H22" s="3">
-        <v>150100</v>
+        <v>163900</v>
       </c>
       <c r="I22" s="3">
-        <v>144600</v>
+        <v>158000</v>
       </c>
       <c r="J22" s="3">
-        <v>148400</v>
+        <v>162100</v>
       </c>
       <c r="K22" s="3">
         <v>180200</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>921100</v>
+        <v>1005800</v>
       </c>
       <c r="E23" s="3">
-        <v>-153800</v>
+        <v>-167900</v>
       </c>
       <c r="F23" s="3">
-        <v>-3779900</v>
+        <v>-4127600</v>
       </c>
       <c r="G23" s="3">
-        <v>304200</v>
+        <v>332200</v>
       </c>
       <c r="H23" s="3">
-        <v>2088900</v>
+        <v>2281100</v>
       </c>
       <c r="I23" s="3">
-        <v>1662100</v>
+        <v>1814900</v>
       </c>
       <c r="J23" s="3">
-        <v>1797300</v>
+        <v>1962700</v>
       </c>
       <c r="K23" s="3">
         <v>1058200</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>727600</v>
+        <v>794600</v>
       </c>
       <c r="E24" s="3">
-        <v>505900</v>
+        <v>552500</v>
       </c>
       <c r="F24" s="3">
-        <v>-370500</v>
+        <v>-404600</v>
       </c>
       <c r="G24" s="3">
-        <v>197800</v>
+        <v>216000</v>
       </c>
       <c r="H24" s="3">
-        <v>651600</v>
+        <v>711600</v>
       </c>
       <c r="I24" s="3">
-        <v>490700</v>
+        <v>535800</v>
       </c>
       <c r="J24" s="3">
-        <v>517600</v>
+        <v>565200</v>
       </c>
       <c r="K24" s="3">
         <v>441100</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>193400</v>
+        <v>211200</v>
       </c>
       <c r="E26" s="3">
-        <v>-659700</v>
+        <v>-720400</v>
       </c>
       <c r="F26" s="3">
-        <v>-3409400</v>
+        <v>-3723000</v>
       </c>
       <c r="G26" s="3">
-        <v>106400</v>
+        <v>116200</v>
       </c>
       <c r="H26" s="3">
-        <v>1437300</v>
+        <v>1569500</v>
       </c>
       <c r="I26" s="3">
-        <v>1171400</v>
+        <v>1279100</v>
       </c>
       <c r="J26" s="3">
-        <v>1279700</v>
+        <v>1397500</v>
       </c>
       <c r="K26" s="3">
         <v>617100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>233700</v>
+        <v>255200</v>
       </c>
       <c r="E27" s="3">
-        <v>-686400</v>
+        <v>-749600</v>
       </c>
       <c r="F27" s="3">
-        <v>-3424400</v>
+        <v>-3739400</v>
       </c>
       <c r="G27" s="3">
-        <v>87600</v>
+        <v>95600</v>
       </c>
       <c r="H27" s="3">
-        <v>1424300</v>
+        <v>1555300</v>
       </c>
       <c r="I27" s="3">
-        <v>1216000</v>
+        <v>1327900</v>
       </c>
       <c r="J27" s="3">
-        <v>1262000</v>
+        <v>1378100</v>
       </c>
       <c r="K27" s="3">
         <v>600200</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-14800</v>
+        <v>-16200</v>
       </c>
       <c r="E32" s="3">
-        <v>179500</v>
+        <v>196100</v>
       </c>
       <c r="F32" s="3">
-        <v>19800</v>
+        <v>21600</v>
       </c>
       <c r="G32" s="3">
-        <v>98600</v>
+        <v>107700</v>
       </c>
       <c r="H32" s="3">
-        <v>53100</v>
+        <v>58000</v>
       </c>
       <c r="I32" s="3">
-        <v>-39900</v>
+        <v>-43600</v>
       </c>
       <c r="J32" s="3">
-        <v>-69900</v>
+        <v>-76300</v>
       </c>
       <c r="K32" s="3">
         <v>-151500</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>233700</v>
+        <v>255200</v>
       </c>
       <c r="E33" s="3">
-        <v>-686400</v>
+        <v>-749600</v>
       </c>
       <c r="F33" s="3">
-        <v>-3424400</v>
+        <v>-3739400</v>
       </c>
       <c r="G33" s="3">
-        <v>87600</v>
+        <v>95600</v>
       </c>
       <c r="H33" s="3">
-        <v>1424300</v>
+        <v>1555300</v>
       </c>
       <c r="I33" s="3">
-        <v>1216000</v>
+        <v>1327900</v>
       </c>
       <c r="J33" s="3">
-        <v>1262000</v>
+        <v>1378100</v>
       </c>
       <c r="K33" s="3">
         <v>600200</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>233700</v>
+        <v>255200</v>
       </c>
       <c r="E35" s="3">
-        <v>-686400</v>
+        <v>-749600</v>
       </c>
       <c r="F35" s="3">
-        <v>-3424400</v>
+        <v>-3739400</v>
       </c>
       <c r="G35" s="3">
-        <v>87600</v>
+        <v>95600</v>
       </c>
       <c r="H35" s="3">
-        <v>1424300</v>
+        <v>1555300</v>
       </c>
       <c r="I35" s="3">
-        <v>1216000</v>
+        <v>1327900</v>
       </c>
       <c r="J35" s="3">
-        <v>1262000</v>
+        <v>1378100</v>
       </c>
       <c r="K35" s="3">
         <v>600200</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1842600</v>
+        <v>1990000</v>
       </c>
       <c r="E41" s="3">
-        <v>2019300</v>
+        <v>2180800</v>
       </c>
       <c r="F41" s="3">
-        <v>1956100</v>
+        <v>2112500</v>
       </c>
       <c r="G41" s="3">
-        <v>6647700</v>
+        <v>7179300</v>
       </c>
       <c r="H41" s="3">
-        <v>2384200</v>
+        <v>2574900</v>
       </c>
       <c r="I41" s="3">
-        <v>3151500</v>
+        <v>3403500</v>
       </c>
       <c r="J41" s="3">
-        <v>3041800</v>
+        <v>3285100</v>
       </c>
       <c r="K41" s="3">
         <v>4643800</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3667200</v>
+        <v>3960500</v>
       </c>
       <c r="E42" s="3">
-        <v>2765200</v>
+        <v>2986400</v>
       </c>
       <c r="F42" s="3">
-        <v>2571600</v>
+        <v>2777200</v>
       </c>
       <c r="G42" s="3">
-        <v>2626900</v>
+        <v>2836900</v>
       </c>
       <c r="H42" s="3">
-        <v>4659600</v>
+        <v>5032300</v>
       </c>
       <c r="I42" s="3">
-        <v>4518300</v>
+        <v>4879600</v>
       </c>
       <c r="J42" s="3">
-        <v>5152000</v>
+        <v>5564000</v>
       </c>
       <c r="K42" s="3">
         <v>3328500</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7359600</v>
+        <v>7948200</v>
       </c>
       <c r="E43" s="3">
-        <v>8941600</v>
+        <v>9656700</v>
       </c>
       <c r="F43" s="3">
-        <v>15490700</v>
+        <v>16729500</v>
       </c>
       <c r="G43" s="3">
-        <v>18998600</v>
+        <v>20517900</v>
       </c>
       <c r="H43" s="3">
-        <v>9403600</v>
+        <v>10155600</v>
       </c>
       <c r="I43" s="3">
-        <v>9906300</v>
+        <v>10698500</v>
       </c>
       <c r="J43" s="3">
-        <v>8918000</v>
+        <v>9631200</v>
       </c>
       <c r="K43" s="3">
         <v>8527800</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3280400</v>
+        <v>3542800</v>
       </c>
       <c r="E44" s="3">
-        <v>3109500</v>
+        <v>3358200</v>
       </c>
       <c r="F44" s="3">
-        <v>2715400</v>
+        <v>2932500</v>
       </c>
       <c r="G44" s="3">
-        <v>6582000</v>
+        <v>7108400</v>
       </c>
       <c r="H44" s="3">
-        <v>3022500</v>
+        <v>3264200</v>
       </c>
       <c r="I44" s="3">
-        <v>2994700</v>
+        <v>3234200</v>
       </c>
       <c r="J44" s="3">
-        <v>2419100</v>
+        <v>2612500</v>
       </c>
       <c r="K44" s="3">
         <v>2993400</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>209600</v>
+        <v>226400</v>
       </c>
       <c r="E45" s="3">
-        <v>294700</v>
+        <v>318300</v>
       </c>
       <c r="F45" s="3">
-        <v>434800</v>
+        <v>469600</v>
       </c>
       <c r="G45" s="3">
-        <v>743300</v>
+        <v>802700</v>
       </c>
       <c r="H45" s="3">
-        <v>674700</v>
+        <v>728700</v>
       </c>
       <c r="I45" s="3">
-        <v>877300</v>
+        <v>947500</v>
       </c>
       <c r="J45" s="3">
-        <v>759400</v>
+        <v>820200</v>
       </c>
       <c r="K45" s="3">
         <v>591500</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16359500</v>
+        <v>17667800</v>
       </c>
       <c r="E46" s="3">
-        <v>17130400</v>
+        <v>18500400</v>
       </c>
       <c r="F46" s="3">
-        <v>16307300</v>
+        <v>17611400</v>
       </c>
       <c r="G46" s="3">
-        <v>18611100</v>
+        <v>20099400</v>
       </c>
       <c r="H46" s="3">
-        <v>20144600</v>
+        <v>21755600</v>
       </c>
       <c r="I46" s="3">
-        <v>21448200</v>
+        <v>23163400</v>
       </c>
       <c r="J46" s="3">
-        <v>20290300</v>
+        <v>21913000</v>
       </c>
       <c r="K46" s="3">
         <v>20084900</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3319100</v>
+        <v>3584500</v>
       </c>
       <c r="E47" s="3">
-        <v>3597600</v>
+        <v>3885300</v>
       </c>
       <c r="F47" s="3">
-        <v>3719800</v>
+        <v>4017300</v>
       </c>
       <c r="G47" s="3">
-        <v>2184600</v>
+        <v>2359300</v>
       </c>
       <c r="H47" s="3">
-        <v>999800</v>
+        <v>1079700</v>
       </c>
       <c r="I47" s="3">
-        <v>1133600</v>
+        <v>1224200</v>
       </c>
       <c r="J47" s="3">
-        <v>1003200</v>
+        <v>1083400</v>
       </c>
       <c r="K47" s="3">
         <v>881500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2374200</v>
+        <v>2564100</v>
       </c>
       <c r="E48" s="3">
-        <v>1365700</v>
+        <v>1474900</v>
       </c>
       <c r="F48" s="3">
-        <v>1366600</v>
+        <v>1475900</v>
       </c>
       <c r="G48" s="3">
-        <v>3557300</v>
+        <v>3841800</v>
       </c>
       <c r="H48" s="3">
-        <v>1690100</v>
+        <v>1825300</v>
       </c>
       <c r="I48" s="3">
-        <v>1418000</v>
+        <v>1531400</v>
       </c>
       <c r="J48" s="3">
-        <v>1215200</v>
+        <v>1312400</v>
       </c>
       <c r="K48" s="3">
         <v>1194500</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4010400</v>
+        <v>4331100</v>
       </c>
       <c r="E49" s="3">
-        <v>4012000</v>
+        <v>4332900</v>
       </c>
       <c r="F49" s="3">
-        <v>3885500</v>
+        <v>4196300</v>
       </c>
       <c r="G49" s="3">
-        <v>12586900</v>
+        <v>13593400</v>
       </c>
       <c r="H49" s="3">
-        <v>5941200</v>
+        <v>6416300</v>
       </c>
       <c r="I49" s="3">
-        <v>5785800</v>
+        <v>6248500</v>
       </c>
       <c r="J49" s="3">
-        <v>5070800</v>
+        <v>5476300</v>
       </c>
       <c r="K49" s="3">
         <v>5138900</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3313500</v>
+        <v>3578500</v>
       </c>
       <c r="E52" s="3">
-        <v>2460800</v>
+        <v>2657600</v>
       </c>
       <c r="F52" s="3">
-        <v>2343600</v>
+        <v>2531000</v>
       </c>
       <c r="G52" s="3">
-        <v>1806700</v>
+        <v>1951200</v>
       </c>
       <c r="H52" s="3">
-        <v>1449300</v>
+        <v>1565200</v>
       </c>
       <c r="I52" s="3">
-        <v>1416700</v>
+        <v>1530000</v>
       </c>
       <c r="J52" s="3">
-        <v>1032700</v>
+        <v>1115300</v>
       </c>
       <c r="K52" s="3">
         <v>1280500</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29376700</v>
+        <v>31726000</v>
       </c>
       <c r="E54" s="3">
-        <v>28566600</v>
+        <v>30851100</v>
       </c>
       <c r="F54" s="3">
-        <v>27622900</v>
+        <v>29831900</v>
       </c>
       <c r="G54" s="3">
-        <v>30202300</v>
+        <v>32617600</v>
       </c>
       <c r="H54" s="3">
-        <v>30224900</v>
+        <v>32642000</v>
       </c>
       <c r="I54" s="3">
-        <v>31202300</v>
+        <v>33697500</v>
       </c>
       <c r="J54" s="3">
-        <v>28612200</v>
+        <v>30900300</v>
       </c>
       <c r="K54" s="3">
         <v>28580300</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3231500</v>
+        <v>3490000</v>
       </c>
       <c r="E57" s="3">
-        <v>3176300</v>
+        <v>3430300</v>
       </c>
       <c r="F57" s="3">
-        <v>2797600</v>
+        <v>3021300</v>
       </c>
       <c r="G57" s="3">
-        <v>5438000</v>
+        <v>5872900</v>
       </c>
       <c r="H57" s="3">
-        <v>2379700</v>
+        <v>2570000</v>
       </c>
       <c r="I57" s="3">
-        <v>2601200</v>
+        <v>2809300</v>
       </c>
       <c r="J57" s="3">
-        <v>2179200</v>
+        <v>2353400</v>
       </c>
       <c r="K57" s="3">
         <v>8400</v>
@@ -2177,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1246400</v>
+        <v>1346000</v>
       </c>
       <c r="E58" s="3">
-        <v>239700</v>
+        <v>258900</v>
       </c>
       <c r="F58" s="3">
-        <v>270500</v>
+        <v>292100</v>
       </c>
       <c r="G58" s="3">
-        <v>1707700</v>
+        <v>1844200</v>
       </c>
       <c r="H58" s="3">
-        <v>252500</v>
+        <v>272700</v>
       </c>
       <c r="I58" s="3">
-        <v>242400</v>
+        <v>261800</v>
       </c>
       <c r="J58" s="3">
-        <v>785300</v>
+        <v>848100</v>
       </c>
       <c r="K58" s="3">
         <v>495600</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>7938800</v>
+        <v>8573700</v>
       </c>
       <c r="E59" s="3">
-        <v>8373100</v>
+        <v>9042700</v>
       </c>
       <c r="F59" s="3">
-        <v>10387600</v>
+        <v>11218300</v>
       </c>
       <c r="G59" s="3">
-        <v>13066100</v>
+        <v>14111000</v>
       </c>
       <c r="H59" s="3">
-        <v>6624500</v>
+        <v>7154300</v>
       </c>
       <c r="I59" s="3">
-        <v>7872900</v>
+        <v>8502500</v>
       </c>
       <c r="J59" s="3">
-        <v>6744500</v>
+        <v>7283900</v>
       </c>
       <c r="K59" s="3">
         <v>9619100</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>12416700</v>
+        <v>13409700</v>
       </c>
       <c r="E60" s="3">
-        <v>11789000</v>
+        <v>12731800</v>
       </c>
       <c r="F60" s="3">
-        <v>10578900</v>
+        <v>11424900</v>
       </c>
       <c r="G60" s="3">
-        <v>10714400</v>
+        <v>11571200</v>
       </c>
       <c r="H60" s="3">
-        <v>9256800</v>
+        <v>9997100</v>
       </c>
       <c r="I60" s="3">
-        <v>10716600</v>
+        <v>11573600</v>
       </c>
       <c r="J60" s="3">
-        <v>9709000</v>
+        <v>10485400</v>
       </c>
       <c r="K60" s="3">
         <v>10123200</v>
@@ -2276,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3810700</v>
+        <v>4115500</v>
       </c>
       <c r="E61" s="3">
-        <v>3281200</v>
+        <v>3543600</v>
       </c>
       <c r="F61" s="3">
-        <v>3241800</v>
+        <v>3501100</v>
       </c>
       <c r="G61" s="3">
-        <v>1982600</v>
+        <v>2141200</v>
       </c>
       <c r="H61" s="3">
-        <v>2417500</v>
+        <v>2610800</v>
       </c>
       <c r="I61" s="3">
-        <v>2323900</v>
+        <v>2509800</v>
       </c>
       <c r="J61" s="3">
-        <v>2345500</v>
+        <v>2533100</v>
       </c>
       <c r="K61" s="3">
         <v>2483700</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4446500</v>
+        <v>4802100</v>
       </c>
       <c r="E62" s="3">
-        <v>4167300</v>
+        <v>4500600</v>
       </c>
       <c r="F62" s="3">
-        <v>3431300</v>
+        <v>3705700</v>
       </c>
       <c r="G62" s="3">
-        <v>3128900</v>
+        <v>3379100</v>
       </c>
       <c r="H62" s="3">
-        <v>2887200</v>
+        <v>3118000</v>
       </c>
       <c r="I62" s="3">
-        <v>2716900</v>
+        <v>2934100</v>
       </c>
       <c r="J62" s="3">
-        <v>1504600</v>
+        <v>1625000</v>
       </c>
       <c r="K62" s="3">
         <v>1580900</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20601600</v>
+        <v>22249100</v>
       </c>
       <c r="E66" s="3">
-        <v>19321700</v>
+        <v>20866900</v>
       </c>
       <c r="F66" s="3">
-        <v>17319600</v>
+        <v>18704700</v>
       </c>
       <c r="G66" s="3">
-        <v>15897600</v>
+        <v>17168900</v>
       </c>
       <c r="H66" s="3">
-        <v>14650800</v>
+        <v>15822400</v>
       </c>
       <c r="I66" s="3">
-        <v>15864000</v>
+        <v>17132600</v>
       </c>
       <c r="J66" s="3">
-        <v>13709900</v>
+        <v>14806300</v>
       </c>
       <c r="K66" s="3">
         <v>14354100</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4130900</v>
+        <v>4461200</v>
       </c>
       <c r="E72" s="3">
-        <v>4844200</v>
+        <v>5231600</v>
       </c>
       <c r="F72" s="3">
-        <v>5902500</v>
+        <v>6374500</v>
       </c>
       <c r="G72" s="3">
-        <v>9905600</v>
+        <v>10697700</v>
       </c>
       <c r="H72" s="3">
-        <v>11188900</v>
+        <v>12083700</v>
       </c>
       <c r="I72" s="3">
-        <v>10953100</v>
+        <v>11829000</v>
       </c>
       <c r="J72" s="3">
-        <v>10517100</v>
+        <v>11358100</v>
       </c>
       <c r="K72" s="3">
         <v>9938400</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8775200</v>
+        <v>9476900</v>
       </c>
       <c r="E76" s="3">
-        <v>9244900</v>
+        <v>9984200</v>
       </c>
       <c r="F76" s="3">
-        <v>10303200</v>
+        <v>11127200</v>
       </c>
       <c r="G76" s="3">
-        <v>14304700</v>
+        <v>15448700</v>
       </c>
       <c r="H76" s="3">
-        <v>15574100</v>
+        <v>16819600</v>
       </c>
       <c r="I76" s="3">
-        <v>15338300</v>
+        <v>16564900</v>
       </c>
       <c r="J76" s="3">
-        <v>14902300</v>
+        <v>16094000</v>
       </c>
       <c r="K76" s="3">
         <v>14226300</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>233700</v>
+        <v>255200</v>
       </c>
       <c r="E81" s="3">
-        <v>-686400</v>
+        <v>-749600</v>
       </c>
       <c r="F81" s="3">
-        <v>-3424400</v>
+        <v>-3739400</v>
       </c>
       <c r="G81" s="3">
-        <v>87600</v>
+        <v>95600</v>
       </c>
       <c r="H81" s="3">
-        <v>1424300</v>
+        <v>1555300</v>
       </c>
       <c r="I81" s="3">
-        <v>1216000</v>
+        <v>1327900</v>
       </c>
       <c r="J81" s="3">
-        <v>1262000</v>
+        <v>1378100</v>
       </c>
       <c r="K81" s="3">
         <v>600200</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>903900</v>
+        <v>987100</v>
       </c>
       <c r="E83" s="3">
-        <v>759100</v>
+        <v>828900</v>
       </c>
       <c r="F83" s="3">
-        <v>888400</v>
+        <v>970100</v>
       </c>
       <c r="G83" s="3">
-        <v>934100</v>
+        <v>1020000</v>
       </c>
       <c r="H83" s="3">
-        <v>1074600</v>
+        <v>1173500</v>
       </c>
       <c r="I83" s="3">
-        <v>1043500</v>
+        <v>1139500</v>
       </c>
       <c r="J83" s="3">
-        <v>1067500</v>
+        <v>1165700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>91</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1773700</v>
+        <v>1936900</v>
       </c>
       <c r="E89" s="3">
-        <v>982000</v>
+        <v>1072400</v>
       </c>
       <c r="F89" s="3">
-        <v>1009300</v>
+        <v>1102100</v>
       </c>
       <c r="G89" s="3">
-        <v>1472700</v>
+        <v>1608200</v>
       </c>
       <c r="H89" s="3">
-        <v>2165200</v>
+        <v>2364300</v>
       </c>
       <c r="I89" s="3">
-        <v>1966000</v>
+        <v>2146800</v>
       </c>
       <c r="J89" s="3">
-        <v>1827900</v>
+        <v>1996100</v>
       </c>
       <c r="K89" s="3">
         <v>2289700</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-538000</v>
+        <v>-587500</v>
       </c>
       <c r="E91" s="3">
-        <v>-417900</v>
+        <v>-456300</v>
       </c>
       <c r="F91" s="3">
-        <v>-407600</v>
+        <v>-445000</v>
       </c>
       <c r="G91" s="3">
-        <v>-644300</v>
+        <v>-703500</v>
       </c>
       <c r="H91" s="3">
-        <v>-876500</v>
+        <v>-957100</v>
       </c>
       <c r="I91" s="3">
-        <v>-559400</v>
+        <v>-610900</v>
       </c>
       <c r="J91" s="3">
-        <v>-473400</v>
+        <v>-516900</v>
       </c>
       <c r="K91" s="3">
         <v>-564200</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-372200</v>
+        <v>-406500</v>
       </c>
       <c r="E94" s="3">
-        <v>-434400</v>
+        <v>-474300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1689300</v>
+        <v>-1844700</v>
       </c>
       <c r="G94" s="3">
-        <v>-870700</v>
+        <v>-950800</v>
       </c>
       <c r="H94" s="3">
-        <v>-839600</v>
+        <v>-916800</v>
       </c>
       <c r="I94" s="3">
-        <v>-789800</v>
+        <v>-862400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1167800</v>
+        <v>-1275200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>91</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-467800</v>
+        <v>-510800</v>
       </c>
       <c r="E96" s="3">
-        <v>-360000</v>
+        <v>-393200</v>
       </c>
       <c r="F96" s="3">
-        <v>-359900</v>
+        <v>-393000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1289100</v>
+        <v>-1407700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1191700</v>
+        <v>-1301400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1035000</v>
+        <v>-1130200</v>
       </c>
       <c r="J96" s="3">
-        <v>-962200</v>
+        <v>-1050700</v>
       </c>
       <c r="K96" s="3">
         <v>-897100</v>
@@ -3430,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-725300</v>
+        <v>-792100</v>
       </c>
       <c r="E100" s="3">
-        <v>-428600</v>
+        <v>-468000</v>
       </c>
       <c r="F100" s="3">
-        <v>575800</v>
+        <v>628800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1234300</v>
+        <v>-1347900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1125800</v>
+        <v>-1229400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1915800</v>
+        <v>-2092000</v>
       </c>
       <c r="J100" s="3">
-        <v>-999500</v>
+        <v>-1091400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>91</v>
@@ -3463,25 +3463,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>27100</v>
+        <v>29600</v>
       </c>
       <c r="E101" s="3">
-        <v>144200</v>
+        <v>157500</v>
       </c>
       <c r="F101" s="3">
-        <v>-9600</v>
+        <v>-10400</v>
       </c>
       <c r="G101" s="3">
-        <v>289800</v>
+        <v>316500</v>
       </c>
       <c r="H101" s="3">
-        <v>-280000</v>
+        <v>-305800</v>
       </c>
       <c r="I101" s="3">
-        <v>623300</v>
+        <v>680600</v>
       </c>
       <c r="J101" s="3">
-        <v>67400</v>
+        <v>73600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>91</v>
@@ -3496,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>703300</v>
+        <v>767900</v>
       </c>
       <c r="E102" s="3">
-        <v>263300</v>
+        <v>287500</v>
       </c>
       <c r="F102" s="3">
-        <v>-113700</v>
+        <v>-124200</v>
       </c>
       <c r="G102" s="3">
-        <v>-342500</v>
+        <v>-374000</v>
       </c>
       <c r="H102" s="3">
-        <v>-80300</v>
+        <v>-87700</v>
       </c>
       <c r="I102" s="3">
-        <v>-116400</v>
+        <v>-127100</v>
       </c>
       <c r="J102" s="3">
-        <v>-271900</v>
+        <v>-297000</v>
       </c>
       <c r="K102" s="3">
         <v>624200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26082100</v>
+        <v>26757000</v>
       </c>
       <c r="E8" s="3">
-        <v>24202100</v>
+        <v>24828300</v>
       </c>
       <c r="F8" s="3">
-        <v>23575300</v>
+        <v>24185300</v>
       </c>
       <c r="G8" s="3">
-        <v>25290100</v>
+        <v>25944400</v>
       </c>
       <c r="H8" s="3">
-        <v>28343900</v>
+        <v>29077300</v>
       </c>
       <c r="I8" s="3">
-        <v>26170200</v>
+        <v>26847300</v>
       </c>
       <c r="J8" s="3">
-        <v>26100500</v>
+        <v>26775800</v>
       </c>
       <c r="K8" s="3">
         <v>23673100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16306500</v>
+        <v>16728400</v>
       </c>
       <c r="E9" s="3">
-        <v>15691800</v>
+        <v>16097800</v>
       </c>
       <c r="F9" s="3">
-        <v>17472100</v>
+        <v>17924100</v>
       </c>
       <c r="G9" s="3">
-        <v>17400700</v>
+        <v>17850900</v>
       </c>
       <c r="H9" s="3">
-        <v>18231800</v>
+        <v>18703500</v>
       </c>
       <c r="I9" s="3">
-        <v>16590300</v>
+        <v>17019500</v>
       </c>
       <c r="J9" s="3">
-        <v>17028900</v>
+        <v>17469500</v>
       </c>
       <c r="K9" s="3">
         <v>16181800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9775600</v>
+        <v>10028600</v>
       </c>
       <c r="E10" s="3">
-        <v>8510300</v>
+        <v>8730500</v>
       </c>
       <c r="F10" s="3">
-        <v>6103300</v>
+        <v>6261200</v>
       </c>
       <c r="G10" s="3">
-        <v>7889400</v>
+        <v>8093500</v>
       </c>
       <c r="H10" s="3">
-        <v>10112200</v>
+        <v>10373800</v>
       </c>
       <c r="I10" s="3">
-        <v>9579900</v>
+        <v>9827800</v>
       </c>
       <c r="J10" s="3">
-        <v>9071600</v>
+        <v>9306300</v>
       </c>
       <c r="K10" s="3">
         <v>7491300</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4416100</v>
+        <v>4530300</v>
       </c>
       <c r="E12" s="3">
-        <v>4317900</v>
+        <v>4429700</v>
       </c>
       <c r="F12" s="3">
-        <v>4084200</v>
+        <v>4189900</v>
       </c>
       <c r="G12" s="3">
-        <v>3316500</v>
+        <v>3402300</v>
       </c>
       <c r="H12" s="3">
-        <v>3767800</v>
+        <v>3865200</v>
       </c>
       <c r="I12" s="3">
-        <v>4132900</v>
+        <v>4239800</v>
       </c>
       <c r="J12" s="3">
-        <v>3600300</v>
+        <v>3693400</v>
       </c>
       <c r="K12" s="3">
         <v>3323800</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>204900</v>
+        <v>210200</v>
       </c>
       <c r="E14" s="3">
-        <v>970900</v>
+        <v>996000</v>
       </c>
       <c r="F14" s="3">
-        <v>2980900</v>
+        <v>3058000</v>
       </c>
       <c r="G14" s="3">
-        <v>859100</v>
+        <v>881300</v>
       </c>
       <c r="H14" s="3">
-        <v>578500</v>
+        <v>593500</v>
       </c>
       <c r="I14" s="3">
-        <v>167100</v>
+        <v>171500</v>
       </c>
       <c r="J14" s="3">
-        <v>511200</v>
+        <v>524400</v>
       </c>
       <c r="K14" s="3">
         <v>159400</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24869500</v>
+        <v>25512900</v>
       </c>
       <c r="E17" s="3">
-        <v>24059500</v>
+        <v>24682000</v>
       </c>
       <c r="F17" s="3">
-        <v>27563500</v>
+        <v>28276600</v>
       </c>
       <c r="G17" s="3">
-        <v>24694700</v>
+        <v>25333600</v>
       </c>
       <c r="H17" s="3">
-        <v>25841000</v>
+        <v>26509500</v>
       </c>
       <c r="I17" s="3">
-        <v>24240900</v>
+        <v>24868100</v>
       </c>
       <c r="J17" s="3">
-        <v>24052100</v>
+        <v>24674400</v>
       </c>
       <c r="K17" s="3">
         <v>22586200</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1212600</v>
+        <v>1244000</v>
       </c>
       <c r="E18" s="3">
-        <v>142600</v>
+        <v>146300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3988100</v>
+        <v>-4091300</v>
       </c>
       <c r="G18" s="3">
-        <v>595400</v>
+        <v>610800</v>
       </c>
       <c r="H18" s="3">
-        <v>2503000</v>
+        <v>2567800</v>
       </c>
       <c r="I18" s="3">
-        <v>1929300</v>
+        <v>1979200</v>
       </c>
       <c r="J18" s="3">
-        <v>2048400</v>
+        <v>2101400</v>
       </c>
       <c r="K18" s="3">
         <v>1086900</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="E20" s="3">
-        <v>-196100</v>
+        <v>-201100</v>
       </c>
       <c r="F20" s="3">
-        <v>-21600</v>
+        <v>-22100</v>
       </c>
       <c r="G20" s="3">
-        <v>-107700</v>
+        <v>-110500</v>
       </c>
       <c r="H20" s="3">
-        <v>-58000</v>
+        <v>-59500</v>
       </c>
       <c r="I20" s="3">
-        <v>43600</v>
+        <v>44700</v>
       </c>
       <c r="J20" s="3">
-        <v>76300</v>
+        <v>78300</v>
       </c>
       <c r="K20" s="3">
         <v>151500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2211200</v>
+        <v>2270100</v>
       </c>
       <c r="E21" s="3">
-        <v>771400</v>
+        <v>792900</v>
       </c>
       <c r="F21" s="3">
-        <v>-3044300</v>
+        <v>-3121300</v>
       </c>
       <c r="G21" s="3">
-        <v>1502900</v>
+        <v>1543600</v>
       </c>
       <c r="H21" s="3">
-        <v>3612900</v>
+        <v>3708500</v>
       </c>
       <c r="I21" s="3">
-        <v>3107000</v>
+        <v>3189400</v>
       </c>
       <c r="J21" s="3">
-        <v>3284900</v>
+        <v>3371900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>91</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>223000</v>
+        <v>228800</v>
       </c>
       <c r="E22" s="3">
-        <v>114400</v>
+        <v>117400</v>
       </c>
       <c r="F22" s="3">
-        <v>117900</v>
+        <v>120900</v>
       </c>
       <c r="G22" s="3">
-        <v>155500</v>
+        <v>159600</v>
       </c>
       <c r="H22" s="3">
-        <v>163900</v>
+        <v>168200</v>
       </c>
       <c r="I22" s="3">
-        <v>158000</v>
+        <v>162000</v>
       </c>
       <c r="J22" s="3">
-        <v>162100</v>
+        <v>166300</v>
       </c>
       <c r="K22" s="3">
         <v>180200</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1005800</v>
+        <v>1031800</v>
       </c>
       <c r="E23" s="3">
-        <v>-167900</v>
+        <v>-172300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4127600</v>
+        <v>-4234400</v>
       </c>
       <c r="G23" s="3">
-        <v>332200</v>
+        <v>340800</v>
       </c>
       <c r="H23" s="3">
-        <v>2281100</v>
+        <v>2340100</v>
       </c>
       <c r="I23" s="3">
-        <v>1814900</v>
+        <v>1861900</v>
       </c>
       <c r="J23" s="3">
-        <v>1962700</v>
+        <v>2013500</v>
       </c>
       <c r="K23" s="3">
         <v>1058200</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>794600</v>
+        <v>815100</v>
       </c>
       <c r="E24" s="3">
-        <v>552500</v>
+        <v>566800</v>
       </c>
       <c r="F24" s="3">
-        <v>-404600</v>
+        <v>-415100</v>
       </c>
       <c r="G24" s="3">
-        <v>216000</v>
+        <v>221600</v>
       </c>
       <c r="H24" s="3">
-        <v>711600</v>
+        <v>730000</v>
       </c>
       <c r="I24" s="3">
-        <v>535800</v>
+        <v>549700</v>
       </c>
       <c r="J24" s="3">
-        <v>565200</v>
+        <v>579900</v>
       </c>
       <c r="K24" s="3">
         <v>441100</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>211200</v>
+        <v>216700</v>
       </c>
       <c r="E26" s="3">
-        <v>-720400</v>
+        <v>-739100</v>
       </c>
       <c r="F26" s="3">
-        <v>-3723000</v>
+        <v>-3819300</v>
       </c>
       <c r="G26" s="3">
-        <v>116200</v>
+        <v>119200</v>
       </c>
       <c r="H26" s="3">
-        <v>1569500</v>
+        <v>1610100</v>
       </c>
       <c r="I26" s="3">
-        <v>1279100</v>
+        <v>1312200</v>
       </c>
       <c r="J26" s="3">
-        <v>1397500</v>
+        <v>1433600</v>
       </c>
       <c r="K26" s="3">
         <v>617100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>255200</v>
+        <v>261800</v>
       </c>
       <c r="E27" s="3">
-        <v>-749600</v>
+        <v>-769000</v>
       </c>
       <c r="F27" s="3">
-        <v>-3739400</v>
+        <v>-3836100</v>
       </c>
       <c r="G27" s="3">
-        <v>95600</v>
+        <v>98100</v>
       </c>
       <c r="H27" s="3">
-        <v>1555300</v>
+        <v>1595500</v>
       </c>
       <c r="I27" s="3">
-        <v>1327900</v>
+        <v>1362200</v>
       </c>
       <c r="J27" s="3">
-        <v>1378100</v>
+        <v>1413700</v>
       </c>
       <c r="K27" s="3">
         <v>600200</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="E32" s="3">
-        <v>196100</v>
+        <v>201100</v>
       </c>
       <c r="F32" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="G32" s="3">
-        <v>107700</v>
+        <v>110500</v>
       </c>
       <c r="H32" s="3">
-        <v>58000</v>
+        <v>59500</v>
       </c>
       <c r="I32" s="3">
-        <v>-43600</v>
+        <v>-44700</v>
       </c>
       <c r="J32" s="3">
-        <v>-76300</v>
+        <v>-78300</v>
       </c>
       <c r="K32" s="3">
         <v>-151500</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>255200</v>
+        <v>261800</v>
       </c>
       <c r="E33" s="3">
-        <v>-749600</v>
+        <v>-769000</v>
       </c>
       <c r="F33" s="3">
-        <v>-3739400</v>
+        <v>-3836100</v>
       </c>
       <c r="G33" s="3">
-        <v>95600</v>
+        <v>98100</v>
       </c>
       <c r="H33" s="3">
-        <v>1555300</v>
+        <v>1595500</v>
       </c>
       <c r="I33" s="3">
-        <v>1327900</v>
+        <v>1362200</v>
       </c>
       <c r="J33" s="3">
-        <v>1378100</v>
+        <v>1413700</v>
       </c>
       <c r="K33" s="3">
         <v>600200</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>255200</v>
+        <v>261800</v>
       </c>
       <c r="E35" s="3">
-        <v>-749600</v>
+        <v>-769000</v>
       </c>
       <c r="F35" s="3">
-        <v>-3739400</v>
+        <v>-3836100</v>
       </c>
       <c r="G35" s="3">
-        <v>95600</v>
+        <v>98100</v>
       </c>
       <c r="H35" s="3">
-        <v>1555300</v>
+        <v>1595500</v>
       </c>
       <c r="I35" s="3">
-        <v>1327900</v>
+        <v>1362200</v>
       </c>
       <c r="J35" s="3">
-        <v>1378100</v>
+        <v>1413700</v>
       </c>
       <c r="K35" s="3">
         <v>600200</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1990000</v>
+        <v>2041500</v>
       </c>
       <c r="E41" s="3">
-        <v>2180800</v>
+        <v>2237200</v>
       </c>
       <c r="F41" s="3">
-        <v>2112500</v>
+        <v>2167100</v>
       </c>
       <c r="G41" s="3">
-        <v>7179300</v>
+        <v>7365100</v>
       </c>
       <c r="H41" s="3">
-        <v>2574900</v>
+        <v>2641500</v>
       </c>
       <c r="I41" s="3">
-        <v>3403500</v>
+        <v>3491600</v>
       </c>
       <c r="J41" s="3">
-        <v>3285100</v>
+        <v>3370100</v>
       </c>
       <c r="K41" s="3">
         <v>4643800</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3960500</v>
+        <v>4063000</v>
       </c>
       <c r="E42" s="3">
-        <v>2986400</v>
+        <v>3063600</v>
       </c>
       <c r="F42" s="3">
-        <v>2777200</v>
+        <v>2849100</v>
       </c>
       <c r="G42" s="3">
-        <v>2836900</v>
+        <v>2910300</v>
       </c>
       <c r="H42" s="3">
-        <v>5032300</v>
+        <v>5162500</v>
       </c>
       <c r="I42" s="3">
-        <v>4879600</v>
+        <v>5005900</v>
       </c>
       <c r="J42" s="3">
-        <v>5564000</v>
+        <v>5707900</v>
       </c>
       <c r="K42" s="3">
         <v>3328500</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7948200</v>
+        <v>8153800</v>
       </c>
       <c r="E43" s="3">
-        <v>9656700</v>
+        <v>9906600</v>
       </c>
       <c r="F43" s="3">
-        <v>16729500</v>
+        <v>17162300</v>
       </c>
       <c r="G43" s="3">
-        <v>20517900</v>
+        <v>21048800</v>
       </c>
       <c r="H43" s="3">
-        <v>10155600</v>
+        <v>10418300</v>
       </c>
       <c r="I43" s="3">
-        <v>10698500</v>
+        <v>10975300</v>
       </c>
       <c r="J43" s="3">
-        <v>9631200</v>
+        <v>9880400</v>
       </c>
       <c r="K43" s="3">
         <v>8527800</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3542800</v>
+        <v>3634400</v>
       </c>
       <c r="E44" s="3">
-        <v>3358200</v>
+        <v>3445100</v>
       </c>
       <c r="F44" s="3">
-        <v>2932500</v>
+        <v>3008400</v>
       </c>
       <c r="G44" s="3">
-        <v>7108400</v>
+        <v>7292300</v>
       </c>
       <c r="H44" s="3">
-        <v>3264200</v>
+        <v>3348600</v>
       </c>
       <c r="I44" s="3">
-        <v>3234200</v>
+        <v>3317900</v>
       </c>
       <c r="J44" s="3">
-        <v>2612500</v>
+        <v>2680100</v>
       </c>
       <c r="K44" s="3">
         <v>2993400</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>226400</v>
+        <v>232200</v>
       </c>
       <c r="E45" s="3">
-        <v>318300</v>
+        <v>326500</v>
       </c>
       <c r="F45" s="3">
-        <v>469600</v>
+        <v>481800</v>
       </c>
       <c r="G45" s="3">
-        <v>802700</v>
+        <v>823500</v>
       </c>
       <c r="H45" s="3">
-        <v>728700</v>
+        <v>747500</v>
       </c>
       <c r="I45" s="3">
-        <v>947500</v>
+        <v>972000</v>
       </c>
       <c r="J45" s="3">
-        <v>820200</v>
+        <v>841400</v>
       </c>
       <c r="K45" s="3">
         <v>591500</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17667800</v>
+        <v>18124900</v>
       </c>
       <c r="E46" s="3">
-        <v>18500400</v>
+        <v>18979000</v>
       </c>
       <c r="F46" s="3">
-        <v>17611400</v>
+        <v>18067100</v>
       </c>
       <c r="G46" s="3">
-        <v>20099400</v>
+        <v>20619400</v>
       </c>
       <c r="H46" s="3">
-        <v>21755600</v>
+        <v>22318500</v>
       </c>
       <c r="I46" s="3">
-        <v>23163400</v>
+        <v>23762700</v>
       </c>
       <c r="J46" s="3">
-        <v>21913000</v>
+        <v>22479900</v>
       </c>
       <c r="K46" s="3">
         <v>20084900</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3584500</v>
+        <v>3677300</v>
       </c>
       <c r="E47" s="3">
-        <v>3885300</v>
+        <v>3985800</v>
       </c>
       <c r="F47" s="3">
-        <v>4017300</v>
+        <v>4121200</v>
       </c>
       <c r="G47" s="3">
-        <v>2359300</v>
+        <v>2420300</v>
       </c>
       <c r="H47" s="3">
-        <v>1079700</v>
+        <v>1107700</v>
       </c>
       <c r="I47" s="3">
-        <v>1224200</v>
+        <v>1255900</v>
       </c>
       <c r="J47" s="3">
-        <v>1083400</v>
+        <v>1111400</v>
       </c>
       <c r="K47" s="3">
         <v>881500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2564100</v>
+        <v>2630400</v>
       </c>
       <c r="E48" s="3">
-        <v>1474900</v>
+        <v>1513100</v>
       </c>
       <c r="F48" s="3">
-        <v>1475900</v>
+        <v>1514000</v>
       </c>
       <c r="G48" s="3">
-        <v>3841800</v>
+        <v>3941200</v>
       </c>
       <c r="H48" s="3">
-        <v>1825300</v>
+        <v>1872500</v>
       </c>
       <c r="I48" s="3">
-        <v>1531400</v>
+        <v>1571000</v>
       </c>
       <c r="J48" s="3">
-        <v>1312400</v>
+        <v>1346400</v>
       </c>
       <c r="K48" s="3">
         <v>1194500</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4331100</v>
+        <v>4443200</v>
       </c>
       <c r="E49" s="3">
-        <v>4332900</v>
+        <v>4445000</v>
       </c>
       <c r="F49" s="3">
-        <v>4196300</v>
+        <v>4304800</v>
       </c>
       <c r="G49" s="3">
-        <v>13593400</v>
+        <v>13945100</v>
       </c>
       <c r="H49" s="3">
-        <v>6416300</v>
+        <v>6582300</v>
       </c>
       <c r="I49" s="3">
-        <v>6248500</v>
+        <v>6410100</v>
       </c>
       <c r="J49" s="3">
-        <v>5476300</v>
+        <v>5618000</v>
       </c>
       <c r="K49" s="3">
         <v>5138900</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3578500</v>
+        <v>3671100</v>
       </c>
       <c r="E52" s="3">
-        <v>2657600</v>
+        <v>2726400</v>
       </c>
       <c r="F52" s="3">
-        <v>2531000</v>
+        <v>2596500</v>
       </c>
       <c r="G52" s="3">
-        <v>1951200</v>
+        <v>2001700</v>
       </c>
       <c r="H52" s="3">
-        <v>1565200</v>
+        <v>1605700</v>
       </c>
       <c r="I52" s="3">
-        <v>1530000</v>
+        <v>1569600</v>
       </c>
       <c r="J52" s="3">
-        <v>1115300</v>
+        <v>1144200</v>
       </c>
       <c r="K52" s="3">
         <v>1280500</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>31726000</v>
+        <v>32546900</v>
       </c>
       <c r="E54" s="3">
-        <v>30851100</v>
+        <v>31649300</v>
       </c>
       <c r="F54" s="3">
-        <v>29831900</v>
+        <v>30603700</v>
       </c>
       <c r="G54" s="3">
-        <v>32617600</v>
+        <v>33461500</v>
       </c>
       <c r="H54" s="3">
-        <v>32642000</v>
+        <v>33486600</v>
       </c>
       <c r="I54" s="3">
-        <v>33697500</v>
+        <v>34569400</v>
       </c>
       <c r="J54" s="3">
-        <v>30900300</v>
+        <v>31699800</v>
       </c>
       <c r="K54" s="3">
         <v>28580300</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3490000</v>
+        <v>3580300</v>
       </c>
       <c r="E57" s="3">
-        <v>3430300</v>
+        <v>3519000</v>
       </c>
       <c r="F57" s="3">
-        <v>3021300</v>
+        <v>3099400</v>
       </c>
       <c r="G57" s="3">
-        <v>5872900</v>
+        <v>6024800</v>
       </c>
       <c r="H57" s="3">
-        <v>2570000</v>
+        <v>2636500</v>
       </c>
       <c r="I57" s="3">
-        <v>2809300</v>
+        <v>2881900</v>
       </c>
       <c r="J57" s="3">
-        <v>2353400</v>
+        <v>2414300</v>
       </c>
       <c r="K57" s="3">
         <v>8400</v>
@@ -2177,25 +2177,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1346000</v>
+        <v>1380900</v>
       </c>
       <c r="E58" s="3">
-        <v>258900</v>
+        <v>265500</v>
       </c>
       <c r="F58" s="3">
-        <v>292100</v>
+        <v>299700</v>
       </c>
       <c r="G58" s="3">
-        <v>1844200</v>
+        <v>1891900</v>
       </c>
       <c r="H58" s="3">
-        <v>272700</v>
+        <v>279800</v>
       </c>
       <c r="I58" s="3">
-        <v>261800</v>
+        <v>268600</v>
       </c>
       <c r="J58" s="3">
-        <v>848100</v>
+        <v>870000</v>
       </c>
       <c r="K58" s="3">
         <v>495600</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8573700</v>
+        <v>8795500</v>
       </c>
       <c r="E59" s="3">
-        <v>9042700</v>
+        <v>9276700</v>
       </c>
       <c r="F59" s="3">
-        <v>11218300</v>
+        <v>11508600</v>
       </c>
       <c r="G59" s="3">
-        <v>14111000</v>
+        <v>14476100</v>
       </c>
       <c r="H59" s="3">
-        <v>7154300</v>
+        <v>7339400</v>
       </c>
       <c r="I59" s="3">
-        <v>8502500</v>
+        <v>8722500</v>
       </c>
       <c r="J59" s="3">
-        <v>7283900</v>
+        <v>7472300</v>
       </c>
       <c r="K59" s="3">
         <v>9619100</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13409700</v>
+        <v>13756600</v>
       </c>
       <c r="E60" s="3">
-        <v>12731800</v>
+        <v>13061200</v>
       </c>
       <c r="F60" s="3">
-        <v>11424900</v>
+        <v>11720500</v>
       </c>
       <c r="G60" s="3">
-        <v>11571200</v>
+        <v>11870600</v>
       </c>
       <c r="H60" s="3">
-        <v>9997100</v>
+        <v>10255700</v>
       </c>
       <c r="I60" s="3">
-        <v>11573600</v>
+        <v>11873000</v>
       </c>
       <c r="J60" s="3">
-        <v>10485400</v>
+        <v>10756700</v>
       </c>
       <c r="K60" s="3">
         <v>10123200</v>
@@ -2276,25 +2276,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>4115500</v>
+        <v>4221900</v>
       </c>
       <c r="E61" s="3">
-        <v>3543600</v>
+        <v>3635300</v>
       </c>
       <c r="F61" s="3">
-        <v>3501100</v>
+        <v>3591700</v>
       </c>
       <c r="G61" s="3">
-        <v>2141200</v>
+        <v>2196600</v>
       </c>
       <c r="H61" s="3">
-        <v>2610800</v>
+        <v>2678300</v>
       </c>
       <c r="I61" s="3">
-        <v>2509800</v>
+        <v>2574700</v>
       </c>
       <c r="J61" s="3">
-        <v>2533100</v>
+        <v>2598600</v>
       </c>
       <c r="K61" s="3">
         <v>2483700</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4802100</v>
+        <v>4926400</v>
       </c>
       <c r="E62" s="3">
-        <v>4500600</v>
+        <v>4617000</v>
       </c>
       <c r="F62" s="3">
-        <v>3705700</v>
+        <v>3801500</v>
       </c>
       <c r="G62" s="3">
-        <v>3379100</v>
+        <v>3466500</v>
       </c>
       <c r="H62" s="3">
-        <v>3118000</v>
+        <v>3198700</v>
       </c>
       <c r="I62" s="3">
-        <v>2934100</v>
+        <v>3010100</v>
       </c>
       <c r="J62" s="3">
-        <v>1625000</v>
+        <v>1667000</v>
       </c>
       <c r="K62" s="3">
         <v>1580900</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22249100</v>
+        <v>22824700</v>
       </c>
       <c r="E66" s="3">
-        <v>20866900</v>
+        <v>21406800</v>
       </c>
       <c r="F66" s="3">
-        <v>18704700</v>
+        <v>19188600</v>
       </c>
       <c r="G66" s="3">
-        <v>17168900</v>
+        <v>17613100</v>
       </c>
       <c r="H66" s="3">
-        <v>15822400</v>
+        <v>16231800</v>
       </c>
       <c r="I66" s="3">
-        <v>17132600</v>
+        <v>17575900</v>
       </c>
       <c r="J66" s="3">
-        <v>14806300</v>
+        <v>15189400</v>
       </c>
       <c r="K66" s="3">
         <v>14354100</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4461200</v>
+        <v>4576600</v>
       </c>
       <c r="E72" s="3">
-        <v>5231600</v>
+        <v>5366900</v>
       </c>
       <c r="F72" s="3">
-        <v>6374500</v>
+        <v>6539400</v>
       </c>
       <c r="G72" s="3">
-        <v>10697700</v>
+        <v>10974500</v>
       </c>
       <c r="H72" s="3">
-        <v>12083700</v>
+        <v>12396400</v>
       </c>
       <c r="I72" s="3">
-        <v>11829000</v>
+        <v>12135100</v>
       </c>
       <c r="J72" s="3">
-        <v>11358100</v>
+        <v>11652000</v>
       </c>
       <c r="K72" s="3">
         <v>9938400</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9476900</v>
+        <v>9722100</v>
       </c>
       <c r="E76" s="3">
-        <v>9984200</v>
+        <v>10242500</v>
       </c>
       <c r="F76" s="3">
-        <v>11127200</v>
+        <v>11415100</v>
       </c>
       <c r="G76" s="3">
-        <v>15448700</v>
+        <v>15848400</v>
       </c>
       <c r="H76" s="3">
-        <v>16819600</v>
+        <v>17254800</v>
       </c>
       <c r="I76" s="3">
-        <v>16564900</v>
+        <v>16993500</v>
       </c>
       <c r="J76" s="3">
-        <v>16094000</v>
+        <v>16510400</v>
       </c>
       <c r="K76" s="3">
         <v>14226300</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>255200</v>
+        <v>261800</v>
       </c>
       <c r="E81" s="3">
-        <v>-749600</v>
+        <v>-769000</v>
       </c>
       <c r="F81" s="3">
-        <v>-3739400</v>
+        <v>-3836100</v>
       </c>
       <c r="G81" s="3">
-        <v>95600</v>
+        <v>98100</v>
       </c>
       <c r="H81" s="3">
-        <v>1555300</v>
+        <v>1595500</v>
       </c>
       <c r="I81" s="3">
-        <v>1327900</v>
+        <v>1362200</v>
       </c>
       <c r="J81" s="3">
-        <v>1378100</v>
+        <v>1413700</v>
       </c>
       <c r="K81" s="3">
         <v>600200</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>987100</v>
+        <v>1012600</v>
       </c>
       <c r="E83" s="3">
-        <v>828900</v>
+        <v>850300</v>
       </c>
       <c r="F83" s="3">
-        <v>970100</v>
+        <v>995200</v>
       </c>
       <c r="G83" s="3">
-        <v>1020000</v>
+        <v>1046400</v>
       </c>
       <c r="H83" s="3">
-        <v>1173500</v>
+        <v>1203900</v>
       </c>
       <c r="I83" s="3">
-        <v>1139500</v>
+        <v>1169000</v>
       </c>
       <c r="J83" s="3">
-        <v>1165700</v>
+        <v>1195900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>91</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1936900</v>
+        <v>1987000</v>
       </c>
       <c r="E89" s="3">
-        <v>1072400</v>
+        <v>1100100</v>
       </c>
       <c r="F89" s="3">
-        <v>1102100</v>
+        <v>1130600</v>
       </c>
       <c r="G89" s="3">
-        <v>1608200</v>
+        <v>1649800</v>
       </c>
       <c r="H89" s="3">
-        <v>2364300</v>
+        <v>2425500</v>
       </c>
       <c r="I89" s="3">
-        <v>2146800</v>
+        <v>2202300</v>
       </c>
       <c r="J89" s="3">
-        <v>1996100</v>
+        <v>2047700</v>
       </c>
       <c r="K89" s="3">
         <v>2289700</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-587500</v>
+        <v>-602700</v>
       </c>
       <c r="E91" s="3">
-        <v>-456300</v>
+        <v>-468100</v>
       </c>
       <c r="F91" s="3">
-        <v>-445000</v>
+        <v>-456600</v>
       </c>
       <c r="G91" s="3">
-        <v>-703500</v>
+        <v>-721800</v>
       </c>
       <c r="H91" s="3">
-        <v>-957100</v>
+        <v>-981900</v>
       </c>
       <c r="I91" s="3">
-        <v>-610900</v>
+        <v>-626700</v>
       </c>
       <c r="J91" s="3">
-        <v>-516900</v>
+        <v>-530300</v>
       </c>
       <c r="K91" s="3">
         <v>-564200</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-406500</v>
+        <v>-417000</v>
       </c>
       <c r="E94" s="3">
-        <v>-474300</v>
+        <v>-486600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1844700</v>
+        <v>-1892400</v>
       </c>
       <c r="G94" s="3">
-        <v>-950800</v>
+        <v>-975400</v>
       </c>
       <c r="H94" s="3">
-        <v>-916800</v>
+        <v>-940500</v>
       </c>
       <c r="I94" s="3">
-        <v>-862400</v>
+        <v>-884700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1275200</v>
+        <v>-1308200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>91</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-510800</v>
+        <v>-524000</v>
       </c>
       <c r="E96" s="3">
-        <v>-393200</v>
+        <v>-403300</v>
       </c>
       <c r="F96" s="3">
-        <v>-393000</v>
+        <v>-403200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1407700</v>
+        <v>-1444100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1301400</v>
+        <v>-1335000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1130200</v>
+        <v>-1159500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1050700</v>
+        <v>-1077900</v>
       </c>
       <c r="K96" s="3">
         <v>-897100</v>
@@ -3430,25 +3430,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-792100</v>
+        <v>-812500</v>
       </c>
       <c r="E100" s="3">
-        <v>-468000</v>
+        <v>-480100</v>
       </c>
       <c r="F100" s="3">
-        <v>628800</v>
+        <v>645100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1347900</v>
+        <v>-1382700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1229400</v>
+        <v>-1261200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2092000</v>
+        <v>-2146200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1091400</v>
+        <v>-1119700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>91</v>
@@ -3463,25 +3463,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>29600</v>
+        <v>30400</v>
       </c>
       <c r="E101" s="3">
-        <v>157500</v>
+        <v>161600</v>
       </c>
       <c r="F101" s="3">
-        <v>-10400</v>
+        <v>-10700</v>
       </c>
       <c r="G101" s="3">
-        <v>316500</v>
+        <v>324700</v>
       </c>
       <c r="H101" s="3">
-        <v>-305800</v>
+        <v>-313700</v>
       </c>
       <c r="I101" s="3">
-        <v>680600</v>
+        <v>698200</v>
       </c>
       <c r="J101" s="3">
-        <v>73600</v>
+        <v>75500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>91</v>
@@ -3496,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>767900</v>
+        <v>787800</v>
       </c>
       <c r="E102" s="3">
-        <v>287500</v>
+        <v>295000</v>
       </c>
       <c r="F102" s="3">
-        <v>-124200</v>
+        <v>-127400</v>
       </c>
       <c r="G102" s="3">
-        <v>-374000</v>
+        <v>-383700</v>
       </c>
       <c r="H102" s="3">
-        <v>-87700</v>
+        <v>-90000</v>
       </c>
       <c r="I102" s="3">
-        <v>-127100</v>
+        <v>-130400</v>
       </c>
       <c r="J102" s="3">
-        <v>-297000</v>
+        <v>-304600</v>
       </c>
       <c r="K102" s="3">
         <v>624200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26757000</v>
+        <v>26850300</v>
       </c>
       <c r="E8" s="3">
-        <v>24828300</v>
+        <v>26252500</v>
       </c>
       <c r="F8" s="3">
-        <v>24185300</v>
+        <v>24360200</v>
       </c>
       <c r="G8" s="3">
-        <v>25944400</v>
+        <v>23729400</v>
       </c>
       <c r="H8" s="3">
-        <v>29077300</v>
+        <v>25455300</v>
       </c>
       <c r="I8" s="3">
-        <v>26847300</v>
+        <v>28529100</v>
       </c>
       <c r="J8" s="3">
+        <v>26341200</v>
+      </c>
+      <c r="K8" s="3">
         <v>26775800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23673100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25760100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16728400</v>
+        <v>15937700</v>
       </c>
       <c r="E9" s="3">
-        <v>16097800</v>
+        <v>16413000</v>
       </c>
       <c r="F9" s="3">
-        <v>17924100</v>
+        <v>15794300</v>
       </c>
       <c r="G9" s="3">
-        <v>17850900</v>
+        <v>17586200</v>
       </c>
       <c r="H9" s="3">
-        <v>18703500</v>
+        <v>17514400</v>
       </c>
       <c r="I9" s="3">
-        <v>17019500</v>
+        <v>18350900</v>
       </c>
       <c r="J9" s="3">
+        <v>16698600</v>
+      </c>
+      <c r="K9" s="3">
         <v>17469500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16181800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16710100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10028600</v>
+        <v>10912600</v>
       </c>
       <c r="E10" s="3">
-        <v>8730500</v>
+        <v>9839500</v>
       </c>
       <c r="F10" s="3">
-        <v>6261200</v>
+        <v>8565900</v>
       </c>
       <c r="G10" s="3">
-        <v>8093500</v>
+        <v>6143100</v>
       </c>
       <c r="H10" s="3">
-        <v>10373800</v>
+        <v>7940900</v>
       </c>
       <c r="I10" s="3">
-        <v>9827800</v>
+        <v>10178300</v>
       </c>
       <c r="J10" s="3">
+        <v>9642500</v>
+      </c>
+      <c r="K10" s="3">
         <v>9306300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7491300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9049900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4530300</v>
+        <v>4541100</v>
       </c>
       <c r="E12" s="3">
-        <v>4429700</v>
+        <v>4444900</v>
       </c>
       <c r="F12" s="3">
-        <v>4189900</v>
+        <v>4346200</v>
       </c>
       <c r="G12" s="3">
-        <v>3402300</v>
+        <v>4110900</v>
       </c>
       <c r="H12" s="3">
-        <v>3865200</v>
+        <v>3338200</v>
       </c>
       <c r="I12" s="3">
-        <v>4239800</v>
+        <v>3792400</v>
       </c>
       <c r="J12" s="3">
+        <v>4159900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3693400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3323800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3641400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>210200</v>
+        <v>166800</v>
       </c>
       <c r="E14" s="3">
-        <v>996000</v>
+        <v>206200</v>
       </c>
       <c r="F14" s="3">
-        <v>3058000</v>
+        <v>977200</v>
       </c>
       <c r="G14" s="3">
-        <v>881300</v>
+        <v>3000300</v>
       </c>
       <c r="H14" s="3">
-        <v>593500</v>
+        <v>864700</v>
       </c>
       <c r="I14" s="3">
-        <v>171500</v>
+        <v>582300</v>
       </c>
       <c r="J14" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K14" s="3">
         <v>524400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>159400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>237600</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>25512900</v>
+        <v>23637400</v>
       </c>
       <c r="E17" s="3">
-        <v>24682000</v>
+        <v>25032000</v>
       </c>
       <c r="F17" s="3">
-        <v>28276600</v>
+        <v>24216700</v>
       </c>
       <c r="G17" s="3">
-        <v>25333600</v>
+        <v>27743600</v>
       </c>
       <c r="H17" s="3">
-        <v>26509500</v>
+        <v>24856000</v>
       </c>
       <c r="I17" s="3">
-        <v>24868100</v>
+        <v>26009800</v>
       </c>
       <c r="J17" s="3">
+        <v>24399300</v>
+      </c>
+      <c r="K17" s="3">
         <v>24674400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22586200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23728100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1244000</v>
+        <v>3212900</v>
       </c>
       <c r="E18" s="3">
-        <v>146300</v>
+        <v>1220600</v>
       </c>
       <c r="F18" s="3">
-        <v>-4091300</v>
+        <v>143500</v>
       </c>
       <c r="G18" s="3">
-        <v>610800</v>
+        <v>-4014200</v>
       </c>
       <c r="H18" s="3">
-        <v>2567800</v>
+        <v>599300</v>
       </c>
       <c r="I18" s="3">
-        <v>1979200</v>
+        <v>2519300</v>
       </c>
       <c r="J18" s="3">
+        <v>1941900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2101400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1086900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2032000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16600</v>
+        <v>115300</v>
       </c>
       <c r="E20" s="3">
-        <v>-201100</v>
+        <v>16300</v>
       </c>
       <c r="F20" s="3">
-        <v>-22100</v>
+        <v>-197300</v>
       </c>
       <c r="G20" s="3">
-        <v>-110500</v>
+        <v>-21700</v>
       </c>
       <c r="H20" s="3">
-        <v>-59500</v>
+        <v>-108400</v>
       </c>
       <c r="I20" s="3">
-        <v>44700</v>
+        <v>-58300</v>
       </c>
       <c r="J20" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K20" s="3">
         <v>78300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>151500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>218800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2270100</v>
+        <v>4320400</v>
       </c>
       <c r="E21" s="3">
-        <v>792900</v>
+        <v>2236200</v>
       </c>
       <c r="F21" s="3">
-        <v>-3121300</v>
+        <v>785400</v>
       </c>
       <c r="G21" s="3">
-        <v>1543600</v>
+        <v>-3053800</v>
       </c>
       <c r="H21" s="3">
-        <v>3708500</v>
+        <v>1523700</v>
       </c>
       <c r="I21" s="3">
-        <v>3189400</v>
+        <v>3649100</v>
       </c>
       <c r="J21" s="3">
+        <v>3139500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3371900</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3277900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>228800</v>
+        <v>184200</v>
       </c>
       <c r="E22" s="3">
-        <v>117400</v>
+        <v>224500</v>
       </c>
       <c r="F22" s="3">
-        <v>120900</v>
+        <v>115200</v>
       </c>
       <c r="G22" s="3">
-        <v>159600</v>
+        <v>118700</v>
       </c>
       <c r="H22" s="3">
-        <v>168200</v>
+        <v>156600</v>
       </c>
       <c r="I22" s="3">
-        <v>162000</v>
+        <v>165000</v>
       </c>
       <c r="J22" s="3">
+        <v>159000</v>
+      </c>
+      <c r="K22" s="3">
         <v>166300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>180200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>193700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1031800</v>
+        <v>3144100</v>
       </c>
       <c r="E23" s="3">
-        <v>-172300</v>
+        <v>1012400</v>
       </c>
       <c r="F23" s="3">
-        <v>-4234400</v>
+        <v>-169000</v>
       </c>
       <c r="G23" s="3">
-        <v>340800</v>
+        <v>-4154600</v>
       </c>
       <c r="H23" s="3">
-        <v>2340100</v>
+        <v>334400</v>
       </c>
       <c r="I23" s="3">
-        <v>1861900</v>
+        <v>2296000</v>
       </c>
       <c r="J23" s="3">
+        <v>1826800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2013500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1058200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2057100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>815100</v>
+        <v>1107900</v>
       </c>
       <c r="E24" s="3">
-        <v>566800</v>
+        <v>799800</v>
       </c>
       <c r="F24" s="3">
-        <v>-415100</v>
+        <v>556100</v>
       </c>
       <c r="G24" s="3">
-        <v>221600</v>
+        <v>-407300</v>
       </c>
       <c r="H24" s="3">
-        <v>730000</v>
+        <v>217400</v>
       </c>
       <c r="I24" s="3">
-        <v>549700</v>
+        <v>716200</v>
       </c>
       <c r="J24" s="3">
+        <v>539300</v>
+      </c>
+      <c r="K24" s="3">
         <v>579900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>441100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>630300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>216700</v>
+        <v>2036200</v>
       </c>
       <c r="E26" s="3">
-        <v>-739100</v>
+        <v>212600</v>
       </c>
       <c r="F26" s="3">
-        <v>-3819300</v>
+        <v>-725100</v>
       </c>
       <c r="G26" s="3">
-        <v>119200</v>
+        <v>-3747300</v>
       </c>
       <c r="H26" s="3">
-        <v>1610100</v>
+        <v>116900</v>
       </c>
       <c r="I26" s="3">
-        <v>1312200</v>
+        <v>1579800</v>
       </c>
       <c r="J26" s="3">
+        <v>1287500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1433600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>617100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1426800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>261800</v>
+        <v>2020000</v>
       </c>
       <c r="E27" s="3">
-        <v>-769000</v>
+        <v>256800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3836100</v>
+        <v>-754500</v>
       </c>
       <c r="G27" s="3">
-        <v>98100</v>
+        <v>-3763800</v>
       </c>
       <c r="H27" s="3">
-        <v>1595500</v>
+        <v>96200</v>
       </c>
       <c r="I27" s="3">
-        <v>1362200</v>
+        <v>1565500</v>
       </c>
       <c r="J27" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1413700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1384300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16600</v>
+        <v>-115300</v>
       </c>
       <c r="E32" s="3">
-        <v>201100</v>
+        <v>-16300</v>
       </c>
       <c r="F32" s="3">
-        <v>22100</v>
+        <v>197300</v>
       </c>
       <c r="G32" s="3">
-        <v>110500</v>
+        <v>21700</v>
       </c>
       <c r="H32" s="3">
-        <v>59500</v>
+        <v>108400</v>
       </c>
       <c r="I32" s="3">
-        <v>-44700</v>
+        <v>58300</v>
       </c>
       <c r="J32" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-78300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-151500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-218800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>261800</v>
+        <v>2020000</v>
       </c>
       <c r="E33" s="3">
-        <v>-769000</v>
+        <v>256800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3836100</v>
+        <v>-754500</v>
       </c>
       <c r="G33" s="3">
-        <v>98100</v>
+        <v>-3763800</v>
       </c>
       <c r="H33" s="3">
-        <v>1595500</v>
+        <v>96200</v>
       </c>
       <c r="I33" s="3">
-        <v>1362200</v>
+        <v>1565500</v>
       </c>
       <c r="J33" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1413700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1384300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>261800</v>
+        <v>2020000</v>
       </c>
       <c r="E35" s="3">
-        <v>-769000</v>
+        <v>256800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3836100</v>
+        <v>-754500</v>
       </c>
       <c r="G35" s="3">
-        <v>98100</v>
+        <v>-3763800</v>
       </c>
       <c r="H35" s="3">
-        <v>1595500</v>
+        <v>96200</v>
       </c>
       <c r="I35" s="3">
-        <v>1362200</v>
+        <v>1565500</v>
       </c>
       <c r="J35" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1413700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1384300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2041500</v>
+        <v>1897400</v>
       </c>
       <c r="E41" s="3">
-        <v>2237200</v>
+        <v>2003000</v>
       </c>
       <c r="F41" s="3">
-        <v>2167100</v>
+        <v>2195000</v>
       </c>
       <c r="G41" s="3">
-        <v>7365100</v>
+        <v>2126300</v>
       </c>
       <c r="H41" s="3">
-        <v>2641500</v>
+        <v>7226200</v>
       </c>
       <c r="I41" s="3">
-        <v>3491600</v>
+        <v>2591700</v>
       </c>
       <c r="J41" s="3">
+        <v>3425800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3370100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4643800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4390500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4063000</v>
+        <v>3929500</v>
       </c>
       <c r="E42" s="3">
-        <v>3063600</v>
+        <v>3986400</v>
       </c>
       <c r="F42" s="3">
-        <v>2849100</v>
+        <v>3005900</v>
       </c>
       <c r="G42" s="3">
-        <v>2910300</v>
+        <v>2795400</v>
       </c>
       <c r="H42" s="3">
-        <v>5162500</v>
+        <v>2855500</v>
       </c>
       <c r="I42" s="3">
-        <v>5005900</v>
+        <v>5065200</v>
       </c>
       <c r="J42" s="3">
+        <v>4911500</v>
+      </c>
+      <c r="K42" s="3">
         <v>5707900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3328500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4752600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8153800</v>
+        <v>7791000</v>
       </c>
       <c r="E43" s="3">
-        <v>9906600</v>
+        <v>8000100</v>
       </c>
       <c r="F43" s="3">
-        <v>17162300</v>
+        <v>9719800</v>
       </c>
       <c r="G43" s="3">
-        <v>21048800</v>
+        <v>16838800</v>
       </c>
       <c r="H43" s="3">
-        <v>10418300</v>
+        <v>20652000</v>
       </c>
       <c r="I43" s="3">
-        <v>10975300</v>
+        <v>10221900</v>
       </c>
       <c r="J43" s="3">
+        <v>10768400</v>
+      </c>
+      <c r="K43" s="3">
         <v>9880400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8527800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9211600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3634400</v>
+        <v>3246300</v>
       </c>
       <c r="E44" s="3">
-        <v>3445100</v>
+        <v>3565900</v>
       </c>
       <c r="F44" s="3">
-        <v>3008400</v>
+        <v>3380100</v>
       </c>
       <c r="G44" s="3">
-        <v>7292300</v>
+        <v>2951700</v>
       </c>
       <c r="H44" s="3">
-        <v>3348600</v>
+        <v>7154800</v>
       </c>
       <c r="I44" s="3">
-        <v>3317900</v>
+        <v>3285500</v>
       </c>
       <c r="J44" s="3">
+        <v>3255300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2680100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2993400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3754100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>232200</v>
+        <v>443100</v>
       </c>
       <c r="E45" s="3">
-        <v>326500</v>
+        <v>227800</v>
       </c>
       <c r="F45" s="3">
-        <v>481800</v>
+        <v>320400</v>
       </c>
       <c r="G45" s="3">
-        <v>823500</v>
+        <v>472700</v>
       </c>
       <c r="H45" s="3">
-        <v>747500</v>
+        <v>808000</v>
       </c>
       <c r="I45" s="3">
-        <v>972000</v>
+        <v>733400</v>
       </c>
       <c r="J45" s="3">
+        <v>953700</v>
+      </c>
+      <c r="K45" s="3">
         <v>841400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>591500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>460800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>18124900</v>
+        <v>17307300</v>
       </c>
       <c r="E46" s="3">
-        <v>18979000</v>
+        <v>17783200</v>
       </c>
       <c r="F46" s="3">
-        <v>18067100</v>
+        <v>18621200</v>
       </c>
       <c r="G46" s="3">
-        <v>20619400</v>
+        <v>17726500</v>
       </c>
       <c r="H46" s="3">
-        <v>22318500</v>
+        <v>20230700</v>
       </c>
       <c r="I46" s="3">
-        <v>23762700</v>
+        <v>21897700</v>
       </c>
       <c r="J46" s="3">
+        <v>23314700</v>
+      </c>
+      <c r="K46" s="3">
         <v>22479900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20084900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22569600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3677300</v>
+        <v>3520400</v>
       </c>
       <c r="E47" s="3">
-        <v>3985800</v>
+        <v>3608000</v>
       </c>
       <c r="F47" s="3">
-        <v>4121200</v>
+        <v>3910700</v>
       </c>
       <c r="G47" s="3">
-        <v>2420300</v>
+        <v>4043600</v>
       </c>
       <c r="H47" s="3">
-        <v>1107700</v>
+        <v>2374700</v>
       </c>
       <c r="I47" s="3">
-        <v>1255900</v>
+        <v>1086800</v>
       </c>
       <c r="J47" s="3">
+        <v>1232200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1111400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>881500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1553100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2630400</v>
+        <v>2468300</v>
       </c>
       <c r="E48" s="3">
-        <v>1513100</v>
+        <v>2580800</v>
       </c>
       <c r="F48" s="3">
-        <v>1514000</v>
+        <v>1484600</v>
       </c>
       <c r="G48" s="3">
-        <v>3941200</v>
+        <v>1485500</v>
       </c>
       <c r="H48" s="3">
-        <v>1872500</v>
+        <v>3866900</v>
       </c>
       <c r="I48" s="3">
-        <v>1571000</v>
+        <v>1837200</v>
       </c>
       <c r="J48" s="3">
+        <v>1541400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1346400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1194500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1224700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4443200</v>
+        <v>5038400</v>
       </c>
       <c r="E49" s="3">
-        <v>4445000</v>
+        <v>4359400</v>
       </c>
       <c r="F49" s="3">
-        <v>4304800</v>
+        <v>4361200</v>
       </c>
       <c r="G49" s="3">
-        <v>13945100</v>
+        <v>4223700</v>
       </c>
       <c r="H49" s="3">
-        <v>6582300</v>
+        <v>13682200</v>
       </c>
       <c r="I49" s="3">
-        <v>6410100</v>
+        <v>6458200</v>
       </c>
       <c r="J49" s="3">
+        <v>6289300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5618000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5138900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4999900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3671100</v>
+        <v>3038200</v>
       </c>
       <c r="E52" s="3">
-        <v>2726400</v>
+        <v>3601800</v>
       </c>
       <c r="F52" s="3">
-        <v>2596500</v>
+        <v>2675000</v>
       </c>
       <c r="G52" s="3">
-        <v>2001700</v>
+        <v>2547500</v>
       </c>
       <c r="H52" s="3">
-        <v>1605700</v>
+        <v>1963900</v>
       </c>
       <c r="I52" s="3">
-        <v>1569600</v>
+        <v>1575400</v>
       </c>
       <c r="J52" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1144200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1280500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1478000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>32546900</v>
+        <v>31372600</v>
       </c>
       <c r="E54" s="3">
-        <v>31649300</v>
+        <v>31933300</v>
       </c>
       <c r="F54" s="3">
-        <v>30603700</v>
+        <v>31052600</v>
       </c>
       <c r="G54" s="3">
-        <v>33461500</v>
+        <v>30026800</v>
       </c>
       <c r="H54" s="3">
-        <v>33486600</v>
+        <v>32830700</v>
       </c>
       <c r="I54" s="3">
-        <v>34569400</v>
+        <v>32855300</v>
       </c>
       <c r="J54" s="3">
+        <v>33917700</v>
+      </c>
+      <c r="K54" s="3">
         <v>31699800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28580300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31825200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3580300</v>
+        <v>3695900</v>
       </c>
       <c r="E57" s="3">
-        <v>3519000</v>
+        <v>3512800</v>
       </c>
       <c r="F57" s="3">
-        <v>3099400</v>
+        <v>3452700</v>
       </c>
       <c r="G57" s="3">
-        <v>6024800</v>
+        <v>3041000</v>
       </c>
       <c r="H57" s="3">
-        <v>2636500</v>
+        <v>5911300</v>
       </c>
       <c r="I57" s="3">
-        <v>2881900</v>
+        <v>2586800</v>
       </c>
       <c r="J57" s="3">
+        <v>2827600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2414300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1380900</v>
+        <v>1171300</v>
       </c>
       <c r="E58" s="3">
-        <v>265500</v>
+        <v>1354800</v>
       </c>
       <c r="F58" s="3">
-        <v>299700</v>
+        <v>260500</v>
       </c>
       <c r="G58" s="3">
-        <v>1891900</v>
+        <v>294000</v>
       </c>
       <c r="H58" s="3">
-        <v>279800</v>
+        <v>1856300</v>
       </c>
       <c r="I58" s="3">
-        <v>268600</v>
+        <v>274500</v>
       </c>
       <c r="J58" s="3">
+        <v>263500</v>
+      </c>
+      <c r="K58" s="3">
         <v>870000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>495600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>881500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8795500</v>
+        <v>8341300</v>
       </c>
       <c r="E59" s="3">
-        <v>9276700</v>
+        <v>8629700</v>
       </c>
       <c r="F59" s="3">
-        <v>11508600</v>
+        <v>9101800</v>
       </c>
       <c r="G59" s="3">
-        <v>14476100</v>
+        <v>11291600</v>
       </c>
       <c r="H59" s="3">
-        <v>7339400</v>
+        <v>14203200</v>
       </c>
       <c r="I59" s="3">
-        <v>8722500</v>
+        <v>7201000</v>
       </c>
       <c r="J59" s="3">
+        <v>8558000</v>
+      </c>
+      <c r="K59" s="3">
         <v>7472300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9619100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10121700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13756600</v>
+        <v>13208500</v>
       </c>
       <c r="E60" s="3">
-        <v>13061200</v>
+        <v>13497300</v>
       </c>
       <c r="F60" s="3">
-        <v>11720500</v>
+        <v>12815000</v>
       </c>
       <c r="G60" s="3">
-        <v>11870600</v>
+        <v>11499600</v>
       </c>
       <c r="H60" s="3">
-        <v>10255700</v>
+        <v>11646800</v>
       </c>
       <c r="I60" s="3">
-        <v>11873000</v>
+        <v>10062400</v>
       </c>
       <c r="J60" s="3">
+        <v>11649200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10756700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10123200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11014700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>4221900</v>
+        <v>3387900</v>
       </c>
       <c r="E61" s="3">
-        <v>3635300</v>
+        <v>4142300</v>
       </c>
       <c r="F61" s="3">
-        <v>3591700</v>
+        <v>3566700</v>
       </c>
       <c r="G61" s="3">
-        <v>2196600</v>
+        <v>3524000</v>
       </c>
       <c r="H61" s="3">
-        <v>2678300</v>
+        <v>2155200</v>
       </c>
       <c r="I61" s="3">
-        <v>2574700</v>
+        <v>2627800</v>
       </c>
       <c r="J61" s="3">
+        <v>2526200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2598600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2483700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2640000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4926400</v>
+        <v>4934800</v>
       </c>
       <c r="E62" s="3">
-        <v>4617000</v>
+        <v>4833500</v>
       </c>
       <c r="F62" s="3">
-        <v>3801500</v>
+        <v>4530000</v>
       </c>
       <c r="G62" s="3">
-        <v>3466500</v>
+        <v>3729900</v>
       </c>
       <c r="H62" s="3">
-        <v>3198700</v>
+        <v>3401200</v>
       </c>
       <c r="I62" s="3">
-        <v>3010100</v>
+        <v>3138400</v>
       </c>
       <c r="J62" s="3">
+        <v>2953300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1667000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1580900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1679400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22824700</v>
+        <v>21358300</v>
       </c>
       <c r="E66" s="3">
-        <v>21406800</v>
+        <v>22394400</v>
       </c>
       <c r="F66" s="3">
-        <v>19188600</v>
+        <v>21003200</v>
       </c>
       <c r="G66" s="3">
-        <v>17613100</v>
+        <v>18826900</v>
       </c>
       <c r="H66" s="3">
-        <v>16231800</v>
+        <v>17281100</v>
       </c>
       <c r="I66" s="3">
-        <v>17575900</v>
+        <v>15925800</v>
       </c>
       <c r="J66" s="3">
+        <v>17244600</v>
+      </c>
+      <c r="K66" s="3">
         <v>15189400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14354100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15579900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4576600</v>
+        <v>5541300</v>
       </c>
       <c r="E72" s="3">
-        <v>5366900</v>
+        <v>4490300</v>
       </c>
       <c r="F72" s="3">
-        <v>6539400</v>
+        <v>5265700</v>
       </c>
       <c r="G72" s="3">
-        <v>10974500</v>
+        <v>6416200</v>
       </c>
       <c r="H72" s="3">
-        <v>12396400</v>
+        <v>10767600</v>
       </c>
       <c r="I72" s="3">
-        <v>12135100</v>
+        <v>12162700</v>
       </c>
       <c r="J72" s="3">
+        <v>11906300</v>
+      </c>
+      <c r="K72" s="3">
         <v>11652000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9938400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11579800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9722100</v>
+        <v>10014300</v>
       </c>
       <c r="E76" s="3">
-        <v>10242500</v>
+        <v>9538900</v>
       </c>
       <c r="F76" s="3">
-        <v>11415100</v>
+        <v>10049400</v>
       </c>
       <c r="G76" s="3">
-        <v>15848400</v>
+        <v>11199900</v>
       </c>
       <c r="H76" s="3">
-        <v>17254800</v>
+        <v>15549600</v>
       </c>
       <c r="I76" s="3">
-        <v>16993500</v>
+        <v>16929500</v>
       </c>
       <c r="J76" s="3">
+        <v>16673100</v>
+      </c>
+      <c r="K76" s="3">
         <v>16510400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14226300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16245300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>261800</v>
+        <v>2020000</v>
       </c>
       <c r="E81" s="3">
-        <v>-769000</v>
+        <v>256800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3836100</v>
+        <v>-754500</v>
       </c>
       <c r="G81" s="3">
-        <v>98100</v>
+        <v>-3763800</v>
       </c>
       <c r="H81" s="3">
-        <v>1595500</v>
+        <v>96200</v>
       </c>
       <c r="I81" s="3">
-        <v>1362200</v>
+        <v>1565500</v>
       </c>
       <c r="J81" s="3">
+        <v>1336600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1413700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1384300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1012600</v>
+        <v>986400</v>
       </c>
       <c r="E83" s="3">
-        <v>850300</v>
+        <v>993500</v>
       </c>
       <c r="F83" s="3">
-        <v>995200</v>
+        <v>834300</v>
       </c>
       <c r="G83" s="3">
-        <v>1046400</v>
+        <v>976400</v>
       </c>
       <c r="H83" s="3">
-        <v>1203900</v>
+        <v>1026700</v>
       </c>
       <c r="I83" s="3">
-        <v>1169000</v>
+        <v>1181200</v>
       </c>
       <c r="J83" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1195900</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1025800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1987000</v>
+        <v>3342900</v>
       </c>
       <c r="E89" s="3">
-        <v>1100100</v>
+        <v>1949500</v>
       </c>
       <c r="F89" s="3">
-        <v>1130600</v>
+        <v>1079400</v>
       </c>
       <c r="G89" s="3">
-        <v>1649800</v>
+        <v>1109300</v>
       </c>
       <c r="H89" s="3">
-        <v>2425500</v>
+        <v>1618700</v>
       </c>
       <c r="I89" s="3">
-        <v>2202300</v>
+        <v>2379800</v>
       </c>
       <c r="J89" s="3">
+        <v>2160800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2047700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2289700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1133200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-602700</v>
+        <v>-519100</v>
       </c>
       <c r="E91" s="3">
-        <v>-468100</v>
+        <v>-591300</v>
       </c>
       <c r="F91" s="3">
-        <v>-456600</v>
+        <v>-459300</v>
       </c>
       <c r="G91" s="3">
-        <v>-721800</v>
+        <v>-447900</v>
       </c>
       <c r="H91" s="3">
-        <v>-981900</v>
+        <v>-708100</v>
       </c>
       <c r="I91" s="3">
-        <v>-626700</v>
+        <v>-963400</v>
       </c>
       <c r="J91" s="3">
+        <v>-614900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-530300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-564200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-566900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-417000</v>
+        <v>-1756300</v>
       </c>
       <c r="E94" s="3">
-        <v>-486600</v>
+        <v>-409100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1892400</v>
+        <v>-477400</v>
       </c>
       <c r="G94" s="3">
-        <v>-975400</v>
+        <v>-1856700</v>
       </c>
       <c r="H94" s="3">
-        <v>-940500</v>
+        <v>-957000</v>
       </c>
       <c r="I94" s="3">
-        <v>-884700</v>
+        <v>-922800</v>
       </c>
       <c r="J94" s="3">
+        <v>-868100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>515500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-524000</v>
+        <v>-692800</v>
       </c>
       <c r="E96" s="3">
-        <v>-403300</v>
+        <v>-514200</v>
       </c>
       <c r="F96" s="3">
-        <v>-403200</v>
+        <v>-395700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1444100</v>
+        <v>-395600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1335000</v>
+        <v>-1416900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1159500</v>
+        <v>-1309900</v>
       </c>
       <c r="J96" s="3">
+        <v>-1137600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1077900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-897100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-846300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-812500</v>
+        <v>-1443300</v>
       </c>
       <c r="E100" s="3">
-        <v>-480100</v>
+        <v>-797200</v>
       </c>
       <c r="F100" s="3">
-        <v>645100</v>
+        <v>-471100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1382700</v>
+        <v>632900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1261200</v>
+        <v>-1356700</v>
       </c>
       <c r="I100" s="3">
-        <v>-2146200</v>
+        <v>-1237400</v>
       </c>
       <c r="J100" s="3">
+        <v>-2105700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1119700</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-737200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>30400</v>
+        <v>-312800</v>
       </c>
       <c r="E101" s="3">
-        <v>161600</v>
+        <v>29800</v>
       </c>
       <c r="F101" s="3">
-        <v>-10700</v>
+        <v>158500</v>
       </c>
       <c r="G101" s="3">
-        <v>324700</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-313700</v>
+        <v>318500</v>
       </c>
       <c r="I101" s="3">
-        <v>698200</v>
+        <v>-307800</v>
       </c>
       <c r="J101" s="3">
+        <v>685000</v>
+      </c>
+      <c r="K101" s="3">
         <v>75500</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-24600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>787800</v>
+        <v>-169500</v>
       </c>
       <c r="E102" s="3">
-        <v>295000</v>
+        <v>773000</v>
       </c>
       <c r="F102" s="3">
-        <v>-127400</v>
+        <v>289400</v>
       </c>
       <c r="G102" s="3">
-        <v>-383700</v>
+        <v>-125000</v>
       </c>
       <c r="H102" s="3">
-        <v>-90000</v>
+        <v>-376400</v>
       </c>
       <c r="I102" s="3">
-        <v>-130400</v>
+        <v>-88300</v>
       </c>
       <c r="J102" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-304600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>624200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>886800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26850300</v>
+        <v>28140100</v>
       </c>
       <c r="E8" s="3">
-        <v>26252500</v>
+        <v>27513600</v>
       </c>
       <c r="F8" s="3">
-        <v>24360200</v>
+        <v>25530400</v>
       </c>
       <c r="G8" s="3">
-        <v>23729400</v>
+        <v>24869200</v>
       </c>
       <c r="H8" s="3">
-        <v>25455300</v>
+        <v>26678100</v>
       </c>
       <c r="I8" s="3">
-        <v>28529100</v>
+        <v>29899500</v>
       </c>
       <c r="J8" s="3">
-        <v>26341200</v>
+        <v>27606500</v>
       </c>
       <c r="K8" s="3">
         <v>26775800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15937700</v>
+        <v>16703300</v>
       </c>
       <c r="E9" s="3">
-        <v>16413000</v>
+        <v>17201400</v>
       </c>
       <c r="F9" s="3">
-        <v>15794300</v>
+        <v>16553000</v>
       </c>
       <c r="G9" s="3">
-        <v>17586200</v>
+        <v>18431000</v>
       </c>
       <c r="H9" s="3">
-        <v>17514400</v>
+        <v>18355700</v>
       </c>
       <c r="I9" s="3">
-        <v>18350900</v>
+        <v>19232400</v>
       </c>
       <c r="J9" s="3">
-        <v>16698600</v>
+        <v>17500800</v>
       </c>
       <c r="K9" s="3">
         <v>17469500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10912600</v>
+        <v>11436800</v>
       </c>
       <c r="E10" s="3">
-        <v>9839500</v>
+        <v>10312100</v>
       </c>
       <c r="F10" s="3">
-        <v>8565900</v>
+        <v>8977400</v>
       </c>
       <c r="G10" s="3">
-        <v>6143100</v>
+        <v>6438200</v>
       </c>
       <c r="H10" s="3">
-        <v>7940900</v>
+        <v>8322400</v>
       </c>
       <c r="I10" s="3">
-        <v>10178300</v>
+        <v>10667200</v>
       </c>
       <c r="J10" s="3">
-        <v>9642500</v>
+        <v>10105700</v>
       </c>
       <c r="K10" s="3">
         <v>9306300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4541100</v>
+        <v>4759200</v>
       </c>
       <c r="E12" s="3">
-        <v>4444900</v>
+        <v>4658500</v>
       </c>
       <c r="F12" s="3">
-        <v>4346200</v>
+        <v>4554900</v>
       </c>
       <c r="G12" s="3">
-        <v>4110900</v>
+        <v>4308400</v>
       </c>
       <c r="H12" s="3">
-        <v>3338200</v>
+        <v>3498500</v>
       </c>
       <c r="I12" s="3">
-        <v>3792400</v>
+        <v>3974500</v>
       </c>
       <c r="J12" s="3">
-        <v>4159900</v>
+        <v>4359700</v>
       </c>
       <c r="K12" s="3">
         <v>3693400</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>166800</v>
+        <v>174900</v>
       </c>
       <c r="E14" s="3">
-        <v>206200</v>
+        <v>216100</v>
       </c>
       <c r="F14" s="3">
-        <v>977200</v>
+        <v>1024200</v>
       </c>
       <c r="G14" s="3">
-        <v>3000300</v>
+        <v>3144500</v>
       </c>
       <c r="H14" s="3">
-        <v>864700</v>
+        <v>906200</v>
       </c>
       <c r="I14" s="3">
-        <v>582300</v>
+        <v>610300</v>
       </c>
       <c r="J14" s="3">
-        <v>168200</v>
+        <v>176300</v>
       </c>
       <c r="K14" s="3">
         <v>524400</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>23637400</v>
+        <v>24772800</v>
       </c>
       <c r="E17" s="3">
-        <v>25032000</v>
+        <v>26234400</v>
       </c>
       <c r="F17" s="3">
-        <v>24216700</v>
+        <v>25380000</v>
       </c>
       <c r="G17" s="3">
-        <v>27743600</v>
+        <v>29076300</v>
       </c>
       <c r="H17" s="3">
-        <v>24856000</v>
+        <v>26050000</v>
       </c>
       <c r="I17" s="3">
-        <v>26009800</v>
+        <v>27259200</v>
       </c>
       <c r="J17" s="3">
-        <v>24399300</v>
+        <v>25571300</v>
       </c>
       <c r="K17" s="3">
         <v>24674400</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3212900</v>
+        <v>3367300</v>
       </c>
       <c r="E18" s="3">
-        <v>1220600</v>
+        <v>1279200</v>
       </c>
       <c r="F18" s="3">
-        <v>143500</v>
+        <v>150400</v>
       </c>
       <c r="G18" s="3">
-        <v>-4014200</v>
+        <v>-4207000</v>
       </c>
       <c r="H18" s="3">
-        <v>599300</v>
+        <v>628100</v>
       </c>
       <c r="I18" s="3">
-        <v>2519300</v>
+        <v>2640400</v>
       </c>
       <c r="J18" s="3">
-        <v>1941900</v>
+        <v>2035200</v>
       </c>
       <c r="K18" s="3">
         <v>2101400</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>115300</v>
+        <v>120800</v>
       </c>
       <c r="E20" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="F20" s="3">
-        <v>-197300</v>
+        <v>-206800</v>
       </c>
       <c r="G20" s="3">
-        <v>-21700</v>
+        <v>-22800</v>
       </c>
       <c r="H20" s="3">
-        <v>-108400</v>
+        <v>-113600</v>
       </c>
       <c r="I20" s="3">
-        <v>-58300</v>
+        <v>-61200</v>
       </c>
       <c r="J20" s="3">
-        <v>43900</v>
+        <v>46000</v>
       </c>
       <c r="K20" s="3">
         <v>78300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4320400</v>
+        <v>4515200</v>
       </c>
       <c r="E21" s="3">
-        <v>2236200</v>
+        <v>2330800</v>
       </c>
       <c r="F21" s="3">
-        <v>785400</v>
+        <v>812300</v>
       </c>
       <c r="G21" s="3">
-        <v>-3053800</v>
+        <v>-3213100</v>
       </c>
       <c r="H21" s="3">
-        <v>1523700</v>
+        <v>1583600</v>
       </c>
       <c r="I21" s="3">
-        <v>3649100</v>
+        <v>3809100</v>
       </c>
       <c r="J21" s="3">
-        <v>3139500</v>
+        <v>3275500</v>
       </c>
       <c r="K21" s="3">
         <v>3371900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>184200</v>
+        <v>193000</v>
       </c>
       <c r="E22" s="3">
-        <v>224500</v>
+        <v>235300</v>
       </c>
       <c r="F22" s="3">
-        <v>115200</v>
+        <v>120700</v>
       </c>
       <c r="G22" s="3">
-        <v>118700</v>
+        <v>124400</v>
       </c>
       <c r="H22" s="3">
-        <v>156600</v>
+        <v>164100</v>
       </c>
       <c r="I22" s="3">
-        <v>165000</v>
+        <v>172900</v>
       </c>
       <c r="J22" s="3">
-        <v>159000</v>
+        <v>166600</v>
       </c>
       <c r="K22" s="3">
         <v>166300</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3144100</v>
+        <v>3295100</v>
       </c>
       <c r="E23" s="3">
-        <v>1012400</v>
+        <v>1061000</v>
       </c>
       <c r="F23" s="3">
-        <v>-169000</v>
+        <v>-177200</v>
       </c>
       <c r="G23" s="3">
-        <v>-4154600</v>
+        <v>-4354200</v>
       </c>
       <c r="H23" s="3">
-        <v>334400</v>
+        <v>350400</v>
       </c>
       <c r="I23" s="3">
-        <v>2296000</v>
+        <v>2406300</v>
       </c>
       <c r="J23" s="3">
-        <v>1826800</v>
+        <v>1914600</v>
       </c>
       <c r="K23" s="3">
         <v>2013500</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1107900</v>
+        <v>1161100</v>
       </c>
       <c r="E24" s="3">
-        <v>799800</v>
+        <v>838200</v>
       </c>
       <c r="F24" s="3">
-        <v>556100</v>
+        <v>582800</v>
       </c>
       <c r="G24" s="3">
-        <v>-407300</v>
+        <v>-426800</v>
       </c>
       <c r="H24" s="3">
-        <v>217400</v>
+        <v>227900</v>
       </c>
       <c r="I24" s="3">
-        <v>716200</v>
+        <v>750600</v>
       </c>
       <c r="J24" s="3">
-        <v>539300</v>
+        <v>565200</v>
       </c>
       <c r="K24" s="3">
         <v>579900</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2036200</v>
+        <v>2134000</v>
       </c>
       <c r="E26" s="3">
-        <v>212600</v>
+        <v>222800</v>
       </c>
       <c r="F26" s="3">
-        <v>-725100</v>
+        <v>-760000</v>
       </c>
       <c r="G26" s="3">
-        <v>-3747300</v>
+        <v>-3927300</v>
       </c>
       <c r="H26" s="3">
-        <v>116900</v>
+        <v>122500</v>
       </c>
       <c r="I26" s="3">
-        <v>1579800</v>
+        <v>1655700</v>
       </c>
       <c r="J26" s="3">
-        <v>1287500</v>
+        <v>1349300</v>
       </c>
       <c r="K26" s="3">
         <v>1433600</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2020000</v>
+        <v>2117000</v>
       </c>
       <c r="E27" s="3">
-        <v>256800</v>
+        <v>269200</v>
       </c>
       <c r="F27" s="3">
-        <v>-754500</v>
+        <v>-790700</v>
       </c>
       <c r="G27" s="3">
-        <v>-3763800</v>
+        <v>-3944600</v>
       </c>
       <c r="H27" s="3">
-        <v>96200</v>
+        <v>100900</v>
       </c>
       <c r="I27" s="3">
-        <v>1565500</v>
+        <v>1640600</v>
       </c>
       <c r="J27" s="3">
-        <v>1336600</v>
+        <v>1400800</v>
       </c>
       <c r="K27" s="3">
         <v>1413700</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-115300</v>
+        <v>-120800</v>
       </c>
       <c r="E32" s="3">
-        <v>-16300</v>
+        <v>-17100</v>
       </c>
       <c r="F32" s="3">
-        <v>197300</v>
+        <v>206800</v>
       </c>
       <c r="G32" s="3">
-        <v>21700</v>
+        <v>22800</v>
       </c>
       <c r="H32" s="3">
-        <v>108400</v>
+        <v>113600</v>
       </c>
       <c r="I32" s="3">
-        <v>58300</v>
+        <v>61200</v>
       </c>
       <c r="J32" s="3">
-        <v>-43900</v>
+        <v>-46000</v>
       </c>
       <c r="K32" s="3">
         <v>-78300</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2020000</v>
+        <v>2117000</v>
       </c>
       <c r="E33" s="3">
-        <v>256800</v>
+        <v>269200</v>
       </c>
       <c r="F33" s="3">
-        <v>-754500</v>
+        <v>-790700</v>
       </c>
       <c r="G33" s="3">
-        <v>-3763800</v>
+        <v>-3944600</v>
       </c>
       <c r="H33" s="3">
-        <v>96200</v>
+        <v>100900</v>
       </c>
       <c r="I33" s="3">
-        <v>1565500</v>
+        <v>1640600</v>
       </c>
       <c r="J33" s="3">
-        <v>1336600</v>
+        <v>1400800</v>
       </c>
       <c r="K33" s="3">
         <v>1413700</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2020000</v>
+        <v>2117000</v>
       </c>
       <c r="E35" s="3">
-        <v>256800</v>
+        <v>269200</v>
       </c>
       <c r="F35" s="3">
-        <v>-754500</v>
+        <v>-790700</v>
       </c>
       <c r="G35" s="3">
-        <v>-3763800</v>
+        <v>-3944600</v>
       </c>
       <c r="H35" s="3">
-        <v>96200</v>
+        <v>100900</v>
       </c>
       <c r="I35" s="3">
-        <v>1565500</v>
+        <v>1640600</v>
       </c>
       <c r="J35" s="3">
-        <v>1336600</v>
+        <v>1400800</v>
       </c>
       <c r="K35" s="3">
         <v>1413700</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1897400</v>
+        <v>1988500</v>
       </c>
       <c r="E41" s="3">
-        <v>2003000</v>
+        <v>2099200</v>
       </c>
       <c r="F41" s="3">
-        <v>2195000</v>
+        <v>2300500</v>
       </c>
       <c r="G41" s="3">
-        <v>2126300</v>
+        <v>2228400</v>
       </c>
       <c r="H41" s="3">
-        <v>7226200</v>
+        <v>7573300</v>
       </c>
       <c r="I41" s="3">
-        <v>2591700</v>
+        <v>2716200</v>
       </c>
       <c r="J41" s="3">
-        <v>3425800</v>
+        <v>3590300</v>
       </c>
       <c r="K41" s="3">
         <v>3370100</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3929500</v>
+        <v>4118300</v>
       </c>
       <c r="E42" s="3">
-        <v>3986400</v>
+        <v>4177800</v>
       </c>
       <c r="F42" s="3">
-        <v>3005900</v>
+        <v>3150300</v>
       </c>
       <c r="G42" s="3">
-        <v>2795400</v>
+        <v>2929700</v>
       </c>
       <c r="H42" s="3">
-        <v>2855500</v>
+        <v>2992600</v>
       </c>
       <c r="I42" s="3">
-        <v>5065200</v>
+        <v>5308500</v>
       </c>
       <c r="J42" s="3">
-        <v>4911500</v>
+        <v>5147400</v>
       </c>
       <c r="K42" s="3">
         <v>5707900</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7791000</v>
+        <v>8165200</v>
       </c>
       <c r="E43" s="3">
-        <v>8000100</v>
+        <v>8384400</v>
       </c>
       <c r="F43" s="3">
-        <v>9719800</v>
+        <v>10186700</v>
       </c>
       <c r="G43" s="3">
-        <v>16838800</v>
+        <v>17647700</v>
       </c>
       <c r="H43" s="3">
-        <v>20652000</v>
+        <v>21644000</v>
       </c>
       <c r="I43" s="3">
-        <v>10221900</v>
+        <v>10713000</v>
       </c>
       <c r="J43" s="3">
-        <v>10768400</v>
+        <v>11285700</v>
       </c>
       <c r="K43" s="3">
         <v>9880400</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3246300</v>
+        <v>3402300</v>
       </c>
       <c r="E44" s="3">
-        <v>3565900</v>
+        <v>3737200</v>
       </c>
       <c r="F44" s="3">
-        <v>3380100</v>
+        <v>3542500</v>
       </c>
       <c r="G44" s="3">
-        <v>2951700</v>
+        <v>3093500</v>
       </c>
       <c r="H44" s="3">
-        <v>7154800</v>
+        <v>7498500</v>
       </c>
       <c r="I44" s="3">
-        <v>3285500</v>
+        <v>3443300</v>
       </c>
       <c r="J44" s="3">
-        <v>3255300</v>
+        <v>3411700</v>
       </c>
       <c r="K44" s="3">
         <v>2680100</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>443100</v>
+        <v>464400</v>
       </c>
       <c r="E45" s="3">
-        <v>227800</v>
+        <v>238800</v>
       </c>
       <c r="F45" s="3">
-        <v>320400</v>
+        <v>335800</v>
       </c>
       <c r="G45" s="3">
-        <v>472700</v>
+        <v>495400</v>
       </c>
       <c r="H45" s="3">
-        <v>808000</v>
+        <v>846800</v>
       </c>
       <c r="I45" s="3">
-        <v>733400</v>
+        <v>768700</v>
       </c>
       <c r="J45" s="3">
-        <v>953700</v>
+        <v>999500</v>
       </c>
       <c r="K45" s="3">
         <v>841400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17307300</v>
+        <v>18138700</v>
       </c>
       <c r="E46" s="3">
-        <v>17783200</v>
+        <v>18637400</v>
       </c>
       <c r="F46" s="3">
-        <v>18621200</v>
+        <v>19515700</v>
       </c>
       <c r="G46" s="3">
-        <v>17726500</v>
+        <v>18578000</v>
       </c>
       <c r="H46" s="3">
-        <v>20230700</v>
+        <v>21202500</v>
       </c>
       <c r="I46" s="3">
-        <v>21897700</v>
+        <v>22949600</v>
       </c>
       <c r="J46" s="3">
-        <v>23314700</v>
+        <v>24434600</v>
       </c>
       <c r="K46" s="3">
         <v>22479900</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3520400</v>
+        <v>3689500</v>
       </c>
       <c r="E47" s="3">
-        <v>3608000</v>
+        <v>3781300</v>
       </c>
       <c r="F47" s="3">
-        <v>3910700</v>
+        <v>4098500</v>
       </c>
       <c r="G47" s="3">
-        <v>4043600</v>
+        <v>4237800</v>
       </c>
       <c r="H47" s="3">
-        <v>2374700</v>
+        <v>2488800</v>
       </c>
       <c r="I47" s="3">
-        <v>1086800</v>
+        <v>1139000</v>
       </c>
       <c r="J47" s="3">
-        <v>1232200</v>
+        <v>1291400</v>
       </c>
       <c r="K47" s="3">
         <v>1111400</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2468300</v>
+        <v>2586800</v>
       </c>
       <c r="E48" s="3">
-        <v>2580800</v>
+        <v>2704800</v>
       </c>
       <c r="F48" s="3">
-        <v>1484600</v>
+        <v>1555900</v>
       </c>
       <c r="G48" s="3">
-        <v>1485500</v>
+        <v>1556900</v>
       </c>
       <c r="H48" s="3">
-        <v>3866900</v>
+        <v>4052600</v>
       </c>
       <c r="I48" s="3">
-        <v>1837200</v>
+        <v>1925500</v>
       </c>
       <c r="J48" s="3">
-        <v>1541400</v>
+        <v>1615500</v>
       </c>
       <c r="K48" s="3">
         <v>1346400</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>5038400</v>
+        <v>5280400</v>
       </c>
       <c r="E49" s="3">
-        <v>4359400</v>
+        <v>4568800</v>
       </c>
       <c r="F49" s="3">
-        <v>4361200</v>
+        <v>4570700</v>
       </c>
       <c r="G49" s="3">
-        <v>4223700</v>
+        <v>4426600</v>
       </c>
       <c r="H49" s="3">
-        <v>13682200</v>
+        <v>14339500</v>
       </c>
       <c r="I49" s="3">
-        <v>6458200</v>
+        <v>6768400</v>
       </c>
       <c r="J49" s="3">
-        <v>6289300</v>
+        <v>6591400</v>
       </c>
       <c r="K49" s="3">
         <v>5618000</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3038200</v>
+        <v>3184200</v>
       </c>
       <c r="E52" s="3">
-        <v>3601800</v>
+        <v>3774900</v>
       </c>
       <c r="F52" s="3">
-        <v>2675000</v>
+        <v>2803500</v>
       </c>
       <c r="G52" s="3">
-        <v>2547500</v>
+        <v>2669900</v>
       </c>
       <c r="H52" s="3">
-        <v>1963900</v>
+        <v>2058300</v>
       </c>
       <c r="I52" s="3">
-        <v>1575400</v>
+        <v>1651100</v>
       </c>
       <c r="J52" s="3">
-        <v>1540000</v>
+        <v>1614000</v>
       </c>
       <c r="K52" s="3">
         <v>1144200</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>31372600</v>
+        <v>32879600</v>
       </c>
       <c r="E54" s="3">
-        <v>31933300</v>
+        <v>33467200</v>
       </c>
       <c r="F54" s="3">
-        <v>31052600</v>
+        <v>32544300</v>
       </c>
       <c r="G54" s="3">
-        <v>30026800</v>
+        <v>31469100</v>
       </c>
       <c r="H54" s="3">
-        <v>32830700</v>
+        <v>34407700</v>
       </c>
       <c r="I54" s="3">
-        <v>32855300</v>
+        <v>34433500</v>
       </c>
       <c r="J54" s="3">
-        <v>33917700</v>
+        <v>35546900</v>
       </c>
       <c r="K54" s="3">
         <v>31699800</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3695900</v>
+        <v>3873400</v>
       </c>
       <c r="E57" s="3">
-        <v>3512800</v>
+        <v>3681500</v>
       </c>
       <c r="F57" s="3">
-        <v>3452700</v>
+        <v>3618500</v>
       </c>
       <c r="G57" s="3">
-        <v>3041000</v>
+        <v>3187100</v>
       </c>
       <c r="H57" s="3">
-        <v>5911300</v>
+        <v>6195200</v>
       </c>
       <c r="I57" s="3">
-        <v>2586800</v>
+        <v>2711100</v>
       </c>
       <c r="J57" s="3">
-        <v>2827600</v>
+        <v>2963400</v>
       </c>
       <c r="K57" s="3">
         <v>2414300</v>
@@ -2310,25 +2310,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1171300</v>
+        <v>1227600</v>
       </c>
       <c r="E58" s="3">
-        <v>1354800</v>
+        <v>1419900</v>
       </c>
       <c r="F58" s="3">
-        <v>260500</v>
+        <v>273100</v>
       </c>
       <c r="G58" s="3">
-        <v>294000</v>
+        <v>308200</v>
       </c>
       <c r="H58" s="3">
-        <v>1856300</v>
+        <v>1945400</v>
       </c>
       <c r="I58" s="3">
-        <v>274500</v>
+        <v>287700</v>
       </c>
       <c r="J58" s="3">
-        <v>263500</v>
+        <v>276200</v>
       </c>
       <c r="K58" s="3">
         <v>870000</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8341300</v>
+        <v>8742000</v>
       </c>
       <c r="E59" s="3">
-        <v>8629700</v>
+        <v>9044200</v>
       </c>
       <c r="F59" s="3">
-        <v>9101800</v>
+        <v>9539000</v>
       </c>
       <c r="G59" s="3">
-        <v>11291600</v>
+        <v>11834000</v>
       </c>
       <c r="H59" s="3">
-        <v>14203200</v>
+        <v>14885500</v>
       </c>
       <c r="I59" s="3">
-        <v>7201000</v>
+        <v>7546900</v>
       </c>
       <c r="J59" s="3">
-        <v>8558000</v>
+        <v>8969100</v>
       </c>
       <c r="K59" s="3">
         <v>7472300</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13208500</v>
+        <v>13843000</v>
       </c>
       <c r="E60" s="3">
-        <v>13497300</v>
+        <v>14145600</v>
       </c>
       <c r="F60" s="3">
-        <v>12815000</v>
+        <v>13430600</v>
       </c>
       <c r="G60" s="3">
-        <v>11499600</v>
+        <v>12052000</v>
       </c>
       <c r="H60" s="3">
-        <v>11646800</v>
+        <v>12206200</v>
       </c>
       <c r="I60" s="3">
-        <v>10062400</v>
+        <v>10545700</v>
       </c>
       <c r="J60" s="3">
-        <v>11649200</v>
+        <v>12208800</v>
       </c>
       <c r="K60" s="3">
         <v>10756700</v>
@@ -2418,25 +2418,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3387900</v>
+        <v>3550600</v>
       </c>
       <c r="E61" s="3">
-        <v>4142300</v>
+        <v>4341300</v>
       </c>
       <c r="F61" s="3">
-        <v>3566700</v>
+        <v>3738000</v>
       </c>
       <c r="G61" s="3">
-        <v>3524000</v>
+        <v>3693200</v>
       </c>
       <c r="H61" s="3">
-        <v>2155200</v>
+        <v>2258700</v>
       </c>
       <c r="I61" s="3">
-        <v>2627800</v>
+        <v>2754100</v>
       </c>
       <c r="J61" s="3">
-        <v>2526200</v>
+        <v>2647500</v>
       </c>
       <c r="K61" s="3">
         <v>2598600</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4934800</v>
+        <v>5171900</v>
       </c>
       <c r="E62" s="3">
-        <v>4833500</v>
+        <v>5065700</v>
       </c>
       <c r="F62" s="3">
-        <v>4530000</v>
+        <v>4747600</v>
       </c>
       <c r="G62" s="3">
-        <v>3729900</v>
+        <v>3909000</v>
       </c>
       <c r="H62" s="3">
-        <v>3401200</v>
+        <v>3564500</v>
       </c>
       <c r="I62" s="3">
-        <v>3138400</v>
+        <v>3289200</v>
       </c>
       <c r="J62" s="3">
-        <v>2953300</v>
+        <v>3095200</v>
       </c>
       <c r="K62" s="3">
         <v>1667000</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21358300</v>
+        <v>22384200</v>
       </c>
       <c r="E66" s="3">
-        <v>22394400</v>
+        <v>23470100</v>
       </c>
       <c r="F66" s="3">
-        <v>21003200</v>
+        <v>22012100</v>
       </c>
       <c r="G66" s="3">
-        <v>18826900</v>
+        <v>19731300</v>
       </c>
       <c r="H66" s="3">
-        <v>17281100</v>
+        <v>18111200</v>
       </c>
       <c r="I66" s="3">
-        <v>15925800</v>
+        <v>16690800</v>
       </c>
       <c r="J66" s="3">
-        <v>17244600</v>
+        <v>18072900</v>
       </c>
       <c r="K66" s="3">
         <v>15189400</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5541300</v>
+        <v>5807500</v>
       </c>
       <c r="E72" s="3">
-        <v>4490300</v>
+        <v>4706000</v>
       </c>
       <c r="F72" s="3">
-        <v>5265700</v>
+        <v>5518700</v>
       </c>
       <c r="G72" s="3">
-        <v>6416200</v>
+        <v>6724400</v>
       </c>
       <c r="H72" s="3">
-        <v>10767600</v>
+        <v>11284900</v>
       </c>
       <c r="I72" s="3">
-        <v>12162700</v>
+        <v>12746900</v>
       </c>
       <c r="J72" s="3">
-        <v>11906300</v>
+        <v>12478200</v>
       </c>
       <c r="K72" s="3">
         <v>11652000</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10014300</v>
+        <v>10495400</v>
       </c>
       <c r="E76" s="3">
-        <v>9538900</v>
+        <v>9997100</v>
       </c>
       <c r="F76" s="3">
-        <v>10049400</v>
+        <v>10532200</v>
       </c>
       <c r="G76" s="3">
-        <v>11199900</v>
+        <v>11737900</v>
       </c>
       <c r="H76" s="3">
-        <v>15549600</v>
+        <v>16296500</v>
       </c>
       <c r="I76" s="3">
-        <v>16929500</v>
+        <v>17742700</v>
       </c>
       <c r="J76" s="3">
-        <v>16673100</v>
+        <v>17474000</v>
       </c>
       <c r="K76" s="3">
         <v>16510400</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2020000</v>
+        <v>2117000</v>
       </c>
       <c r="E81" s="3">
-        <v>256800</v>
+        <v>269200</v>
       </c>
       <c r="F81" s="3">
-        <v>-754500</v>
+        <v>-790700</v>
       </c>
       <c r="G81" s="3">
-        <v>-3763800</v>
+        <v>-3944600</v>
       </c>
       <c r="H81" s="3">
-        <v>96200</v>
+        <v>100900</v>
       </c>
       <c r="I81" s="3">
-        <v>1565500</v>
+        <v>1640600</v>
       </c>
       <c r="J81" s="3">
-        <v>1336600</v>
+        <v>1400800</v>
       </c>
       <c r="K81" s="3">
         <v>1413700</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>986400</v>
+        <v>1033700</v>
       </c>
       <c r="E83" s="3">
-        <v>993500</v>
+        <v>1041300</v>
       </c>
       <c r="F83" s="3">
-        <v>834300</v>
+        <v>874400</v>
       </c>
       <c r="G83" s="3">
-        <v>976400</v>
+        <v>1023300</v>
       </c>
       <c r="H83" s="3">
-        <v>1026700</v>
+        <v>1076000</v>
       </c>
       <c r="I83" s="3">
-        <v>1181200</v>
+        <v>1237900</v>
       </c>
       <c r="J83" s="3">
-        <v>1147000</v>
+        <v>1202100</v>
       </c>
       <c r="K83" s="3">
         <v>1195900</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3342900</v>
+        <v>3503500</v>
       </c>
       <c r="E89" s="3">
-        <v>1949500</v>
+        <v>2043200</v>
       </c>
       <c r="F89" s="3">
-        <v>1079400</v>
+        <v>1131200</v>
       </c>
       <c r="G89" s="3">
-        <v>1109300</v>
+        <v>1162600</v>
       </c>
       <c r="H89" s="3">
-        <v>1618700</v>
+        <v>1696500</v>
       </c>
       <c r="I89" s="3">
-        <v>2379800</v>
+        <v>2494100</v>
       </c>
       <c r="J89" s="3">
-        <v>2160800</v>
+        <v>2264600</v>
       </c>
       <c r="K89" s="3">
         <v>2047700</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-519100</v>
+        <v>-544100</v>
       </c>
       <c r="E91" s="3">
-        <v>-591300</v>
+        <v>-619700</v>
       </c>
       <c r="F91" s="3">
-        <v>-459300</v>
+        <v>-481300</v>
       </c>
       <c r="G91" s="3">
-        <v>-447900</v>
+        <v>-469500</v>
       </c>
       <c r="H91" s="3">
-        <v>-708100</v>
+        <v>-742200</v>
       </c>
       <c r="I91" s="3">
-        <v>-963400</v>
+        <v>-1009600</v>
       </c>
       <c r="J91" s="3">
-        <v>-614900</v>
+        <v>-644400</v>
       </c>
       <c r="K91" s="3">
         <v>-530300</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1756300</v>
+        <v>-1840700</v>
       </c>
       <c r="E94" s="3">
-        <v>-409100</v>
+        <v>-428800</v>
       </c>
       <c r="F94" s="3">
-        <v>-477400</v>
+        <v>-500300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1856700</v>
+        <v>-1945900</v>
       </c>
       <c r="H94" s="3">
-        <v>-957000</v>
+        <v>-1003000</v>
       </c>
       <c r="I94" s="3">
-        <v>-922800</v>
+        <v>-967100</v>
       </c>
       <c r="J94" s="3">
-        <v>-868100</v>
+        <v>-909700</v>
       </c>
       <c r="K94" s="3">
         <v>-1308200</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-692800</v>
+        <v>-726100</v>
       </c>
       <c r="E96" s="3">
-        <v>-514200</v>
+        <v>-538900</v>
       </c>
       <c r="F96" s="3">
-        <v>-395700</v>
+        <v>-414700</v>
       </c>
       <c r="G96" s="3">
-        <v>-395600</v>
+        <v>-414600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1416900</v>
+        <v>-1484900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1309900</v>
+        <v>-1372800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1137600</v>
+        <v>-1192300</v>
       </c>
       <c r="K96" s="3">
         <v>-1077900</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1443300</v>
+        <v>-1512700</v>
       </c>
       <c r="E100" s="3">
-        <v>-797200</v>
+        <v>-835500</v>
       </c>
       <c r="F100" s="3">
-        <v>-471100</v>
+        <v>-493700</v>
       </c>
       <c r="G100" s="3">
-        <v>632900</v>
+        <v>663300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1356700</v>
+        <v>-1421800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1237400</v>
+        <v>-1296900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2105700</v>
+        <v>-2206900</v>
       </c>
       <c r="K100" s="3">
         <v>-1119700</v>
@@ -3711,25 +3711,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-312800</v>
+        <v>-327800</v>
       </c>
       <c r="E101" s="3">
-        <v>29800</v>
+        <v>31200</v>
       </c>
       <c r="F101" s="3">
-        <v>158500</v>
+        <v>166100</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
+        <v>-11000</v>
       </c>
       <c r="H101" s="3">
-        <v>318500</v>
+        <v>333800</v>
       </c>
       <c r="I101" s="3">
-        <v>-307800</v>
+        <v>-322600</v>
       </c>
       <c r="J101" s="3">
-        <v>685000</v>
+        <v>717900</v>
       </c>
       <c r="K101" s="3">
         <v>75500</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-169500</v>
+        <v>-177600</v>
       </c>
       <c r="E102" s="3">
-        <v>773000</v>
+        <v>810100</v>
       </c>
       <c r="F102" s="3">
-        <v>289400</v>
+        <v>303300</v>
       </c>
       <c r="G102" s="3">
-        <v>-125000</v>
+        <v>-131000</v>
       </c>
       <c r="H102" s="3">
-        <v>-376400</v>
+        <v>-394500</v>
       </c>
       <c r="I102" s="3">
-        <v>-88300</v>
+        <v>-92500</v>
       </c>
       <c r="J102" s="3">
-        <v>-127900</v>
+        <v>-134000</v>
       </c>
       <c r="K102" s="3">
         <v>-304600</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28140100</v>
+        <v>26422700</v>
       </c>
       <c r="E8" s="3">
-        <v>27513600</v>
+        <v>25834500</v>
       </c>
       <c r="F8" s="3">
-        <v>25530400</v>
+        <v>23972300</v>
       </c>
       <c r="G8" s="3">
-        <v>24869200</v>
+        <v>23351500</v>
       </c>
       <c r="H8" s="3">
-        <v>26678100</v>
+        <v>25049900</v>
       </c>
       <c r="I8" s="3">
-        <v>29899500</v>
+        <v>28074800</v>
       </c>
       <c r="J8" s="3">
-        <v>27606500</v>
+        <v>25921700</v>
       </c>
       <c r="K8" s="3">
         <v>26775800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16703300</v>
+        <v>15683900</v>
       </c>
       <c r="E9" s="3">
-        <v>17201400</v>
+        <v>16151700</v>
       </c>
       <c r="F9" s="3">
-        <v>16553000</v>
+        <v>15542800</v>
       </c>
       <c r="G9" s="3">
-        <v>18431000</v>
+        <v>17306200</v>
       </c>
       <c r="H9" s="3">
-        <v>18355700</v>
+        <v>17235400</v>
       </c>
       <c r="I9" s="3">
-        <v>19232400</v>
+        <v>18058600</v>
       </c>
       <c r="J9" s="3">
-        <v>17500800</v>
+        <v>16432700</v>
       </c>
       <c r="K9" s="3">
         <v>17469500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11436800</v>
+        <v>10738900</v>
       </c>
       <c r="E10" s="3">
-        <v>10312100</v>
+        <v>9682800</v>
       </c>
       <c r="F10" s="3">
-        <v>8977400</v>
+        <v>8429500</v>
       </c>
       <c r="G10" s="3">
-        <v>6438200</v>
+        <v>6045300</v>
       </c>
       <c r="H10" s="3">
-        <v>8322400</v>
+        <v>7814500</v>
       </c>
       <c r="I10" s="3">
-        <v>10667200</v>
+        <v>10016200</v>
       </c>
       <c r="J10" s="3">
-        <v>10105700</v>
+        <v>9488900</v>
       </c>
       <c r="K10" s="3">
         <v>9306300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4759200</v>
+        <v>4468800</v>
       </c>
       <c r="E12" s="3">
-        <v>4658500</v>
+        <v>4374200</v>
       </c>
       <c r="F12" s="3">
-        <v>4554900</v>
+        <v>4276900</v>
       </c>
       <c r="G12" s="3">
-        <v>4308400</v>
+        <v>4045400</v>
       </c>
       <c r="H12" s="3">
-        <v>3498500</v>
+        <v>3285000</v>
       </c>
       <c r="I12" s="3">
-        <v>3974500</v>
+        <v>3732000</v>
       </c>
       <c r="J12" s="3">
-        <v>4359700</v>
+        <v>4093700</v>
       </c>
       <c r="K12" s="3">
         <v>3693400</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>174900</v>
+        <v>164200</v>
       </c>
       <c r="E14" s="3">
-        <v>216100</v>
+        <v>203000</v>
       </c>
       <c r="F14" s="3">
-        <v>1024200</v>
+        <v>961700</v>
       </c>
       <c r="G14" s="3">
-        <v>3144500</v>
+        <v>2952600</v>
       </c>
       <c r="H14" s="3">
-        <v>906200</v>
+        <v>850900</v>
       </c>
       <c r="I14" s="3">
-        <v>610300</v>
+        <v>573000</v>
       </c>
       <c r="J14" s="3">
-        <v>176300</v>
+        <v>165500</v>
       </c>
       <c r="K14" s="3">
         <v>524400</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24772800</v>
+        <v>23261000</v>
       </c>
       <c r="E17" s="3">
-        <v>26234400</v>
+        <v>24633300</v>
       </c>
       <c r="F17" s="3">
-        <v>25380000</v>
+        <v>23831100</v>
       </c>
       <c r="G17" s="3">
-        <v>29076300</v>
+        <v>27301800</v>
       </c>
       <c r="H17" s="3">
-        <v>26050000</v>
+        <v>24460200</v>
       </c>
       <c r="I17" s="3">
-        <v>27259200</v>
+        <v>25595600</v>
       </c>
       <c r="J17" s="3">
-        <v>25571300</v>
+        <v>24010700</v>
       </c>
       <c r="K17" s="3">
         <v>24674400</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3367300</v>
+        <v>3161800</v>
       </c>
       <c r="E18" s="3">
-        <v>1279200</v>
+        <v>1201100</v>
       </c>
       <c r="F18" s="3">
-        <v>150400</v>
+        <v>141200</v>
       </c>
       <c r="G18" s="3">
-        <v>-4207000</v>
+        <v>-3950300</v>
       </c>
       <c r="H18" s="3">
-        <v>628100</v>
+        <v>589800</v>
       </c>
       <c r="I18" s="3">
-        <v>2640400</v>
+        <v>2479200</v>
       </c>
       <c r="J18" s="3">
-        <v>2035200</v>
+        <v>1911000</v>
       </c>
       <c r="K18" s="3">
         <v>2101400</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>120800</v>
+        <v>113500</v>
       </c>
       <c r="E20" s="3">
-        <v>17100</v>
+        <v>16000</v>
       </c>
       <c r="F20" s="3">
-        <v>-206800</v>
+        <v>-194200</v>
       </c>
       <c r="G20" s="3">
-        <v>-22800</v>
+        <v>-21400</v>
       </c>
       <c r="H20" s="3">
-        <v>-113600</v>
+        <v>-106700</v>
       </c>
       <c r="I20" s="3">
-        <v>-61200</v>
+        <v>-57400</v>
       </c>
       <c r="J20" s="3">
-        <v>46000</v>
+        <v>43200</v>
       </c>
       <c r="K20" s="3">
         <v>78300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4515200</v>
+        <v>4253300</v>
       </c>
       <c r="E21" s="3">
-        <v>2330800</v>
+        <v>2202300</v>
       </c>
       <c r="F21" s="3">
-        <v>812300</v>
+        <v>774300</v>
       </c>
       <c r="G21" s="3">
-        <v>-3213100</v>
+        <v>-3003400</v>
       </c>
       <c r="H21" s="3">
-        <v>1583600</v>
+        <v>1501200</v>
       </c>
       <c r="I21" s="3">
-        <v>3809100</v>
+        <v>3593100</v>
       </c>
       <c r="J21" s="3">
-        <v>3275500</v>
+        <v>3091500</v>
       </c>
       <c r="K21" s="3">
         <v>3371900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>193000</v>
+        <v>181200</v>
       </c>
       <c r="E22" s="3">
-        <v>235300</v>
+        <v>220900</v>
       </c>
       <c r="F22" s="3">
-        <v>120700</v>
+        <v>113400</v>
       </c>
       <c r="G22" s="3">
-        <v>124400</v>
+        <v>116800</v>
       </c>
       <c r="H22" s="3">
-        <v>164100</v>
+        <v>154100</v>
       </c>
       <c r="I22" s="3">
-        <v>172900</v>
+        <v>162400</v>
       </c>
       <c r="J22" s="3">
-        <v>166600</v>
+        <v>156500</v>
       </c>
       <c r="K22" s="3">
         <v>166300</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3295100</v>
+        <v>3094000</v>
       </c>
       <c r="E23" s="3">
-        <v>1061000</v>
+        <v>996200</v>
       </c>
       <c r="F23" s="3">
-        <v>-177200</v>
+        <v>-166300</v>
       </c>
       <c r="G23" s="3">
-        <v>-4354200</v>
+        <v>-4088400</v>
       </c>
       <c r="H23" s="3">
-        <v>350400</v>
+        <v>329000</v>
       </c>
       <c r="I23" s="3">
-        <v>2406300</v>
+        <v>2259400</v>
       </c>
       <c r="J23" s="3">
-        <v>1914600</v>
+        <v>1797700</v>
       </c>
       <c r="K23" s="3">
         <v>2013500</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1161100</v>
+        <v>1090300</v>
       </c>
       <c r="E24" s="3">
-        <v>838200</v>
+        <v>787000</v>
       </c>
       <c r="F24" s="3">
-        <v>582800</v>
+        <v>547200</v>
       </c>
       <c r="G24" s="3">
-        <v>-426800</v>
+        <v>-400800</v>
       </c>
       <c r="H24" s="3">
-        <v>227900</v>
+        <v>214000</v>
       </c>
       <c r="I24" s="3">
-        <v>750600</v>
+        <v>704800</v>
       </c>
       <c r="J24" s="3">
-        <v>565200</v>
+        <v>530800</v>
       </c>
       <c r="K24" s="3">
         <v>579900</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2134000</v>
+        <v>2003700</v>
       </c>
       <c r="E26" s="3">
-        <v>222800</v>
+        <v>209200</v>
       </c>
       <c r="F26" s="3">
-        <v>-760000</v>
+        <v>-713600</v>
       </c>
       <c r="G26" s="3">
-        <v>-3927300</v>
+        <v>-3687600</v>
       </c>
       <c r="H26" s="3">
-        <v>122500</v>
+        <v>115100</v>
       </c>
       <c r="I26" s="3">
-        <v>1655700</v>
+        <v>1554600</v>
       </c>
       <c r="J26" s="3">
-        <v>1349300</v>
+        <v>1267000</v>
       </c>
       <c r="K26" s="3">
         <v>1433600</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2117000</v>
+        <v>1987800</v>
       </c>
       <c r="E27" s="3">
-        <v>269200</v>
+        <v>252800</v>
       </c>
       <c r="F27" s="3">
-        <v>-790700</v>
+        <v>-742500</v>
       </c>
       <c r="G27" s="3">
-        <v>-3944600</v>
+        <v>-3703900</v>
       </c>
       <c r="H27" s="3">
-        <v>100900</v>
+        <v>94700</v>
       </c>
       <c r="I27" s="3">
-        <v>1640600</v>
+        <v>1540500</v>
       </c>
       <c r="J27" s="3">
-        <v>1400800</v>
+        <v>1315300</v>
       </c>
       <c r="K27" s="3">
         <v>1413700</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-120800</v>
+        <v>-113500</v>
       </c>
       <c r="E32" s="3">
-        <v>-17100</v>
+        <v>-16000</v>
       </c>
       <c r="F32" s="3">
-        <v>206800</v>
+        <v>194200</v>
       </c>
       <c r="G32" s="3">
-        <v>22800</v>
+        <v>21400</v>
       </c>
       <c r="H32" s="3">
-        <v>113600</v>
+        <v>106700</v>
       </c>
       <c r="I32" s="3">
-        <v>61200</v>
+        <v>57400</v>
       </c>
       <c r="J32" s="3">
-        <v>-46000</v>
+        <v>-43200</v>
       </c>
       <c r="K32" s="3">
         <v>-78300</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2117000</v>
+        <v>1987800</v>
       </c>
       <c r="E33" s="3">
-        <v>269200</v>
+        <v>252800</v>
       </c>
       <c r="F33" s="3">
-        <v>-790700</v>
+        <v>-742500</v>
       </c>
       <c r="G33" s="3">
-        <v>-3944600</v>
+        <v>-3703900</v>
       </c>
       <c r="H33" s="3">
-        <v>100900</v>
+        <v>94700</v>
       </c>
       <c r="I33" s="3">
-        <v>1640600</v>
+        <v>1540500</v>
       </c>
       <c r="J33" s="3">
-        <v>1400800</v>
+        <v>1315300</v>
       </c>
       <c r="K33" s="3">
         <v>1413700</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2117000</v>
+        <v>1987800</v>
       </c>
       <c r="E35" s="3">
-        <v>269200</v>
+        <v>252800</v>
       </c>
       <c r="F35" s="3">
-        <v>-790700</v>
+        <v>-742500</v>
       </c>
       <c r="G35" s="3">
-        <v>-3944600</v>
+        <v>-3703900</v>
       </c>
       <c r="H35" s="3">
-        <v>100900</v>
+        <v>94700</v>
       </c>
       <c r="I35" s="3">
-        <v>1640600</v>
+        <v>1540500</v>
       </c>
       <c r="J35" s="3">
-        <v>1400800</v>
+        <v>1315300</v>
       </c>
       <c r="K35" s="3">
         <v>1413700</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1988500</v>
+        <v>1867200</v>
       </c>
       <c r="E41" s="3">
-        <v>2099200</v>
+        <v>1971100</v>
       </c>
       <c r="F41" s="3">
-        <v>2300500</v>
+        <v>2160100</v>
       </c>
       <c r="G41" s="3">
-        <v>2228400</v>
+        <v>2092400</v>
       </c>
       <c r="H41" s="3">
-        <v>7573300</v>
+        <v>7111100</v>
       </c>
       <c r="I41" s="3">
-        <v>2716200</v>
+        <v>2550400</v>
       </c>
       <c r="J41" s="3">
-        <v>3590300</v>
+        <v>3371200</v>
       </c>
       <c r="K41" s="3">
         <v>3370100</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4118300</v>
+        <v>3866900</v>
       </c>
       <c r="E42" s="3">
-        <v>4177800</v>
+        <v>3922900</v>
       </c>
       <c r="F42" s="3">
-        <v>3150300</v>
+        <v>2958000</v>
       </c>
       <c r="G42" s="3">
-        <v>2929700</v>
+        <v>2750900</v>
       </c>
       <c r="H42" s="3">
-        <v>2992600</v>
+        <v>2810000</v>
       </c>
       <c r="I42" s="3">
-        <v>5308500</v>
+        <v>4984500</v>
       </c>
       <c r="J42" s="3">
-        <v>5147400</v>
+        <v>4833300</v>
       </c>
       <c r="K42" s="3">
         <v>5707900</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>8165200</v>
+        <v>7666900</v>
       </c>
       <c r="E43" s="3">
-        <v>8384400</v>
+        <v>7872700</v>
       </c>
       <c r="F43" s="3">
-        <v>10186700</v>
+        <v>9565000</v>
       </c>
       <c r="G43" s="3">
-        <v>17647700</v>
+        <v>16570600</v>
       </c>
       <c r="H43" s="3">
-        <v>21644000</v>
+        <v>20323100</v>
       </c>
       <c r="I43" s="3">
-        <v>10713000</v>
+        <v>10059200</v>
       </c>
       <c r="J43" s="3">
-        <v>11285700</v>
+        <v>10597000</v>
       </c>
       <c r="K43" s="3">
         <v>9880400</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3402300</v>
+        <v>3194600</v>
       </c>
       <c r="E44" s="3">
-        <v>3737200</v>
+        <v>3509100</v>
       </c>
       <c r="F44" s="3">
-        <v>3542500</v>
+        <v>3326300</v>
       </c>
       <c r="G44" s="3">
-        <v>3093500</v>
+        <v>2904700</v>
       </c>
       <c r="H44" s="3">
-        <v>7498500</v>
+        <v>7040900</v>
       </c>
       <c r="I44" s="3">
-        <v>3443300</v>
+        <v>3233200</v>
       </c>
       <c r="J44" s="3">
-        <v>3411700</v>
+        <v>3203500</v>
       </c>
       <c r="K44" s="3">
         <v>2680100</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>464400</v>
+        <v>436000</v>
       </c>
       <c r="E45" s="3">
-        <v>238800</v>
+        <v>224200</v>
       </c>
       <c r="F45" s="3">
-        <v>335800</v>
+        <v>315300</v>
       </c>
       <c r="G45" s="3">
-        <v>495400</v>
+        <v>465100</v>
       </c>
       <c r="H45" s="3">
-        <v>846800</v>
+        <v>795100</v>
       </c>
       <c r="I45" s="3">
-        <v>768700</v>
+        <v>721800</v>
       </c>
       <c r="J45" s="3">
-        <v>999500</v>
+        <v>938500</v>
       </c>
       <c r="K45" s="3">
         <v>841400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>18138700</v>
+        <v>17031700</v>
       </c>
       <c r="E46" s="3">
-        <v>18637400</v>
+        <v>17500000</v>
       </c>
       <c r="F46" s="3">
-        <v>19515700</v>
+        <v>18324700</v>
       </c>
       <c r="G46" s="3">
-        <v>18578000</v>
+        <v>17444200</v>
       </c>
       <c r="H46" s="3">
-        <v>21202500</v>
+        <v>19908500</v>
       </c>
       <c r="I46" s="3">
-        <v>22949600</v>
+        <v>21549000</v>
       </c>
       <c r="J46" s="3">
-        <v>24434600</v>
+        <v>22943400</v>
       </c>
       <c r="K46" s="3">
         <v>22479900</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3689500</v>
+        <v>3464300</v>
       </c>
       <c r="E47" s="3">
-        <v>3781300</v>
+        <v>3550500</v>
       </c>
       <c r="F47" s="3">
-        <v>4098500</v>
+        <v>3848400</v>
       </c>
       <c r="G47" s="3">
-        <v>4237800</v>
+        <v>3979200</v>
       </c>
       <c r="H47" s="3">
-        <v>2488800</v>
+        <v>2336900</v>
       </c>
       <c r="I47" s="3">
-        <v>1139000</v>
+        <v>1069500</v>
       </c>
       <c r="J47" s="3">
-        <v>1291400</v>
+        <v>1212600</v>
       </c>
       <c r="K47" s="3">
         <v>1111400</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2586800</v>
+        <v>2429000</v>
       </c>
       <c r="E48" s="3">
-        <v>2704800</v>
+        <v>2539700</v>
       </c>
       <c r="F48" s="3">
-        <v>1555900</v>
+        <v>1460900</v>
       </c>
       <c r="G48" s="3">
-        <v>1556900</v>
+        <v>1461800</v>
       </c>
       <c r="H48" s="3">
-        <v>4052600</v>
+        <v>3805300</v>
       </c>
       <c r="I48" s="3">
-        <v>1925500</v>
+        <v>1807900</v>
       </c>
       <c r="J48" s="3">
-        <v>1615500</v>
+        <v>1516900</v>
       </c>
       <c r="K48" s="3">
         <v>1346400</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>5280400</v>
+        <v>4958100</v>
       </c>
       <c r="E49" s="3">
-        <v>4568800</v>
+        <v>4290000</v>
       </c>
       <c r="F49" s="3">
-        <v>4570700</v>
+        <v>4291700</v>
       </c>
       <c r="G49" s="3">
-        <v>4426600</v>
+        <v>4156400</v>
       </c>
       <c r="H49" s="3">
-        <v>14339500</v>
+        <v>13464400</v>
       </c>
       <c r="I49" s="3">
-        <v>6768400</v>
+        <v>6355400</v>
       </c>
       <c r="J49" s="3">
-        <v>6591400</v>
+        <v>6189100</v>
       </c>
       <c r="K49" s="3">
         <v>5618000</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>3184200</v>
+        <v>2989900</v>
       </c>
       <c r="E52" s="3">
-        <v>3774900</v>
+        <v>3544500</v>
       </c>
       <c r="F52" s="3">
-        <v>2803500</v>
+        <v>2632400</v>
       </c>
       <c r="G52" s="3">
-        <v>2669900</v>
+        <v>2507000</v>
       </c>
       <c r="H52" s="3">
-        <v>2058300</v>
+        <v>1932700</v>
       </c>
       <c r="I52" s="3">
-        <v>1651100</v>
+        <v>1550300</v>
       </c>
       <c r="J52" s="3">
-        <v>1614000</v>
+        <v>1515500</v>
       </c>
       <c r="K52" s="3">
         <v>1144200</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>32879600</v>
+        <v>30873000</v>
       </c>
       <c r="E54" s="3">
-        <v>33467200</v>
+        <v>31424700</v>
       </c>
       <c r="F54" s="3">
-        <v>32544300</v>
+        <v>30558100</v>
       </c>
       <c r="G54" s="3">
-        <v>31469100</v>
+        <v>29548600</v>
       </c>
       <c r="H54" s="3">
-        <v>34407700</v>
+        <v>32307900</v>
       </c>
       <c r="I54" s="3">
-        <v>34433500</v>
+        <v>32332100</v>
       </c>
       <c r="J54" s="3">
-        <v>35546900</v>
+        <v>33377500</v>
       </c>
       <c r="K54" s="3">
         <v>31699800</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3873400</v>
+        <v>3637000</v>
       </c>
       <c r="E57" s="3">
-        <v>3681500</v>
+        <v>3456800</v>
       </c>
       <c r="F57" s="3">
-        <v>3618500</v>
+        <v>3397700</v>
       </c>
       <c r="G57" s="3">
-        <v>3187100</v>
+        <v>2992600</v>
       </c>
       <c r="H57" s="3">
-        <v>6195200</v>
+        <v>5817100</v>
       </c>
       <c r="I57" s="3">
-        <v>2711100</v>
+        <v>2545600</v>
       </c>
       <c r="J57" s="3">
-        <v>2963400</v>
+        <v>2782600</v>
       </c>
       <c r="K57" s="3">
         <v>2414300</v>
@@ -2310,25 +2310,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1227600</v>
+        <v>1152700</v>
       </c>
       <c r="E58" s="3">
-        <v>1419900</v>
+        <v>1333200</v>
       </c>
       <c r="F58" s="3">
-        <v>273100</v>
+        <v>256400</v>
       </c>
       <c r="G58" s="3">
-        <v>308200</v>
+        <v>289400</v>
       </c>
       <c r="H58" s="3">
-        <v>1945400</v>
+        <v>1826700</v>
       </c>
       <c r="I58" s="3">
-        <v>287700</v>
+        <v>270200</v>
       </c>
       <c r="J58" s="3">
-        <v>276200</v>
+        <v>259300</v>
       </c>
       <c r="K58" s="3">
         <v>870000</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8742000</v>
+        <v>8208500</v>
       </c>
       <c r="E59" s="3">
-        <v>9044200</v>
+        <v>8492300</v>
       </c>
       <c r="F59" s="3">
-        <v>9539000</v>
+        <v>8956800</v>
       </c>
       <c r="G59" s="3">
-        <v>11834000</v>
+        <v>11111800</v>
       </c>
       <c r="H59" s="3">
-        <v>14885500</v>
+        <v>13977000</v>
       </c>
       <c r="I59" s="3">
-        <v>7546900</v>
+        <v>7086400</v>
       </c>
       <c r="J59" s="3">
-        <v>8969100</v>
+        <v>8421800</v>
       </c>
       <c r="K59" s="3">
         <v>7472300</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13843000</v>
+        <v>12998200</v>
       </c>
       <c r="E60" s="3">
-        <v>14145600</v>
+        <v>13282300</v>
       </c>
       <c r="F60" s="3">
-        <v>13430600</v>
+        <v>12610900</v>
       </c>
       <c r="G60" s="3">
-        <v>12052000</v>
+        <v>11316400</v>
       </c>
       <c r="H60" s="3">
-        <v>12206200</v>
+        <v>11461300</v>
       </c>
       <c r="I60" s="3">
-        <v>10545700</v>
+        <v>9902100</v>
       </c>
       <c r="J60" s="3">
-        <v>12208800</v>
+        <v>11463700</v>
       </c>
       <c r="K60" s="3">
         <v>10756700</v>
@@ -2418,25 +2418,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3550600</v>
+        <v>3333900</v>
       </c>
       <c r="E61" s="3">
-        <v>4341300</v>
+        <v>4076400</v>
       </c>
       <c r="F61" s="3">
-        <v>3738000</v>
+        <v>3509900</v>
       </c>
       <c r="G61" s="3">
-        <v>3693200</v>
+        <v>3467800</v>
       </c>
       <c r="H61" s="3">
-        <v>2258700</v>
+        <v>2120800</v>
       </c>
       <c r="I61" s="3">
-        <v>2754100</v>
+        <v>2586000</v>
       </c>
       <c r="J61" s="3">
-        <v>2647500</v>
+        <v>2485900</v>
       </c>
       <c r="K61" s="3">
         <v>2598600</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>5171900</v>
+        <v>4856200</v>
       </c>
       <c r="E62" s="3">
-        <v>5065700</v>
+        <v>4756500</v>
       </c>
       <c r="F62" s="3">
-        <v>4747600</v>
+        <v>4457800</v>
       </c>
       <c r="G62" s="3">
-        <v>3909000</v>
+        <v>3670500</v>
       </c>
       <c r="H62" s="3">
-        <v>3564500</v>
+        <v>3347000</v>
       </c>
       <c r="I62" s="3">
-        <v>3289200</v>
+        <v>3088400</v>
       </c>
       <c r="J62" s="3">
-        <v>3095200</v>
+        <v>2906300</v>
       </c>
       <c r="K62" s="3">
         <v>1667000</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>22384200</v>
+        <v>21018100</v>
       </c>
       <c r="E66" s="3">
-        <v>23470100</v>
+        <v>22037800</v>
       </c>
       <c r="F66" s="3">
-        <v>22012100</v>
+        <v>20668700</v>
       </c>
       <c r="G66" s="3">
-        <v>19731300</v>
+        <v>18527100</v>
       </c>
       <c r="H66" s="3">
-        <v>18111200</v>
+        <v>17005900</v>
       </c>
       <c r="I66" s="3">
-        <v>16690800</v>
+        <v>15672200</v>
       </c>
       <c r="J66" s="3">
-        <v>18072900</v>
+        <v>16970000</v>
       </c>
       <c r="K66" s="3">
         <v>15189400</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5807500</v>
+        <v>5453100</v>
       </c>
       <c r="E72" s="3">
-        <v>4706000</v>
+        <v>4418800</v>
       </c>
       <c r="F72" s="3">
-        <v>5518700</v>
+        <v>5181900</v>
       </c>
       <c r="G72" s="3">
-        <v>6724400</v>
+        <v>6314000</v>
       </c>
       <c r="H72" s="3">
-        <v>11284900</v>
+        <v>10596200</v>
       </c>
       <c r="I72" s="3">
-        <v>12746900</v>
+        <v>11969000</v>
       </c>
       <c r="J72" s="3">
-        <v>12478200</v>
+        <v>11716700</v>
       </c>
       <c r="K72" s="3">
         <v>11652000</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10495400</v>
+        <v>9854800</v>
       </c>
       <c r="E76" s="3">
-        <v>9997100</v>
+        <v>9387000</v>
       </c>
       <c r="F76" s="3">
-        <v>10532200</v>
+        <v>9889400</v>
       </c>
       <c r="G76" s="3">
-        <v>11737900</v>
+        <v>11021500</v>
       </c>
       <c r="H76" s="3">
-        <v>16296500</v>
+        <v>15302000</v>
       </c>
       <c r="I76" s="3">
-        <v>17742700</v>
+        <v>16659900</v>
       </c>
       <c r="J76" s="3">
-        <v>17474000</v>
+        <v>16407600</v>
       </c>
       <c r="K76" s="3">
         <v>16510400</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2117000</v>
+        <v>1987800</v>
       </c>
       <c r="E81" s="3">
-        <v>269200</v>
+        <v>252800</v>
       </c>
       <c r="F81" s="3">
-        <v>-790700</v>
+        <v>-742500</v>
       </c>
       <c r="G81" s="3">
-        <v>-3944600</v>
+        <v>-3703900</v>
       </c>
       <c r="H81" s="3">
-        <v>100900</v>
+        <v>94700</v>
       </c>
       <c r="I81" s="3">
-        <v>1640600</v>
+        <v>1540500</v>
       </c>
       <c r="J81" s="3">
-        <v>1400800</v>
+        <v>1315300</v>
       </c>
       <c r="K81" s="3">
         <v>1413700</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1033700</v>
+        <v>970700</v>
       </c>
       <c r="E83" s="3">
-        <v>1041300</v>
+        <v>977700</v>
       </c>
       <c r="F83" s="3">
-        <v>874400</v>
+        <v>821000</v>
       </c>
       <c r="G83" s="3">
-        <v>1023300</v>
+        <v>960900</v>
       </c>
       <c r="H83" s="3">
-        <v>1076000</v>
+        <v>1010300</v>
       </c>
       <c r="I83" s="3">
-        <v>1237900</v>
+        <v>1162400</v>
       </c>
       <c r="J83" s="3">
-        <v>1202100</v>
+        <v>1128700</v>
       </c>
       <c r="K83" s="3">
         <v>1195900</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3503500</v>
+        <v>3289700</v>
       </c>
       <c r="E89" s="3">
-        <v>2043200</v>
+        <v>1918500</v>
       </c>
       <c r="F89" s="3">
-        <v>1131200</v>
+        <v>1062200</v>
       </c>
       <c r="G89" s="3">
-        <v>1162600</v>
+        <v>1091600</v>
       </c>
       <c r="H89" s="3">
-        <v>1696500</v>
+        <v>1592900</v>
       </c>
       <c r="I89" s="3">
-        <v>2494100</v>
+        <v>2341900</v>
       </c>
       <c r="J89" s="3">
-        <v>2264600</v>
+        <v>2126400</v>
       </c>
       <c r="K89" s="3">
         <v>2047700</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-544100</v>
+        <v>-510900</v>
       </c>
       <c r="E91" s="3">
-        <v>-619700</v>
+        <v>-581900</v>
       </c>
       <c r="F91" s="3">
-        <v>-481300</v>
+        <v>-452000</v>
       </c>
       <c r="G91" s="3">
-        <v>-469500</v>
+        <v>-440800</v>
       </c>
       <c r="H91" s="3">
-        <v>-742200</v>
+        <v>-696900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1009600</v>
+        <v>-948000</v>
       </c>
       <c r="J91" s="3">
-        <v>-644400</v>
+        <v>-605100</v>
       </c>
       <c r="K91" s="3">
         <v>-530300</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1840700</v>
+        <v>-1728400</v>
       </c>
       <c r="E94" s="3">
-        <v>-428800</v>
+        <v>-402600</v>
       </c>
       <c r="F94" s="3">
-        <v>-500300</v>
+        <v>-469800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1945900</v>
+        <v>-1827200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1003000</v>
+        <v>-941800</v>
       </c>
       <c r="I94" s="3">
-        <v>-967100</v>
+        <v>-908100</v>
       </c>
       <c r="J94" s="3">
-        <v>-909700</v>
+        <v>-854200</v>
       </c>
       <c r="K94" s="3">
         <v>-1308200</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-726100</v>
+        <v>-566800</v>
       </c>
       <c r="E96" s="3">
-        <v>-538900</v>
+        <v>-375300</v>
       </c>
       <c r="F96" s="3">
-        <v>-414700</v>
+        <v>-389400</v>
       </c>
       <c r="G96" s="3">
-        <v>-414600</v>
+        <v>-389300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1484900</v>
+        <v>-1394300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1372800</v>
+        <v>-1289000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1192300</v>
+        <v>-1119500</v>
       </c>
       <c r="K96" s="3">
         <v>-1077900</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1512700</v>
+        <v>-1420300</v>
       </c>
       <c r="E100" s="3">
-        <v>-835500</v>
+        <v>-784500</v>
       </c>
       <c r="F100" s="3">
-        <v>-493700</v>
+        <v>-463600</v>
       </c>
       <c r="G100" s="3">
-        <v>663300</v>
+        <v>622800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1421800</v>
+        <v>-1335100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1296900</v>
+        <v>-1217700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2206900</v>
+        <v>-2072200</v>
       </c>
       <c r="K100" s="3">
         <v>-1119700</v>
@@ -3711,25 +3711,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-327800</v>
+        <v>-307800</v>
       </c>
       <c r="E101" s="3">
-        <v>31200</v>
+        <v>29300</v>
       </c>
       <c r="F101" s="3">
-        <v>166100</v>
+        <v>156000</v>
       </c>
       <c r="G101" s="3">
-        <v>-11000</v>
+        <v>-10300</v>
       </c>
       <c r="H101" s="3">
-        <v>333800</v>
+        <v>313500</v>
       </c>
       <c r="I101" s="3">
-        <v>-322600</v>
+        <v>-302900</v>
       </c>
       <c r="J101" s="3">
-        <v>717900</v>
+        <v>674100</v>
       </c>
       <c r="K101" s="3">
         <v>75500</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-177600</v>
+        <v>-166800</v>
       </c>
       <c r="E102" s="3">
-        <v>810100</v>
+        <v>760700</v>
       </c>
       <c r="F102" s="3">
-        <v>303300</v>
+        <v>284800</v>
       </c>
       <c r="G102" s="3">
-        <v>-131000</v>
+        <v>-123000</v>
       </c>
       <c r="H102" s="3">
-        <v>-394500</v>
+        <v>-370400</v>
       </c>
       <c r="I102" s="3">
-        <v>-92500</v>
+        <v>-86900</v>
       </c>
       <c r="J102" s="3">
-        <v>-134000</v>
+        <v>-125900</v>
       </c>
       <c r="K102" s="3">
         <v>-304600</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>26422700</v>
+        <v>25651200</v>
       </c>
       <c r="E8" s="3">
-        <v>25834500</v>
+        <v>25080100</v>
       </c>
       <c r="F8" s="3">
-        <v>23972300</v>
+        <v>23272300</v>
       </c>
       <c r="G8" s="3">
-        <v>23351500</v>
+        <v>22669600</v>
       </c>
       <c r="H8" s="3">
-        <v>25049900</v>
+        <v>24318500</v>
       </c>
       <c r="I8" s="3">
-        <v>28074800</v>
+        <v>27255000</v>
       </c>
       <c r="J8" s="3">
-        <v>25921700</v>
+        <v>25164800</v>
       </c>
       <c r="K8" s="3">
         <v>26775800</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15683900</v>
+        <v>15225900</v>
       </c>
       <c r="E9" s="3">
-        <v>16151700</v>
+        <v>15680000</v>
       </c>
       <c r="F9" s="3">
-        <v>15542800</v>
+        <v>15088900</v>
       </c>
       <c r="G9" s="3">
-        <v>17306200</v>
+        <v>16800800</v>
       </c>
       <c r="H9" s="3">
-        <v>17235400</v>
+        <v>16732200</v>
       </c>
       <c r="I9" s="3">
-        <v>18058600</v>
+        <v>17531300</v>
       </c>
       <c r="J9" s="3">
-        <v>16432700</v>
+        <v>15952900</v>
       </c>
       <c r="K9" s="3">
         <v>17469500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10738900</v>
+        <v>10425300</v>
       </c>
       <c r="E10" s="3">
-        <v>9682800</v>
+        <v>9400100</v>
       </c>
       <c r="F10" s="3">
-        <v>8429500</v>
+        <v>8183400</v>
       </c>
       <c r="G10" s="3">
-        <v>6045300</v>
+        <v>5868800</v>
       </c>
       <c r="H10" s="3">
-        <v>7814500</v>
+        <v>7586300</v>
       </c>
       <c r="I10" s="3">
-        <v>10016200</v>
+        <v>9723700</v>
       </c>
       <c r="J10" s="3">
-        <v>9488900</v>
+        <v>9211900</v>
       </c>
       <c r="K10" s="3">
         <v>9306300</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4468800</v>
+        <v>4338300</v>
       </c>
       <c r="E12" s="3">
-        <v>4374200</v>
+        <v>4246400</v>
       </c>
       <c r="F12" s="3">
-        <v>4276900</v>
+        <v>4152100</v>
       </c>
       <c r="G12" s="3">
-        <v>4045400</v>
+        <v>3927300</v>
       </c>
       <c r="H12" s="3">
-        <v>3285000</v>
+        <v>3189100</v>
       </c>
       <c r="I12" s="3">
-        <v>3732000</v>
+        <v>3623000</v>
       </c>
       <c r="J12" s="3">
-        <v>4093700</v>
+        <v>3974100</v>
       </c>
       <c r="K12" s="3">
         <v>3693400</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>164200</v>
+        <v>159400</v>
       </c>
       <c r="E14" s="3">
-        <v>203000</v>
+        <v>197000</v>
       </c>
       <c r="F14" s="3">
-        <v>961700</v>
+        <v>933600</v>
       </c>
       <c r="G14" s="3">
-        <v>2952600</v>
+        <v>2866300</v>
       </c>
       <c r="H14" s="3">
-        <v>850900</v>
+        <v>826100</v>
       </c>
       <c r="I14" s="3">
-        <v>573000</v>
+        <v>556300</v>
       </c>
       <c r="J14" s="3">
-        <v>165500</v>
+        <v>160700</v>
       </c>
       <c r="K14" s="3">
         <v>524400</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>23261000</v>
+        <v>22581800</v>
       </c>
       <c r="E17" s="3">
-        <v>24633300</v>
+        <v>23914000</v>
       </c>
       <c r="F17" s="3">
-        <v>23831100</v>
+        <v>23135200</v>
       </c>
       <c r="G17" s="3">
-        <v>27301800</v>
+        <v>26504600</v>
       </c>
       <c r="H17" s="3">
-        <v>24460200</v>
+        <v>23745900</v>
       </c>
       <c r="I17" s="3">
-        <v>25595600</v>
+        <v>24848200</v>
       </c>
       <c r="J17" s="3">
-        <v>24010700</v>
+        <v>23309600</v>
       </c>
       <c r="K17" s="3">
         <v>24674400</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3161800</v>
+        <v>3069400</v>
       </c>
       <c r="E18" s="3">
-        <v>1201100</v>
+        <v>1166100</v>
       </c>
       <c r="F18" s="3">
-        <v>141200</v>
+        <v>137100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3950300</v>
+        <v>-3834900</v>
       </c>
       <c r="H18" s="3">
-        <v>589800</v>
+        <v>572500</v>
       </c>
       <c r="I18" s="3">
-        <v>2479200</v>
+        <v>2406800</v>
       </c>
       <c r="J18" s="3">
-        <v>1911000</v>
+        <v>1855200</v>
       </c>
       <c r="K18" s="3">
         <v>2101400</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>113500</v>
+        <v>110200</v>
       </c>
       <c r="E20" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="F20" s="3">
-        <v>-194200</v>
+        <v>-188500</v>
       </c>
       <c r="G20" s="3">
-        <v>-21400</v>
+        <v>-20800</v>
       </c>
       <c r="H20" s="3">
-        <v>-106700</v>
+        <v>-103500</v>
       </c>
       <c r="I20" s="3">
-        <v>-57400</v>
+        <v>-55700</v>
       </c>
       <c r="J20" s="3">
-        <v>43200</v>
+        <v>41900</v>
       </c>
       <c r="K20" s="3">
         <v>78300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4253300</v>
+        <v>4114000</v>
       </c>
       <c r="E21" s="3">
-        <v>2202300</v>
+        <v>2122800</v>
       </c>
       <c r="F21" s="3">
-        <v>774300</v>
+        <v>738900</v>
       </c>
       <c r="G21" s="3">
-        <v>-3003400</v>
+        <v>-2930700</v>
       </c>
       <c r="H21" s="3">
-        <v>1501200</v>
+        <v>1441600</v>
       </c>
       <c r="I21" s="3">
-        <v>3593100</v>
+        <v>3470000</v>
       </c>
       <c r="J21" s="3">
-        <v>3091500</v>
+        <v>2983600</v>
       </c>
       <c r="K21" s="3">
         <v>3371900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>181200</v>
+        <v>175900</v>
       </c>
       <c r="E22" s="3">
-        <v>220900</v>
+        <v>214500</v>
       </c>
       <c r="F22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G22" s="3">
         <v>113400</v>
       </c>
-      <c r="G22" s="3">
-        <v>116800</v>
-      </c>
       <c r="H22" s="3">
-        <v>154100</v>
+        <v>149600</v>
       </c>
       <c r="I22" s="3">
-        <v>162400</v>
+        <v>157600</v>
       </c>
       <c r="J22" s="3">
-        <v>156500</v>
+        <v>151900</v>
       </c>
       <c r="K22" s="3">
         <v>166300</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3094000</v>
+        <v>3003700</v>
       </c>
       <c r="E23" s="3">
-        <v>996200</v>
+        <v>967100</v>
       </c>
       <c r="F23" s="3">
-        <v>-166300</v>
+        <v>-161500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4088400</v>
+        <v>-3969000</v>
       </c>
       <c r="H23" s="3">
-        <v>329000</v>
+        <v>319400</v>
       </c>
       <c r="I23" s="3">
-        <v>2259400</v>
+        <v>2193500</v>
       </c>
       <c r="J23" s="3">
-        <v>1797700</v>
+        <v>1745200</v>
       </c>
       <c r="K23" s="3">
         <v>2013500</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1090300</v>
+        <v>1058400</v>
       </c>
       <c r="E24" s="3">
-        <v>787000</v>
+        <v>764100</v>
       </c>
       <c r="F24" s="3">
-        <v>547200</v>
+        <v>531300</v>
       </c>
       <c r="G24" s="3">
-        <v>-400800</v>
+        <v>-389100</v>
       </c>
       <c r="H24" s="3">
-        <v>214000</v>
+        <v>207700</v>
       </c>
       <c r="I24" s="3">
-        <v>704800</v>
+        <v>684200</v>
       </c>
       <c r="J24" s="3">
-        <v>530800</v>
+        <v>515300</v>
       </c>
       <c r="K24" s="3">
         <v>579900</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2003700</v>
+        <v>1945200</v>
       </c>
       <c r="E26" s="3">
-        <v>209200</v>
+        <v>203100</v>
       </c>
       <c r="F26" s="3">
-        <v>-713600</v>
+        <v>-692700</v>
       </c>
       <c r="G26" s="3">
-        <v>-3687600</v>
+        <v>-3580000</v>
       </c>
       <c r="H26" s="3">
-        <v>115100</v>
+        <v>111700</v>
       </c>
       <c r="I26" s="3">
-        <v>1554600</v>
+        <v>1509200</v>
       </c>
       <c r="J26" s="3">
-        <v>1267000</v>
+        <v>1230000</v>
       </c>
       <c r="K26" s="3">
         <v>1433600</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1987800</v>
+        <v>1929800</v>
       </c>
       <c r="E27" s="3">
-        <v>252800</v>
+        <v>245400</v>
       </c>
       <c r="F27" s="3">
-        <v>-742500</v>
+        <v>-720800</v>
       </c>
       <c r="G27" s="3">
-        <v>-3703900</v>
+        <v>-3595700</v>
       </c>
       <c r="H27" s="3">
-        <v>94700</v>
+        <v>91900</v>
       </c>
       <c r="I27" s="3">
-        <v>1540500</v>
+        <v>1495500</v>
       </c>
       <c r="J27" s="3">
-        <v>1315300</v>
+        <v>1276900</v>
       </c>
       <c r="K27" s="3">
         <v>1413700</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-113500</v>
+        <v>-110200</v>
       </c>
       <c r="E32" s="3">
-        <v>-16000</v>
+        <v>-15600</v>
       </c>
       <c r="F32" s="3">
-        <v>194200</v>
+        <v>188500</v>
       </c>
       <c r="G32" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="H32" s="3">
-        <v>106700</v>
+        <v>103500</v>
       </c>
       <c r="I32" s="3">
-        <v>57400</v>
+        <v>55700</v>
       </c>
       <c r="J32" s="3">
-        <v>-43200</v>
+        <v>-41900</v>
       </c>
       <c r="K32" s="3">
         <v>-78300</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1987800</v>
+        <v>1929800</v>
       </c>
       <c r="E33" s="3">
-        <v>252800</v>
+        <v>245400</v>
       </c>
       <c r="F33" s="3">
-        <v>-742500</v>
+        <v>-720800</v>
       </c>
       <c r="G33" s="3">
-        <v>-3703900</v>
+        <v>-3595700</v>
       </c>
       <c r="H33" s="3">
-        <v>94700</v>
+        <v>91900</v>
       </c>
       <c r="I33" s="3">
-        <v>1540500</v>
+        <v>1495500</v>
       </c>
       <c r="J33" s="3">
-        <v>1315300</v>
+        <v>1276900</v>
       </c>
       <c r="K33" s="3">
         <v>1413700</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1987800</v>
+        <v>1929800</v>
       </c>
       <c r="E35" s="3">
-        <v>252800</v>
+        <v>245400</v>
       </c>
       <c r="F35" s="3">
-        <v>-742500</v>
+        <v>-720800</v>
       </c>
       <c r="G35" s="3">
-        <v>-3703900</v>
+        <v>-3595700</v>
       </c>
       <c r="H35" s="3">
-        <v>94700</v>
+        <v>91900</v>
       </c>
       <c r="I35" s="3">
-        <v>1540500</v>
+        <v>1495500</v>
       </c>
       <c r="J35" s="3">
-        <v>1315300</v>
+        <v>1276900</v>
       </c>
       <c r="K35" s="3">
         <v>1413700</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1867200</v>
+        <v>1812700</v>
       </c>
       <c r="E41" s="3">
-        <v>1971100</v>
+        <v>1913500</v>
       </c>
       <c r="F41" s="3">
-        <v>2160100</v>
+        <v>2097000</v>
       </c>
       <c r="G41" s="3">
-        <v>2092400</v>
+        <v>2031300</v>
       </c>
       <c r="H41" s="3">
-        <v>7111100</v>
+        <v>6903500</v>
       </c>
       <c r="I41" s="3">
-        <v>2550400</v>
+        <v>2475900</v>
       </c>
       <c r="J41" s="3">
-        <v>3371200</v>
+        <v>3272800</v>
       </c>
       <c r="K41" s="3">
         <v>3370100</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3866900</v>
+        <v>3754000</v>
       </c>
       <c r="E42" s="3">
-        <v>3922900</v>
+        <v>3808300</v>
       </c>
       <c r="F42" s="3">
-        <v>2958000</v>
+        <v>2871600</v>
       </c>
       <c r="G42" s="3">
-        <v>2750900</v>
+        <v>2670500</v>
       </c>
       <c r="H42" s="3">
-        <v>2810000</v>
+        <v>2727900</v>
       </c>
       <c r="I42" s="3">
-        <v>4984500</v>
+        <v>4838900</v>
       </c>
       <c r="J42" s="3">
-        <v>4833300</v>
+        <v>4692100</v>
       </c>
       <c r="K42" s="3">
         <v>5707900</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7666900</v>
+        <v>7443000</v>
       </c>
       <c r="E43" s="3">
-        <v>7872700</v>
+        <v>7642800</v>
       </c>
       <c r="F43" s="3">
-        <v>9565000</v>
+        <v>9285700</v>
       </c>
       <c r="G43" s="3">
-        <v>16570600</v>
+        <v>16086800</v>
       </c>
       <c r="H43" s="3">
-        <v>20323100</v>
+        <v>19729700</v>
       </c>
       <c r="I43" s="3">
-        <v>10059200</v>
+        <v>9765400</v>
       </c>
       <c r="J43" s="3">
-        <v>10597000</v>
+        <v>10287500</v>
       </c>
       <c r="K43" s="3">
         <v>9880400</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3194600</v>
+        <v>3101300</v>
       </c>
       <c r="E44" s="3">
-        <v>3509100</v>
+        <v>3406700</v>
       </c>
       <c r="F44" s="3">
-        <v>3326300</v>
+        <v>3229200</v>
       </c>
       <c r="G44" s="3">
-        <v>2904700</v>
+        <v>2819900</v>
       </c>
       <c r="H44" s="3">
-        <v>7040900</v>
+        <v>6835300</v>
       </c>
       <c r="I44" s="3">
-        <v>3233200</v>
+        <v>3138800</v>
       </c>
       <c r="J44" s="3">
-        <v>3203500</v>
+        <v>3110000</v>
       </c>
       <c r="K44" s="3">
         <v>2680100</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>436000</v>
+        <v>423300</v>
       </c>
       <c r="E45" s="3">
-        <v>224200</v>
+        <v>217700</v>
       </c>
       <c r="F45" s="3">
-        <v>315300</v>
+        <v>306100</v>
       </c>
       <c r="G45" s="3">
-        <v>465100</v>
+        <v>451600</v>
       </c>
       <c r="H45" s="3">
-        <v>795100</v>
+        <v>771900</v>
       </c>
       <c r="I45" s="3">
-        <v>721800</v>
+        <v>700700</v>
       </c>
       <c r="J45" s="3">
-        <v>938500</v>
+        <v>911100</v>
       </c>
       <c r="K45" s="3">
         <v>841400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17031700</v>
+        <v>16534400</v>
       </c>
       <c r="E46" s="3">
-        <v>17500000</v>
+        <v>16989000</v>
       </c>
       <c r="F46" s="3">
-        <v>18324700</v>
+        <v>17789600</v>
       </c>
       <c r="G46" s="3">
-        <v>17444200</v>
+        <v>16934800</v>
       </c>
       <c r="H46" s="3">
-        <v>19908500</v>
+        <v>19327200</v>
       </c>
       <c r="I46" s="3">
-        <v>21549000</v>
+        <v>20919800</v>
       </c>
       <c r="J46" s="3">
-        <v>22943400</v>
+        <v>22273500</v>
       </c>
       <c r="K46" s="3">
         <v>22479900</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3464300</v>
+        <v>3363200</v>
       </c>
       <c r="E47" s="3">
-        <v>3550500</v>
+        <v>3446800</v>
       </c>
       <c r="F47" s="3">
-        <v>3848400</v>
+        <v>3736000</v>
       </c>
       <c r="G47" s="3">
-        <v>3979200</v>
+        <v>3863000</v>
       </c>
       <c r="H47" s="3">
-        <v>2336900</v>
+        <v>2268600</v>
       </c>
       <c r="I47" s="3">
-        <v>1069500</v>
+        <v>1038200</v>
       </c>
       <c r="J47" s="3">
-        <v>1212600</v>
+        <v>1177200</v>
       </c>
       <c r="K47" s="3">
         <v>1111400</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2429000</v>
+        <v>2358000</v>
       </c>
       <c r="E48" s="3">
-        <v>2539700</v>
+        <v>2465600</v>
       </c>
       <c r="F48" s="3">
-        <v>1460900</v>
+        <v>1418300</v>
       </c>
       <c r="G48" s="3">
-        <v>1461800</v>
+        <v>1419200</v>
       </c>
       <c r="H48" s="3">
-        <v>3805300</v>
+        <v>3694200</v>
       </c>
       <c r="I48" s="3">
-        <v>1807900</v>
+        <v>1755200</v>
       </c>
       <c r="J48" s="3">
-        <v>1516900</v>
+        <v>1472600</v>
       </c>
       <c r="K48" s="3">
         <v>1346400</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4958100</v>
+        <v>4813300</v>
       </c>
       <c r="E49" s="3">
-        <v>4290000</v>
+        <v>4164700</v>
       </c>
       <c r="F49" s="3">
-        <v>4291700</v>
+        <v>4166400</v>
       </c>
       <c r="G49" s="3">
-        <v>4156400</v>
+        <v>4035100</v>
       </c>
       <c r="H49" s="3">
-        <v>13464400</v>
+        <v>13071200</v>
       </c>
       <c r="I49" s="3">
-        <v>6355400</v>
+        <v>6169800</v>
       </c>
       <c r="J49" s="3">
-        <v>6189100</v>
+        <v>6008400</v>
       </c>
       <c r="K49" s="3">
         <v>5618000</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2989900</v>
+        <v>2902600</v>
       </c>
       <c r="E52" s="3">
-        <v>3544500</v>
+        <v>3441000</v>
       </c>
       <c r="F52" s="3">
-        <v>2632400</v>
+        <v>2555500</v>
       </c>
       <c r="G52" s="3">
-        <v>2507000</v>
+        <v>2433800</v>
       </c>
       <c r="H52" s="3">
-        <v>1932700</v>
+        <v>1876200</v>
       </c>
       <c r="I52" s="3">
-        <v>1550300</v>
+        <v>1505000</v>
       </c>
       <c r="J52" s="3">
-        <v>1515500</v>
+        <v>1471300</v>
       </c>
       <c r="K52" s="3">
         <v>1144200</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>30873000</v>
+        <v>29971500</v>
       </c>
       <c r="E54" s="3">
-        <v>31424700</v>
+        <v>30507200</v>
       </c>
       <c r="F54" s="3">
-        <v>30558100</v>
+        <v>29665800</v>
       </c>
       <c r="G54" s="3">
-        <v>29548600</v>
+        <v>28685800</v>
       </c>
       <c r="H54" s="3">
-        <v>32307900</v>
+        <v>31364500</v>
       </c>
       <c r="I54" s="3">
-        <v>32332100</v>
+        <v>31388000</v>
       </c>
       <c r="J54" s="3">
-        <v>33377500</v>
+        <v>32402900</v>
       </c>
       <c r="K54" s="3">
         <v>31699800</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3637000</v>
+        <v>3530800</v>
       </c>
       <c r="E57" s="3">
-        <v>3456800</v>
+        <v>3355900</v>
       </c>
       <c r="F57" s="3">
-        <v>3397700</v>
+        <v>3298500</v>
       </c>
       <c r="G57" s="3">
-        <v>2992600</v>
+        <v>2905200</v>
       </c>
       <c r="H57" s="3">
-        <v>5817100</v>
+        <v>5647300</v>
       </c>
       <c r="I57" s="3">
-        <v>2545600</v>
+        <v>2471300</v>
       </c>
       <c r="J57" s="3">
-        <v>2782600</v>
+        <v>2701300</v>
       </c>
       <c r="K57" s="3">
         <v>2414300</v>
@@ -2310,25 +2310,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1152700</v>
+        <v>1119000</v>
       </c>
       <c r="E58" s="3">
-        <v>1333200</v>
+        <v>1294300</v>
       </c>
       <c r="F58" s="3">
-        <v>256400</v>
+        <v>248900</v>
       </c>
       <c r="G58" s="3">
-        <v>289400</v>
+        <v>280900</v>
       </c>
       <c r="H58" s="3">
-        <v>1826700</v>
+        <v>1773400</v>
       </c>
       <c r="I58" s="3">
-        <v>270200</v>
+        <v>262300</v>
       </c>
       <c r="J58" s="3">
-        <v>259300</v>
+        <v>251800</v>
       </c>
       <c r="K58" s="3">
         <v>870000</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8208500</v>
+        <v>7968800</v>
       </c>
       <c r="E59" s="3">
-        <v>8492300</v>
+        <v>8244300</v>
       </c>
       <c r="F59" s="3">
-        <v>8956800</v>
+        <v>8695300</v>
       </c>
       <c r="G59" s="3">
-        <v>11111800</v>
+        <v>10787300</v>
       </c>
       <c r="H59" s="3">
-        <v>13977000</v>
+        <v>13568900</v>
       </c>
       <c r="I59" s="3">
-        <v>7086400</v>
+        <v>6879400</v>
       </c>
       <c r="J59" s="3">
-        <v>8421800</v>
+        <v>8175800</v>
       </c>
       <c r="K59" s="3">
         <v>7472300</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>12998200</v>
+        <v>12618600</v>
       </c>
       <c r="E60" s="3">
-        <v>13282300</v>
+        <v>12894500</v>
       </c>
       <c r="F60" s="3">
-        <v>12610900</v>
+        <v>12242700</v>
       </c>
       <c r="G60" s="3">
-        <v>11316400</v>
+        <v>10986000</v>
       </c>
       <c r="H60" s="3">
-        <v>11461300</v>
+        <v>11126600</v>
       </c>
       <c r="I60" s="3">
-        <v>9902100</v>
+        <v>9613000</v>
       </c>
       <c r="J60" s="3">
-        <v>11463700</v>
+        <v>11129000</v>
       </c>
       <c r="K60" s="3">
         <v>10756700</v>
@@ -2418,25 +2418,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3333900</v>
+        <v>3236600</v>
       </c>
       <c r="E61" s="3">
-        <v>4076400</v>
+        <v>3957300</v>
       </c>
       <c r="F61" s="3">
-        <v>3509900</v>
+        <v>3407400</v>
       </c>
       <c r="G61" s="3">
-        <v>3467800</v>
+        <v>3366600</v>
       </c>
       <c r="H61" s="3">
-        <v>2120800</v>
+        <v>2058900</v>
       </c>
       <c r="I61" s="3">
-        <v>2586000</v>
+        <v>2510500</v>
       </c>
       <c r="J61" s="3">
-        <v>2485900</v>
+        <v>2413300</v>
       </c>
       <c r="K61" s="3">
         <v>2598600</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4856200</v>
+        <v>4714400</v>
       </c>
       <c r="E62" s="3">
-        <v>4756500</v>
+        <v>4617600</v>
       </c>
       <c r="F62" s="3">
-        <v>4457800</v>
+        <v>4327700</v>
       </c>
       <c r="G62" s="3">
-        <v>3670500</v>
+        <v>3563300</v>
       </c>
       <c r="H62" s="3">
-        <v>3347000</v>
+        <v>3249300</v>
       </c>
       <c r="I62" s="3">
-        <v>3088400</v>
+        <v>2998300</v>
       </c>
       <c r="J62" s="3">
-        <v>2906300</v>
+        <v>2821400</v>
       </c>
       <c r="K62" s="3">
         <v>1667000</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>21018100</v>
+        <v>20404400</v>
       </c>
       <c r="E66" s="3">
-        <v>22037800</v>
+        <v>21394300</v>
       </c>
       <c r="F66" s="3">
-        <v>20668700</v>
+        <v>20065200</v>
       </c>
       <c r="G66" s="3">
-        <v>18527100</v>
+        <v>17986100</v>
       </c>
       <c r="H66" s="3">
-        <v>17005900</v>
+        <v>16509300</v>
       </c>
       <c r="I66" s="3">
-        <v>15672200</v>
+        <v>15214600</v>
       </c>
       <c r="J66" s="3">
-        <v>16970000</v>
+        <v>16474400</v>
       </c>
       <c r="K66" s="3">
         <v>15189400</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5453100</v>
+        <v>5293800</v>
       </c>
       <c r="E72" s="3">
-        <v>4418800</v>
+        <v>4289800</v>
       </c>
       <c r="F72" s="3">
-        <v>5181900</v>
+        <v>5030600</v>
       </c>
       <c r="G72" s="3">
-        <v>6314000</v>
+        <v>6129600</v>
       </c>
       <c r="H72" s="3">
-        <v>10596200</v>
+        <v>10286800</v>
       </c>
       <c r="I72" s="3">
-        <v>11969000</v>
+        <v>11619500</v>
       </c>
       <c r="J72" s="3">
-        <v>11716700</v>
+        <v>11374500</v>
       </c>
       <c r="K72" s="3">
         <v>11652000</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9854800</v>
+        <v>9567100</v>
       </c>
       <c r="E76" s="3">
-        <v>9387000</v>
+        <v>9112900</v>
       </c>
       <c r="F76" s="3">
-        <v>9889400</v>
+        <v>9600600</v>
       </c>
       <c r="G76" s="3">
-        <v>11021500</v>
+        <v>10699700</v>
       </c>
       <c r="H76" s="3">
-        <v>15302000</v>
+        <v>14855200</v>
       </c>
       <c r="I76" s="3">
-        <v>16659900</v>
+        <v>16173400</v>
       </c>
       <c r="J76" s="3">
-        <v>16407600</v>
+        <v>15928500</v>
       </c>
       <c r="K76" s="3">
         <v>16510400</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1987800</v>
+        <v>1929800</v>
       </c>
       <c r="E81" s="3">
-        <v>252800</v>
+        <v>245400</v>
       </c>
       <c r="F81" s="3">
-        <v>-742500</v>
+        <v>-720800</v>
       </c>
       <c r="G81" s="3">
-        <v>-3703900</v>
+        <v>-3595700</v>
       </c>
       <c r="H81" s="3">
-        <v>94700</v>
+        <v>91900</v>
       </c>
       <c r="I81" s="3">
-        <v>1540500</v>
+        <v>1495500</v>
       </c>
       <c r="J81" s="3">
-        <v>1315300</v>
+        <v>1276900</v>
       </c>
       <c r="K81" s="3">
         <v>1413700</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>970700</v>
+        <v>942300</v>
       </c>
       <c r="E83" s="3">
-        <v>977700</v>
+        <v>949200</v>
       </c>
       <c r="F83" s="3">
-        <v>821000</v>
+        <v>797100</v>
       </c>
       <c r="G83" s="3">
-        <v>960900</v>
+        <v>932800</v>
       </c>
       <c r="H83" s="3">
-        <v>1010300</v>
+        <v>980800</v>
       </c>
       <c r="I83" s="3">
-        <v>1162400</v>
+        <v>1128400</v>
       </c>
       <c r="J83" s="3">
-        <v>1128700</v>
+        <v>1095700</v>
       </c>
       <c r="K83" s="3">
         <v>1195900</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3289700</v>
+        <v>3193600</v>
       </c>
       <c r="E89" s="3">
-        <v>1918500</v>
+        <v>1862400</v>
       </c>
       <c r="F89" s="3">
-        <v>1062200</v>
+        <v>1031200</v>
       </c>
       <c r="G89" s="3">
-        <v>1091600</v>
+        <v>1059800</v>
       </c>
       <c r="H89" s="3">
-        <v>1592900</v>
+        <v>1546400</v>
       </c>
       <c r="I89" s="3">
-        <v>2341900</v>
+        <v>2273500</v>
       </c>
       <c r="J89" s="3">
-        <v>2126400</v>
+        <v>2064300</v>
       </c>
       <c r="K89" s="3">
         <v>2047700</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-510900</v>
+        <v>-495900</v>
       </c>
       <c r="E91" s="3">
-        <v>-581900</v>
+        <v>-564900</v>
       </c>
       <c r="F91" s="3">
-        <v>-452000</v>
+        <v>-438800</v>
       </c>
       <c r="G91" s="3">
-        <v>-440800</v>
+        <v>-427900</v>
       </c>
       <c r="H91" s="3">
-        <v>-696900</v>
+        <v>-676500</v>
       </c>
       <c r="I91" s="3">
-        <v>-948000</v>
+        <v>-920300</v>
       </c>
       <c r="J91" s="3">
-        <v>-605100</v>
+        <v>-587400</v>
       </c>
       <c r="K91" s="3">
         <v>-530300</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1728400</v>
+        <v>-1677900</v>
       </c>
       <c r="E94" s="3">
-        <v>-402600</v>
+        <v>-390900</v>
       </c>
       <c r="F94" s="3">
-        <v>-469800</v>
+        <v>-456100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1827200</v>
+        <v>-1773800</v>
       </c>
       <c r="H94" s="3">
-        <v>-941800</v>
+        <v>-914300</v>
       </c>
       <c r="I94" s="3">
-        <v>-908100</v>
+        <v>-881600</v>
       </c>
       <c r="J94" s="3">
-        <v>-854200</v>
+        <v>-829300</v>
       </c>
       <c r="K94" s="3">
         <v>-1308200</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-566800</v>
+        <v>-550200</v>
       </c>
       <c r="E96" s="3">
-        <v>-375300</v>
+        <v>-364400</v>
       </c>
       <c r="F96" s="3">
-        <v>-389400</v>
+        <v>-378100</v>
       </c>
       <c r="G96" s="3">
-        <v>-389300</v>
+        <v>-377900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1394300</v>
+        <v>-1353600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1289000</v>
+        <v>-1251400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1119500</v>
+        <v>-1086800</v>
       </c>
       <c r="K96" s="3">
         <v>-1077900</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1420300</v>
+        <v>-1378900</v>
       </c>
       <c r="E100" s="3">
-        <v>-784500</v>
+        <v>-761600</v>
       </c>
       <c r="F100" s="3">
-        <v>-463600</v>
+        <v>-450000</v>
       </c>
       <c r="G100" s="3">
-        <v>622800</v>
+        <v>604700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1335100</v>
+        <v>-1296100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1217700</v>
+        <v>-1182200</v>
       </c>
       <c r="J100" s="3">
-        <v>-2072200</v>
+        <v>-2011700</v>
       </c>
       <c r="K100" s="3">
         <v>-1119700</v>
@@ -3711,25 +3711,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-307800</v>
+        <v>-298800</v>
       </c>
       <c r="E101" s="3">
-        <v>29300</v>
+        <v>28500</v>
       </c>
       <c r="F101" s="3">
-        <v>156000</v>
+        <v>151400</v>
       </c>
       <c r="G101" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="H101" s="3">
-        <v>313500</v>
+        <v>304300</v>
       </c>
       <c r="I101" s="3">
-        <v>-302900</v>
+        <v>-294100</v>
       </c>
       <c r="J101" s="3">
-        <v>674100</v>
+        <v>654400</v>
       </c>
       <c r="K101" s="3">
         <v>75500</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-166800</v>
+        <v>-161900</v>
       </c>
       <c r="E102" s="3">
-        <v>760700</v>
+        <v>738400</v>
       </c>
       <c r="F102" s="3">
-        <v>284800</v>
+        <v>276500</v>
       </c>
       <c r="G102" s="3">
-        <v>-123000</v>
+        <v>-119400</v>
       </c>
       <c r="H102" s="3">
-        <v>-370400</v>
+        <v>-359600</v>
       </c>
       <c r="I102" s="3">
-        <v>-86900</v>
+        <v>-84300</v>
       </c>
       <c r="J102" s="3">
-        <v>-125900</v>
+        <v>-122200</v>
       </c>
       <c r="K102" s="3">
         <v>-304600</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25651200</v>
+        <v>23861000</v>
       </c>
       <c r="E8" s="3">
-        <v>25080100</v>
+        <v>23868800</v>
       </c>
       <c r="F8" s="3">
-        <v>23272300</v>
+        <v>23337400</v>
       </c>
       <c r="G8" s="3">
-        <v>22669600</v>
+        <v>21655200</v>
       </c>
       <c r="H8" s="3">
-        <v>24318500</v>
+        <v>21094400</v>
       </c>
       <c r="I8" s="3">
-        <v>27255000</v>
+        <v>22628700</v>
       </c>
       <c r="J8" s="3">
+        <v>25361200</v>
+      </c>
+      <c r="K8" s="3">
         <v>25164800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26775800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23673100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25760100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15225900</v>
+        <v>13485000</v>
       </c>
       <c r="E9" s="3">
-        <v>15680000</v>
+        <v>14167900</v>
       </c>
       <c r="F9" s="3">
-        <v>15088900</v>
+        <v>14590500</v>
       </c>
       <c r="G9" s="3">
-        <v>16800800</v>
+        <v>14040500</v>
       </c>
       <c r="H9" s="3">
-        <v>16732200</v>
+        <v>15633400</v>
       </c>
       <c r="I9" s="3">
-        <v>17531300</v>
+        <v>15569500</v>
       </c>
       <c r="J9" s="3">
+        <v>16313100</v>
+      </c>
+      <c r="K9" s="3">
         <v>15952900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17469500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16181800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16710100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10425300</v>
+        <v>10376000</v>
       </c>
       <c r="E10" s="3">
-        <v>9400100</v>
+        <v>9700900</v>
       </c>
       <c r="F10" s="3">
-        <v>8183400</v>
+        <v>8746900</v>
       </c>
       <c r="G10" s="3">
-        <v>5868800</v>
+        <v>7614700</v>
       </c>
       <c r="H10" s="3">
-        <v>7586300</v>
+        <v>5461000</v>
       </c>
       <c r="I10" s="3">
-        <v>9723700</v>
+        <v>7059200</v>
       </c>
       <c r="J10" s="3">
+        <v>9048000</v>
+      </c>
+      <c r="K10" s="3">
         <v>9211900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9306300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7491300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9049900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4338300</v>
+        <v>4307300</v>
       </c>
       <c r="E12" s="3">
-        <v>4246400</v>
+        <v>4036800</v>
       </c>
       <c r="F12" s="3">
-        <v>4152100</v>
+        <v>3951400</v>
       </c>
       <c r="G12" s="3">
-        <v>3927300</v>
+        <v>3863500</v>
       </c>
       <c r="H12" s="3">
-        <v>3189100</v>
+        <v>3654400</v>
       </c>
       <c r="I12" s="3">
-        <v>3623000</v>
+        <v>2967500</v>
       </c>
       <c r="J12" s="3">
+        <v>3371300</v>
+      </c>
+      <c r="K12" s="3">
         <v>3974100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3693400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3323800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3641400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>148300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>183300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>868700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2667200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>768700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>517700</v>
+      </c>
+      <c r="K14" s="3">
+        <v>160700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>524400</v>
+      </c>
+      <c r="M14" s="3">
         <v>159400</v>
       </c>
-      <c r="E14" s="3">
-        <v>197000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>933600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2866300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>826100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>556300</v>
-      </c>
-      <c r="J14" s="3">
-        <v>160700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>524400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>159400</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>237600</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22581800</v>
+        <v>20596800</v>
       </c>
       <c r="E17" s="3">
-        <v>23914000</v>
+        <v>21012600</v>
       </c>
       <c r="F17" s="3">
-        <v>23135200</v>
+        <v>22252300</v>
       </c>
       <c r="G17" s="3">
-        <v>26504600</v>
+        <v>21527600</v>
       </c>
       <c r="H17" s="3">
-        <v>23745900</v>
+        <v>24662800</v>
       </c>
       <c r="I17" s="3">
-        <v>24848200</v>
+        <v>22095900</v>
       </c>
       <c r="J17" s="3">
+        <v>23121600</v>
+      </c>
+      <c r="K17" s="3">
         <v>23309600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24674400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22586200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23728100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3069400</v>
+        <v>3264100</v>
       </c>
       <c r="E18" s="3">
-        <v>1166100</v>
+        <v>2856200</v>
       </c>
       <c r="F18" s="3">
-        <v>137100</v>
+        <v>1085000</v>
       </c>
       <c r="G18" s="3">
-        <v>-3834900</v>
+        <v>127600</v>
       </c>
       <c r="H18" s="3">
-        <v>572500</v>
+        <v>-3568500</v>
       </c>
       <c r="I18" s="3">
-        <v>2406800</v>
+        <v>532800</v>
       </c>
       <c r="J18" s="3">
+        <v>2239600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1855200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2101400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1086900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2032000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>110200</v>
+        <v>-162200</v>
       </c>
       <c r="E20" s="3">
-        <v>15600</v>
+        <v>102500</v>
       </c>
       <c r="F20" s="3">
-        <v>-188500</v>
+        <v>14500</v>
       </c>
       <c r="G20" s="3">
-        <v>-20800</v>
+        <v>-175400</v>
       </c>
       <c r="H20" s="3">
-        <v>-103500</v>
+        <v>-19300</v>
       </c>
       <c r="I20" s="3">
-        <v>-55700</v>
+        <v>-96300</v>
       </c>
       <c r="J20" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K20" s="3">
         <v>41900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>78300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>151500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>218800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4114000</v>
+        <v>3996800</v>
       </c>
       <c r="E21" s="3">
-        <v>2122800</v>
+        <v>3841200</v>
       </c>
       <c r="F21" s="3">
-        <v>738900</v>
+        <v>1988500</v>
       </c>
       <c r="G21" s="3">
-        <v>-2930700</v>
+        <v>698600</v>
       </c>
       <c r="H21" s="3">
-        <v>1441600</v>
+        <v>-2714100</v>
       </c>
       <c r="I21" s="3">
-        <v>3470000</v>
+        <v>1355000</v>
       </c>
       <c r="J21" s="3">
+        <v>3244600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2983600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3371900</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3277900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>175900</v>
+        <v>97700</v>
       </c>
       <c r="E22" s="3">
-        <v>214500</v>
+        <v>163700</v>
       </c>
       <c r="F22" s="3">
-        <v>110000</v>
+        <v>199600</v>
       </c>
       <c r="G22" s="3">
-        <v>113400</v>
+        <v>102400</v>
       </c>
       <c r="H22" s="3">
-        <v>149600</v>
+        <v>105500</v>
       </c>
       <c r="I22" s="3">
-        <v>157600</v>
+        <v>139200</v>
       </c>
       <c r="J22" s="3">
+        <v>146700</v>
+      </c>
+      <c r="K22" s="3">
         <v>151900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>166300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>180200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>193700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3003700</v>
+        <v>3004300</v>
       </c>
       <c r="E23" s="3">
-        <v>967100</v>
+        <v>2794900</v>
       </c>
       <c r="F23" s="3">
-        <v>-161500</v>
+        <v>899900</v>
       </c>
       <c r="G23" s="3">
-        <v>-3969000</v>
+        <v>-150300</v>
       </c>
       <c r="H23" s="3">
-        <v>319400</v>
+        <v>-3693200</v>
       </c>
       <c r="I23" s="3">
-        <v>2193500</v>
+        <v>297200</v>
       </c>
       <c r="J23" s="3">
+        <v>2041100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1745200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2013500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1058200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2057100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1058400</v>
+        <v>644000</v>
       </c>
       <c r="E24" s="3">
-        <v>764100</v>
+        <v>984900</v>
       </c>
       <c r="F24" s="3">
-        <v>531300</v>
+        <v>711000</v>
       </c>
       <c r="G24" s="3">
-        <v>-389100</v>
+        <v>494300</v>
       </c>
       <c r="H24" s="3">
-        <v>207700</v>
+        <v>-362100</v>
       </c>
       <c r="I24" s="3">
-        <v>684200</v>
+        <v>193300</v>
       </c>
       <c r="J24" s="3">
+        <v>636700</v>
+      </c>
+      <c r="K24" s="3">
         <v>515300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>579900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>441100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>630300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1945200</v>
+        <v>2360300</v>
       </c>
       <c r="E26" s="3">
-        <v>203100</v>
+        <v>1810100</v>
       </c>
       <c r="F26" s="3">
-        <v>-692700</v>
+        <v>189000</v>
       </c>
       <c r="G26" s="3">
-        <v>-3580000</v>
+        <v>-644600</v>
       </c>
       <c r="H26" s="3">
-        <v>111700</v>
+        <v>-3331200</v>
       </c>
       <c r="I26" s="3">
-        <v>1509200</v>
+        <v>103900</v>
       </c>
       <c r="J26" s="3">
+        <v>1404400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1230000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1433600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>617100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1426800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1929800</v>
+        <v>2330900</v>
       </c>
       <c r="E27" s="3">
-        <v>245400</v>
+        <v>1795700</v>
       </c>
       <c r="F27" s="3">
-        <v>-720800</v>
+        <v>228300</v>
       </c>
       <c r="G27" s="3">
-        <v>-3595700</v>
+        <v>-670700</v>
       </c>
       <c r="H27" s="3">
-        <v>91900</v>
+        <v>-3345900</v>
       </c>
       <c r="I27" s="3">
-        <v>1495500</v>
+        <v>85600</v>
       </c>
       <c r="J27" s="3">
+        <v>1391600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1276900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1413700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1384300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-110200</v>
+        <v>162200</v>
       </c>
       <c r="E32" s="3">
-        <v>-15600</v>
+        <v>-102500</v>
       </c>
       <c r="F32" s="3">
-        <v>188500</v>
+        <v>-14500</v>
       </c>
       <c r="G32" s="3">
-        <v>20800</v>
+        <v>175400</v>
       </c>
       <c r="H32" s="3">
-        <v>103500</v>
+        <v>19300</v>
       </c>
       <c r="I32" s="3">
-        <v>55700</v>
+        <v>96300</v>
       </c>
       <c r="J32" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-41900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-78300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-151500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-218800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1929800</v>
+        <v>2330900</v>
       </c>
       <c r="E33" s="3">
-        <v>245400</v>
+        <v>1795700</v>
       </c>
       <c r="F33" s="3">
-        <v>-720800</v>
+        <v>228300</v>
       </c>
       <c r="G33" s="3">
-        <v>-3595700</v>
+        <v>-670700</v>
       </c>
       <c r="H33" s="3">
-        <v>91900</v>
+        <v>-3345900</v>
       </c>
       <c r="I33" s="3">
-        <v>1495500</v>
+        <v>85600</v>
       </c>
       <c r="J33" s="3">
+        <v>1391600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1276900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1413700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1384300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1929800</v>
+        <v>2330900</v>
       </c>
       <c r="E35" s="3">
-        <v>245400</v>
+        <v>1795700</v>
       </c>
       <c r="F35" s="3">
-        <v>-720800</v>
+        <v>228300</v>
       </c>
       <c r="G35" s="3">
-        <v>-3595700</v>
+        <v>-670700</v>
       </c>
       <c r="H35" s="3">
-        <v>91900</v>
+        <v>-3345900</v>
       </c>
       <c r="I35" s="3">
-        <v>1495500</v>
+        <v>85600</v>
       </c>
       <c r="J35" s="3">
+        <v>1391600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1276900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1413700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1384300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1812700</v>
+        <v>2466600</v>
       </c>
       <c r="E41" s="3">
-        <v>1913500</v>
+        <v>1686700</v>
       </c>
       <c r="F41" s="3">
-        <v>2097000</v>
+        <v>1780600</v>
       </c>
       <c r="G41" s="3">
-        <v>2031300</v>
+        <v>1951300</v>
       </c>
       <c r="H41" s="3">
-        <v>6903500</v>
+        <v>1890200</v>
       </c>
       <c r="I41" s="3">
-        <v>2475900</v>
+        <v>6423800</v>
       </c>
       <c r="J41" s="3">
+        <v>2303900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3272800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3370100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4643800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4390500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3754000</v>
+        <v>4413100</v>
       </c>
       <c r="E42" s="3">
-        <v>3808300</v>
+        <v>3493200</v>
       </c>
       <c r="F42" s="3">
-        <v>2871600</v>
+        <v>3543700</v>
       </c>
       <c r="G42" s="3">
-        <v>2670500</v>
+        <v>2672100</v>
       </c>
       <c r="H42" s="3">
-        <v>2727900</v>
+        <v>2485000</v>
       </c>
       <c r="I42" s="3">
-        <v>4838900</v>
+        <v>2538400</v>
       </c>
       <c r="J42" s="3">
+        <v>4502700</v>
+      </c>
+      <c r="K42" s="3">
         <v>4692100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5707900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3328500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4752600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7443000</v>
+        <v>7151300</v>
       </c>
       <c r="E43" s="3">
-        <v>7642800</v>
+        <v>6925800</v>
       </c>
       <c r="F43" s="3">
-        <v>9285700</v>
+        <v>7111700</v>
       </c>
       <c r="G43" s="3">
-        <v>16086800</v>
+        <v>8640500</v>
       </c>
       <c r="H43" s="3">
-        <v>19729700</v>
+        <v>14969000</v>
       </c>
       <c r="I43" s="3">
-        <v>9765400</v>
+        <v>18358700</v>
       </c>
       <c r="J43" s="3">
+        <v>9086900</v>
+      </c>
+      <c r="K43" s="3">
         <v>10287500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9880400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8527800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9211600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3101300</v>
+        <v>3611700</v>
       </c>
       <c r="E44" s="3">
-        <v>3406700</v>
+        <v>2885800</v>
       </c>
       <c r="F44" s="3">
-        <v>3229200</v>
+        <v>3169900</v>
       </c>
       <c r="G44" s="3">
-        <v>2819900</v>
+        <v>3004800</v>
       </c>
       <c r="H44" s="3">
-        <v>6835300</v>
+        <v>2623900</v>
       </c>
       <c r="I44" s="3">
-        <v>3138800</v>
+        <v>6360300</v>
       </c>
       <c r="J44" s="3">
+        <v>2920700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3110000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2680100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2993400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3754100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>423300</v>
+        <v>311500</v>
       </c>
       <c r="E45" s="3">
-        <v>217700</v>
+        <v>393900</v>
       </c>
       <c r="F45" s="3">
-        <v>306100</v>
+        <v>202500</v>
       </c>
       <c r="G45" s="3">
-        <v>451600</v>
+        <v>284800</v>
       </c>
       <c r="H45" s="3">
-        <v>771900</v>
+        <v>420200</v>
       </c>
       <c r="I45" s="3">
-        <v>700700</v>
+        <v>718300</v>
       </c>
       <c r="J45" s="3">
+        <v>652000</v>
+      </c>
+      <c r="K45" s="3">
         <v>911100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>841400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>591500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>460800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16534400</v>
+        <v>17954200</v>
       </c>
       <c r="E46" s="3">
-        <v>16989000</v>
+        <v>15385400</v>
       </c>
       <c r="F46" s="3">
-        <v>17789600</v>
+        <v>15808500</v>
       </c>
       <c r="G46" s="3">
-        <v>16934800</v>
+        <v>16553500</v>
       </c>
       <c r="H46" s="3">
-        <v>19327200</v>
+        <v>15758100</v>
       </c>
       <c r="I46" s="3">
-        <v>20919800</v>
+        <v>17984200</v>
       </c>
       <c r="J46" s="3">
+        <v>19466100</v>
+      </c>
+      <c r="K46" s="3">
         <v>22273500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22479900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20084900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22569600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3363200</v>
+        <v>4171100</v>
       </c>
       <c r="E47" s="3">
-        <v>3446800</v>
+        <v>3129500</v>
       </c>
       <c r="F47" s="3">
-        <v>3736000</v>
+        <v>3207300</v>
       </c>
       <c r="G47" s="3">
-        <v>3863000</v>
+        <v>3476400</v>
       </c>
       <c r="H47" s="3">
-        <v>2268600</v>
+        <v>3594500</v>
       </c>
       <c r="I47" s="3">
-        <v>1038200</v>
+        <v>2111000</v>
       </c>
       <c r="J47" s="3">
+        <v>966100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1177200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1111400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>881500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1553100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2358000</v>
+        <v>2211100</v>
       </c>
       <c r="E48" s="3">
-        <v>2465600</v>
+        <v>2194200</v>
       </c>
       <c r="F48" s="3">
-        <v>1418300</v>
+        <v>2294200</v>
       </c>
       <c r="G48" s="3">
-        <v>1419200</v>
+        <v>1319700</v>
       </c>
       <c r="H48" s="3">
-        <v>3694200</v>
+        <v>1320500</v>
       </c>
       <c r="I48" s="3">
-        <v>1755200</v>
+        <v>3437500</v>
       </c>
       <c r="J48" s="3">
+        <v>1633200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1472600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1346400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1194500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1224700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4813300</v>
+        <v>4679700</v>
       </c>
       <c r="E49" s="3">
-        <v>4164700</v>
+        <v>4478900</v>
       </c>
       <c r="F49" s="3">
-        <v>4166400</v>
+        <v>3875400</v>
       </c>
       <c r="G49" s="3">
-        <v>4035100</v>
+        <v>3876900</v>
       </c>
       <c r="H49" s="3">
-        <v>13071200</v>
+        <v>3754700</v>
       </c>
       <c r="I49" s="3">
-        <v>6169800</v>
+        <v>12162900</v>
       </c>
       <c r="J49" s="3">
+        <v>5741100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6008400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5618000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5138900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4999900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2902600</v>
+        <v>2373500</v>
       </c>
       <c r="E52" s="3">
-        <v>3441000</v>
+        <v>2700900</v>
       </c>
       <c r="F52" s="3">
-        <v>2555500</v>
+        <v>3201900</v>
       </c>
       <c r="G52" s="3">
-        <v>2433800</v>
+        <v>2377900</v>
       </c>
       <c r="H52" s="3">
-        <v>1876200</v>
+        <v>2264700</v>
       </c>
       <c r="I52" s="3">
-        <v>1505000</v>
+        <v>1745900</v>
       </c>
       <c r="J52" s="3">
+        <v>1400500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1471300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1144200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1280500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1478000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29971500</v>
+        <v>31389600</v>
       </c>
       <c r="E54" s="3">
-        <v>30507200</v>
+        <v>27888800</v>
       </c>
       <c r="F54" s="3">
-        <v>29665800</v>
+        <v>28387300</v>
       </c>
       <c r="G54" s="3">
-        <v>28685800</v>
+        <v>27604400</v>
       </c>
       <c r="H54" s="3">
-        <v>31364500</v>
+        <v>26692500</v>
       </c>
       <c r="I54" s="3">
-        <v>31388000</v>
+        <v>29185000</v>
       </c>
       <c r="J54" s="3">
+        <v>29206900</v>
+      </c>
+      <c r="K54" s="3">
         <v>32402900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31699800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28580300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31825200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3530800</v>
+        <v>3665100</v>
       </c>
       <c r="E57" s="3">
-        <v>3355900</v>
+        <v>3285500</v>
       </c>
       <c r="F57" s="3">
-        <v>3298500</v>
+        <v>3122700</v>
       </c>
       <c r="G57" s="3">
-        <v>2905200</v>
+        <v>3069300</v>
       </c>
       <c r="H57" s="3">
-        <v>5647300</v>
+        <v>2703300</v>
       </c>
       <c r="I57" s="3">
-        <v>2471300</v>
+        <v>5254800</v>
       </c>
       <c r="J57" s="3">
+        <v>2299600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2701300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2414300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1119000</v>
+        <v>1213400</v>
       </c>
       <c r="E58" s="3">
-        <v>1294300</v>
+        <v>1041300</v>
       </c>
       <c r="F58" s="3">
-        <v>248900</v>
+        <v>1204400</v>
       </c>
       <c r="G58" s="3">
-        <v>280900</v>
+        <v>231600</v>
       </c>
       <c r="H58" s="3">
-        <v>1773400</v>
+        <v>261400</v>
       </c>
       <c r="I58" s="3">
-        <v>262300</v>
+        <v>1650100</v>
       </c>
       <c r="J58" s="3">
+        <v>244000</v>
+      </c>
+      <c r="K58" s="3">
         <v>251800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>870000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>495600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>881500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>7968800</v>
+        <v>8160700</v>
       </c>
       <c r="E59" s="3">
-        <v>8244300</v>
+        <v>7415000</v>
       </c>
       <c r="F59" s="3">
-        <v>8695300</v>
+        <v>7671400</v>
       </c>
       <c r="G59" s="3">
-        <v>10787300</v>
+        <v>8091100</v>
       </c>
       <c r="H59" s="3">
-        <v>13568900</v>
+        <v>10037700</v>
       </c>
       <c r="I59" s="3">
-        <v>6879400</v>
+        <v>12626000</v>
       </c>
       <c r="J59" s="3">
+        <v>6401400</v>
+      </c>
+      <c r="K59" s="3">
         <v>8175800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7472300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9619100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10121700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>12618600</v>
+        <v>13039200</v>
       </c>
       <c r="E60" s="3">
-        <v>12894500</v>
+        <v>11741800</v>
       </c>
       <c r="F60" s="3">
-        <v>12242700</v>
+        <v>11998500</v>
       </c>
       <c r="G60" s="3">
-        <v>10986000</v>
+        <v>11392000</v>
       </c>
       <c r="H60" s="3">
-        <v>11126600</v>
+        <v>10222600</v>
       </c>
       <c r="I60" s="3">
-        <v>9613000</v>
+        <v>10353500</v>
       </c>
       <c r="J60" s="3">
+        <v>8945000</v>
+      </c>
+      <c r="K60" s="3">
         <v>11129000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10756700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10123200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11014700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3236600</v>
+        <v>3011500</v>
       </c>
       <c r="E61" s="3">
-        <v>3957300</v>
+        <v>3011700</v>
       </c>
       <c r="F61" s="3">
-        <v>3407400</v>
+        <v>3682400</v>
       </c>
       <c r="G61" s="3">
-        <v>3366600</v>
+        <v>3170700</v>
       </c>
       <c r="H61" s="3">
-        <v>2058900</v>
+        <v>3132700</v>
       </c>
       <c r="I61" s="3">
-        <v>2510500</v>
+        <v>1915800</v>
       </c>
       <c r="J61" s="3">
+        <v>2336000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2413300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2598600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2483700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2640000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4714400</v>
+        <v>4338800</v>
       </c>
       <c r="E62" s="3">
-        <v>4617600</v>
+        <v>4386800</v>
       </c>
       <c r="F62" s="3">
-        <v>4327700</v>
+        <v>4296800</v>
       </c>
       <c r="G62" s="3">
-        <v>3563300</v>
+        <v>4027000</v>
       </c>
       <c r="H62" s="3">
-        <v>3249300</v>
+        <v>3315700</v>
       </c>
       <c r="I62" s="3">
-        <v>2998300</v>
+        <v>3023500</v>
       </c>
       <c r="J62" s="3">
+        <v>2789900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2821400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1667000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1580900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1679400</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20404400</v>
+        <v>20217300</v>
       </c>
       <c r="E66" s="3">
-        <v>21394300</v>
+        <v>18986600</v>
       </c>
       <c r="F66" s="3">
-        <v>20065200</v>
+        <v>19907700</v>
       </c>
       <c r="G66" s="3">
-        <v>17986100</v>
+        <v>18670900</v>
       </c>
       <c r="H66" s="3">
-        <v>16509300</v>
+        <v>16736300</v>
       </c>
       <c r="I66" s="3">
-        <v>15214600</v>
+        <v>15362100</v>
       </c>
       <c r="J66" s="3">
+        <v>14157300</v>
+      </c>
+      <c r="K66" s="3">
         <v>16474400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15189400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14354100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15579900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5293800</v>
+        <v>6873100</v>
       </c>
       <c r="E72" s="3">
-        <v>4289800</v>
+        <v>4926000</v>
       </c>
       <c r="F72" s="3">
-        <v>5030600</v>
+        <v>3991700</v>
       </c>
       <c r="G72" s="3">
-        <v>6129600</v>
+        <v>4681000</v>
       </c>
       <c r="H72" s="3">
-        <v>10286800</v>
+        <v>5703700</v>
       </c>
       <c r="I72" s="3">
-        <v>11619500</v>
+        <v>9572000</v>
       </c>
       <c r="J72" s="3">
+        <v>10812100</v>
+      </c>
+      <c r="K72" s="3">
         <v>11374500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11652000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9938400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11579800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>9567100</v>
+        <v>11172300</v>
       </c>
       <c r="E76" s="3">
-        <v>9112900</v>
+        <v>8902300</v>
       </c>
       <c r="F76" s="3">
-        <v>9600600</v>
+        <v>8479600</v>
       </c>
       <c r="G76" s="3">
-        <v>10699700</v>
+        <v>8933500</v>
       </c>
       <c r="H76" s="3">
-        <v>14855200</v>
+        <v>9956200</v>
       </c>
       <c r="I76" s="3">
-        <v>16173400</v>
+        <v>13822900</v>
       </c>
       <c r="J76" s="3">
+        <v>15049600</v>
+      </c>
+      <c r="K76" s="3">
         <v>15928500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16510400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14226300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16245300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1929800</v>
+        <v>2330900</v>
       </c>
       <c r="E81" s="3">
-        <v>245400</v>
+        <v>1795700</v>
       </c>
       <c r="F81" s="3">
-        <v>-720800</v>
+        <v>228300</v>
       </c>
       <c r="G81" s="3">
-        <v>-3595700</v>
+        <v>-670700</v>
       </c>
       <c r="H81" s="3">
-        <v>91900</v>
+        <v>-3345900</v>
       </c>
       <c r="I81" s="3">
-        <v>1495500</v>
+        <v>85600</v>
       </c>
       <c r="J81" s="3">
+        <v>1391600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1276900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1413700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1384300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>942300</v>
+        <v>889100</v>
       </c>
       <c r="E83" s="3">
-        <v>949200</v>
+        <v>876800</v>
       </c>
       <c r="F83" s="3">
-        <v>797100</v>
+        <v>883200</v>
       </c>
       <c r="G83" s="3">
-        <v>932800</v>
+        <v>741700</v>
       </c>
       <c r="H83" s="3">
-        <v>980800</v>
+        <v>868000</v>
       </c>
       <c r="I83" s="3">
-        <v>1128400</v>
+        <v>912700</v>
       </c>
       <c r="J83" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1095700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1195900</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1025800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3193600</v>
+        <v>4012400</v>
       </c>
       <c r="E89" s="3">
-        <v>1862400</v>
+        <v>2971700</v>
       </c>
       <c r="F89" s="3">
-        <v>1031200</v>
+        <v>1733000</v>
       </c>
       <c r="G89" s="3">
-        <v>1059800</v>
+        <v>959500</v>
       </c>
       <c r="H89" s="3">
-        <v>1546400</v>
+        <v>986100</v>
       </c>
       <c r="I89" s="3">
-        <v>2273500</v>
+        <v>1439000</v>
       </c>
       <c r="J89" s="3">
+        <v>2115500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2064300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2047700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2289700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1133200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-495900</v>
+        <v>-376200</v>
       </c>
       <c r="E91" s="3">
-        <v>-564900</v>
+        <v>-461500</v>
       </c>
       <c r="F91" s="3">
-        <v>-438800</v>
+        <v>-525700</v>
       </c>
       <c r="G91" s="3">
-        <v>-427900</v>
+        <v>-408300</v>
       </c>
       <c r="H91" s="3">
-        <v>-676500</v>
+        <v>-398200</v>
       </c>
       <c r="I91" s="3">
-        <v>-920300</v>
+        <v>-629500</v>
       </c>
       <c r="J91" s="3">
+        <v>-856400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-587400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-530300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-564200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-566900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1677900</v>
+        <v>-2042200</v>
       </c>
       <c r="E94" s="3">
-        <v>-390900</v>
+        <v>-1561300</v>
       </c>
       <c r="F94" s="3">
-        <v>-456100</v>
+        <v>-363700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1773800</v>
+        <v>-424400</v>
       </c>
       <c r="H94" s="3">
-        <v>-914300</v>
+        <v>-1650500</v>
       </c>
       <c r="I94" s="3">
-        <v>-881600</v>
+        <v>-850700</v>
       </c>
       <c r="J94" s="3">
+        <v>-820300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-829300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>515500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-550200</v>
+        <v>-683800</v>
       </c>
       <c r="E96" s="3">
-        <v>-364400</v>
+        <v>-512000</v>
       </c>
       <c r="F96" s="3">
-        <v>-378100</v>
+        <v>-339000</v>
       </c>
       <c r="G96" s="3">
-        <v>-377900</v>
+        <v>-351800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1353600</v>
+        <v>-351700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1251400</v>
+        <v>-1259500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1164400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1086800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1077900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-897100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-846300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1378900</v>
+        <v>-955900</v>
       </c>
       <c r="E100" s="3">
-        <v>-761600</v>
+        <v>-1283100</v>
       </c>
       <c r="F100" s="3">
-        <v>-450000</v>
+        <v>-708700</v>
       </c>
       <c r="G100" s="3">
-        <v>604700</v>
+        <v>-418700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1296100</v>
+        <v>562600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1182200</v>
+        <v>-1206000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1100000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2011700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1119700</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-737200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-298800</v>
+        <v>57800</v>
       </c>
       <c r="E101" s="3">
-        <v>28500</v>
+        <v>-278000</v>
       </c>
       <c r="F101" s="3">
-        <v>151400</v>
+        <v>26500</v>
       </c>
       <c r="G101" s="3">
-        <v>-10000</v>
+        <v>140900</v>
       </c>
       <c r="H101" s="3">
-        <v>304300</v>
+        <v>-9300</v>
       </c>
       <c r="I101" s="3">
-        <v>-294100</v>
+        <v>283200</v>
       </c>
       <c r="J101" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="K101" s="3">
         <v>654400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>75500</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-24600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-161900</v>
+        <v>1072100</v>
       </c>
       <c r="E102" s="3">
-        <v>738400</v>
+        <v>-150700</v>
       </c>
       <c r="F102" s="3">
-        <v>276500</v>
+        <v>687100</v>
       </c>
       <c r="G102" s="3">
-        <v>-119400</v>
+        <v>257300</v>
       </c>
       <c r="H102" s="3">
-        <v>-359600</v>
+        <v>-111100</v>
       </c>
       <c r="I102" s="3">
-        <v>-84300</v>
+        <v>-334600</v>
       </c>
       <c r="J102" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-122200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-304600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>624200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>886800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23861000</v>
+        <v>22899200</v>
       </c>
       <c r="E8" s="3">
-        <v>23868800</v>
+        <v>22906700</v>
       </c>
       <c r="F8" s="3">
-        <v>23337400</v>
+        <v>22396700</v>
       </c>
       <c r="G8" s="3">
-        <v>21655200</v>
+        <v>20782300</v>
       </c>
       <c r="H8" s="3">
-        <v>21094400</v>
+        <v>20244100</v>
       </c>
       <c r="I8" s="3">
-        <v>22628700</v>
+        <v>21716500</v>
       </c>
       <c r="J8" s="3">
-        <v>25361200</v>
+        <v>24338900</v>
       </c>
       <c r="K8" s="3">
         <v>25164800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13485000</v>
+        <v>12941500</v>
       </c>
       <c r="E9" s="3">
-        <v>14167900</v>
+        <v>13596800</v>
       </c>
       <c r="F9" s="3">
-        <v>14590500</v>
+        <v>14002400</v>
       </c>
       <c r="G9" s="3">
-        <v>14040500</v>
+        <v>13474500</v>
       </c>
       <c r="H9" s="3">
-        <v>15633400</v>
+        <v>15003200</v>
       </c>
       <c r="I9" s="3">
-        <v>15569500</v>
+        <v>14941900</v>
       </c>
       <c r="J9" s="3">
-        <v>16313100</v>
+        <v>15655600</v>
       </c>
       <c r="K9" s="3">
         <v>15952900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10376000</v>
+        <v>9957700</v>
       </c>
       <c r="E10" s="3">
-        <v>9700900</v>
+        <v>9309800</v>
       </c>
       <c r="F10" s="3">
-        <v>8746900</v>
+        <v>8394300</v>
       </c>
       <c r="G10" s="3">
-        <v>7614700</v>
+        <v>7307800</v>
       </c>
       <c r="H10" s="3">
-        <v>5461000</v>
+        <v>5240900</v>
       </c>
       <c r="I10" s="3">
-        <v>7059200</v>
+        <v>6774600</v>
       </c>
       <c r="J10" s="3">
-        <v>9048000</v>
+        <v>8683300</v>
       </c>
       <c r="K10" s="3">
         <v>9211900</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4307300</v>
+        <v>4133700</v>
       </c>
       <c r="E12" s="3">
-        <v>4036800</v>
+        <v>3874100</v>
       </c>
       <c r="F12" s="3">
-        <v>3951400</v>
+        <v>3792100</v>
       </c>
       <c r="G12" s="3">
-        <v>3863500</v>
+        <v>3707800</v>
       </c>
       <c r="H12" s="3">
-        <v>3654400</v>
+        <v>3507100</v>
       </c>
       <c r="I12" s="3">
-        <v>2967500</v>
+        <v>2847900</v>
       </c>
       <c r="J12" s="3">
-        <v>3371300</v>
+        <v>3235400</v>
       </c>
       <c r="K12" s="3">
         <v>3974100</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>44200</v>
+        <v>68200</v>
       </c>
       <c r="E14" s="3">
-        <v>148300</v>
+        <v>142300</v>
       </c>
       <c r="F14" s="3">
-        <v>183300</v>
+        <v>175900</v>
       </c>
       <c r="G14" s="3">
-        <v>868700</v>
+        <v>833700</v>
       </c>
       <c r="H14" s="3">
-        <v>2667200</v>
+        <v>2559700</v>
       </c>
       <c r="I14" s="3">
-        <v>768700</v>
+        <v>737700</v>
       </c>
       <c r="J14" s="3">
-        <v>517700</v>
+        <v>496800</v>
       </c>
       <c r="K14" s="3">
         <v>160700</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20596800</v>
+        <v>19766600</v>
       </c>
       <c r="E17" s="3">
-        <v>21012600</v>
+        <v>20165600</v>
       </c>
       <c r="F17" s="3">
-        <v>22252300</v>
+        <v>21355400</v>
       </c>
       <c r="G17" s="3">
-        <v>21527600</v>
+        <v>20659900</v>
       </c>
       <c r="H17" s="3">
-        <v>24662800</v>
+        <v>23668700</v>
       </c>
       <c r="I17" s="3">
-        <v>22095900</v>
+        <v>21205300</v>
       </c>
       <c r="J17" s="3">
-        <v>23121600</v>
+        <v>22189600</v>
       </c>
       <c r="K17" s="3">
         <v>23309600</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3264100</v>
+        <v>3132600</v>
       </c>
       <c r="E18" s="3">
-        <v>2856200</v>
+        <v>2741000</v>
       </c>
       <c r="F18" s="3">
-        <v>1085000</v>
+        <v>1041300</v>
       </c>
       <c r="G18" s="3">
-        <v>127600</v>
+        <v>122400</v>
       </c>
       <c r="H18" s="3">
-        <v>-3568500</v>
+        <v>-3424600</v>
       </c>
       <c r="I18" s="3">
-        <v>532800</v>
+        <v>511300</v>
       </c>
       <c r="J18" s="3">
-        <v>2239600</v>
+        <v>2149300</v>
       </c>
       <c r="K18" s="3">
         <v>1855200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-162200</v>
+        <v>-155600</v>
       </c>
       <c r="E20" s="3">
-        <v>102500</v>
+        <v>75600</v>
       </c>
       <c r="F20" s="3">
-        <v>14500</v>
+        <v>13900</v>
       </c>
       <c r="G20" s="3">
-        <v>-175400</v>
+        <v>-168400</v>
       </c>
       <c r="H20" s="3">
-        <v>-19300</v>
+        <v>-18500</v>
       </c>
       <c r="I20" s="3">
-        <v>-96300</v>
+        <v>-92500</v>
       </c>
       <c r="J20" s="3">
-        <v>-51900</v>
+        <v>-49800</v>
       </c>
       <c r="K20" s="3">
         <v>41900</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3996800</v>
+        <v>3836900</v>
       </c>
       <c r="E21" s="3">
-        <v>3841200</v>
+        <v>3664800</v>
       </c>
       <c r="F21" s="3">
-        <v>1988500</v>
+        <v>1909500</v>
       </c>
       <c r="G21" s="3">
-        <v>698600</v>
+        <v>671500</v>
       </c>
       <c r="H21" s="3">
-        <v>-2714100</v>
+        <v>-2603500</v>
       </c>
       <c r="I21" s="3">
-        <v>1355000</v>
+        <v>1301600</v>
       </c>
       <c r="J21" s="3">
-        <v>3244600</v>
+        <v>3115200</v>
       </c>
       <c r="K21" s="3">
         <v>2983600</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>97700</v>
+        <v>93700</v>
       </c>
       <c r="E22" s="3">
-        <v>163700</v>
+        <v>134400</v>
       </c>
       <c r="F22" s="3">
-        <v>199600</v>
+        <v>191500</v>
       </c>
       <c r="G22" s="3">
-        <v>102400</v>
+        <v>98300</v>
       </c>
       <c r="H22" s="3">
-        <v>105500</v>
+        <v>101200</v>
       </c>
       <c r="I22" s="3">
-        <v>139200</v>
+        <v>133600</v>
       </c>
       <c r="J22" s="3">
-        <v>146700</v>
+        <v>140800</v>
       </c>
       <c r="K22" s="3">
         <v>151900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3004300</v>
+        <v>2883200</v>
       </c>
       <c r="E23" s="3">
-        <v>2794900</v>
+        <v>2682300</v>
       </c>
       <c r="F23" s="3">
-        <v>899900</v>
+        <v>863700</v>
       </c>
       <c r="G23" s="3">
-        <v>-150300</v>
+        <v>-144200</v>
       </c>
       <c r="H23" s="3">
-        <v>-3693200</v>
+        <v>-3544400</v>
       </c>
       <c r="I23" s="3">
-        <v>297200</v>
+        <v>285300</v>
       </c>
       <c r="J23" s="3">
-        <v>2041100</v>
+        <v>1958800</v>
       </c>
       <c r="K23" s="3">
         <v>1745200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>644000</v>
+        <v>618000</v>
       </c>
       <c r="E24" s="3">
-        <v>984900</v>
+        <v>945200</v>
       </c>
       <c r="F24" s="3">
-        <v>711000</v>
+        <v>682300</v>
       </c>
       <c r="G24" s="3">
-        <v>494300</v>
+        <v>474400</v>
       </c>
       <c r="H24" s="3">
-        <v>-362100</v>
+        <v>-347500</v>
       </c>
       <c r="I24" s="3">
-        <v>193300</v>
+        <v>185500</v>
       </c>
       <c r="J24" s="3">
-        <v>636700</v>
+        <v>611000</v>
       </c>
       <c r="K24" s="3">
         <v>515300</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2360300</v>
+        <v>2265100</v>
       </c>
       <c r="E26" s="3">
-        <v>1810100</v>
+        <v>1737100</v>
       </c>
       <c r="F26" s="3">
-        <v>189000</v>
+        <v>181400</v>
       </c>
       <c r="G26" s="3">
-        <v>-644600</v>
+        <v>-618600</v>
       </c>
       <c r="H26" s="3">
-        <v>-3331200</v>
+        <v>-3196900</v>
       </c>
       <c r="I26" s="3">
-        <v>103900</v>
+        <v>99800</v>
       </c>
       <c r="J26" s="3">
-        <v>1404400</v>
+        <v>1347700</v>
       </c>
       <c r="K26" s="3">
         <v>1230000</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2330900</v>
+        <v>2236900</v>
       </c>
       <c r="E27" s="3">
-        <v>1795700</v>
+        <v>1723300</v>
       </c>
       <c r="F27" s="3">
-        <v>228300</v>
+        <v>219100</v>
       </c>
       <c r="G27" s="3">
-        <v>-670700</v>
+        <v>-643700</v>
       </c>
       <c r="H27" s="3">
-        <v>-3345900</v>
+        <v>-3211000</v>
       </c>
       <c r="I27" s="3">
-        <v>85600</v>
+        <v>82100</v>
       </c>
       <c r="J27" s="3">
-        <v>1391600</v>
+        <v>1335500</v>
       </c>
       <c r="K27" s="3">
         <v>1276900</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>162200</v>
+        <v>155600</v>
       </c>
       <c r="E32" s="3">
-        <v>-102500</v>
+        <v>-75600</v>
       </c>
       <c r="F32" s="3">
-        <v>-14500</v>
+        <v>-13900</v>
       </c>
       <c r="G32" s="3">
-        <v>175400</v>
+        <v>168400</v>
       </c>
       <c r="H32" s="3">
-        <v>19300</v>
+        <v>18500</v>
       </c>
       <c r="I32" s="3">
-        <v>96300</v>
+        <v>92500</v>
       </c>
       <c r="J32" s="3">
-        <v>51900</v>
+        <v>49800</v>
       </c>
       <c r="K32" s="3">
         <v>-41900</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2330900</v>
+        <v>2236900</v>
       </c>
       <c r="E33" s="3">
-        <v>1795700</v>
+        <v>1723300</v>
       </c>
       <c r="F33" s="3">
-        <v>228300</v>
+        <v>219100</v>
       </c>
       <c r="G33" s="3">
-        <v>-670700</v>
+        <v>-643700</v>
       </c>
       <c r="H33" s="3">
-        <v>-3345900</v>
+        <v>-3211000</v>
       </c>
       <c r="I33" s="3">
-        <v>85600</v>
+        <v>82100</v>
       </c>
       <c r="J33" s="3">
-        <v>1391600</v>
+        <v>1335500</v>
       </c>
       <c r="K33" s="3">
         <v>1276900</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2330900</v>
+        <v>2236900</v>
       </c>
       <c r="E35" s="3">
-        <v>1795700</v>
+        <v>1723300</v>
       </c>
       <c r="F35" s="3">
-        <v>228300</v>
+        <v>219100</v>
       </c>
       <c r="G35" s="3">
-        <v>-670700</v>
+        <v>-643700</v>
       </c>
       <c r="H35" s="3">
-        <v>-3345900</v>
+        <v>-3211000</v>
       </c>
       <c r="I35" s="3">
-        <v>85600</v>
+        <v>82100</v>
       </c>
       <c r="J35" s="3">
-        <v>1391600</v>
+        <v>1335500</v>
       </c>
       <c r="K35" s="3">
         <v>1276900</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2466600</v>
+        <v>2367200</v>
       </c>
       <c r="E41" s="3">
-        <v>1686700</v>
+        <v>1618700</v>
       </c>
       <c r="F41" s="3">
-        <v>1780600</v>
+        <v>1708800</v>
       </c>
       <c r="G41" s="3">
-        <v>1951300</v>
+        <v>1872600</v>
       </c>
       <c r="H41" s="3">
-        <v>1890200</v>
+        <v>1814000</v>
       </c>
       <c r="I41" s="3">
-        <v>6423800</v>
+        <v>6164900</v>
       </c>
       <c r="J41" s="3">
-        <v>2303900</v>
+        <v>2211000</v>
       </c>
       <c r="K41" s="3">
         <v>3272800</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4413100</v>
+        <v>4235300</v>
       </c>
       <c r="E42" s="3">
-        <v>3493200</v>
+        <v>3352400</v>
       </c>
       <c r="F42" s="3">
-        <v>3543700</v>
+        <v>3400900</v>
       </c>
       <c r="G42" s="3">
-        <v>2672100</v>
+        <v>2564400</v>
       </c>
       <c r="H42" s="3">
-        <v>2485000</v>
+        <v>2384800</v>
       </c>
       <c r="I42" s="3">
-        <v>2538400</v>
+        <v>2436100</v>
       </c>
       <c r="J42" s="3">
-        <v>4502700</v>
+        <v>4321200</v>
       </c>
       <c r="K42" s="3">
         <v>4692100</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7151300</v>
+        <v>6863000</v>
       </c>
       <c r="E43" s="3">
-        <v>6925800</v>
+        <v>6646700</v>
       </c>
       <c r="F43" s="3">
-        <v>7111700</v>
+        <v>6825100</v>
       </c>
       <c r="G43" s="3">
-        <v>8640500</v>
+        <v>8292200</v>
       </c>
       <c r="H43" s="3">
-        <v>14969000</v>
+        <v>14365600</v>
       </c>
       <c r="I43" s="3">
-        <v>18358700</v>
+        <v>17618700</v>
       </c>
       <c r="J43" s="3">
-        <v>9086900</v>
+        <v>8720600</v>
       </c>
       <c r="K43" s="3">
         <v>10287500</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3611700</v>
+        <v>3466100</v>
       </c>
       <c r="E44" s="3">
-        <v>2885800</v>
+        <v>2769500</v>
       </c>
       <c r="F44" s="3">
-        <v>3169900</v>
+        <v>3042200</v>
       </c>
       <c r="G44" s="3">
-        <v>3004800</v>
+        <v>2883700</v>
       </c>
       <c r="H44" s="3">
-        <v>2623900</v>
+        <v>2518200</v>
       </c>
       <c r="I44" s="3">
-        <v>6360300</v>
+        <v>6103900</v>
       </c>
       <c r="J44" s="3">
-        <v>2920700</v>
+        <v>2802900</v>
       </c>
       <c r="K44" s="3">
         <v>3110000</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>311500</v>
+        <v>299000</v>
       </c>
       <c r="E45" s="3">
-        <v>393900</v>
+        <v>378000</v>
       </c>
       <c r="F45" s="3">
-        <v>202500</v>
+        <v>194400</v>
       </c>
       <c r="G45" s="3">
-        <v>284800</v>
+        <v>273300</v>
       </c>
       <c r="H45" s="3">
-        <v>420200</v>
+        <v>403200</v>
       </c>
       <c r="I45" s="3">
-        <v>718300</v>
+        <v>689300</v>
       </c>
       <c r="J45" s="3">
-        <v>652000</v>
+        <v>625700</v>
       </c>
       <c r="K45" s="3">
         <v>911100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17954200</v>
+        <v>17230500</v>
       </c>
       <c r="E46" s="3">
-        <v>15385400</v>
+        <v>14765300</v>
       </c>
       <c r="F46" s="3">
-        <v>15808500</v>
+        <v>15171300</v>
       </c>
       <c r="G46" s="3">
-        <v>16553500</v>
+        <v>15886200</v>
       </c>
       <c r="H46" s="3">
-        <v>15758100</v>
+        <v>15122900</v>
       </c>
       <c r="I46" s="3">
-        <v>17984200</v>
+        <v>17259300</v>
       </c>
       <c r="J46" s="3">
-        <v>19466100</v>
+        <v>18681500</v>
       </c>
       <c r="K46" s="3">
         <v>22273500</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4171100</v>
+        <v>4002900</v>
       </c>
       <c r="E47" s="3">
-        <v>3129500</v>
+        <v>3003300</v>
       </c>
       <c r="F47" s="3">
-        <v>3207300</v>
+        <v>3078000</v>
       </c>
       <c r="G47" s="3">
-        <v>3476400</v>
+        <v>3336300</v>
       </c>
       <c r="H47" s="3">
-        <v>3594500</v>
+        <v>3449700</v>
       </c>
       <c r="I47" s="3">
-        <v>2111000</v>
+        <v>2025900</v>
       </c>
       <c r="J47" s="3">
-        <v>966100</v>
+        <v>927100</v>
       </c>
       <c r="K47" s="3">
         <v>1177200</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2211100</v>
+        <v>2122000</v>
       </c>
       <c r="E48" s="3">
-        <v>2194200</v>
+        <v>2105800</v>
       </c>
       <c r="F48" s="3">
-        <v>2294200</v>
+        <v>2201800</v>
       </c>
       <c r="G48" s="3">
-        <v>1319700</v>
+        <v>1266500</v>
       </c>
       <c r="H48" s="3">
-        <v>1320500</v>
+        <v>1267300</v>
       </c>
       <c r="I48" s="3">
-        <v>3437500</v>
+        <v>3298900</v>
       </c>
       <c r="J48" s="3">
-        <v>1633200</v>
+        <v>1567400</v>
       </c>
       <c r="K48" s="3">
         <v>1472600</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4679700</v>
+        <v>4491000</v>
       </c>
       <c r="E49" s="3">
-        <v>4478900</v>
+        <v>4298300</v>
       </c>
       <c r="F49" s="3">
-        <v>3875400</v>
+        <v>3719100</v>
       </c>
       <c r="G49" s="3">
-        <v>3876900</v>
+        <v>3720600</v>
       </c>
       <c r="H49" s="3">
-        <v>3754700</v>
+        <v>3603300</v>
       </c>
       <c r="I49" s="3">
-        <v>12162900</v>
+        <v>11672700</v>
       </c>
       <c r="J49" s="3">
-        <v>5741100</v>
+        <v>5509700</v>
       </c>
       <c r="K49" s="3">
         <v>6008400</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2373500</v>
+        <v>2277900</v>
       </c>
       <c r="E52" s="3">
-        <v>2700900</v>
+        <v>2592000</v>
       </c>
       <c r="F52" s="3">
-        <v>3201900</v>
+        <v>3072800</v>
       </c>
       <c r="G52" s="3">
-        <v>2377900</v>
+        <v>2282100</v>
       </c>
       <c r="H52" s="3">
-        <v>2264700</v>
+        <v>2173400</v>
       </c>
       <c r="I52" s="3">
-        <v>1745900</v>
+        <v>1675500</v>
       </c>
       <c r="J52" s="3">
-        <v>1400500</v>
+        <v>1344000</v>
       </c>
       <c r="K52" s="3">
         <v>1471300</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>31389600</v>
+        <v>30124400</v>
       </c>
       <c r="E54" s="3">
-        <v>27888800</v>
+        <v>26764700</v>
       </c>
       <c r="F54" s="3">
-        <v>28387300</v>
+        <v>27243100</v>
       </c>
       <c r="G54" s="3">
-        <v>27604400</v>
+        <v>26491800</v>
       </c>
       <c r="H54" s="3">
-        <v>26692500</v>
+        <v>25616600</v>
       </c>
       <c r="I54" s="3">
-        <v>29185000</v>
+        <v>28008700</v>
       </c>
       <c r="J54" s="3">
-        <v>29206900</v>
+        <v>28029700</v>
       </c>
       <c r="K54" s="3">
         <v>32402900</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3665100</v>
+        <v>3517400</v>
       </c>
       <c r="E57" s="3">
-        <v>3285500</v>
+        <v>3153100</v>
       </c>
       <c r="F57" s="3">
-        <v>3122700</v>
+        <v>2996800</v>
       </c>
       <c r="G57" s="3">
-        <v>3069300</v>
+        <v>2945600</v>
       </c>
       <c r="H57" s="3">
-        <v>2703300</v>
+        <v>2594400</v>
       </c>
       <c r="I57" s="3">
-        <v>5254800</v>
+        <v>5043000</v>
       </c>
       <c r="J57" s="3">
-        <v>2299600</v>
+        <v>2206900</v>
       </c>
       <c r="K57" s="3">
         <v>2701300</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1213400</v>
+        <v>1164500</v>
       </c>
       <c r="E58" s="3">
-        <v>1041300</v>
+        <v>999300</v>
       </c>
       <c r="F58" s="3">
-        <v>1204400</v>
+        <v>1155800</v>
       </c>
       <c r="G58" s="3">
-        <v>231600</v>
+        <v>222300</v>
       </c>
       <c r="H58" s="3">
-        <v>261400</v>
+        <v>250900</v>
       </c>
       <c r="I58" s="3">
-        <v>1650100</v>
+        <v>1583600</v>
       </c>
       <c r="J58" s="3">
-        <v>244000</v>
+        <v>234200</v>
       </c>
       <c r="K58" s="3">
         <v>251800</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>8160700</v>
+        <v>7831800</v>
       </c>
       <c r="E59" s="3">
-        <v>7415000</v>
+        <v>7116200</v>
       </c>
       <c r="F59" s="3">
-        <v>7671400</v>
+        <v>7362200</v>
       </c>
       <c r="G59" s="3">
-        <v>8091100</v>
+        <v>7765000</v>
       </c>
       <c r="H59" s="3">
-        <v>10037700</v>
+        <v>9633100</v>
       </c>
       <c r="I59" s="3">
-        <v>12626000</v>
+        <v>12117100</v>
       </c>
       <c r="J59" s="3">
-        <v>6401400</v>
+        <v>6143400</v>
       </c>
       <c r="K59" s="3">
         <v>8175800</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13039200</v>
+        <v>12513700</v>
       </c>
       <c r="E60" s="3">
-        <v>11741800</v>
+        <v>11268500</v>
       </c>
       <c r="F60" s="3">
-        <v>11998500</v>
+        <v>11514800</v>
       </c>
       <c r="G60" s="3">
-        <v>11392000</v>
+        <v>10932800</v>
       </c>
       <c r="H60" s="3">
-        <v>10222600</v>
+        <v>9810600</v>
       </c>
       <c r="I60" s="3">
-        <v>10353500</v>
+        <v>9936200</v>
       </c>
       <c r="J60" s="3">
-        <v>8945000</v>
+        <v>8584500</v>
       </c>
       <c r="K60" s="3">
         <v>11129000</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3011500</v>
+        <v>2890100</v>
       </c>
       <c r="E61" s="3">
-        <v>3011700</v>
+        <v>2890300</v>
       </c>
       <c r="F61" s="3">
-        <v>3682400</v>
+        <v>3533900</v>
       </c>
       <c r="G61" s="3">
-        <v>3170700</v>
+        <v>3042900</v>
       </c>
       <c r="H61" s="3">
-        <v>3132700</v>
+        <v>3006400</v>
       </c>
       <c r="I61" s="3">
-        <v>1915800</v>
+        <v>1838600</v>
       </c>
       <c r="J61" s="3">
-        <v>2336000</v>
+        <v>2241900</v>
       </c>
       <c r="K61" s="3">
         <v>2413300</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4338800</v>
+        <v>4163900</v>
       </c>
       <c r="E62" s="3">
-        <v>4386800</v>
+        <v>4210000</v>
       </c>
       <c r="F62" s="3">
-        <v>4296800</v>
+        <v>4123600</v>
       </c>
       <c r="G62" s="3">
-        <v>4027000</v>
+        <v>3864600</v>
       </c>
       <c r="H62" s="3">
-        <v>3315700</v>
+        <v>3182000</v>
       </c>
       <c r="I62" s="3">
-        <v>3023500</v>
+        <v>2901600</v>
       </c>
       <c r="J62" s="3">
-        <v>2789900</v>
+        <v>2677500</v>
       </c>
       <c r="K62" s="3">
         <v>2821400</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20217300</v>
+        <v>19402400</v>
       </c>
       <c r="E66" s="3">
-        <v>18986600</v>
+        <v>18221300</v>
       </c>
       <c r="F66" s="3">
-        <v>19907700</v>
+        <v>19105200</v>
       </c>
       <c r="G66" s="3">
-        <v>18670900</v>
+        <v>17918400</v>
       </c>
       <c r="H66" s="3">
-        <v>16736300</v>
+        <v>16061700</v>
       </c>
       <c r="I66" s="3">
-        <v>15362100</v>
+        <v>14742900</v>
       </c>
       <c r="J66" s="3">
-        <v>14157300</v>
+        <v>13586700</v>
       </c>
       <c r="K66" s="3">
         <v>16474400</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6873100</v>
+        <v>6596100</v>
       </c>
       <c r="E72" s="3">
-        <v>4926000</v>
+        <v>4727400</v>
       </c>
       <c r="F72" s="3">
-        <v>3991700</v>
+        <v>3830800</v>
       </c>
       <c r="G72" s="3">
-        <v>4681000</v>
+        <v>4492300</v>
       </c>
       <c r="H72" s="3">
-        <v>5703700</v>
+        <v>5473800</v>
       </c>
       <c r="I72" s="3">
-        <v>9572000</v>
+        <v>9186100</v>
       </c>
       <c r="J72" s="3">
-        <v>10812100</v>
+        <v>10376300</v>
       </c>
       <c r="K72" s="3">
         <v>11374500</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>11172300</v>
+        <v>10722000</v>
       </c>
       <c r="E76" s="3">
-        <v>8902300</v>
+        <v>8543500</v>
       </c>
       <c r="F76" s="3">
-        <v>8479600</v>
+        <v>8137800</v>
       </c>
       <c r="G76" s="3">
-        <v>8933500</v>
+        <v>8573400</v>
       </c>
       <c r="H76" s="3">
-        <v>9956200</v>
+        <v>9554900</v>
       </c>
       <c r="I76" s="3">
-        <v>13822900</v>
+        <v>13265700</v>
       </c>
       <c r="J76" s="3">
-        <v>15049600</v>
+        <v>14443000</v>
       </c>
       <c r="K76" s="3">
         <v>15928500</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2330900</v>
+        <v>2236900</v>
       </c>
       <c r="E81" s="3">
-        <v>1795700</v>
+        <v>1723300</v>
       </c>
       <c r="F81" s="3">
-        <v>228300</v>
+        <v>219100</v>
       </c>
       <c r="G81" s="3">
-        <v>-670700</v>
+        <v>-643700</v>
       </c>
       <c r="H81" s="3">
-        <v>-3345900</v>
+        <v>-3211000</v>
       </c>
       <c r="I81" s="3">
-        <v>85600</v>
+        <v>82100</v>
       </c>
       <c r="J81" s="3">
-        <v>1391600</v>
+        <v>1335500</v>
       </c>
       <c r="K81" s="3">
         <v>1276900</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>889100</v>
+        <v>853200</v>
       </c>
       <c r="E83" s="3">
-        <v>876800</v>
+        <v>841500</v>
       </c>
       <c r="F83" s="3">
-        <v>883200</v>
+        <v>847600</v>
       </c>
       <c r="G83" s="3">
-        <v>741700</v>
+        <v>711800</v>
       </c>
       <c r="H83" s="3">
-        <v>868000</v>
+        <v>833000</v>
       </c>
       <c r="I83" s="3">
-        <v>912700</v>
+        <v>875900</v>
       </c>
       <c r="J83" s="3">
-        <v>1050000</v>
+        <v>1007700</v>
       </c>
       <c r="K83" s="3">
         <v>1095700</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4012400</v>
+        <v>3850600</v>
       </c>
       <c r="E89" s="3">
-        <v>2971700</v>
+        <v>2851900</v>
       </c>
       <c r="F89" s="3">
-        <v>1733000</v>
+        <v>1663200</v>
       </c>
       <c r="G89" s="3">
-        <v>959500</v>
+        <v>920800</v>
       </c>
       <c r="H89" s="3">
-        <v>986100</v>
+        <v>946400</v>
       </c>
       <c r="I89" s="3">
-        <v>1439000</v>
+        <v>1381000</v>
       </c>
       <c r="J89" s="3">
-        <v>2115500</v>
+        <v>2030200</v>
       </c>
       <c r="K89" s="3">
         <v>2064300</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-376200</v>
+        <v>-361100</v>
       </c>
       <c r="E91" s="3">
-        <v>-461500</v>
+        <v>-442900</v>
       </c>
       <c r="F91" s="3">
-        <v>-525700</v>
+        <v>-504500</v>
       </c>
       <c r="G91" s="3">
-        <v>-408300</v>
+        <v>-391800</v>
       </c>
       <c r="H91" s="3">
-        <v>-398200</v>
+        <v>-382200</v>
       </c>
       <c r="I91" s="3">
-        <v>-629500</v>
+        <v>-604100</v>
       </c>
       <c r="J91" s="3">
-        <v>-856400</v>
+        <v>-821900</v>
       </c>
       <c r="K91" s="3">
         <v>-587400</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2042200</v>
+        <v>-1959900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1561300</v>
+        <v>-1498400</v>
       </c>
       <c r="F94" s="3">
-        <v>-363700</v>
+        <v>-349000</v>
       </c>
       <c r="G94" s="3">
-        <v>-424400</v>
+        <v>-407300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1650500</v>
+        <v>-1584000</v>
       </c>
       <c r="I94" s="3">
-        <v>-850700</v>
+        <v>-816500</v>
       </c>
       <c r="J94" s="3">
-        <v>-820300</v>
+        <v>-787300</v>
       </c>
       <c r="K94" s="3">
         <v>-829300</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-683800</v>
+        <v>-656300</v>
       </c>
       <c r="E96" s="3">
-        <v>-512000</v>
+        <v>-491400</v>
       </c>
       <c r="F96" s="3">
-        <v>-339000</v>
+        <v>-325400</v>
       </c>
       <c r="G96" s="3">
-        <v>-351800</v>
+        <v>-337600</v>
       </c>
       <c r="H96" s="3">
-        <v>-351700</v>
+        <v>-337500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1259500</v>
+        <v>-1208800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1164400</v>
+        <v>-1117500</v>
       </c>
       <c r="K96" s="3">
         <v>-1086800</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-955900</v>
+        <v>-917400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1283100</v>
+        <v>-1231300</v>
       </c>
       <c r="F100" s="3">
-        <v>-708700</v>
+        <v>-680100</v>
       </c>
       <c r="G100" s="3">
-        <v>-418700</v>
+        <v>-401900</v>
       </c>
       <c r="H100" s="3">
-        <v>562600</v>
+        <v>540000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1206000</v>
+        <v>-1157400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1100000</v>
+        <v>-1055700</v>
       </c>
       <c r="K100" s="3">
         <v>-2011700</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>57800</v>
+        <v>55500</v>
       </c>
       <c r="E101" s="3">
-        <v>-278000</v>
+        <v>-266800</v>
       </c>
       <c r="F101" s="3">
-        <v>26500</v>
+        <v>25400</v>
       </c>
       <c r="G101" s="3">
-        <v>140900</v>
+        <v>135200</v>
       </c>
       <c r="H101" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="I101" s="3">
-        <v>283200</v>
+        <v>271800</v>
       </c>
       <c r="J101" s="3">
-        <v>-273600</v>
+        <v>-262600</v>
       </c>
       <c r="K101" s="3">
         <v>654400</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1072100</v>
+        <v>1028900</v>
       </c>
       <c r="E102" s="3">
-        <v>-150700</v>
+        <v>-144600</v>
       </c>
       <c r="F102" s="3">
-        <v>687100</v>
+        <v>659400</v>
       </c>
       <c r="G102" s="3">
-        <v>257300</v>
+        <v>246900</v>
       </c>
       <c r="H102" s="3">
-        <v>-111100</v>
+        <v>-106700</v>
       </c>
       <c r="I102" s="3">
-        <v>-334600</v>
+        <v>-321100</v>
       </c>
       <c r="J102" s="3">
-        <v>-78500</v>
+        <v>-75300</v>
       </c>
       <c r="K102" s="3">
         <v>-122200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22899200</v>
+        <v>21944400</v>
       </c>
       <c r="E8" s="3">
-        <v>22906700</v>
+        <v>21951600</v>
       </c>
       <c r="F8" s="3">
-        <v>22396700</v>
+        <v>21462800</v>
       </c>
       <c r="G8" s="3">
-        <v>20782300</v>
+        <v>19915800</v>
       </c>
       <c r="H8" s="3">
-        <v>20244100</v>
+        <v>19400000</v>
       </c>
       <c r="I8" s="3">
-        <v>21716500</v>
+        <v>20811000</v>
       </c>
       <c r="J8" s="3">
-        <v>24338900</v>
+        <v>23324100</v>
       </c>
       <c r="K8" s="3">
         <v>25164800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12941500</v>
+        <v>12401800</v>
       </c>
       <c r="E9" s="3">
-        <v>13596800</v>
+        <v>13029900</v>
       </c>
       <c r="F9" s="3">
-        <v>14002400</v>
+        <v>13418500</v>
       </c>
       <c r="G9" s="3">
-        <v>13474500</v>
+        <v>12912700</v>
       </c>
       <c r="H9" s="3">
-        <v>15003200</v>
+        <v>14377700</v>
       </c>
       <c r="I9" s="3">
-        <v>14941900</v>
+        <v>14318900</v>
       </c>
       <c r="J9" s="3">
-        <v>15655600</v>
+        <v>15002800</v>
       </c>
       <c r="K9" s="3">
         <v>15952900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9957700</v>
+        <v>9542500</v>
       </c>
       <c r="E10" s="3">
-        <v>9309800</v>
+        <v>8921700</v>
       </c>
       <c r="F10" s="3">
-        <v>8394300</v>
+        <v>8044300</v>
       </c>
       <c r="G10" s="3">
-        <v>7307800</v>
+        <v>7003100</v>
       </c>
       <c r="H10" s="3">
-        <v>5240900</v>
+        <v>5022300</v>
       </c>
       <c r="I10" s="3">
-        <v>6774600</v>
+        <v>6492100</v>
       </c>
       <c r="J10" s="3">
-        <v>8683300</v>
+        <v>8321300</v>
       </c>
       <c r="K10" s="3">
         <v>9211900</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4133700</v>
+        <v>3961400</v>
       </c>
       <c r="E12" s="3">
-        <v>3874100</v>
+        <v>3712600</v>
       </c>
       <c r="F12" s="3">
-        <v>3792100</v>
+        <v>3634000</v>
       </c>
       <c r="G12" s="3">
-        <v>3707800</v>
+        <v>3553200</v>
       </c>
       <c r="H12" s="3">
-        <v>3507100</v>
+        <v>3360900</v>
       </c>
       <c r="I12" s="3">
-        <v>2847900</v>
+        <v>2729100</v>
       </c>
       <c r="J12" s="3">
-        <v>3235400</v>
+        <v>3100500</v>
       </c>
       <c r="K12" s="3">
         <v>3974100</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>68200</v>
+        <v>65400</v>
       </c>
       <c r="E14" s="3">
-        <v>142300</v>
+        <v>136400</v>
       </c>
       <c r="F14" s="3">
-        <v>175900</v>
+        <v>168600</v>
       </c>
       <c r="G14" s="3">
-        <v>833700</v>
+        <v>798900</v>
       </c>
       <c r="H14" s="3">
-        <v>2559700</v>
+        <v>2452900</v>
       </c>
       <c r="I14" s="3">
-        <v>737700</v>
+        <v>706900</v>
       </c>
       <c r="J14" s="3">
-        <v>496800</v>
+        <v>476100</v>
       </c>
       <c r="K14" s="3">
         <v>160700</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19766600</v>
+        <v>18942400</v>
       </c>
       <c r="E17" s="3">
-        <v>20165600</v>
+        <v>19324800</v>
       </c>
       <c r="F17" s="3">
-        <v>21355400</v>
+        <v>20464900</v>
       </c>
       <c r="G17" s="3">
-        <v>20659900</v>
+        <v>19798400</v>
       </c>
       <c r="H17" s="3">
-        <v>23668700</v>
+        <v>22681800</v>
       </c>
       <c r="I17" s="3">
-        <v>21205300</v>
+        <v>20321100</v>
       </c>
       <c r="J17" s="3">
-        <v>22189600</v>
+        <v>21264400</v>
       </c>
       <c r="K17" s="3">
         <v>23309600</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3132600</v>
+        <v>3001900</v>
       </c>
       <c r="E18" s="3">
-        <v>2741000</v>
+        <v>2626700</v>
       </c>
       <c r="F18" s="3">
-        <v>1041300</v>
+        <v>997900</v>
       </c>
       <c r="G18" s="3">
-        <v>122400</v>
+        <v>117300</v>
       </c>
       <c r="H18" s="3">
-        <v>-3424600</v>
+        <v>-3281800</v>
       </c>
       <c r="I18" s="3">
-        <v>511300</v>
+        <v>490000</v>
       </c>
       <c r="J18" s="3">
-        <v>2149300</v>
+        <v>2059700</v>
       </c>
       <c r="K18" s="3">
         <v>1855200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-155600</v>
+        <v>-149200</v>
       </c>
       <c r="E20" s="3">
-        <v>75600</v>
+        <v>72500</v>
       </c>
       <c r="F20" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="G20" s="3">
-        <v>-168400</v>
+        <v>-161300</v>
       </c>
       <c r="H20" s="3">
-        <v>-18500</v>
+        <v>-17800</v>
       </c>
       <c r="I20" s="3">
-        <v>-92500</v>
+        <v>-88600</v>
       </c>
       <c r="J20" s="3">
-        <v>-49800</v>
+        <v>-47700</v>
       </c>
       <c r="K20" s="3">
         <v>41900</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3836900</v>
+        <v>3668900</v>
       </c>
       <c r="E21" s="3">
-        <v>3664800</v>
+        <v>3504100</v>
       </c>
       <c r="F21" s="3">
-        <v>1909500</v>
+        <v>1821900</v>
       </c>
       <c r="G21" s="3">
-        <v>671500</v>
+        <v>636800</v>
       </c>
       <c r="H21" s="3">
-        <v>-2603500</v>
+        <v>-2502800</v>
       </c>
       <c r="I21" s="3">
-        <v>1301600</v>
+        <v>1239100</v>
       </c>
       <c r="J21" s="3">
-        <v>3115200</v>
+        <v>2975800</v>
       </c>
       <c r="K21" s="3">
         <v>2983600</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>93700</v>
+        <v>89800</v>
       </c>
       <c r="E22" s="3">
-        <v>134400</v>
+        <v>128700</v>
       </c>
       <c r="F22" s="3">
-        <v>191500</v>
+        <v>183500</v>
       </c>
       <c r="G22" s="3">
-        <v>98300</v>
+        <v>94200</v>
       </c>
       <c r="H22" s="3">
-        <v>101200</v>
+        <v>97000</v>
       </c>
       <c r="I22" s="3">
-        <v>133600</v>
+        <v>128000</v>
       </c>
       <c r="J22" s="3">
-        <v>140800</v>
+        <v>134900</v>
       </c>
       <c r="K22" s="3">
         <v>151900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2883200</v>
+        <v>2763000</v>
       </c>
       <c r="E23" s="3">
-        <v>2682300</v>
+        <v>2570400</v>
       </c>
       <c r="F23" s="3">
-        <v>863700</v>
+        <v>827700</v>
       </c>
       <c r="G23" s="3">
-        <v>-144200</v>
+        <v>-138200</v>
       </c>
       <c r="H23" s="3">
-        <v>-3544400</v>
+        <v>-3396600</v>
       </c>
       <c r="I23" s="3">
-        <v>285300</v>
+        <v>273400</v>
       </c>
       <c r="J23" s="3">
-        <v>1958800</v>
+        <v>1877100</v>
       </c>
       <c r="K23" s="3">
         <v>1745200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>618000</v>
+        <v>592300</v>
       </c>
       <c r="E24" s="3">
-        <v>945200</v>
+        <v>905800</v>
       </c>
       <c r="F24" s="3">
-        <v>682300</v>
+        <v>653900</v>
       </c>
       <c r="G24" s="3">
-        <v>474400</v>
+        <v>454600</v>
       </c>
       <c r="H24" s="3">
-        <v>-347500</v>
+        <v>-333000</v>
       </c>
       <c r="I24" s="3">
-        <v>185500</v>
+        <v>177800</v>
       </c>
       <c r="J24" s="3">
-        <v>611000</v>
+        <v>585600</v>
       </c>
       <c r="K24" s="3">
         <v>515300</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2265100</v>
+        <v>2170700</v>
       </c>
       <c r="E26" s="3">
-        <v>1737100</v>
+        <v>1664700</v>
       </c>
       <c r="F26" s="3">
-        <v>181400</v>
+        <v>173800</v>
       </c>
       <c r="G26" s="3">
-        <v>-618600</v>
+        <v>-592800</v>
       </c>
       <c r="H26" s="3">
-        <v>-3196900</v>
+        <v>-3063600</v>
       </c>
       <c r="I26" s="3">
-        <v>99800</v>
+        <v>95600</v>
       </c>
       <c r="J26" s="3">
-        <v>1347700</v>
+        <v>1291600</v>
       </c>
       <c r="K26" s="3">
         <v>1230000</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2236900</v>
+        <v>2143700</v>
       </c>
       <c r="E27" s="3">
-        <v>1723300</v>
+        <v>1651400</v>
       </c>
       <c r="F27" s="3">
-        <v>219100</v>
+        <v>210000</v>
       </c>
       <c r="G27" s="3">
-        <v>-643700</v>
+        <v>-616800</v>
       </c>
       <c r="H27" s="3">
-        <v>-3211000</v>
+        <v>-3077100</v>
       </c>
       <c r="I27" s="3">
-        <v>82100</v>
+        <v>78700</v>
       </c>
       <c r="J27" s="3">
-        <v>1335500</v>
+        <v>1279800</v>
       </c>
       <c r="K27" s="3">
         <v>1276900</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>155600</v>
+        <v>149200</v>
       </c>
       <c r="E32" s="3">
-        <v>-75600</v>
+        <v>-72500</v>
       </c>
       <c r="F32" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="G32" s="3">
-        <v>168400</v>
+        <v>161300</v>
       </c>
       <c r="H32" s="3">
-        <v>18500</v>
+        <v>17800</v>
       </c>
       <c r="I32" s="3">
-        <v>92500</v>
+        <v>88600</v>
       </c>
       <c r="J32" s="3">
-        <v>49800</v>
+        <v>47700</v>
       </c>
       <c r="K32" s="3">
         <v>-41900</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2236900</v>
+        <v>2143700</v>
       </c>
       <c r="E33" s="3">
-        <v>1723300</v>
+        <v>1651400</v>
       </c>
       <c r="F33" s="3">
-        <v>219100</v>
+        <v>210000</v>
       </c>
       <c r="G33" s="3">
-        <v>-643700</v>
+        <v>-616800</v>
       </c>
       <c r="H33" s="3">
-        <v>-3211000</v>
+        <v>-3077100</v>
       </c>
       <c r="I33" s="3">
-        <v>82100</v>
+        <v>78700</v>
       </c>
       <c r="J33" s="3">
-        <v>1335500</v>
+        <v>1279800</v>
       </c>
       <c r="K33" s="3">
         <v>1276900</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2236900</v>
+        <v>2143700</v>
       </c>
       <c r="E35" s="3">
-        <v>1723300</v>
+        <v>1651400</v>
       </c>
       <c r="F35" s="3">
-        <v>219100</v>
+        <v>210000</v>
       </c>
       <c r="G35" s="3">
-        <v>-643700</v>
+        <v>-616800</v>
       </c>
       <c r="H35" s="3">
-        <v>-3211000</v>
+        <v>-3077100</v>
       </c>
       <c r="I35" s="3">
-        <v>82100</v>
+        <v>78700</v>
       </c>
       <c r="J35" s="3">
-        <v>1335500</v>
+        <v>1279800</v>
       </c>
       <c r="K35" s="3">
         <v>1276900</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2367200</v>
+        <v>2268500</v>
       </c>
       <c r="E41" s="3">
-        <v>1618700</v>
+        <v>1551200</v>
       </c>
       <c r="F41" s="3">
-        <v>1708800</v>
+        <v>1637600</v>
       </c>
       <c r="G41" s="3">
-        <v>1872600</v>
+        <v>1794600</v>
       </c>
       <c r="H41" s="3">
-        <v>1814000</v>
+        <v>1738300</v>
       </c>
       <c r="I41" s="3">
-        <v>6164900</v>
+        <v>5907800</v>
       </c>
       <c r="J41" s="3">
-        <v>2211000</v>
+        <v>2118800</v>
       </c>
       <c r="K41" s="3">
         <v>3272800</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4235300</v>
+        <v>4058700</v>
       </c>
       <c r="E42" s="3">
-        <v>3352400</v>
+        <v>3212600</v>
       </c>
       <c r="F42" s="3">
-        <v>3400900</v>
+        <v>3259100</v>
       </c>
       <c r="G42" s="3">
-        <v>2564400</v>
+        <v>2457500</v>
       </c>
       <c r="H42" s="3">
-        <v>2384800</v>
+        <v>2285400</v>
       </c>
       <c r="I42" s="3">
-        <v>2436100</v>
+        <v>2334500</v>
       </c>
       <c r="J42" s="3">
-        <v>4321200</v>
+        <v>4141000</v>
       </c>
       <c r="K42" s="3">
         <v>4692100</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6863000</v>
+        <v>6576900</v>
       </c>
       <c r="E43" s="3">
-        <v>6646700</v>
+        <v>6369500</v>
       </c>
       <c r="F43" s="3">
-        <v>6825100</v>
+        <v>6540500</v>
       </c>
       <c r="G43" s="3">
-        <v>8292200</v>
+        <v>7946400</v>
       </c>
       <c r="H43" s="3">
-        <v>14365600</v>
+        <v>13766600</v>
       </c>
       <c r="I43" s="3">
-        <v>17618700</v>
+        <v>16884100</v>
       </c>
       <c r="J43" s="3">
-        <v>8720600</v>
+        <v>8357000</v>
       </c>
       <c r="K43" s="3">
         <v>10287500</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3466100</v>
+        <v>3321600</v>
       </c>
       <c r="E44" s="3">
-        <v>2769500</v>
+        <v>2654000</v>
       </c>
       <c r="F44" s="3">
-        <v>3042200</v>
+        <v>2915300</v>
       </c>
       <c r="G44" s="3">
-        <v>2883700</v>
+        <v>2763400</v>
       </c>
       <c r="H44" s="3">
-        <v>2518200</v>
+        <v>2413200</v>
       </c>
       <c r="I44" s="3">
-        <v>6103900</v>
+        <v>5849400</v>
       </c>
       <c r="J44" s="3">
-        <v>2802900</v>
+        <v>2686100</v>
       </c>
       <c r="K44" s="3">
         <v>3110000</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>299000</v>
+        <v>286500</v>
       </c>
       <c r="E45" s="3">
-        <v>378000</v>
+        <v>362300</v>
       </c>
       <c r="F45" s="3">
-        <v>194400</v>
+        <v>186300</v>
       </c>
       <c r="G45" s="3">
-        <v>273300</v>
+        <v>261900</v>
       </c>
       <c r="H45" s="3">
-        <v>403200</v>
+        <v>386400</v>
       </c>
       <c r="I45" s="3">
-        <v>689300</v>
+        <v>660600</v>
       </c>
       <c r="J45" s="3">
-        <v>625700</v>
+        <v>599600</v>
       </c>
       <c r="K45" s="3">
         <v>911100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17230500</v>
+        <v>16512100</v>
       </c>
       <c r="E46" s="3">
-        <v>14765300</v>
+        <v>14149600</v>
       </c>
       <c r="F46" s="3">
-        <v>15171300</v>
+        <v>14538700</v>
       </c>
       <c r="G46" s="3">
-        <v>15886200</v>
+        <v>15223800</v>
       </c>
       <c r="H46" s="3">
-        <v>15122900</v>
+        <v>14492300</v>
       </c>
       <c r="I46" s="3">
-        <v>17259300</v>
+        <v>16539700</v>
       </c>
       <c r="J46" s="3">
-        <v>18681500</v>
+        <v>17902500</v>
       </c>
       <c r="K46" s="3">
         <v>22273500</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4002900</v>
+        <v>3836000</v>
       </c>
       <c r="E47" s="3">
-        <v>3003300</v>
+        <v>2878100</v>
       </c>
       <c r="F47" s="3">
-        <v>3078000</v>
+        <v>2949700</v>
       </c>
       <c r="G47" s="3">
-        <v>3336300</v>
+        <v>3197200</v>
       </c>
       <c r="H47" s="3">
-        <v>3449700</v>
+        <v>3305800</v>
       </c>
       <c r="I47" s="3">
-        <v>2025900</v>
+        <v>1941400</v>
       </c>
       <c r="J47" s="3">
-        <v>927100</v>
+        <v>888500</v>
       </c>
       <c r="K47" s="3">
         <v>1177200</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2122000</v>
+        <v>2033500</v>
       </c>
       <c r="E48" s="3">
-        <v>2105800</v>
+        <v>2017900</v>
       </c>
       <c r="F48" s="3">
-        <v>2201800</v>
+        <v>2110000</v>
       </c>
       <c r="G48" s="3">
-        <v>1266500</v>
+        <v>1213700</v>
       </c>
       <c r="H48" s="3">
-        <v>1267300</v>
+        <v>1214500</v>
       </c>
       <c r="I48" s="3">
-        <v>3298900</v>
+        <v>3161400</v>
       </c>
       <c r="J48" s="3">
-        <v>1567400</v>
+        <v>1502000</v>
       </c>
       <c r="K48" s="3">
         <v>1472600</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4491000</v>
+        <v>4303800</v>
       </c>
       <c r="E49" s="3">
-        <v>4298300</v>
+        <v>4119100</v>
       </c>
       <c r="F49" s="3">
-        <v>3719100</v>
+        <v>3564100</v>
       </c>
       <c r="G49" s="3">
-        <v>3720600</v>
+        <v>3565500</v>
       </c>
       <c r="H49" s="3">
-        <v>3603300</v>
+        <v>3453100</v>
       </c>
       <c r="I49" s="3">
-        <v>11672700</v>
+        <v>11186000</v>
       </c>
       <c r="J49" s="3">
-        <v>5509700</v>
+        <v>5279900</v>
       </c>
       <c r="K49" s="3">
         <v>6008400</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2277900</v>
+        <v>2182900</v>
       </c>
       <c r="E52" s="3">
-        <v>2592000</v>
+        <v>2483900</v>
       </c>
       <c r="F52" s="3">
-        <v>3072800</v>
+        <v>2944700</v>
       </c>
       <c r="G52" s="3">
-        <v>2282100</v>
+        <v>2186900</v>
       </c>
       <c r="H52" s="3">
-        <v>2173400</v>
+        <v>2082700</v>
       </c>
       <c r="I52" s="3">
-        <v>1675500</v>
+        <v>1605600</v>
       </c>
       <c r="J52" s="3">
-        <v>1344000</v>
+        <v>1288000</v>
       </c>
       <c r="K52" s="3">
         <v>1471300</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>30124400</v>
+        <v>28868300</v>
       </c>
       <c r="E54" s="3">
-        <v>26764700</v>
+        <v>25648700</v>
       </c>
       <c r="F54" s="3">
-        <v>27243100</v>
+        <v>26107100</v>
       </c>
       <c r="G54" s="3">
-        <v>26491800</v>
+        <v>25387200</v>
       </c>
       <c r="H54" s="3">
-        <v>25616600</v>
+        <v>24548500</v>
       </c>
       <c r="I54" s="3">
-        <v>28008700</v>
+        <v>26840800</v>
       </c>
       <c r="J54" s="3">
-        <v>28029700</v>
+        <v>26860900</v>
       </c>
       <c r="K54" s="3">
         <v>32402900</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3517400</v>
+        <v>3370700</v>
       </c>
       <c r="E57" s="3">
-        <v>3153100</v>
+        <v>3021600</v>
       </c>
       <c r="F57" s="3">
-        <v>2996800</v>
+        <v>2871900</v>
       </c>
       <c r="G57" s="3">
-        <v>2945600</v>
+        <v>2822700</v>
       </c>
       <c r="H57" s="3">
-        <v>2594400</v>
+        <v>2486200</v>
       </c>
       <c r="I57" s="3">
-        <v>5043000</v>
+        <v>4832800</v>
       </c>
       <c r="J57" s="3">
-        <v>2206900</v>
+        <v>2114900</v>
       </c>
       <c r="K57" s="3">
         <v>2701300</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1164500</v>
+        <v>1116000</v>
       </c>
       <c r="E58" s="3">
-        <v>999300</v>
+        <v>957600</v>
       </c>
       <c r="F58" s="3">
-        <v>1155800</v>
+        <v>1107600</v>
       </c>
       <c r="G58" s="3">
-        <v>222300</v>
+        <v>213000</v>
       </c>
       <c r="H58" s="3">
-        <v>250900</v>
+        <v>240400</v>
       </c>
       <c r="I58" s="3">
-        <v>1583600</v>
+        <v>1517600</v>
       </c>
       <c r="J58" s="3">
-        <v>234200</v>
+        <v>224400</v>
       </c>
       <c r="K58" s="3">
         <v>251800</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>7831800</v>
+        <v>7505200</v>
       </c>
       <c r="E59" s="3">
-        <v>7116200</v>
+        <v>6819400</v>
       </c>
       <c r="F59" s="3">
-        <v>7362200</v>
+        <v>7055200</v>
       </c>
       <c r="G59" s="3">
-        <v>7765000</v>
+        <v>7441200</v>
       </c>
       <c r="H59" s="3">
-        <v>9633100</v>
+        <v>9231500</v>
       </c>
       <c r="I59" s="3">
-        <v>12117100</v>
+        <v>11611900</v>
       </c>
       <c r="J59" s="3">
-        <v>6143400</v>
+        <v>5887200</v>
       </c>
       <c r="K59" s="3">
         <v>8175800</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>12513700</v>
+        <v>11991900</v>
       </c>
       <c r="E60" s="3">
-        <v>11268500</v>
+        <v>10798700</v>
       </c>
       <c r="F60" s="3">
-        <v>11514800</v>
+        <v>11034700</v>
       </c>
       <c r="G60" s="3">
-        <v>10932800</v>
+        <v>10476900</v>
       </c>
       <c r="H60" s="3">
-        <v>9810600</v>
+        <v>9401500</v>
       </c>
       <c r="I60" s="3">
-        <v>9936200</v>
+        <v>9521900</v>
       </c>
       <c r="J60" s="3">
-        <v>8584500</v>
+        <v>8226500</v>
       </c>
       <c r="K60" s="3">
         <v>11129000</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2890100</v>
+        <v>2769600</v>
       </c>
       <c r="E61" s="3">
-        <v>2890300</v>
+        <v>2769800</v>
       </c>
       <c r="F61" s="3">
-        <v>3533900</v>
+        <v>3386600</v>
       </c>
       <c r="G61" s="3">
-        <v>3042900</v>
+        <v>2916000</v>
       </c>
       <c r="H61" s="3">
-        <v>3006400</v>
+        <v>2881000</v>
       </c>
       <c r="I61" s="3">
-        <v>1838600</v>
+        <v>1762000</v>
       </c>
       <c r="J61" s="3">
-        <v>2241900</v>
+        <v>2148400</v>
       </c>
       <c r="K61" s="3">
         <v>2413300</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>4163900</v>
+        <v>3990300</v>
       </c>
       <c r="E62" s="3">
-        <v>4210000</v>
+        <v>4034500</v>
       </c>
       <c r="F62" s="3">
-        <v>4123600</v>
+        <v>3951600</v>
       </c>
       <c r="G62" s="3">
-        <v>3864600</v>
+        <v>3703500</v>
       </c>
       <c r="H62" s="3">
-        <v>3182000</v>
+        <v>3049400</v>
       </c>
       <c r="I62" s="3">
-        <v>2901600</v>
+        <v>2780600</v>
       </c>
       <c r="J62" s="3">
-        <v>2677500</v>
+        <v>2565800</v>
       </c>
       <c r="K62" s="3">
         <v>2821400</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19402400</v>
+        <v>18593400</v>
       </c>
       <c r="E66" s="3">
-        <v>18221300</v>
+        <v>17461500</v>
       </c>
       <c r="F66" s="3">
-        <v>19105200</v>
+        <v>18308600</v>
       </c>
       <c r="G66" s="3">
-        <v>17918400</v>
+        <v>17171200</v>
       </c>
       <c r="H66" s="3">
-        <v>16061700</v>
+        <v>15392000</v>
       </c>
       <c r="I66" s="3">
-        <v>14742900</v>
+        <v>14128200</v>
       </c>
       <c r="J66" s="3">
-        <v>13586700</v>
+        <v>13020200</v>
       </c>
       <c r="K66" s="3">
         <v>16474400</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6596100</v>
+        <v>6321100</v>
       </c>
       <c r="E72" s="3">
-        <v>4727400</v>
+        <v>4530300</v>
       </c>
       <c r="F72" s="3">
-        <v>3830800</v>
+        <v>3671100</v>
       </c>
       <c r="G72" s="3">
-        <v>4492300</v>
+        <v>4305000</v>
       </c>
       <c r="H72" s="3">
-        <v>5473800</v>
+        <v>5245600</v>
       </c>
       <c r="I72" s="3">
-        <v>9186100</v>
+        <v>8803100</v>
       </c>
       <c r="J72" s="3">
-        <v>10376300</v>
+        <v>9943600</v>
       </c>
       <c r="K72" s="3">
         <v>11374500</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10722000</v>
+        <v>10274900</v>
       </c>
       <c r="E76" s="3">
-        <v>8543500</v>
+        <v>8187200</v>
       </c>
       <c r="F76" s="3">
-        <v>8137800</v>
+        <v>7798500</v>
       </c>
       <c r="G76" s="3">
-        <v>8573400</v>
+        <v>8215900</v>
       </c>
       <c r="H76" s="3">
-        <v>9554900</v>
+        <v>9156500</v>
       </c>
       <c r="I76" s="3">
-        <v>13265700</v>
+        <v>12712600</v>
       </c>
       <c r="J76" s="3">
-        <v>14443000</v>
+        <v>13840800</v>
       </c>
       <c r="K76" s="3">
         <v>15928500</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2236900</v>
+        <v>2143700</v>
       </c>
       <c r="E81" s="3">
-        <v>1723300</v>
+        <v>1651400</v>
       </c>
       <c r="F81" s="3">
-        <v>219100</v>
+        <v>210000</v>
       </c>
       <c r="G81" s="3">
-        <v>-643700</v>
+        <v>-616800</v>
       </c>
       <c r="H81" s="3">
-        <v>-3211000</v>
+        <v>-3077100</v>
       </c>
       <c r="I81" s="3">
-        <v>82100</v>
+        <v>78700</v>
       </c>
       <c r="J81" s="3">
-        <v>1335500</v>
+        <v>1279800</v>
       </c>
       <c r="K81" s="3">
         <v>1276900</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>853200</v>
+        <v>817600</v>
       </c>
       <c r="E83" s="3">
-        <v>841500</v>
+        <v>806400</v>
       </c>
       <c r="F83" s="3">
-        <v>847600</v>
+        <v>812300</v>
       </c>
       <c r="G83" s="3">
-        <v>711800</v>
+        <v>682100</v>
       </c>
       <c r="H83" s="3">
-        <v>833000</v>
+        <v>798300</v>
       </c>
       <c r="I83" s="3">
-        <v>875900</v>
+        <v>839400</v>
       </c>
       <c r="J83" s="3">
-        <v>1007700</v>
+        <v>965700</v>
       </c>
       <c r="K83" s="3">
         <v>1095700</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3850600</v>
+        <v>3690100</v>
       </c>
       <c r="E89" s="3">
-        <v>2851900</v>
+        <v>2733000</v>
       </c>
       <c r="F89" s="3">
-        <v>1663200</v>
+        <v>1593800</v>
       </c>
       <c r="G89" s="3">
-        <v>920800</v>
+        <v>882400</v>
       </c>
       <c r="H89" s="3">
-        <v>946400</v>
+        <v>906900</v>
       </c>
       <c r="I89" s="3">
-        <v>1381000</v>
+        <v>1323400</v>
       </c>
       <c r="J89" s="3">
-        <v>2030200</v>
+        <v>1945600</v>
       </c>
       <c r="K89" s="3">
         <v>2064300</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-361100</v>
+        <v>-346000</v>
       </c>
       <c r="E91" s="3">
-        <v>-442900</v>
+        <v>-424400</v>
       </c>
       <c r="F91" s="3">
-        <v>-504500</v>
+        <v>-483400</v>
       </c>
       <c r="G91" s="3">
-        <v>-391800</v>
+        <v>-375500</v>
       </c>
       <c r="H91" s="3">
-        <v>-382200</v>
+        <v>-366200</v>
       </c>
       <c r="I91" s="3">
-        <v>-604100</v>
+        <v>-578900</v>
       </c>
       <c r="J91" s="3">
-        <v>-821900</v>
+        <v>-787600</v>
       </c>
       <c r="K91" s="3">
         <v>-587400</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1959900</v>
+        <v>-1878100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1498400</v>
+        <v>-1435900</v>
       </c>
       <c r="F94" s="3">
-        <v>-349000</v>
+        <v>-334500</v>
       </c>
       <c r="G94" s="3">
-        <v>-407300</v>
+        <v>-390300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1584000</v>
+        <v>-1518000</v>
       </c>
       <c r="I94" s="3">
-        <v>-816500</v>
+        <v>-782400</v>
       </c>
       <c r="J94" s="3">
-        <v>-787300</v>
+        <v>-754500</v>
       </c>
       <c r="K94" s="3">
         <v>-829300</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-656300</v>
+        <v>-628900</v>
       </c>
       <c r="E96" s="3">
-        <v>-491400</v>
+        <v>-470900</v>
       </c>
       <c r="F96" s="3">
-        <v>-325400</v>
+        <v>-311800</v>
       </c>
       <c r="G96" s="3">
-        <v>-337600</v>
+        <v>-323500</v>
       </c>
       <c r="H96" s="3">
-        <v>-337500</v>
+        <v>-323400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1208800</v>
+        <v>-1158400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1117500</v>
+        <v>-1070900</v>
       </c>
       <c r="K96" s="3">
         <v>-1086800</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-917400</v>
+        <v>-879100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1231300</v>
+        <v>-1180000</v>
       </c>
       <c r="F100" s="3">
-        <v>-680100</v>
+        <v>-651800</v>
       </c>
       <c r="G100" s="3">
-        <v>-401900</v>
+        <v>-385100</v>
       </c>
       <c r="H100" s="3">
-        <v>540000</v>
+        <v>517500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1157400</v>
+        <v>-1109100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1055700</v>
+        <v>-1011700</v>
       </c>
       <c r="K100" s="3">
         <v>-2011700</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>55500</v>
+        <v>53200</v>
       </c>
       <c r="E101" s="3">
-        <v>-266800</v>
+        <v>-255700</v>
       </c>
       <c r="F101" s="3">
-        <v>25400</v>
+        <v>24400</v>
       </c>
       <c r="G101" s="3">
-        <v>135200</v>
+        <v>129600</v>
       </c>
       <c r="H101" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="I101" s="3">
-        <v>271800</v>
+        <v>260400</v>
       </c>
       <c r="J101" s="3">
-        <v>-262600</v>
+        <v>-251600</v>
       </c>
       <c r="K101" s="3">
         <v>654400</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1028900</v>
+        <v>986000</v>
       </c>
       <c r="E102" s="3">
-        <v>-144600</v>
+        <v>-138600</v>
       </c>
       <c r="F102" s="3">
-        <v>659400</v>
+        <v>631900</v>
       </c>
       <c r="G102" s="3">
-        <v>246900</v>
+        <v>236600</v>
       </c>
       <c r="H102" s="3">
-        <v>-106700</v>
+        <v>-102200</v>
       </c>
       <c r="I102" s="3">
-        <v>-321100</v>
+        <v>-307800</v>
       </c>
       <c r="J102" s="3">
-        <v>-75300</v>
+        <v>-72200</v>
       </c>
       <c r="K102" s="3">
         <v>-122200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21944400</v>
+        <v>21967600</v>
       </c>
       <c r="E8" s="3">
-        <v>21951600</v>
+        <v>21974800</v>
       </c>
       <c r="F8" s="3">
-        <v>21462800</v>
+        <v>21485500</v>
       </c>
       <c r="G8" s="3">
-        <v>19915800</v>
+        <v>19936800</v>
       </c>
       <c r="H8" s="3">
-        <v>19400000</v>
+        <v>19420500</v>
       </c>
       <c r="I8" s="3">
-        <v>20811000</v>
+        <v>20833100</v>
       </c>
       <c r="J8" s="3">
-        <v>23324100</v>
+        <v>23348800</v>
       </c>
       <c r="K8" s="3">
         <v>25164800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12401800</v>
+        <v>12415000</v>
       </c>
       <c r="E9" s="3">
-        <v>13029900</v>
+        <v>13043700</v>
       </c>
       <c r="F9" s="3">
-        <v>13418500</v>
+        <v>13432700</v>
       </c>
       <c r="G9" s="3">
-        <v>12912700</v>
+        <v>12926400</v>
       </c>
       <c r="H9" s="3">
-        <v>14377700</v>
+        <v>14392900</v>
       </c>
       <c r="I9" s="3">
-        <v>14318900</v>
+        <v>14334100</v>
       </c>
       <c r="J9" s="3">
-        <v>15002800</v>
+        <v>15018700</v>
       </c>
       <c r="K9" s="3">
         <v>15952900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9542500</v>
+        <v>9552600</v>
       </c>
       <c r="E10" s="3">
-        <v>8921700</v>
+        <v>8931100</v>
       </c>
       <c r="F10" s="3">
-        <v>8044300</v>
+        <v>8052800</v>
       </c>
       <c r="G10" s="3">
-        <v>7003100</v>
+        <v>7010500</v>
       </c>
       <c r="H10" s="3">
-        <v>5022300</v>
+        <v>5027700</v>
       </c>
       <c r="I10" s="3">
-        <v>6492100</v>
+        <v>6499000</v>
       </c>
       <c r="J10" s="3">
-        <v>8321300</v>
+        <v>8330100</v>
       </c>
       <c r="K10" s="3">
         <v>9211900</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3961400</v>
+        <v>3965600</v>
       </c>
       <c r="E12" s="3">
-        <v>3712600</v>
+        <v>3716500</v>
       </c>
       <c r="F12" s="3">
-        <v>3634000</v>
+        <v>3637800</v>
       </c>
       <c r="G12" s="3">
-        <v>3553200</v>
+        <v>3557000</v>
       </c>
       <c r="H12" s="3">
-        <v>3360900</v>
+        <v>3364400</v>
       </c>
       <c r="I12" s="3">
-        <v>2729100</v>
+        <v>2732000</v>
       </c>
       <c r="J12" s="3">
-        <v>3100500</v>
+        <v>3103700</v>
       </c>
       <c r="K12" s="3">
         <v>3974100</v>
@@ -938,22 +938,22 @@
         <v>65400</v>
       </c>
       <c r="E14" s="3">
-        <v>136400</v>
+        <v>136500</v>
       </c>
       <c r="F14" s="3">
-        <v>168600</v>
+        <v>168800</v>
       </c>
       <c r="G14" s="3">
-        <v>798900</v>
+        <v>799800</v>
       </c>
       <c r="H14" s="3">
-        <v>2452900</v>
+        <v>2455500</v>
       </c>
       <c r="I14" s="3">
-        <v>706900</v>
+        <v>707700</v>
       </c>
       <c r="J14" s="3">
-        <v>476100</v>
+        <v>476600</v>
       </c>
       <c r="K14" s="3">
         <v>160700</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18942400</v>
+        <v>18962500</v>
       </c>
       <c r="E17" s="3">
-        <v>19324800</v>
+        <v>19345300</v>
       </c>
       <c r="F17" s="3">
-        <v>20464900</v>
+        <v>20486600</v>
       </c>
       <c r="G17" s="3">
-        <v>19798400</v>
+        <v>19819400</v>
       </c>
       <c r="H17" s="3">
-        <v>22681800</v>
+        <v>22705800</v>
       </c>
       <c r="I17" s="3">
-        <v>20321100</v>
+        <v>20342600</v>
       </c>
       <c r="J17" s="3">
-        <v>21264400</v>
+        <v>21286900</v>
       </c>
       <c r="K17" s="3">
         <v>23309600</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3001900</v>
+        <v>3005100</v>
       </c>
       <c r="E18" s="3">
-        <v>2626700</v>
+        <v>2629500</v>
       </c>
       <c r="F18" s="3">
-        <v>997900</v>
+        <v>998900</v>
       </c>
       <c r="G18" s="3">
-        <v>117300</v>
+        <v>117400</v>
       </c>
       <c r="H18" s="3">
-        <v>-3281800</v>
+        <v>-3285300</v>
       </c>
       <c r="I18" s="3">
-        <v>490000</v>
+        <v>490500</v>
       </c>
       <c r="J18" s="3">
-        <v>2059700</v>
+        <v>2061900</v>
       </c>
       <c r="K18" s="3">
         <v>1855200</v>
@@ -1122,7 +1122,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-149200</v>
+        <v>-149300</v>
       </c>
       <c r="E20" s="3">
         <v>72500</v>
@@ -1131,16 +1131,16 @@
         <v>13300</v>
       </c>
       <c r="G20" s="3">
-        <v>-161300</v>
+        <v>-161500</v>
       </c>
       <c r="H20" s="3">
         <v>-17800</v>
       </c>
       <c r="I20" s="3">
-        <v>-88600</v>
+        <v>-88700</v>
       </c>
       <c r="J20" s="3">
-        <v>-47700</v>
+        <v>-47800</v>
       </c>
       <c r="K20" s="3">
         <v>41900</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3668900</v>
+        <v>3651400</v>
       </c>
       <c r="E21" s="3">
-        <v>3504100</v>
+        <v>3486700</v>
       </c>
       <c r="F21" s="3">
-        <v>1821900</v>
+        <v>1802600</v>
       </c>
       <c r="G21" s="3">
-        <v>636800</v>
+        <v>619600</v>
       </c>
       <c r="H21" s="3">
-        <v>-2502800</v>
+        <v>-2526300</v>
       </c>
       <c r="I21" s="3">
-        <v>1239100</v>
+        <v>1218500</v>
       </c>
       <c r="J21" s="3">
-        <v>2975800</v>
+        <v>2953700</v>
       </c>
       <c r="K21" s="3">
         <v>2983600</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>89800</v>
+        <v>89900</v>
       </c>
       <c r="E22" s="3">
-        <v>128700</v>
+        <v>128900</v>
       </c>
       <c r="F22" s="3">
-        <v>183500</v>
+        <v>183700</v>
       </c>
       <c r="G22" s="3">
-        <v>94200</v>
+        <v>94300</v>
       </c>
       <c r="H22" s="3">
-        <v>97000</v>
+        <v>97100</v>
       </c>
       <c r="I22" s="3">
-        <v>128000</v>
+        <v>128100</v>
       </c>
       <c r="J22" s="3">
-        <v>134900</v>
+        <v>135000</v>
       </c>
       <c r="K22" s="3">
         <v>151900</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2763000</v>
+        <v>2765900</v>
       </c>
       <c r="E23" s="3">
-        <v>2570400</v>
+        <v>2573200</v>
       </c>
       <c r="F23" s="3">
-        <v>827700</v>
+        <v>828500</v>
       </c>
       <c r="G23" s="3">
-        <v>-138200</v>
+        <v>-138300</v>
       </c>
       <c r="H23" s="3">
-        <v>-3396600</v>
+        <v>-3400200</v>
       </c>
       <c r="I23" s="3">
-        <v>273400</v>
+        <v>273700</v>
       </c>
       <c r="J23" s="3">
-        <v>1877100</v>
+        <v>1879100</v>
       </c>
       <c r="K23" s="3">
         <v>1745200</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>592300</v>
+        <v>592900</v>
       </c>
       <c r="E24" s="3">
-        <v>905800</v>
+        <v>906700</v>
       </c>
       <c r="F24" s="3">
-        <v>653900</v>
+        <v>654500</v>
       </c>
       <c r="G24" s="3">
-        <v>454600</v>
+        <v>455100</v>
       </c>
       <c r="H24" s="3">
-        <v>-333000</v>
+        <v>-333300</v>
       </c>
       <c r="I24" s="3">
-        <v>177800</v>
+        <v>178000</v>
       </c>
       <c r="J24" s="3">
-        <v>585600</v>
+        <v>586200</v>
       </c>
       <c r="K24" s="3">
         <v>515300</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2170700</v>
+        <v>2173000</v>
       </c>
       <c r="E26" s="3">
-        <v>1664700</v>
+        <v>1666400</v>
       </c>
       <c r="F26" s="3">
-        <v>173800</v>
+        <v>174000</v>
       </c>
       <c r="G26" s="3">
-        <v>-592800</v>
+        <v>-593500</v>
       </c>
       <c r="H26" s="3">
-        <v>-3063600</v>
+        <v>-3066900</v>
       </c>
       <c r="I26" s="3">
-        <v>95600</v>
+        <v>95700</v>
       </c>
       <c r="J26" s="3">
-        <v>1291600</v>
+        <v>1292900</v>
       </c>
       <c r="K26" s="3">
         <v>1230000</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2143700</v>
+        <v>2145900</v>
       </c>
       <c r="E27" s="3">
-        <v>1651400</v>
+        <v>1653200</v>
       </c>
       <c r="F27" s="3">
-        <v>210000</v>
+        <v>210200</v>
       </c>
       <c r="G27" s="3">
-        <v>-616800</v>
+        <v>-617500</v>
       </c>
       <c r="H27" s="3">
-        <v>-3077100</v>
+        <v>-3080400</v>
       </c>
       <c r="I27" s="3">
-        <v>78700</v>
+        <v>78800</v>
       </c>
       <c r="J27" s="3">
-        <v>1279800</v>
+        <v>1281200</v>
       </c>
       <c r="K27" s="3">
         <v>1276900</v>
@@ -1590,7 +1590,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>149200</v>
+        <v>149300</v>
       </c>
       <c r="E32" s="3">
         <v>-72500</v>
@@ -1599,16 +1599,16 @@
         <v>-13300</v>
       </c>
       <c r="G32" s="3">
-        <v>161300</v>
+        <v>161500</v>
       </c>
       <c r="H32" s="3">
         <v>17800</v>
       </c>
       <c r="I32" s="3">
-        <v>88600</v>
+        <v>88700</v>
       </c>
       <c r="J32" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="K32" s="3">
         <v>-41900</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2143700</v>
+        <v>2145900</v>
       </c>
       <c r="E33" s="3">
-        <v>1651400</v>
+        <v>1653200</v>
       </c>
       <c r="F33" s="3">
-        <v>210000</v>
+        <v>210200</v>
       </c>
       <c r="G33" s="3">
-        <v>-616800</v>
+        <v>-617500</v>
       </c>
       <c r="H33" s="3">
-        <v>-3077100</v>
+        <v>-3080400</v>
       </c>
       <c r="I33" s="3">
-        <v>78700</v>
+        <v>78800</v>
       </c>
       <c r="J33" s="3">
-        <v>1279800</v>
+        <v>1281200</v>
       </c>
       <c r="K33" s="3">
         <v>1276900</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2143700</v>
+        <v>2145900</v>
       </c>
       <c r="E35" s="3">
-        <v>1651400</v>
+        <v>1653200</v>
       </c>
       <c r="F35" s="3">
-        <v>210000</v>
+        <v>210200</v>
       </c>
       <c r="G35" s="3">
-        <v>-616800</v>
+        <v>-617500</v>
       </c>
       <c r="H35" s="3">
-        <v>-3077100</v>
+        <v>-3080400</v>
       </c>
       <c r="I35" s="3">
-        <v>78700</v>
+        <v>78800</v>
       </c>
       <c r="J35" s="3">
-        <v>1279800</v>
+        <v>1281200</v>
       </c>
       <c r="K35" s="3">
         <v>1276900</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2268500</v>
+        <v>2270900</v>
       </c>
       <c r="E41" s="3">
-        <v>1551200</v>
+        <v>1552900</v>
       </c>
       <c r="F41" s="3">
-        <v>1637600</v>
+        <v>1639300</v>
       </c>
       <c r="G41" s="3">
-        <v>1794600</v>
+        <v>1796500</v>
       </c>
       <c r="H41" s="3">
-        <v>1738300</v>
+        <v>1740200</v>
       </c>
       <c r="I41" s="3">
-        <v>5907800</v>
+        <v>5914100</v>
       </c>
       <c r="J41" s="3">
-        <v>2118800</v>
+        <v>2121100</v>
       </c>
       <c r="K41" s="3">
         <v>3272800</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4058700</v>
+        <v>4063000</v>
       </c>
       <c r="E42" s="3">
-        <v>3212600</v>
+        <v>3216000</v>
       </c>
       <c r="F42" s="3">
-        <v>3259100</v>
+        <v>3262500</v>
       </c>
       <c r="G42" s="3">
-        <v>2457500</v>
+        <v>2460100</v>
       </c>
       <c r="H42" s="3">
-        <v>2285400</v>
+        <v>2287800</v>
       </c>
       <c r="I42" s="3">
-        <v>2334500</v>
+        <v>2337000</v>
       </c>
       <c r="J42" s="3">
-        <v>4141000</v>
+        <v>4145400</v>
       </c>
       <c r="K42" s="3">
         <v>4692100</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6576900</v>
+        <v>6583800</v>
       </c>
       <c r="E43" s="3">
-        <v>6369500</v>
+        <v>6376300</v>
       </c>
       <c r="F43" s="3">
-        <v>6540500</v>
+        <v>6547400</v>
       </c>
       <c r="G43" s="3">
-        <v>7946400</v>
+        <v>7954900</v>
       </c>
       <c r="H43" s="3">
-        <v>13766600</v>
+        <v>13781200</v>
       </c>
       <c r="I43" s="3">
-        <v>16884100</v>
+        <v>16901900</v>
       </c>
       <c r="J43" s="3">
-        <v>8357000</v>
+        <v>8365800</v>
       </c>
       <c r="K43" s="3">
         <v>10287500</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3321600</v>
+        <v>3325100</v>
       </c>
       <c r="E44" s="3">
-        <v>2654000</v>
+        <v>2656900</v>
       </c>
       <c r="F44" s="3">
-        <v>2915300</v>
+        <v>2918400</v>
       </c>
       <c r="G44" s="3">
-        <v>2763400</v>
+        <v>2766400</v>
       </c>
       <c r="H44" s="3">
-        <v>2413200</v>
+        <v>2415700</v>
       </c>
       <c r="I44" s="3">
-        <v>5849400</v>
+        <v>5855600</v>
       </c>
       <c r="J44" s="3">
-        <v>2686100</v>
+        <v>2688900</v>
       </c>
       <c r="K44" s="3">
         <v>3110000</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>286500</v>
+        <v>286800</v>
       </c>
       <c r="E45" s="3">
-        <v>362300</v>
+        <v>362600</v>
       </c>
       <c r="F45" s="3">
-        <v>186300</v>
+        <v>186500</v>
       </c>
       <c r="G45" s="3">
-        <v>261900</v>
+        <v>262200</v>
       </c>
       <c r="H45" s="3">
-        <v>386400</v>
+        <v>386800</v>
       </c>
       <c r="I45" s="3">
-        <v>660600</v>
+        <v>661300</v>
       </c>
       <c r="J45" s="3">
-        <v>599600</v>
+        <v>600300</v>
       </c>
       <c r="K45" s="3">
         <v>911100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16512100</v>
+        <v>16529600</v>
       </c>
       <c r="E46" s="3">
-        <v>14149600</v>
+        <v>14164600</v>
       </c>
       <c r="F46" s="3">
-        <v>14538700</v>
+        <v>14554100</v>
       </c>
       <c r="G46" s="3">
-        <v>15223800</v>
+        <v>15240000</v>
       </c>
       <c r="H46" s="3">
-        <v>14492300</v>
+        <v>14507700</v>
       </c>
       <c r="I46" s="3">
-        <v>16539700</v>
+        <v>16557200</v>
       </c>
       <c r="J46" s="3">
-        <v>17902500</v>
+        <v>17921500</v>
       </c>
       <c r="K46" s="3">
         <v>22273500</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3836000</v>
+        <v>3840100</v>
       </c>
       <c r="E47" s="3">
-        <v>2878100</v>
+        <v>2881100</v>
       </c>
       <c r="F47" s="3">
-        <v>2949700</v>
+        <v>2952800</v>
       </c>
       <c r="G47" s="3">
-        <v>3197200</v>
+        <v>3200600</v>
       </c>
       <c r="H47" s="3">
-        <v>3305800</v>
+        <v>3309300</v>
       </c>
       <c r="I47" s="3">
-        <v>1941400</v>
+        <v>1943500</v>
       </c>
       <c r="J47" s="3">
-        <v>888500</v>
+        <v>889400</v>
       </c>
       <c r="K47" s="3">
         <v>1177200</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2033500</v>
+        <v>2035700</v>
       </c>
       <c r="E48" s="3">
-        <v>2017900</v>
+        <v>2020100</v>
       </c>
       <c r="F48" s="3">
-        <v>2110000</v>
+        <v>2112200</v>
       </c>
       <c r="G48" s="3">
-        <v>1213700</v>
+        <v>1215000</v>
       </c>
       <c r="H48" s="3">
-        <v>1214500</v>
+        <v>1215800</v>
       </c>
       <c r="I48" s="3">
-        <v>3161400</v>
+        <v>3164700</v>
       </c>
       <c r="J48" s="3">
-        <v>1502000</v>
+        <v>1503600</v>
       </c>
       <c r="K48" s="3">
         <v>1472600</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4303800</v>
+        <v>4308300</v>
       </c>
       <c r="E49" s="3">
-        <v>4119100</v>
+        <v>4123500</v>
       </c>
       <c r="F49" s="3">
-        <v>3564100</v>
+        <v>3567800</v>
       </c>
       <c r="G49" s="3">
-        <v>3565500</v>
+        <v>3569300</v>
       </c>
       <c r="H49" s="3">
-        <v>3453100</v>
+        <v>3456700</v>
       </c>
       <c r="I49" s="3">
-        <v>11186000</v>
+        <v>11197800</v>
       </c>
       <c r="J49" s="3">
-        <v>5279900</v>
+        <v>5285500</v>
       </c>
       <c r="K49" s="3">
         <v>6008400</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2182900</v>
+        <v>2185200</v>
       </c>
       <c r="E52" s="3">
-        <v>2483900</v>
+        <v>2486500</v>
       </c>
       <c r="F52" s="3">
-        <v>2944700</v>
+        <v>2947800</v>
       </c>
       <c r="G52" s="3">
-        <v>2186900</v>
+        <v>2189300</v>
       </c>
       <c r="H52" s="3">
-        <v>2082700</v>
+        <v>2085000</v>
       </c>
       <c r="I52" s="3">
-        <v>1605600</v>
+        <v>1607300</v>
       </c>
       <c r="J52" s="3">
-        <v>1288000</v>
+        <v>1289300</v>
       </c>
       <c r="K52" s="3">
         <v>1471300</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28868300</v>
+        <v>28898900</v>
       </c>
       <c r="E54" s="3">
-        <v>25648700</v>
+        <v>25675900</v>
       </c>
       <c r="F54" s="3">
-        <v>26107100</v>
+        <v>26134800</v>
       </c>
       <c r="G54" s="3">
-        <v>25387200</v>
+        <v>25414000</v>
       </c>
       <c r="H54" s="3">
-        <v>24548500</v>
+        <v>24574400</v>
       </c>
       <c r="I54" s="3">
-        <v>26840800</v>
+        <v>26869200</v>
       </c>
       <c r="J54" s="3">
-        <v>26860900</v>
+        <v>26889400</v>
       </c>
       <c r="K54" s="3">
         <v>32402900</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3370700</v>
+        <v>3374300</v>
       </c>
       <c r="E57" s="3">
-        <v>3021600</v>
+        <v>3024800</v>
       </c>
       <c r="F57" s="3">
-        <v>2871900</v>
+        <v>2874900</v>
       </c>
       <c r="G57" s="3">
-        <v>2822700</v>
+        <v>2825700</v>
       </c>
       <c r="H57" s="3">
-        <v>2486200</v>
+        <v>2488800</v>
       </c>
       <c r="I57" s="3">
-        <v>4832800</v>
+        <v>4837900</v>
       </c>
       <c r="J57" s="3">
-        <v>2114900</v>
+        <v>2117100</v>
       </c>
       <c r="K57" s="3">
         <v>2701300</v>
@@ -2443,25 +2443,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1116000</v>
+        <v>1117100</v>
       </c>
       <c r="E58" s="3">
-        <v>957600</v>
+        <v>958600</v>
       </c>
       <c r="F58" s="3">
-        <v>1107600</v>
+        <v>1108800</v>
       </c>
       <c r="G58" s="3">
-        <v>213000</v>
+        <v>213200</v>
       </c>
       <c r="H58" s="3">
-        <v>240400</v>
+        <v>240700</v>
       </c>
       <c r="I58" s="3">
-        <v>1517600</v>
+        <v>1519200</v>
       </c>
       <c r="J58" s="3">
-        <v>224400</v>
+        <v>224700</v>
       </c>
       <c r="K58" s="3">
         <v>251800</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>7505200</v>
+        <v>7513200</v>
       </c>
       <c r="E59" s="3">
-        <v>6819400</v>
+        <v>6826700</v>
       </c>
       <c r="F59" s="3">
-        <v>7055200</v>
+        <v>7062700</v>
       </c>
       <c r="G59" s="3">
-        <v>7441200</v>
+        <v>7449100</v>
       </c>
       <c r="H59" s="3">
-        <v>9231500</v>
+        <v>9241300</v>
       </c>
       <c r="I59" s="3">
-        <v>11611900</v>
+        <v>11624200</v>
       </c>
       <c r="J59" s="3">
-        <v>5887200</v>
+        <v>5893500</v>
       </c>
       <c r="K59" s="3">
         <v>8175800</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>11991900</v>
+        <v>12004600</v>
       </c>
       <c r="E60" s="3">
-        <v>10798700</v>
+        <v>10810100</v>
       </c>
       <c r="F60" s="3">
-        <v>11034700</v>
+        <v>11046400</v>
       </c>
       <c r="G60" s="3">
-        <v>10476900</v>
+        <v>10488000</v>
       </c>
       <c r="H60" s="3">
-        <v>9401500</v>
+        <v>9411500</v>
       </c>
       <c r="I60" s="3">
-        <v>9521900</v>
+        <v>9531900</v>
       </c>
       <c r="J60" s="3">
-        <v>8226500</v>
+        <v>8235200</v>
       </c>
       <c r="K60" s="3">
         <v>11129000</v>
@@ -2560,25 +2560,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2769600</v>
+        <v>2772500</v>
       </c>
       <c r="E61" s="3">
-        <v>2769800</v>
+        <v>2772700</v>
       </c>
       <c r="F61" s="3">
-        <v>3386600</v>
+        <v>3390200</v>
       </c>
       <c r="G61" s="3">
-        <v>2916000</v>
+        <v>2919100</v>
       </c>
       <c r="H61" s="3">
-        <v>2881000</v>
+        <v>2884100</v>
       </c>
       <c r="I61" s="3">
-        <v>1762000</v>
+        <v>1763800</v>
       </c>
       <c r="J61" s="3">
-        <v>2148400</v>
+        <v>2150700</v>
       </c>
       <c r="K61" s="3">
         <v>2413300</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3990300</v>
+        <v>3994500</v>
       </c>
       <c r="E62" s="3">
-        <v>4034500</v>
+        <v>4038800</v>
       </c>
       <c r="F62" s="3">
-        <v>3951600</v>
+        <v>3955800</v>
       </c>
       <c r="G62" s="3">
-        <v>3703500</v>
+        <v>3707400</v>
       </c>
       <c r="H62" s="3">
-        <v>3049400</v>
+        <v>3052600</v>
       </c>
       <c r="I62" s="3">
-        <v>2780600</v>
+        <v>2783600</v>
       </c>
       <c r="J62" s="3">
-        <v>2565800</v>
+        <v>2568500</v>
       </c>
       <c r="K62" s="3">
         <v>2821400</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18593400</v>
+        <v>18613100</v>
       </c>
       <c r="E66" s="3">
-        <v>17461500</v>
+        <v>17480000</v>
       </c>
       <c r="F66" s="3">
-        <v>18308600</v>
+        <v>18328000</v>
       </c>
       <c r="G66" s="3">
-        <v>17171200</v>
+        <v>17189400</v>
       </c>
       <c r="H66" s="3">
-        <v>15392000</v>
+        <v>15408300</v>
       </c>
       <c r="I66" s="3">
-        <v>14128200</v>
+        <v>14143200</v>
       </c>
       <c r="J66" s="3">
-        <v>13020200</v>
+        <v>13034000</v>
       </c>
       <c r="K66" s="3">
         <v>16474400</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6321100</v>
+        <v>6327800</v>
       </c>
       <c r="E72" s="3">
-        <v>4530300</v>
+        <v>4535100</v>
       </c>
       <c r="F72" s="3">
-        <v>3671100</v>
+        <v>3675000</v>
       </c>
       <c r="G72" s="3">
-        <v>4305000</v>
+        <v>4309600</v>
       </c>
       <c r="H72" s="3">
-        <v>5245600</v>
+        <v>5251100</v>
       </c>
       <c r="I72" s="3">
-        <v>8803100</v>
+        <v>8812400</v>
       </c>
       <c r="J72" s="3">
-        <v>9943600</v>
+        <v>9954100</v>
       </c>
       <c r="K72" s="3">
         <v>11374500</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10274900</v>
+        <v>10285800</v>
       </c>
       <c r="E76" s="3">
-        <v>8187200</v>
+        <v>8195900</v>
       </c>
       <c r="F76" s="3">
-        <v>7798500</v>
+        <v>7806800</v>
       </c>
       <c r="G76" s="3">
-        <v>8215900</v>
+        <v>8224600</v>
       </c>
       <c r="H76" s="3">
-        <v>9156500</v>
+        <v>9166200</v>
       </c>
       <c r="I76" s="3">
-        <v>12712600</v>
+        <v>12726100</v>
       </c>
       <c r="J76" s="3">
-        <v>13840800</v>
+        <v>13855400</v>
       </c>
       <c r="K76" s="3">
         <v>15928500</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2143700</v>
+        <v>2145900</v>
       </c>
       <c r="E81" s="3">
-        <v>1651400</v>
+        <v>1653200</v>
       </c>
       <c r="F81" s="3">
-        <v>210000</v>
+        <v>210200</v>
       </c>
       <c r="G81" s="3">
-        <v>-616800</v>
+        <v>-617500</v>
       </c>
       <c r="H81" s="3">
-        <v>-3077100</v>
+        <v>-3080400</v>
       </c>
       <c r="I81" s="3">
-        <v>78700</v>
+        <v>78800</v>
       </c>
       <c r="J81" s="3">
-        <v>1279800</v>
+        <v>1281200</v>
       </c>
       <c r="K81" s="3">
         <v>1276900</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>817600</v>
+        <v>818500</v>
       </c>
       <c r="E83" s="3">
-        <v>806400</v>
+        <v>807300</v>
       </c>
       <c r="F83" s="3">
-        <v>812300</v>
+        <v>813100</v>
       </c>
       <c r="G83" s="3">
-        <v>682100</v>
+        <v>682800</v>
       </c>
       <c r="H83" s="3">
-        <v>798300</v>
+        <v>799100</v>
       </c>
       <c r="I83" s="3">
-        <v>839400</v>
+        <v>840300</v>
       </c>
       <c r="J83" s="3">
-        <v>965700</v>
+        <v>966700</v>
       </c>
       <c r="K83" s="3">
         <v>1095700</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3690100</v>
+        <v>3694000</v>
       </c>
       <c r="E89" s="3">
-        <v>2733000</v>
+        <v>2735900</v>
       </c>
       <c r="F89" s="3">
-        <v>1593800</v>
+        <v>1595500</v>
       </c>
       <c r="G89" s="3">
-        <v>882400</v>
+        <v>883400</v>
       </c>
       <c r="H89" s="3">
-        <v>906900</v>
+        <v>907900</v>
       </c>
       <c r="I89" s="3">
-        <v>1323400</v>
+        <v>1324800</v>
       </c>
       <c r="J89" s="3">
-        <v>1945600</v>
+        <v>1947700</v>
       </c>
       <c r="K89" s="3">
         <v>2064300</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-346000</v>
+        <v>-346400</v>
       </c>
       <c r="E91" s="3">
-        <v>-424400</v>
+        <v>-424900</v>
       </c>
       <c r="F91" s="3">
-        <v>-483400</v>
+        <v>-484000</v>
       </c>
       <c r="G91" s="3">
-        <v>-375500</v>
+        <v>-375900</v>
       </c>
       <c r="H91" s="3">
-        <v>-366200</v>
+        <v>-366600</v>
       </c>
       <c r="I91" s="3">
-        <v>-578900</v>
+        <v>-579600</v>
       </c>
       <c r="J91" s="3">
-        <v>-787600</v>
+        <v>-788400</v>
       </c>
       <c r="K91" s="3">
         <v>-587400</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1878100</v>
+        <v>-1880100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1435900</v>
+        <v>-1437400</v>
       </c>
       <c r="F94" s="3">
-        <v>-334500</v>
+        <v>-334800</v>
       </c>
       <c r="G94" s="3">
-        <v>-390300</v>
+        <v>-390700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1518000</v>
+        <v>-1519600</v>
       </c>
       <c r="I94" s="3">
-        <v>-782400</v>
+        <v>-783200</v>
       </c>
       <c r="J94" s="3">
-        <v>-754500</v>
+        <v>-755300</v>
       </c>
       <c r="K94" s="3">
         <v>-829300</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-628900</v>
+        <v>-629600</v>
       </c>
       <c r="E96" s="3">
-        <v>-470900</v>
+        <v>-471400</v>
       </c>
       <c r="F96" s="3">
-        <v>-311800</v>
+        <v>-312100</v>
       </c>
       <c r="G96" s="3">
-        <v>-323500</v>
+        <v>-323900</v>
       </c>
       <c r="H96" s="3">
-        <v>-323400</v>
+        <v>-323800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1158400</v>
+        <v>-1159600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1070900</v>
+        <v>-1072000</v>
       </c>
       <c r="K96" s="3">
         <v>-1086800</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-879100</v>
+        <v>-880100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1180000</v>
+        <v>-1181200</v>
       </c>
       <c r="F100" s="3">
-        <v>-651800</v>
+        <v>-652500</v>
       </c>
       <c r="G100" s="3">
-        <v>-385100</v>
+        <v>-385500</v>
       </c>
       <c r="H100" s="3">
-        <v>517500</v>
+        <v>518000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1109100</v>
+        <v>-1110300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1011700</v>
+        <v>-1012700</v>
       </c>
       <c r="K100" s="3">
         <v>-2011700</v>
@@ -3962,22 +3962,22 @@
         <v>53200</v>
       </c>
       <c r="E101" s="3">
-        <v>-255700</v>
+        <v>-256000</v>
       </c>
       <c r="F101" s="3">
         <v>24400</v>
       </c>
       <c r="G101" s="3">
-        <v>129600</v>
+        <v>129700</v>
       </c>
       <c r="H101" s="3">
         <v>-8600</v>
       </c>
       <c r="I101" s="3">
-        <v>260400</v>
+        <v>260700</v>
       </c>
       <c r="J101" s="3">
-        <v>-251600</v>
+        <v>-251900</v>
       </c>
       <c r="K101" s="3">
         <v>654400</v>
@@ -3998,22 +3998,22 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>986000</v>
+        <v>987000</v>
       </c>
       <c r="E102" s="3">
-        <v>-138600</v>
+        <v>-138700</v>
       </c>
       <c r="F102" s="3">
-        <v>631900</v>
+        <v>632600</v>
       </c>
       <c r="G102" s="3">
-        <v>236600</v>
+        <v>236900</v>
       </c>
       <c r="H102" s="3">
-        <v>-102200</v>
+        <v>-102300</v>
       </c>
       <c r="I102" s="3">
-        <v>-307800</v>
+        <v>-308100</v>
       </c>
       <c r="J102" s="3">
         <v>-72200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21967600</v>
+        <v>25305400</v>
       </c>
       <c r="E8" s="3">
-        <v>21974800</v>
+        <v>21649300</v>
       </c>
       <c r="F8" s="3">
-        <v>21485500</v>
+        <v>21656400</v>
       </c>
       <c r="G8" s="3">
-        <v>19936800</v>
+        <v>21174300</v>
       </c>
       <c r="H8" s="3">
-        <v>19420500</v>
+        <v>19648000</v>
       </c>
       <c r="I8" s="3">
-        <v>20833100</v>
+        <v>19139200</v>
       </c>
       <c r="J8" s="3">
+        <v>20531200</v>
+      </c>
+      <c r="K8" s="3">
         <v>23348800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25164800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26775800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23673100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25760100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12415000</v>
+        <v>14729200</v>
       </c>
       <c r="E9" s="3">
-        <v>13043700</v>
+        <v>12235100</v>
       </c>
       <c r="F9" s="3">
-        <v>13432700</v>
+        <v>12854700</v>
       </c>
       <c r="G9" s="3">
-        <v>12926400</v>
+        <v>13238100</v>
       </c>
       <c r="H9" s="3">
-        <v>14392900</v>
+        <v>12739100</v>
       </c>
       <c r="I9" s="3">
-        <v>14334100</v>
+        <v>14184400</v>
       </c>
       <c r="J9" s="3">
+        <v>14126400</v>
+      </c>
+      <c r="K9" s="3">
         <v>15018700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15952900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17469500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16181800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16710100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9552600</v>
+        <v>10576100</v>
       </c>
       <c r="E10" s="3">
-        <v>8931100</v>
+        <v>9414200</v>
       </c>
       <c r="F10" s="3">
-        <v>8052800</v>
+        <v>8801700</v>
       </c>
       <c r="G10" s="3">
-        <v>7010500</v>
+        <v>7936200</v>
       </c>
       <c r="H10" s="3">
-        <v>5027700</v>
+        <v>6908900</v>
       </c>
       <c r="I10" s="3">
-        <v>6499000</v>
+        <v>4954800</v>
       </c>
       <c r="J10" s="3">
+        <v>6404900</v>
+      </c>
+      <c r="K10" s="3">
         <v>8330100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9211900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9306300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7491300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9049900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3965600</v>
+        <v>4402700</v>
       </c>
       <c r="E12" s="3">
-        <v>3716500</v>
+        <v>3908100</v>
       </c>
       <c r="F12" s="3">
-        <v>3637800</v>
+        <v>3662600</v>
       </c>
       <c r="G12" s="3">
-        <v>3557000</v>
+        <v>3585100</v>
       </c>
       <c r="H12" s="3">
-        <v>3364400</v>
+        <v>3505400</v>
       </c>
       <c r="I12" s="3">
-        <v>2732000</v>
+        <v>3315700</v>
       </c>
       <c r="J12" s="3">
+        <v>2692400</v>
+      </c>
+      <c r="K12" s="3">
         <v>3103700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3974100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3693400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3323800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3641400</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>65400</v>
+        <v>284700</v>
       </c>
       <c r="E14" s="3">
-        <v>136500</v>
+        <v>64500</v>
       </c>
       <c r="F14" s="3">
-        <v>168800</v>
+        <v>134600</v>
       </c>
       <c r="G14" s="3">
-        <v>799800</v>
+        <v>166300</v>
       </c>
       <c r="H14" s="3">
-        <v>2455500</v>
+        <v>788200</v>
       </c>
       <c r="I14" s="3">
-        <v>707700</v>
+        <v>2420000</v>
       </c>
       <c r="J14" s="3">
+        <v>697400</v>
+      </c>
+      <c r="K14" s="3">
         <v>476600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>160700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>524400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>159400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>237600</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18962500</v>
+        <v>22787400</v>
       </c>
       <c r="E17" s="3">
-        <v>19345300</v>
+        <v>18687800</v>
       </c>
       <c r="F17" s="3">
-        <v>20486600</v>
+        <v>19065000</v>
       </c>
       <c r="G17" s="3">
-        <v>19819400</v>
+        <v>20189800</v>
       </c>
       <c r="H17" s="3">
-        <v>22705800</v>
+        <v>19532300</v>
       </c>
       <c r="I17" s="3">
-        <v>20342600</v>
+        <v>22376900</v>
       </c>
       <c r="J17" s="3">
+        <v>20047900</v>
+      </c>
+      <c r="K17" s="3">
         <v>21286900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23309600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24674400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22586200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23728100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3005100</v>
+        <v>2518000</v>
       </c>
       <c r="E18" s="3">
-        <v>2629500</v>
+        <v>2961600</v>
       </c>
       <c r="F18" s="3">
-        <v>998900</v>
+        <v>2591400</v>
       </c>
       <c r="G18" s="3">
-        <v>117400</v>
+        <v>984500</v>
       </c>
       <c r="H18" s="3">
-        <v>-3285300</v>
+        <v>115700</v>
       </c>
       <c r="I18" s="3">
-        <v>490500</v>
+        <v>-3237700</v>
       </c>
       <c r="J18" s="3">
+        <v>483400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2061900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1855200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2101400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1086900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2032000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-149300</v>
+        <v>-90900</v>
       </c>
       <c r="E20" s="3">
-        <v>72500</v>
+        <v>-147100</v>
       </c>
       <c r="F20" s="3">
-        <v>13300</v>
+        <v>71500</v>
       </c>
       <c r="G20" s="3">
-        <v>-161500</v>
+        <v>13100</v>
       </c>
       <c r="H20" s="3">
-        <v>-17800</v>
+        <v>-159200</v>
       </c>
       <c r="I20" s="3">
-        <v>-88700</v>
+        <v>-17500</v>
       </c>
       <c r="J20" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-47800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>78300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>151500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>218800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3651400</v>
+        <v>3404300</v>
       </c>
       <c r="E21" s="3">
-        <v>3486700</v>
+        <v>3621300</v>
       </c>
       <c r="F21" s="3">
-        <v>1802600</v>
+        <v>3458700</v>
       </c>
       <c r="G21" s="3">
-        <v>619600</v>
+        <v>1799200</v>
       </c>
       <c r="H21" s="3">
-        <v>-2526300</v>
+        <v>629700</v>
       </c>
       <c r="I21" s="3">
-        <v>1218500</v>
+        <v>-2467400</v>
       </c>
       <c r="J21" s="3">
+        <v>1224300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2953700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2983600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3371900</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3277900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>89900</v>
+        <v>133800</v>
       </c>
       <c r="E22" s="3">
-        <v>128900</v>
+        <v>88600</v>
       </c>
       <c r="F22" s="3">
-        <v>183700</v>
+        <v>127000</v>
       </c>
       <c r="G22" s="3">
-        <v>94300</v>
+        <v>181100</v>
       </c>
       <c r="H22" s="3">
-        <v>97100</v>
+        <v>92900</v>
       </c>
       <c r="I22" s="3">
-        <v>128100</v>
+        <v>95700</v>
       </c>
       <c r="J22" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K22" s="3">
         <v>135000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>151900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>166300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>193700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2765900</v>
+        <v>2293300</v>
       </c>
       <c r="E23" s="3">
-        <v>2573200</v>
+        <v>2725800</v>
       </c>
       <c r="F23" s="3">
-        <v>828500</v>
+        <v>2535900</v>
       </c>
       <c r="G23" s="3">
-        <v>-138300</v>
+        <v>816500</v>
       </c>
       <c r="H23" s="3">
-        <v>-3400200</v>
+        <v>-136300</v>
       </c>
       <c r="I23" s="3">
-        <v>273700</v>
+        <v>-3350900</v>
       </c>
       <c r="J23" s="3">
+        <v>269700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1879100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1745200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2013500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1058200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2057100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>592900</v>
+        <v>512300</v>
       </c>
       <c r="E24" s="3">
-        <v>906700</v>
+        <v>584300</v>
       </c>
       <c r="F24" s="3">
-        <v>654500</v>
+        <v>893600</v>
       </c>
       <c r="G24" s="3">
-        <v>455100</v>
+        <v>645100</v>
       </c>
       <c r="H24" s="3">
-        <v>-333300</v>
+        <v>448500</v>
       </c>
       <c r="I24" s="3">
-        <v>178000</v>
+        <v>-328500</v>
       </c>
       <c r="J24" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K24" s="3">
         <v>586200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>515300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>579900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>441100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>630300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2173000</v>
+        <v>1781000</v>
       </c>
       <c r="E26" s="3">
-        <v>1666400</v>
+        <v>2141500</v>
       </c>
       <c r="F26" s="3">
-        <v>174000</v>
+        <v>1642300</v>
       </c>
       <c r="G26" s="3">
-        <v>-593500</v>
+        <v>171500</v>
       </c>
       <c r="H26" s="3">
-        <v>-3066900</v>
+        <v>-584900</v>
       </c>
       <c r="I26" s="3">
-        <v>95700</v>
+        <v>-3022400</v>
       </c>
       <c r="J26" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1292900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1230000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1433600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>617100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1426800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2145900</v>
+        <v>1744900</v>
       </c>
       <c r="E27" s="3">
-        <v>1653200</v>
+        <v>2114900</v>
       </c>
       <c r="F27" s="3">
-        <v>210200</v>
+        <v>1629200</v>
       </c>
       <c r="G27" s="3">
-        <v>-617500</v>
+        <v>207200</v>
       </c>
       <c r="H27" s="3">
-        <v>-3080400</v>
+        <v>-608500</v>
       </c>
       <c r="I27" s="3">
-        <v>78800</v>
+        <v>-3035800</v>
       </c>
       <c r="J27" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1281200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1276900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1413700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1384300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>149300</v>
+        <v>90900</v>
       </c>
       <c r="E32" s="3">
-        <v>-72500</v>
+        <v>147100</v>
       </c>
       <c r="F32" s="3">
-        <v>-13300</v>
+        <v>-71500</v>
       </c>
       <c r="G32" s="3">
-        <v>161500</v>
+        <v>-13100</v>
       </c>
       <c r="H32" s="3">
-        <v>17800</v>
+        <v>159200</v>
       </c>
       <c r="I32" s="3">
-        <v>88700</v>
+        <v>17500</v>
       </c>
       <c r="J32" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K32" s="3">
         <v>47800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-78300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-151500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-218800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2145900</v>
+        <v>1744900</v>
       </c>
       <c r="E33" s="3">
-        <v>1653200</v>
+        <v>2114900</v>
       </c>
       <c r="F33" s="3">
-        <v>210200</v>
+        <v>1629200</v>
       </c>
       <c r="G33" s="3">
-        <v>-617500</v>
+        <v>207200</v>
       </c>
       <c r="H33" s="3">
-        <v>-3080400</v>
+        <v>-608500</v>
       </c>
       <c r="I33" s="3">
-        <v>78800</v>
+        <v>-3035800</v>
       </c>
       <c r="J33" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1281200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1276900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1413700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1384300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2145900</v>
+        <v>1744900</v>
       </c>
       <c r="E35" s="3">
-        <v>1653200</v>
+        <v>2114900</v>
       </c>
       <c r="F35" s="3">
-        <v>210200</v>
+        <v>1629200</v>
       </c>
       <c r="G35" s="3">
-        <v>-617500</v>
+        <v>207200</v>
       </c>
       <c r="H35" s="3">
-        <v>-3080400</v>
+        <v>-608500</v>
       </c>
       <c r="I35" s="3">
-        <v>78800</v>
+        <v>-3035800</v>
       </c>
       <c r="J35" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1281200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1276900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1413700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1384300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2270900</v>
+        <v>1840100</v>
       </c>
       <c r="E41" s="3">
-        <v>1552900</v>
+        <v>2238000</v>
       </c>
       <c r="F41" s="3">
-        <v>1639300</v>
+        <v>1530400</v>
       </c>
       <c r="G41" s="3">
-        <v>1796500</v>
+        <v>1615500</v>
       </c>
       <c r="H41" s="3">
-        <v>1740200</v>
+        <v>1770400</v>
       </c>
       <c r="I41" s="3">
-        <v>5914100</v>
+        <v>1715000</v>
       </c>
       <c r="J41" s="3">
+        <v>5828400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2121100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3272800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3370100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4643800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4390500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4063000</v>
+        <v>2547700</v>
       </c>
       <c r="E42" s="3">
-        <v>3216000</v>
+        <v>4004100</v>
       </c>
       <c r="F42" s="3">
-        <v>3262500</v>
+        <v>3169400</v>
       </c>
       <c r="G42" s="3">
-        <v>2460100</v>
+        <v>3215200</v>
       </c>
       <c r="H42" s="3">
-        <v>2287800</v>
+        <v>2424400</v>
       </c>
       <c r="I42" s="3">
-        <v>2337000</v>
+        <v>2254600</v>
       </c>
       <c r="J42" s="3">
+        <v>2303100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4145400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4692100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5707900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3328500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4752600</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6583800</v>
+        <v>7154400</v>
       </c>
       <c r="E43" s="3">
-        <v>6376300</v>
+        <v>6488400</v>
       </c>
       <c r="F43" s="3">
-        <v>6547400</v>
+        <v>6283900</v>
       </c>
       <c r="G43" s="3">
-        <v>7954900</v>
+        <v>6452600</v>
       </c>
       <c r="H43" s="3">
-        <v>13781200</v>
+        <v>7839600</v>
       </c>
       <c r="I43" s="3">
-        <v>16901900</v>
+        <v>13581500</v>
       </c>
       <c r="J43" s="3">
+        <v>16657100</v>
+      </c>
+      <c r="K43" s="3">
         <v>8365800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10287500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9880400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8527800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9211600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3325100</v>
+        <v>4272400</v>
       </c>
       <c r="E44" s="3">
-        <v>2656900</v>
+        <v>3276900</v>
       </c>
       <c r="F44" s="3">
-        <v>2918400</v>
+        <v>2618400</v>
       </c>
       <c r="G44" s="3">
-        <v>2766400</v>
+        <v>2876100</v>
       </c>
       <c r="H44" s="3">
-        <v>2415700</v>
+        <v>2726300</v>
       </c>
       <c r="I44" s="3">
-        <v>5855600</v>
+        <v>2380700</v>
       </c>
       <c r="J44" s="3">
+        <v>5770800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2688900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3110000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2680100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2993400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3754100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>286800</v>
+        <v>382100</v>
       </c>
       <c r="E45" s="3">
-        <v>362600</v>
+        <v>282600</v>
       </c>
       <c r="F45" s="3">
-        <v>186500</v>
+        <v>357400</v>
       </c>
       <c r="G45" s="3">
-        <v>262200</v>
+        <v>183800</v>
       </c>
       <c r="H45" s="3">
-        <v>386800</v>
+        <v>258400</v>
       </c>
       <c r="I45" s="3">
-        <v>661300</v>
+        <v>381200</v>
       </c>
       <c r="J45" s="3">
+        <v>651700</v>
+      </c>
+      <c r="K45" s="3">
         <v>600300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>911100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>841400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>591500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>460800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16529600</v>
+        <v>16196700</v>
       </c>
       <c r="E46" s="3">
-        <v>14164600</v>
+        <v>16290100</v>
       </c>
       <c r="F46" s="3">
-        <v>14554100</v>
+        <v>13959400</v>
       </c>
       <c r="G46" s="3">
-        <v>15240000</v>
+        <v>14343200</v>
       </c>
       <c r="H46" s="3">
-        <v>14507700</v>
+        <v>15019200</v>
       </c>
       <c r="I46" s="3">
-        <v>16557200</v>
+        <v>14297500</v>
       </c>
       <c r="J46" s="3">
+        <v>16317300</v>
+      </c>
+      <c r="K46" s="3">
         <v>17921500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22273500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22479900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20084900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22569600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3840100</v>
+        <v>1828300</v>
       </c>
       <c r="E47" s="3">
-        <v>2881100</v>
+        <v>3784400</v>
       </c>
       <c r="F47" s="3">
-        <v>2952800</v>
+        <v>2839400</v>
       </c>
       <c r="G47" s="3">
-        <v>3200600</v>
+        <v>2910000</v>
       </c>
       <c r="H47" s="3">
-        <v>3309300</v>
+        <v>3154200</v>
       </c>
       <c r="I47" s="3">
-        <v>1943500</v>
+        <v>3261400</v>
       </c>
       <c r="J47" s="3">
+        <v>1915300</v>
+      </c>
+      <c r="K47" s="3">
         <v>889400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1177200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1111400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>881500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1553100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2035700</v>
+        <v>2060100</v>
       </c>
       <c r="E48" s="3">
-        <v>2020100</v>
+        <v>2006200</v>
       </c>
       <c r="F48" s="3">
-        <v>2112200</v>
+        <v>1990800</v>
       </c>
       <c r="G48" s="3">
-        <v>1215000</v>
+        <v>2081600</v>
       </c>
       <c r="H48" s="3">
-        <v>1215800</v>
+        <v>1197400</v>
       </c>
       <c r="I48" s="3">
-        <v>3164700</v>
+        <v>1198100</v>
       </c>
       <c r="J48" s="3">
+        <v>3118900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1503600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1472600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1346400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1194500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1224700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4308300</v>
+        <v>10681000</v>
       </c>
       <c r="E49" s="3">
-        <v>4123500</v>
+        <v>4245900</v>
       </c>
       <c r="F49" s="3">
-        <v>3567800</v>
+        <v>4063700</v>
       </c>
       <c r="G49" s="3">
-        <v>3569300</v>
+        <v>3516200</v>
       </c>
       <c r="H49" s="3">
-        <v>3456700</v>
+        <v>3517500</v>
       </c>
       <c r="I49" s="3">
-        <v>11197800</v>
+        <v>3406700</v>
       </c>
       <c r="J49" s="3">
+        <v>11035600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5285500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6008400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5618000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5138900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4999900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2185200</v>
+        <v>1807300</v>
       </c>
       <c r="E52" s="3">
-        <v>2486500</v>
+        <v>2153500</v>
       </c>
       <c r="F52" s="3">
-        <v>2947800</v>
+        <v>2450500</v>
       </c>
       <c r="G52" s="3">
-        <v>2189300</v>
+        <v>2905100</v>
       </c>
       <c r="H52" s="3">
-        <v>2085000</v>
+        <v>2157500</v>
       </c>
       <c r="I52" s="3">
-        <v>1607300</v>
+        <v>2054700</v>
       </c>
       <c r="J52" s="3">
+        <v>1584000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1289300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1471300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1144200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1280500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1478000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28898900</v>
+        <v>32573400</v>
       </c>
       <c r="E54" s="3">
-        <v>25675900</v>
+        <v>28480200</v>
       </c>
       <c r="F54" s="3">
-        <v>26134800</v>
+        <v>25303900</v>
       </c>
       <c r="G54" s="3">
-        <v>25414000</v>
+        <v>25756100</v>
       </c>
       <c r="H54" s="3">
-        <v>24574400</v>
+        <v>25045800</v>
       </c>
       <c r="I54" s="3">
-        <v>26869200</v>
+        <v>24218400</v>
       </c>
       <c r="J54" s="3">
+        <v>26479900</v>
+      </c>
+      <c r="K54" s="3">
         <v>26889400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32402900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31699800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28580300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31825200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3374300</v>
+        <v>3581900</v>
       </c>
       <c r="E57" s="3">
-        <v>3024800</v>
+        <v>3325400</v>
       </c>
       <c r="F57" s="3">
-        <v>2874900</v>
+        <v>2981000</v>
       </c>
       <c r="G57" s="3">
-        <v>2825700</v>
+        <v>2833300</v>
       </c>
       <c r="H57" s="3">
-        <v>2488800</v>
+        <v>2784800</v>
       </c>
       <c r="I57" s="3">
-        <v>4837900</v>
+        <v>2452800</v>
       </c>
       <c r="J57" s="3">
+        <v>4767800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2117100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2701300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2414300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1117100</v>
+        <v>789300</v>
       </c>
       <c r="E58" s="3">
-        <v>958600</v>
+        <v>1100900</v>
       </c>
       <c r="F58" s="3">
-        <v>1108800</v>
+        <v>944800</v>
       </c>
       <c r="G58" s="3">
-        <v>213200</v>
+        <v>1092700</v>
       </c>
       <c r="H58" s="3">
-        <v>240700</v>
+        <v>210100</v>
       </c>
       <c r="I58" s="3">
-        <v>1519200</v>
+        <v>237200</v>
       </c>
       <c r="J58" s="3">
+        <v>1497200</v>
+      </c>
+      <c r="K58" s="3">
         <v>224700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>251800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>870000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>495600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>881500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>7513200</v>
+        <v>9199100</v>
       </c>
       <c r="E59" s="3">
-        <v>6826700</v>
+        <v>7404300</v>
       </c>
       <c r="F59" s="3">
-        <v>7062700</v>
+        <v>6727800</v>
       </c>
       <c r="G59" s="3">
-        <v>7449100</v>
+        <v>6960400</v>
       </c>
       <c r="H59" s="3">
-        <v>9241300</v>
+        <v>7341100</v>
       </c>
       <c r="I59" s="3">
-        <v>11624200</v>
+        <v>9107400</v>
       </c>
       <c r="J59" s="3">
+        <v>11455800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5893500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8175800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7472300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9619100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10121700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>12004600</v>
+        <v>13570300</v>
       </c>
       <c r="E60" s="3">
-        <v>10810100</v>
+        <v>11830700</v>
       </c>
       <c r="F60" s="3">
-        <v>11046400</v>
+        <v>10653500</v>
       </c>
       <c r="G60" s="3">
-        <v>10488000</v>
+        <v>10886400</v>
       </c>
       <c r="H60" s="3">
-        <v>9411500</v>
+        <v>10336100</v>
       </c>
       <c r="I60" s="3">
-        <v>9531900</v>
+        <v>9275100</v>
       </c>
       <c r="J60" s="3">
+        <v>9393800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8235200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10756700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10123200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11014700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2772500</v>
+        <v>3146500</v>
       </c>
       <c r="E61" s="3">
-        <v>2772700</v>
+        <v>2732300</v>
       </c>
       <c r="F61" s="3">
-        <v>3390200</v>
+        <v>2732500</v>
       </c>
       <c r="G61" s="3">
-        <v>2919100</v>
+        <v>3341000</v>
       </c>
       <c r="H61" s="3">
-        <v>2884100</v>
+        <v>2876800</v>
       </c>
       <c r="I61" s="3">
-        <v>1763800</v>
+        <v>2842300</v>
       </c>
       <c r="J61" s="3">
+        <v>1738300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2150700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2413300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2598600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2483700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2640000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3994500</v>
+        <v>3434000</v>
       </c>
       <c r="E62" s="3">
-        <v>4038800</v>
+        <v>3936600</v>
       </c>
       <c r="F62" s="3">
-        <v>3955800</v>
+        <v>3980200</v>
       </c>
       <c r="G62" s="3">
-        <v>3707400</v>
+        <v>3898500</v>
       </c>
       <c r="H62" s="3">
-        <v>3052600</v>
+        <v>3653700</v>
       </c>
       <c r="I62" s="3">
-        <v>2783600</v>
+        <v>3008400</v>
       </c>
       <c r="J62" s="3">
+        <v>2743200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2568500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2821400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1667000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1580900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1679400</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>18613100</v>
+        <v>20010000</v>
       </c>
       <c r="E66" s="3">
-        <v>17480000</v>
+        <v>18343400</v>
       </c>
       <c r="F66" s="3">
-        <v>18328000</v>
+        <v>17226700</v>
       </c>
       <c r="G66" s="3">
-        <v>17189400</v>
+        <v>18062500</v>
       </c>
       <c r="H66" s="3">
-        <v>15408300</v>
+        <v>16940400</v>
       </c>
       <c r="I66" s="3">
-        <v>14143200</v>
+        <v>15185000</v>
       </c>
       <c r="J66" s="3">
+        <v>13938200</v>
+      </c>
+      <c r="K66" s="3">
         <v>13034000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16474400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15189400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14354100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15579900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>6327800</v>
+        <v>7940700</v>
       </c>
       <c r="E72" s="3">
-        <v>4535100</v>
+        <v>6236100</v>
       </c>
       <c r="F72" s="3">
-        <v>3675000</v>
+        <v>4469400</v>
       </c>
       <c r="G72" s="3">
-        <v>4309600</v>
+        <v>3621700</v>
       </c>
       <c r="H72" s="3">
-        <v>5251100</v>
+        <v>4247100</v>
       </c>
       <c r="I72" s="3">
-        <v>8812400</v>
+        <v>5175000</v>
       </c>
       <c r="J72" s="3">
+        <v>8684700</v>
+      </c>
+      <c r="K72" s="3">
         <v>9954100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11374500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11652000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9938400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11579800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>10285800</v>
+        <v>12563300</v>
       </c>
       <c r="E76" s="3">
-        <v>8195900</v>
+        <v>10136700</v>
       </c>
       <c r="F76" s="3">
-        <v>7806800</v>
+        <v>8077200</v>
       </c>
       <c r="G76" s="3">
-        <v>8224600</v>
+        <v>7693700</v>
       </c>
       <c r="H76" s="3">
-        <v>9166200</v>
+        <v>8105500</v>
       </c>
       <c r="I76" s="3">
-        <v>12726100</v>
+        <v>9033400</v>
       </c>
       <c r="J76" s="3">
+        <v>12541700</v>
+      </c>
+      <c r="K76" s="3">
         <v>13855400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15928500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16510400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14226300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16245300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2145900</v>
+        <v>1744900</v>
       </c>
       <c r="E81" s="3">
-        <v>1653200</v>
+        <v>2114900</v>
       </c>
       <c r="F81" s="3">
-        <v>210200</v>
+        <v>1629200</v>
       </c>
       <c r="G81" s="3">
-        <v>-617500</v>
+        <v>207200</v>
       </c>
       <c r="H81" s="3">
-        <v>-3080400</v>
+        <v>-608500</v>
       </c>
       <c r="I81" s="3">
-        <v>78800</v>
+        <v>-3035800</v>
       </c>
       <c r="J81" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1281200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1276900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1413700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1384300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>818500</v>
+        <v>976800</v>
       </c>
       <c r="E83" s="3">
-        <v>807300</v>
+        <v>806700</v>
       </c>
       <c r="F83" s="3">
-        <v>813100</v>
+        <v>795600</v>
       </c>
       <c r="G83" s="3">
-        <v>682800</v>
+        <v>801300</v>
       </c>
       <c r="H83" s="3">
-        <v>799100</v>
+        <v>672900</v>
       </c>
       <c r="I83" s="3">
-        <v>840300</v>
+        <v>787500</v>
       </c>
       <c r="J83" s="3">
+        <v>828100</v>
+      </c>
+      <c r="K83" s="3">
         <v>966700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1095700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1195900</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1025800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3694000</v>
+        <v>2876100</v>
       </c>
       <c r="E89" s="3">
-        <v>2735900</v>
+        <v>3640500</v>
       </c>
       <c r="F89" s="3">
-        <v>1595500</v>
+        <v>2696300</v>
       </c>
       <c r="G89" s="3">
-        <v>883400</v>
+        <v>1572400</v>
       </c>
       <c r="H89" s="3">
-        <v>907900</v>
+        <v>870600</v>
       </c>
       <c r="I89" s="3">
-        <v>1324800</v>
+        <v>894700</v>
       </c>
       <c r="J89" s="3">
+        <v>1305600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1947700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2064300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2047700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2289700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1133200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-346400</v>
+        <v>-417200</v>
       </c>
       <c r="E91" s="3">
-        <v>-424900</v>
+        <v>-341400</v>
       </c>
       <c r="F91" s="3">
-        <v>-484000</v>
+        <v>-418700</v>
       </c>
       <c r="G91" s="3">
-        <v>-375900</v>
+        <v>-476900</v>
       </c>
       <c r="H91" s="3">
-        <v>-366600</v>
+        <v>-370400</v>
       </c>
       <c r="I91" s="3">
-        <v>-579600</v>
+        <v>-361300</v>
       </c>
       <c r="J91" s="3">
+        <v>-571200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-788400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-587400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-530300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-564200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-566900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1880100</v>
+        <v>-3205500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1437400</v>
+        <v>-1852900</v>
       </c>
       <c r="F94" s="3">
-        <v>-334800</v>
+        <v>-1416600</v>
       </c>
       <c r="G94" s="3">
-        <v>-390700</v>
+        <v>-330000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1519600</v>
+        <v>-385100</v>
       </c>
       <c r="I94" s="3">
-        <v>-783200</v>
+        <v>-1497600</v>
       </c>
       <c r="J94" s="3">
+        <v>-771900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-755300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-829300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>515500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-629600</v>
+        <v>-775800</v>
       </c>
       <c r="E96" s="3">
-        <v>-471400</v>
+        <v>-620500</v>
       </c>
       <c r="F96" s="3">
-        <v>-312100</v>
+        <v>-464600</v>
       </c>
       <c r="G96" s="3">
-        <v>-323900</v>
+        <v>-307600</v>
       </c>
       <c r="H96" s="3">
-        <v>-323800</v>
+        <v>-319200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1159600</v>
+        <v>-319100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1142800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1072000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1086800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1077900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-897100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-846300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-880100</v>
+        <v>-1484500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1181200</v>
+        <v>-867300</v>
       </c>
       <c r="F100" s="3">
-        <v>-652500</v>
+        <v>-1164100</v>
       </c>
       <c r="G100" s="3">
-        <v>-385500</v>
+        <v>-643000</v>
       </c>
       <c r="H100" s="3">
-        <v>518000</v>
+        <v>-379900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1110300</v>
+        <v>510500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1094200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1012700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2011700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1119700</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-737200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>53200</v>
+        <v>350700</v>
       </c>
       <c r="E101" s="3">
-        <v>-256000</v>
+        <v>52500</v>
       </c>
       <c r="F101" s="3">
-        <v>24400</v>
+        <v>-252300</v>
       </c>
       <c r="G101" s="3">
-        <v>129700</v>
+        <v>24000</v>
       </c>
       <c r="H101" s="3">
-        <v>-8600</v>
+        <v>127900</v>
       </c>
       <c r="I101" s="3">
-        <v>260700</v>
+        <v>-8500</v>
       </c>
       <c r="J101" s="3">
+        <v>256900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-251900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>654400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>75500</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-24600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>987000</v>
+        <v>-1463200</v>
       </c>
       <c r="E102" s="3">
-        <v>-138700</v>
+        <v>972700</v>
       </c>
       <c r="F102" s="3">
-        <v>632600</v>
+        <v>-136700</v>
       </c>
       <c r="G102" s="3">
-        <v>236900</v>
+        <v>623400</v>
       </c>
       <c r="H102" s="3">
-        <v>-102300</v>
+        <v>233400</v>
       </c>
       <c r="I102" s="3">
-        <v>-308100</v>
+        <v>-100800</v>
       </c>
       <c r="J102" s="3">
+        <v>-303600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-72200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-122200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-304600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>624200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>886800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25305400</v>
+        <v>25737100</v>
       </c>
       <c r="E8" s="3">
-        <v>21649300</v>
+        <v>22018700</v>
       </c>
       <c r="F8" s="3">
-        <v>21656400</v>
+        <v>22025900</v>
       </c>
       <c r="G8" s="3">
-        <v>21174300</v>
+        <v>21535500</v>
       </c>
       <c r="H8" s="3">
-        <v>19648000</v>
+        <v>19983200</v>
       </c>
       <c r="I8" s="3">
-        <v>19139200</v>
+        <v>19465700</v>
       </c>
       <c r="J8" s="3">
-        <v>20531200</v>
+        <v>20881600</v>
       </c>
       <c r="K8" s="3">
         <v>23348800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14729200</v>
+        <v>14980500</v>
       </c>
       <c r="E9" s="3">
-        <v>12235100</v>
+        <v>12443900</v>
       </c>
       <c r="F9" s="3">
-        <v>12854700</v>
+        <v>13074000</v>
       </c>
       <c r="G9" s="3">
-        <v>13238100</v>
+        <v>13464000</v>
       </c>
       <c r="H9" s="3">
-        <v>12739100</v>
+        <v>12956400</v>
       </c>
       <c r="I9" s="3">
-        <v>14184400</v>
+        <v>14426400</v>
       </c>
       <c r="J9" s="3">
-        <v>14126400</v>
+        <v>14367400</v>
       </c>
       <c r="K9" s="3">
         <v>15018700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10576100</v>
+        <v>10756600</v>
       </c>
       <c r="E10" s="3">
-        <v>9414200</v>
+        <v>9574900</v>
       </c>
       <c r="F10" s="3">
-        <v>8801700</v>
+        <v>8951900</v>
       </c>
       <c r="G10" s="3">
-        <v>7936200</v>
+        <v>8071600</v>
       </c>
       <c r="H10" s="3">
-        <v>6908900</v>
+        <v>7026800</v>
       </c>
       <c r="I10" s="3">
-        <v>4954800</v>
+        <v>5039400</v>
       </c>
       <c r="J10" s="3">
-        <v>6404900</v>
+        <v>6514100</v>
       </c>
       <c r="K10" s="3">
         <v>8330100</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4402700</v>
+        <v>4477800</v>
       </c>
       <c r="E12" s="3">
-        <v>3908100</v>
+        <v>3974800</v>
       </c>
       <c r="F12" s="3">
-        <v>3662600</v>
+        <v>3725100</v>
       </c>
       <c r="G12" s="3">
-        <v>3585100</v>
+        <v>3646300</v>
       </c>
       <c r="H12" s="3">
-        <v>3505400</v>
+        <v>3565200</v>
       </c>
       <c r="I12" s="3">
-        <v>3315700</v>
+        <v>3372300</v>
       </c>
       <c r="J12" s="3">
-        <v>2692400</v>
+        <v>2738400</v>
       </c>
       <c r="K12" s="3">
         <v>3103700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>284700</v>
+        <v>289600</v>
       </c>
       <c r="E14" s="3">
-        <v>64500</v>
+        <v>65600</v>
       </c>
       <c r="F14" s="3">
-        <v>134600</v>
+        <v>136900</v>
       </c>
       <c r="G14" s="3">
-        <v>166300</v>
+        <v>169200</v>
       </c>
       <c r="H14" s="3">
-        <v>788200</v>
+        <v>801600</v>
       </c>
       <c r="I14" s="3">
-        <v>2420000</v>
+        <v>2461200</v>
       </c>
       <c r="J14" s="3">
-        <v>697400</v>
+        <v>709300</v>
       </c>
       <c r="K14" s="3">
         <v>476600</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22787400</v>
+        <v>23176200</v>
       </c>
       <c r="E17" s="3">
-        <v>18687800</v>
+        <v>19006600</v>
       </c>
       <c r="F17" s="3">
-        <v>19065000</v>
+        <v>19390300</v>
       </c>
       <c r="G17" s="3">
-        <v>20189800</v>
+        <v>20534300</v>
       </c>
       <c r="H17" s="3">
-        <v>19532300</v>
+        <v>19865500</v>
       </c>
       <c r="I17" s="3">
-        <v>22376900</v>
+        <v>22758700</v>
       </c>
       <c r="J17" s="3">
-        <v>20047900</v>
+        <v>20389900</v>
       </c>
       <c r="K17" s="3">
         <v>21286900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2518000</v>
+        <v>2561000</v>
       </c>
       <c r="E18" s="3">
-        <v>2961600</v>
+        <v>3012100</v>
       </c>
       <c r="F18" s="3">
-        <v>2591400</v>
+        <v>2635600</v>
       </c>
       <c r="G18" s="3">
-        <v>984500</v>
+        <v>1001300</v>
       </c>
       <c r="H18" s="3">
-        <v>115700</v>
+        <v>117700</v>
       </c>
       <c r="I18" s="3">
-        <v>-3237700</v>
+        <v>-3292900</v>
       </c>
       <c r="J18" s="3">
-        <v>483400</v>
+        <v>491600</v>
       </c>
       <c r="K18" s="3">
         <v>2061900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-90900</v>
+        <v>-92400</v>
       </c>
       <c r="E20" s="3">
-        <v>-147100</v>
+        <v>-149700</v>
       </c>
       <c r="F20" s="3">
-        <v>71500</v>
+        <v>72700</v>
       </c>
       <c r="G20" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="H20" s="3">
-        <v>-159200</v>
+        <v>-161900</v>
       </c>
       <c r="I20" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="J20" s="3">
-        <v>-87400</v>
+        <v>-88900</v>
       </c>
       <c r="K20" s="3">
         <v>-47800</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3404300</v>
+        <v>3472000</v>
       </c>
       <c r="E21" s="3">
-        <v>3621300</v>
+        <v>3691100</v>
       </c>
       <c r="F21" s="3">
-        <v>3458700</v>
+        <v>3525600</v>
       </c>
       <c r="G21" s="3">
-        <v>1799200</v>
+        <v>1837800</v>
       </c>
       <c r="H21" s="3">
-        <v>629700</v>
+        <v>647100</v>
       </c>
       <c r="I21" s="3">
-        <v>-2467400</v>
+        <v>-2501700</v>
       </c>
       <c r="J21" s="3">
-        <v>1224300</v>
+        <v>1253400</v>
       </c>
       <c r="K21" s="3">
         <v>2953700</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>133800</v>
+        <v>136100</v>
       </c>
       <c r="E22" s="3">
-        <v>88600</v>
+        <v>90100</v>
       </c>
       <c r="F22" s="3">
-        <v>127000</v>
+        <v>129200</v>
       </c>
       <c r="G22" s="3">
-        <v>181100</v>
+        <v>184200</v>
       </c>
       <c r="H22" s="3">
-        <v>92900</v>
+        <v>94500</v>
       </c>
       <c r="I22" s="3">
-        <v>95700</v>
+        <v>97300</v>
       </c>
       <c r="J22" s="3">
-        <v>126300</v>
+        <v>128400</v>
       </c>
       <c r="K22" s="3">
         <v>135000</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2293300</v>
+        <v>2332400</v>
       </c>
       <c r="E23" s="3">
-        <v>2725800</v>
+        <v>2772300</v>
       </c>
       <c r="F23" s="3">
-        <v>2535900</v>
+        <v>2579200</v>
       </c>
       <c r="G23" s="3">
-        <v>816500</v>
+        <v>830500</v>
       </c>
       <c r="H23" s="3">
-        <v>-136300</v>
+        <v>-138700</v>
       </c>
       <c r="I23" s="3">
-        <v>-3350900</v>
+        <v>-3408100</v>
       </c>
       <c r="J23" s="3">
-        <v>269700</v>
+        <v>274300</v>
       </c>
       <c r="K23" s="3">
         <v>1879100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>512300</v>
+        <v>521000</v>
       </c>
       <c r="E24" s="3">
-        <v>584300</v>
+        <v>594300</v>
       </c>
       <c r="F24" s="3">
-        <v>893600</v>
+        <v>908800</v>
       </c>
       <c r="G24" s="3">
-        <v>645100</v>
+        <v>656100</v>
       </c>
       <c r="H24" s="3">
-        <v>448500</v>
+        <v>456200</v>
       </c>
       <c r="I24" s="3">
-        <v>-328500</v>
+        <v>-334100</v>
       </c>
       <c r="J24" s="3">
-        <v>175400</v>
+        <v>178400</v>
       </c>
       <c r="K24" s="3">
         <v>586200</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1781000</v>
+        <v>1811400</v>
       </c>
       <c r="E26" s="3">
-        <v>2141500</v>
+        <v>2178000</v>
       </c>
       <c r="F26" s="3">
-        <v>1642300</v>
+        <v>1670300</v>
       </c>
       <c r="G26" s="3">
-        <v>171500</v>
+        <v>174400</v>
       </c>
       <c r="H26" s="3">
-        <v>-584900</v>
+        <v>-594800</v>
       </c>
       <c r="I26" s="3">
-        <v>-3022400</v>
+        <v>-3074000</v>
       </c>
       <c r="J26" s="3">
-        <v>94300</v>
+        <v>95900</v>
       </c>
       <c r="K26" s="3">
         <v>1292900</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1744900</v>
+        <v>1774700</v>
       </c>
       <c r="E27" s="3">
-        <v>2114900</v>
+        <v>2150900</v>
       </c>
       <c r="F27" s="3">
-        <v>1629200</v>
+        <v>1657000</v>
       </c>
       <c r="G27" s="3">
-        <v>207200</v>
+        <v>210700</v>
       </c>
       <c r="H27" s="3">
-        <v>-608500</v>
+        <v>-618900</v>
       </c>
       <c r="I27" s="3">
-        <v>-3035800</v>
+        <v>-3087600</v>
       </c>
       <c r="J27" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="K27" s="3">
         <v>1281200</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>90900</v>
+        <v>92400</v>
       </c>
       <c r="E32" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="F32" s="3">
-        <v>-71500</v>
+        <v>-72700</v>
       </c>
       <c r="G32" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="H32" s="3">
-        <v>159200</v>
+        <v>161900</v>
       </c>
       <c r="I32" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="J32" s="3">
-        <v>87400</v>
+        <v>88900</v>
       </c>
       <c r="K32" s="3">
         <v>47800</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1744900</v>
+        <v>1774700</v>
       </c>
       <c r="E33" s="3">
-        <v>2114900</v>
+        <v>2150900</v>
       </c>
       <c r="F33" s="3">
-        <v>1629200</v>
+        <v>1657000</v>
       </c>
       <c r="G33" s="3">
-        <v>207200</v>
+        <v>210700</v>
       </c>
       <c r="H33" s="3">
-        <v>-608500</v>
+        <v>-618900</v>
       </c>
       <c r="I33" s="3">
-        <v>-3035800</v>
+        <v>-3087600</v>
       </c>
       <c r="J33" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="K33" s="3">
         <v>1281200</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1744900</v>
+        <v>1774700</v>
       </c>
       <c r="E35" s="3">
-        <v>2114900</v>
+        <v>2150900</v>
       </c>
       <c r="F35" s="3">
-        <v>1629200</v>
+        <v>1657000</v>
       </c>
       <c r="G35" s="3">
-        <v>207200</v>
+        <v>210700</v>
       </c>
       <c r="H35" s="3">
-        <v>-608500</v>
+        <v>-618900</v>
       </c>
       <c r="I35" s="3">
-        <v>-3035800</v>
+        <v>-3087600</v>
       </c>
       <c r="J35" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="K35" s="3">
         <v>1281200</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1840100</v>
+        <v>1871500</v>
       </c>
       <c r="E41" s="3">
-        <v>2238000</v>
+        <v>2276100</v>
       </c>
       <c r="F41" s="3">
-        <v>1530400</v>
+        <v>1556500</v>
       </c>
       <c r="G41" s="3">
-        <v>1615500</v>
+        <v>1643100</v>
       </c>
       <c r="H41" s="3">
-        <v>1770400</v>
+        <v>1800600</v>
       </c>
       <c r="I41" s="3">
-        <v>1715000</v>
+        <v>1744200</v>
       </c>
       <c r="J41" s="3">
-        <v>5828400</v>
+        <v>5927800</v>
       </c>
       <c r="K41" s="3">
         <v>2121100</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2547700</v>
+        <v>2591200</v>
       </c>
       <c r="E42" s="3">
-        <v>4004100</v>
+        <v>4072400</v>
       </c>
       <c r="F42" s="3">
-        <v>3169400</v>
+        <v>3223500</v>
       </c>
       <c r="G42" s="3">
-        <v>3215200</v>
+        <v>3270100</v>
       </c>
       <c r="H42" s="3">
-        <v>2424400</v>
+        <v>2465800</v>
       </c>
       <c r="I42" s="3">
-        <v>2254600</v>
+        <v>2293100</v>
       </c>
       <c r="J42" s="3">
-        <v>2303100</v>
+        <v>2342400</v>
       </c>
       <c r="K42" s="3">
         <v>4145400</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7154400</v>
+        <v>7276500</v>
       </c>
       <c r="E43" s="3">
-        <v>6488400</v>
+        <v>6599200</v>
       </c>
       <c r="F43" s="3">
-        <v>6283900</v>
+        <v>6391100</v>
       </c>
       <c r="G43" s="3">
-        <v>6452600</v>
+        <v>6562700</v>
       </c>
       <c r="H43" s="3">
-        <v>7839600</v>
+        <v>7973400</v>
       </c>
       <c r="I43" s="3">
-        <v>13581500</v>
+        <v>13813200</v>
       </c>
       <c r="J43" s="3">
-        <v>16657100</v>
+        <v>16941300</v>
       </c>
       <c r="K43" s="3">
         <v>8365800</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4272400</v>
+        <v>4345300</v>
       </c>
       <c r="E44" s="3">
-        <v>3276900</v>
+        <v>3332800</v>
       </c>
       <c r="F44" s="3">
-        <v>2618400</v>
+        <v>2663000</v>
       </c>
       <c r="G44" s="3">
-        <v>2876100</v>
+        <v>2925200</v>
       </c>
       <c r="H44" s="3">
-        <v>2726300</v>
+        <v>2772800</v>
       </c>
       <c r="I44" s="3">
-        <v>2380700</v>
+        <v>2421300</v>
       </c>
       <c r="J44" s="3">
-        <v>5770800</v>
+        <v>5869300</v>
       </c>
       <c r="K44" s="3">
         <v>2688900</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>382100</v>
+        <v>388600</v>
       </c>
       <c r="E45" s="3">
-        <v>282600</v>
+        <v>287500</v>
       </c>
       <c r="F45" s="3">
-        <v>357400</v>
+        <v>363500</v>
       </c>
       <c r="G45" s="3">
-        <v>183800</v>
+        <v>186900</v>
       </c>
       <c r="H45" s="3">
-        <v>258400</v>
+        <v>262800</v>
       </c>
       <c r="I45" s="3">
-        <v>381200</v>
+        <v>387700</v>
       </c>
       <c r="J45" s="3">
-        <v>651700</v>
+        <v>662800</v>
       </c>
       <c r="K45" s="3">
         <v>600300</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16196700</v>
+        <v>16473000</v>
       </c>
       <c r="E46" s="3">
-        <v>16290100</v>
+        <v>16568000</v>
       </c>
       <c r="F46" s="3">
-        <v>13959400</v>
+        <v>14197600</v>
       </c>
       <c r="G46" s="3">
-        <v>14343200</v>
+        <v>14588000</v>
       </c>
       <c r="H46" s="3">
-        <v>15019200</v>
+        <v>15275400</v>
       </c>
       <c r="I46" s="3">
-        <v>14297500</v>
+        <v>14541400</v>
       </c>
       <c r="J46" s="3">
-        <v>16317300</v>
+        <v>16595700</v>
       </c>
       <c r="K46" s="3">
         <v>17921500</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1828300</v>
+        <v>1859500</v>
       </c>
       <c r="E47" s="3">
-        <v>3784400</v>
+        <v>3849000</v>
       </c>
       <c r="F47" s="3">
-        <v>2839400</v>
+        <v>2887900</v>
       </c>
       <c r="G47" s="3">
-        <v>2910000</v>
+        <v>2959700</v>
       </c>
       <c r="H47" s="3">
-        <v>3154200</v>
+        <v>3208000</v>
       </c>
       <c r="I47" s="3">
-        <v>3261400</v>
+        <v>3317000</v>
       </c>
       <c r="J47" s="3">
-        <v>1915300</v>
+        <v>1948000</v>
       </c>
       <c r="K47" s="3">
         <v>889400</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2060100</v>
+        <v>2095200</v>
       </c>
       <c r="E48" s="3">
-        <v>2006200</v>
+        <v>2040400</v>
       </c>
       <c r="F48" s="3">
-        <v>1990800</v>
+        <v>2024800</v>
       </c>
       <c r="G48" s="3">
-        <v>2081600</v>
+        <v>2117100</v>
       </c>
       <c r="H48" s="3">
-        <v>1197400</v>
+        <v>1217800</v>
       </c>
       <c r="I48" s="3">
-        <v>1198100</v>
+        <v>1218600</v>
       </c>
       <c r="J48" s="3">
-        <v>3118900</v>
+        <v>3172100</v>
       </c>
       <c r="K48" s="3">
         <v>1503600</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>10681000</v>
+        <v>10863200</v>
       </c>
       <c r="E49" s="3">
-        <v>4245900</v>
+        <v>4318400</v>
       </c>
       <c r="F49" s="3">
-        <v>4063700</v>
+        <v>4133100</v>
       </c>
       <c r="G49" s="3">
-        <v>3516200</v>
+        <v>3576100</v>
       </c>
       <c r="H49" s="3">
-        <v>3517500</v>
+        <v>3577600</v>
       </c>
       <c r="I49" s="3">
-        <v>3406700</v>
+        <v>3464800</v>
       </c>
       <c r="J49" s="3">
-        <v>11035600</v>
+        <v>11223800</v>
       </c>
       <c r="K49" s="3">
         <v>5285500</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1807300</v>
+        <v>1838200</v>
       </c>
       <c r="E52" s="3">
-        <v>2153500</v>
+        <v>2190300</v>
       </c>
       <c r="F52" s="3">
-        <v>2450500</v>
+        <v>2492300</v>
       </c>
       <c r="G52" s="3">
-        <v>2905100</v>
+        <v>2954700</v>
       </c>
       <c r="H52" s="3">
-        <v>2157500</v>
+        <v>2194300</v>
       </c>
       <c r="I52" s="3">
-        <v>2054700</v>
+        <v>2089800</v>
       </c>
       <c r="J52" s="3">
-        <v>1584000</v>
+        <v>1611100</v>
       </c>
       <c r="K52" s="3">
         <v>1289300</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>32573400</v>
+        <v>33129100</v>
       </c>
       <c r="E54" s="3">
-        <v>28480200</v>
+        <v>28966100</v>
       </c>
       <c r="F54" s="3">
-        <v>25303900</v>
+        <v>25735600</v>
       </c>
       <c r="G54" s="3">
-        <v>25756100</v>
+        <v>26195600</v>
       </c>
       <c r="H54" s="3">
-        <v>25045800</v>
+        <v>25473200</v>
       </c>
       <c r="I54" s="3">
-        <v>24218400</v>
+        <v>24631600</v>
       </c>
       <c r="J54" s="3">
-        <v>26479900</v>
+        <v>26931700</v>
       </c>
       <c r="K54" s="3">
         <v>26889400</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3581900</v>
+        <v>3643100</v>
       </c>
       <c r="E57" s="3">
-        <v>3325400</v>
+        <v>3382100</v>
       </c>
       <c r="F57" s="3">
-        <v>2981000</v>
+        <v>3031800</v>
       </c>
       <c r="G57" s="3">
-        <v>2833300</v>
+        <v>2881600</v>
       </c>
       <c r="H57" s="3">
-        <v>2784800</v>
+        <v>2832300</v>
       </c>
       <c r="I57" s="3">
-        <v>2452800</v>
+        <v>2494600</v>
       </c>
       <c r="J57" s="3">
-        <v>4767800</v>
+        <v>4849100</v>
       </c>
       <c r="K57" s="3">
         <v>2117100</v>
@@ -2576,25 +2576,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>789300</v>
+        <v>802800</v>
       </c>
       <c r="E58" s="3">
-        <v>1100900</v>
+        <v>1119700</v>
       </c>
       <c r="F58" s="3">
-        <v>944800</v>
+        <v>960900</v>
       </c>
       <c r="G58" s="3">
-        <v>1092700</v>
+        <v>1111400</v>
       </c>
       <c r="H58" s="3">
-        <v>210100</v>
+        <v>213700</v>
       </c>
       <c r="I58" s="3">
-        <v>237200</v>
+        <v>241200</v>
       </c>
       <c r="J58" s="3">
-        <v>1497200</v>
+        <v>1522700</v>
       </c>
       <c r="K58" s="3">
         <v>224700</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>9199100</v>
+        <v>9356000</v>
       </c>
       <c r="E59" s="3">
-        <v>7404300</v>
+        <v>7530700</v>
       </c>
       <c r="F59" s="3">
-        <v>6727800</v>
+        <v>6842500</v>
       </c>
       <c r="G59" s="3">
-        <v>6960400</v>
+        <v>7079100</v>
       </c>
       <c r="H59" s="3">
-        <v>7341100</v>
+        <v>7466400</v>
       </c>
       <c r="I59" s="3">
-        <v>9107400</v>
+        <v>9262800</v>
       </c>
       <c r="J59" s="3">
-        <v>11455800</v>
+        <v>11651200</v>
       </c>
       <c r="K59" s="3">
         <v>5893500</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13570300</v>
+        <v>13801900</v>
       </c>
       <c r="E60" s="3">
-        <v>11830700</v>
+        <v>12032500</v>
       </c>
       <c r="F60" s="3">
-        <v>10653500</v>
+        <v>10835200</v>
       </c>
       <c r="G60" s="3">
-        <v>10886400</v>
+        <v>11072100</v>
       </c>
       <c r="H60" s="3">
-        <v>10336100</v>
+        <v>10512400</v>
       </c>
       <c r="I60" s="3">
-        <v>9275100</v>
+        <v>9433400</v>
       </c>
       <c r="J60" s="3">
-        <v>9393800</v>
+        <v>9554100</v>
       </c>
       <c r="K60" s="3">
         <v>8235200</v>
@@ -2702,25 +2702,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3146500</v>
+        <v>3200200</v>
       </c>
       <c r="E61" s="3">
-        <v>2732300</v>
+        <v>2778900</v>
       </c>
       <c r="F61" s="3">
-        <v>2732500</v>
+        <v>2779100</v>
       </c>
       <c r="G61" s="3">
-        <v>3341000</v>
+        <v>3398100</v>
       </c>
       <c r="H61" s="3">
-        <v>2876800</v>
+        <v>2925900</v>
       </c>
       <c r="I61" s="3">
-        <v>2842300</v>
+        <v>2890800</v>
       </c>
       <c r="J61" s="3">
-        <v>1738300</v>
+        <v>1767900</v>
       </c>
       <c r="K61" s="3">
         <v>2150700</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3434000</v>
+        <v>3492500</v>
       </c>
       <c r="E62" s="3">
-        <v>3936600</v>
+        <v>4003800</v>
       </c>
       <c r="F62" s="3">
-        <v>3980200</v>
+        <v>4048100</v>
       </c>
       <c r="G62" s="3">
-        <v>3898500</v>
+        <v>3965000</v>
       </c>
       <c r="H62" s="3">
-        <v>3653700</v>
+        <v>3716000</v>
       </c>
       <c r="I62" s="3">
-        <v>3008400</v>
+        <v>3059700</v>
       </c>
       <c r="J62" s="3">
-        <v>2743200</v>
+        <v>2790000</v>
       </c>
       <c r="K62" s="3">
         <v>2568500</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20010000</v>
+        <v>20351400</v>
       </c>
       <c r="E66" s="3">
-        <v>18343400</v>
+        <v>18656400</v>
       </c>
       <c r="F66" s="3">
-        <v>17226700</v>
+        <v>17520700</v>
       </c>
       <c r="G66" s="3">
-        <v>18062500</v>
+        <v>18370600</v>
       </c>
       <c r="H66" s="3">
-        <v>16940400</v>
+        <v>17229400</v>
       </c>
       <c r="I66" s="3">
-        <v>15185000</v>
+        <v>15444100</v>
       </c>
       <c r="J66" s="3">
-        <v>13938200</v>
+        <v>14176100</v>
       </c>
       <c r="K66" s="3">
         <v>13034000</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>7940700</v>
+        <v>8076200</v>
       </c>
       <c r="E72" s="3">
-        <v>6236100</v>
+        <v>6342500</v>
       </c>
       <c r="F72" s="3">
-        <v>4469400</v>
+        <v>4545600</v>
       </c>
       <c r="G72" s="3">
-        <v>3621700</v>
+        <v>3683500</v>
       </c>
       <c r="H72" s="3">
-        <v>4247100</v>
+        <v>4319600</v>
       </c>
       <c r="I72" s="3">
-        <v>5175000</v>
+        <v>5263300</v>
       </c>
       <c r="J72" s="3">
-        <v>8684700</v>
+        <v>8832900</v>
       </c>
       <c r="K72" s="3">
         <v>9954100</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>12563300</v>
+        <v>12777700</v>
       </c>
       <c r="E76" s="3">
-        <v>10136700</v>
+        <v>10309700</v>
       </c>
       <c r="F76" s="3">
-        <v>8077200</v>
+        <v>8215000</v>
       </c>
       <c r="G76" s="3">
-        <v>7693700</v>
+        <v>7824900</v>
       </c>
       <c r="H76" s="3">
-        <v>8105500</v>
+        <v>8243800</v>
       </c>
       <c r="I76" s="3">
-        <v>9033400</v>
+        <v>9187500</v>
       </c>
       <c r="J76" s="3">
-        <v>12541700</v>
+        <v>12755700</v>
       </c>
       <c r="K76" s="3">
         <v>13855400</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1744900</v>
+        <v>1774700</v>
       </c>
       <c r="E81" s="3">
-        <v>2114900</v>
+        <v>2150900</v>
       </c>
       <c r="F81" s="3">
-        <v>1629200</v>
+        <v>1657000</v>
       </c>
       <c r="G81" s="3">
-        <v>207200</v>
+        <v>210700</v>
       </c>
       <c r="H81" s="3">
-        <v>-608500</v>
+        <v>-618900</v>
       </c>
       <c r="I81" s="3">
-        <v>-3035800</v>
+        <v>-3087600</v>
       </c>
       <c r="J81" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="K81" s="3">
         <v>1281200</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>976800</v>
+        <v>993500</v>
       </c>
       <c r="E83" s="3">
-        <v>806700</v>
+        <v>820400</v>
       </c>
       <c r="F83" s="3">
-        <v>795600</v>
+        <v>809100</v>
       </c>
       <c r="G83" s="3">
-        <v>801300</v>
+        <v>815000</v>
       </c>
       <c r="H83" s="3">
-        <v>672900</v>
+        <v>684400</v>
       </c>
       <c r="I83" s="3">
-        <v>787500</v>
+        <v>801000</v>
       </c>
       <c r="J83" s="3">
-        <v>828100</v>
+        <v>842200</v>
       </c>
       <c r="K83" s="3">
         <v>966700</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2876100</v>
+        <v>2925200</v>
       </c>
       <c r="E89" s="3">
-        <v>3640500</v>
+        <v>3702600</v>
       </c>
       <c r="F89" s="3">
-        <v>2696300</v>
+        <v>2742300</v>
       </c>
       <c r="G89" s="3">
-        <v>1572400</v>
+        <v>1599200</v>
       </c>
       <c r="H89" s="3">
-        <v>870600</v>
+        <v>885400</v>
       </c>
       <c r="I89" s="3">
-        <v>894700</v>
+        <v>910000</v>
       </c>
       <c r="J89" s="3">
-        <v>1305600</v>
+        <v>1327900</v>
       </c>
       <c r="K89" s="3">
         <v>1947700</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-417200</v>
+        <v>-424300</v>
       </c>
       <c r="E91" s="3">
-        <v>-341400</v>
+        <v>-347200</v>
       </c>
       <c r="F91" s="3">
-        <v>-418700</v>
+        <v>-425800</v>
       </c>
       <c r="G91" s="3">
-        <v>-476900</v>
+        <v>-485100</v>
       </c>
       <c r="H91" s="3">
-        <v>-370400</v>
+        <v>-376800</v>
       </c>
       <c r="I91" s="3">
-        <v>-361300</v>
+        <v>-367500</v>
       </c>
       <c r="J91" s="3">
-        <v>-571200</v>
+        <v>-580900</v>
       </c>
       <c r="K91" s="3">
         <v>-788400</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3205500</v>
+        <v>-3260100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1852900</v>
+        <v>-1884500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1416600</v>
+        <v>-1440800</v>
       </c>
       <c r="G94" s="3">
-        <v>-330000</v>
+        <v>-335600</v>
       </c>
       <c r="H94" s="3">
-        <v>-385100</v>
+        <v>-391600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1497600</v>
+        <v>-1523100</v>
       </c>
       <c r="J94" s="3">
-        <v>-771900</v>
+        <v>-785100</v>
       </c>
       <c r="K94" s="3">
         <v>-755300</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-775800</v>
+        <v>-789000</v>
       </c>
       <c r="E96" s="3">
-        <v>-620500</v>
+        <v>-631000</v>
       </c>
       <c r="F96" s="3">
-        <v>-464600</v>
+        <v>-472500</v>
       </c>
       <c r="G96" s="3">
-        <v>-307600</v>
+        <v>-312900</v>
       </c>
       <c r="H96" s="3">
-        <v>-319200</v>
+        <v>-324600</v>
       </c>
       <c r="I96" s="3">
-        <v>-319100</v>
+        <v>-324500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1142800</v>
+        <v>-1162300</v>
       </c>
       <c r="K96" s="3">
         <v>-1072000</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1484500</v>
+        <v>-1509800</v>
       </c>
       <c r="E100" s="3">
-        <v>-867300</v>
+        <v>-882100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1164100</v>
+        <v>-1184000</v>
       </c>
       <c r="G100" s="3">
-        <v>-643000</v>
+        <v>-654000</v>
       </c>
       <c r="H100" s="3">
-        <v>-379900</v>
+        <v>-386400</v>
       </c>
       <c r="I100" s="3">
-        <v>510500</v>
+        <v>519200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1094200</v>
+        <v>-1112900</v>
       </c>
       <c r="K100" s="3">
         <v>-1012700</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>350700</v>
+        <v>356700</v>
       </c>
       <c r="E101" s="3">
-        <v>52500</v>
+        <v>53400</v>
       </c>
       <c r="F101" s="3">
-        <v>-252300</v>
+        <v>-256600</v>
       </c>
       <c r="G101" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="H101" s="3">
-        <v>127900</v>
+        <v>130000</v>
       </c>
       <c r="I101" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="J101" s="3">
-        <v>256900</v>
+        <v>261300</v>
       </c>
       <c r="K101" s="3">
         <v>-251900</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1463200</v>
+        <v>-1488100</v>
       </c>
       <c r="E102" s="3">
-        <v>972700</v>
+        <v>989300</v>
       </c>
       <c r="F102" s="3">
-        <v>-136700</v>
+        <v>-139000</v>
       </c>
       <c r="G102" s="3">
-        <v>623400</v>
+        <v>634100</v>
       </c>
       <c r="H102" s="3">
-        <v>233400</v>
+        <v>237400</v>
       </c>
       <c r="I102" s="3">
-        <v>-100800</v>
+        <v>-102600</v>
       </c>
       <c r="J102" s="3">
-        <v>-303600</v>
+        <v>-308800</v>
       </c>
       <c r="K102" s="3">
         <v>-72200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25737100</v>
+        <v>24803000</v>
       </c>
       <c r="E8" s="3">
-        <v>22018700</v>
+        <v>21219600</v>
       </c>
       <c r="F8" s="3">
-        <v>22025900</v>
+        <v>21226500</v>
       </c>
       <c r="G8" s="3">
-        <v>21535500</v>
+        <v>20753900</v>
       </c>
       <c r="H8" s="3">
-        <v>19983200</v>
+        <v>19257900</v>
       </c>
       <c r="I8" s="3">
-        <v>19465700</v>
+        <v>18759200</v>
       </c>
       <c r="J8" s="3">
-        <v>20881600</v>
+        <v>20123700</v>
       </c>
       <c r="K8" s="3">
         <v>23348800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14980500</v>
+        <v>14436800</v>
       </c>
       <c r="E9" s="3">
-        <v>12443900</v>
+        <v>11992200</v>
       </c>
       <c r="F9" s="3">
-        <v>13074000</v>
+        <v>12599500</v>
       </c>
       <c r="G9" s="3">
-        <v>13464000</v>
+        <v>12975300</v>
       </c>
       <c r="H9" s="3">
-        <v>12956400</v>
+        <v>12486200</v>
       </c>
       <c r="I9" s="3">
-        <v>14426400</v>
+        <v>13902800</v>
       </c>
       <c r="J9" s="3">
-        <v>14367400</v>
+        <v>13846000</v>
       </c>
       <c r="K9" s="3">
         <v>15018700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10756600</v>
+        <v>10366200</v>
       </c>
       <c r="E10" s="3">
-        <v>9574900</v>
+        <v>9227300</v>
       </c>
       <c r="F10" s="3">
-        <v>8951900</v>
+        <v>8627000</v>
       </c>
       <c r="G10" s="3">
-        <v>8071600</v>
+        <v>7778600</v>
       </c>
       <c r="H10" s="3">
-        <v>7026800</v>
+        <v>6771800</v>
       </c>
       <c r="I10" s="3">
-        <v>5039400</v>
+        <v>4856500</v>
       </c>
       <c r="J10" s="3">
-        <v>6514100</v>
+        <v>6277700</v>
       </c>
       <c r="K10" s="3">
         <v>8330100</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4477800</v>
+        <v>4315300</v>
       </c>
       <c r="E12" s="3">
-        <v>3974800</v>
+        <v>3830500</v>
       </c>
       <c r="F12" s="3">
-        <v>3725100</v>
+        <v>3589900</v>
       </c>
       <c r="G12" s="3">
-        <v>3646300</v>
+        <v>3513900</v>
       </c>
       <c r="H12" s="3">
-        <v>3565200</v>
+        <v>3435800</v>
       </c>
       <c r="I12" s="3">
-        <v>3372300</v>
+        <v>3249900</v>
       </c>
       <c r="J12" s="3">
-        <v>2738400</v>
+        <v>2639000</v>
       </c>
       <c r="K12" s="3">
         <v>3103700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>289600</v>
+        <v>279000</v>
       </c>
       <c r="E14" s="3">
-        <v>65600</v>
+        <v>63200</v>
       </c>
       <c r="F14" s="3">
-        <v>136900</v>
+        <v>131900</v>
       </c>
       <c r="G14" s="3">
-        <v>169200</v>
+        <v>163000</v>
       </c>
       <c r="H14" s="3">
-        <v>801600</v>
+        <v>772600</v>
       </c>
       <c r="I14" s="3">
-        <v>2461200</v>
+        <v>2371900</v>
       </c>
       <c r="J14" s="3">
-        <v>709300</v>
+        <v>683600</v>
       </c>
       <c r="K14" s="3">
         <v>476600</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>23176200</v>
+        <v>22335000</v>
       </c>
       <c r="E17" s="3">
-        <v>19006600</v>
+        <v>18316800</v>
       </c>
       <c r="F17" s="3">
-        <v>19390300</v>
+        <v>18686500</v>
       </c>
       <c r="G17" s="3">
-        <v>20534300</v>
+        <v>19789000</v>
       </c>
       <c r="H17" s="3">
-        <v>19865500</v>
+        <v>19144500</v>
       </c>
       <c r="I17" s="3">
-        <v>22758700</v>
+        <v>21932700</v>
       </c>
       <c r="J17" s="3">
-        <v>20389900</v>
+        <v>19649900</v>
       </c>
       <c r="K17" s="3">
         <v>21286900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2561000</v>
+        <v>2468000</v>
       </c>
       <c r="E18" s="3">
-        <v>3012100</v>
+        <v>2902800</v>
       </c>
       <c r="F18" s="3">
-        <v>2635600</v>
+        <v>2540000</v>
       </c>
       <c r="G18" s="3">
-        <v>1001300</v>
+        <v>964900</v>
       </c>
       <c r="H18" s="3">
-        <v>117700</v>
+        <v>113400</v>
       </c>
       <c r="I18" s="3">
-        <v>-3292900</v>
+        <v>-3173400</v>
       </c>
       <c r="J18" s="3">
-        <v>491600</v>
+        <v>473800</v>
       </c>
       <c r="K18" s="3">
         <v>2061900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-92400</v>
+        <v>-89100</v>
       </c>
       <c r="E20" s="3">
-        <v>-149700</v>
+        <v>-144200</v>
       </c>
       <c r="F20" s="3">
-        <v>72700</v>
+        <v>70100</v>
       </c>
       <c r="G20" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="H20" s="3">
-        <v>-161900</v>
+        <v>-156000</v>
       </c>
       <c r="I20" s="3">
-        <v>-17800</v>
+        <v>-17200</v>
       </c>
       <c r="J20" s="3">
-        <v>-88900</v>
+        <v>-85700</v>
       </c>
       <c r="K20" s="3">
         <v>-47800</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3472000</v>
+        <v>3336400</v>
       </c>
       <c r="E21" s="3">
-        <v>3691100</v>
+        <v>3549200</v>
       </c>
       <c r="F21" s="3">
-        <v>3525600</v>
+        <v>3389800</v>
       </c>
       <c r="G21" s="3">
-        <v>1837800</v>
+        <v>1763200</v>
       </c>
       <c r="H21" s="3">
-        <v>647100</v>
+        <v>617000</v>
       </c>
       <c r="I21" s="3">
-        <v>-2501700</v>
+        <v>-2418700</v>
       </c>
       <c r="J21" s="3">
-        <v>1253400</v>
+        <v>1199800</v>
       </c>
       <c r="K21" s="3">
         <v>2953700</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>136100</v>
+        <v>131200</v>
       </c>
       <c r="E22" s="3">
-        <v>90100</v>
+        <v>86900</v>
       </c>
       <c r="F22" s="3">
-        <v>129200</v>
+        <v>124500</v>
       </c>
       <c r="G22" s="3">
-        <v>184200</v>
+        <v>177500</v>
       </c>
       <c r="H22" s="3">
-        <v>94500</v>
+        <v>91100</v>
       </c>
       <c r="I22" s="3">
-        <v>97300</v>
+        <v>93800</v>
       </c>
       <c r="J22" s="3">
-        <v>128400</v>
+        <v>123800</v>
       </c>
       <c r="K22" s="3">
         <v>135000</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2332400</v>
+        <v>2247800</v>
       </c>
       <c r="E23" s="3">
-        <v>2772300</v>
+        <v>2671700</v>
       </c>
       <c r="F23" s="3">
-        <v>2579200</v>
+        <v>2485500</v>
       </c>
       <c r="G23" s="3">
-        <v>830500</v>
+        <v>800300</v>
       </c>
       <c r="H23" s="3">
-        <v>-138700</v>
+        <v>-133600</v>
       </c>
       <c r="I23" s="3">
-        <v>-3408100</v>
+        <v>-3284400</v>
       </c>
       <c r="J23" s="3">
-        <v>274300</v>
+        <v>264300</v>
       </c>
       <c r="K23" s="3">
         <v>1879100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>521000</v>
+        <v>502100</v>
       </c>
       <c r="E24" s="3">
-        <v>594300</v>
+        <v>572700</v>
       </c>
       <c r="F24" s="3">
-        <v>908800</v>
+        <v>875900</v>
       </c>
       <c r="G24" s="3">
-        <v>656100</v>
+        <v>632300</v>
       </c>
       <c r="H24" s="3">
-        <v>456200</v>
+        <v>439600</v>
       </c>
       <c r="I24" s="3">
-        <v>-334100</v>
+        <v>-322000</v>
       </c>
       <c r="J24" s="3">
-        <v>178400</v>
+        <v>171900</v>
       </c>
       <c r="K24" s="3">
         <v>586200</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1811400</v>
+        <v>1745700</v>
       </c>
       <c r="E26" s="3">
-        <v>2178000</v>
+        <v>2099000</v>
       </c>
       <c r="F26" s="3">
-        <v>1670300</v>
+        <v>1609700</v>
       </c>
       <c r="G26" s="3">
-        <v>174400</v>
+        <v>168100</v>
       </c>
       <c r="H26" s="3">
-        <v>-594800</v>
+        <v>-573200</v>
       </c>
       <c r="I26" s="3">
-        <v>-3074000</v>
+        <v>-2962400</v>
       </c>
       <c r="J26" s="3">
-        <v>95900</v>
+        <v>92400</v>
       </c>
       <c r="K26" s="3">
         <v>1292900</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1774700</v>
+        <v>1710300</v>
       </c>
       <c r="E27" s="3">
-        <v>2150900</v>
+        <v>2072900</v>
       </c>
       <c r="F27" s="3">
-        <v>1657000</v>
+        <v>1596900</v>
       </c>
       <c r="G27" s="3">
-        <v>210700</v>
+        <v>203000</v>
       </c>
       <c r="H27" s="3">
-        <v>-618900</v>
+        <v>-596500</v>
       </c>
       <c r="I27" s="3">
-        <v>-3087600</v>
+        <v>-2975500</v>
       </c>
       <c r="J27" s="3">
-        <v>79000</v>
+        <v>76100</v>
       </c>
       <c r="K27" s="3">
         <v>1281200</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>92400</v>
+        <v>89100</v>
       </c>
       <c r="E32" s="3">
-        <v>149700</v>
+        <v>144200</v>
       </c>
       <c r="F32" s="3">
-        <v>-72700</v>
+        <v>-70100</v>
       </c>
       <c r="G32" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="H32" s="3">
-        <v>161900</v>
+        <v>156000</v>
       </c>
       <c r="I32" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="J32" s="3">
-        <v>88900</v>
+        <v>85700</v>
       </c>
       <c r="K32" s="3">
         <v>47800</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1774700</v>
+        <v>1710300</v>
       </c>
       <c r="E33" s="3">
-        <v>2150900</v>
+        <v>2072900</v>
       </c>
       <c r="F33" s="3">
-        <v>1657000</v>
+        <v>1596900</v>
       </c>
       <c r="G33" s="3">
-        <v>210700</v>
+        <v>203000</v>
       </c>
       <c r="H33" s="3">
-        <v>-618900</v>
+        <v>-596500</v>
       </c>
       <c r="I33" s="3">
-        <v>-3087600</v>
+        <v>-2975500</v>
       </c>
       <c r="J33" s="3">
-        <v>79000</v>
+        <v>76100</v>
       </c>
       <c r="K33" s="3">
         <v>1281200</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1774700</v>
+        <v>1710300</v>
       </c>
       <c r="E35" s="3">
-        <v>2150900</v>
+        <v>2072900</v>
       </c>
       <c r="F35" s="3">
-        <v>1657000</v>
+        <v>1596900</v>
       </c>
       <c r="G35" s="3">
-        <v>210700</v>
+        <v>203000</v>
       </c>
       <c r="H35" s="3">
-        <v>-618900</v>
+        <v>-596500</v>
       </c>
       <c r="I35" s="3">
-        <v>-3087600</v>
+        <v>-2975500</v>
       </c>
       <c r="J35" s="3">
-        <v>79000</v>
+        <v>76100</v>
       </c>
       <c r="K35" s="3">
         <v>1281200</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1871500</v>
+        <v>3502800</v>
       </c>
       <c r="E41" s="3">
-        <v>2276100</v>
+        <v>4936900</v>
       </c>
       <c r="F41" s="3">
-        <v>1556500</v>
+        <v>3983500</v>
       </c>
       <c r="G41" s="3">
-        <v>1643100</v>
+        <v>4117500</v>
       </c>
       <c r="H41" s="3">
-        <v>1800600</v>
+        <v>3506500</v>
       </c>
       <c r="I41" s="3">
-        <v>1744200</v>
+        <v>3277600</v>
       </c>
       <c r="J41" s="3">
-        <v>5927800</v>
+        <v>6752900</v>
       </c>
       <c r="K41" s="3">
         <v>2121100</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2591200</v>
+        <v>797900</v>
       </c>
       <c r="E42" s="3">
-        <v>4072400</v>
+        <v>1181200</v>
       </c>
       <c r="F42" s="3">
-        <v>3223500</v>
+        <v>622900</v>
       </c>
       <c r="G42" s="3">
-        <v>3270100</v>
+        <v>617400</v>
       </c>
       <c r="H42" s="3">
-        <v>2465800</v>
+        <v>605100</v>
       </c>
       <c r="I42" s="3">
-        <v>2293100</v>
+        <v>613200</v>
       </c>
       <c r="J42" s="3">
-        <v>2342400</v>
+        <v>1217100</v>
       </c>
       <c r="K42" s="3">
         <v>4145400</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7276500</v>
+        <v>7012400</v>
       </c>
       <c r="E43" s="3">
-        <v>6599200</v>
+        <v>6359600</v>
       </c>
       <c r="F43" s="3">
-        <v>6391100</v>
+        <v>6159100</v>
       </c>
       <c r="G43" s="3">
-        <v>6562700</v>
+        <v>6324500</v>
       </c>
       <c r="H43" s="3">
-        <v>7973400</v>
+        <v>7684000</v>
       </c>
       <c r="I43" s="3">
-        <v>13813200</v>
+        <v>13311900</v>
       </c>
       <c r="J43" s="3">
-        <v>16941300</v>
+        <v>16326400</v>
       </c>
       <c r="K43" s="3">
         <v>8365800</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4345300</v>
+        <v>4187600</v>
       </c>
       <c r="E44" s="3">
-        <v>3332800</v>
+        <v>3211900</v>
       </c>
       <c r="F44" s="3">
-        <v>2663000</v>
+        <v>2566400</v>
       </c>
       <c r="G44" s="3">
-        <v>2925200</v>
+        <v>2819000</v>
       </c>
       <c r="H44" s="3">
-        <v>2772800</v>
+        <v>2672200</v>
       </c>
       <c r="I44" s="3">
-        <v>2421300</v>
+        <v>2333500</v>
       </c>
       <c r="J44" s="3">
-        <v>5869300</v>
+        <v>5656200</v>
       </c>
       <c r="K44" s="3">
         <v>2688900</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>388600</v>
+        <v>374500</v>
       </c>
       <c r="E45" s="3">
-        <v>287500</v>
+        <v>277000</v>
       </c>
       <c r="F45" s="3">
-        <v>363500</v>
+        <v>350300</v>
       </c>
       <c r="G45" s="3">
-        <v>186900</v>
+        <v>180100</v>
       </c>
       <c r="H45" s="3">
-        <v>262800</v>
+        <v>253300</v>
       </c>
       <c r="I45" s="3">
-        <v>387700</v>
+        <v>373700</v>
       </c>
       <c r="J45" s="3">
-        <v>662800</v>
+        <v>638700</v>
       </c>
       <c r="K45" s="3">
         <v>600300</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>16473000</v>
+        <v>15875200</v>
       </c>
       <c r="E46" s="3">
-        <v>16568000</v>
+        <v>15966700</v>
       </c>
       <c r="F46" s="3">
-        <v>14197600</v>
+        <v>13682300</v>
       </c>
       <c r="G46" s="3">
-        <v>14588000</v>
+        <v>14058500</v>
       </c>
       <c r="H46" s="3">
-        <v>15275400</v>
+        <v>14721000</v>
       </c>
       <c r="I46" s="3">
-        <v>14541400</v>
+        <v>14013700</v>
       </c>
       <c r="J46" s="3">
-        <v>16595700</v>
+        <v>15993400</v>
       </c>
       <c r="K46" s="3">
         <v>17921500</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1859500</v>
+        <v>1792000</v>
       </c>
       <c r="E47" s="3">
-        <v>3849000</v>
+        <v>3709300</v>
       </c>
       <c r="F47" s="3">
-        <v>2887900</v>
+        <v>2783000</v>
       </c>
       <c r="G47" s="3">
-        <v>2959700</v>
+        <v>2852300</v>
       </c>
       <c r="H47" s="3">
-        <v>3208000</v>
+        <v>3091600</v>
       </c>
       <c r="I47" s="3">
-        <v>3317000</v>
+        <v>3196600</v>
       </c>
       <c r="J47" s="3">
-        <v>1948000</v>
+        <v>1877300</v>
       </c>
       <c r="K47" s="3">
         <v>889400</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2095200</v>
+        <v>2019200</v>
       </c>
       <c r="E48" s="3">
-        <v>2040400</v>
+        <v>1966400</v>
       </c>
       <c r="F48" s="3">
-        <v>2024800</v>
+        <v>1951300</v>
       </c>
       <c r="G48" s="3">
-        <v>2117100</v>
+        <v>2040300</v>
       </c>
       <c r="H48" s="3">
-        <v>1217800</v>
+        <v>1173600</v>
       </c>
       <c r="I48" s="3">
-        <v>1218600</v>
+        <v>1174400</v>
       </c>
       <c r="J48" s="3">
-        <v>3172100</v>
+        <v>3057000</v>
       </c>
       <c r="K48" s="3">
         <v>1503600</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>10863200</v>
+        <v>10468900</v>
       </c>
       <c r="E49" s="3">
-        <v>4318400</v>
+        <v>4161600</v>
       </c>
       <c r="F49" s="3">
-        <v>4133100</v>
+        <v>3983100</v>
       </c>
       <c r="G49" s="3">
-        <v>3576100</v>
+        <v>3446300</v>
       </c>
       <c r="H49" s="3">
-        <v>3577600</v>
+        <v>3447700</v>
       </c>
       <c r="I49" s="3">
-        <v>3464800</v>
+        <v>3339000</v>
       </c>
       <c r="J49" s="3">
-        <v>11223800</v>
+        <v>10816500</v>
       </c>
       <c r="K49" s="3">
         <v>5285500</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1838200</v>
+        <v>1771400</v>
       </c>
       <c r="E52" s="3">
-        <v>2190300</v>
+        <v>2110800</v>
       </c>
       <c r="F52" s="3">
-        <v>2492300</v>
+        <v>2401900</v>
       </c>
       <c r="G52" s="3">
-        <v>2954700</v>
+        <v>2847400</v>
       </c>
       <c r="H52" s="3">
-        <v>2194300</v>
+        <v>2114700</v>
       </c>
       <c r="I52" s="3">
-        <v>2089800</v>
+        <v>2014000</v>
       </c>
       <c r="J52" s="3">
-        <v>1611100</v>
+        <v>1552600</v>
       </c>
       <c r="K52" s="3">
         <v>1289300</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>33129100</v>
+        <v>31926700</v>
       </c>
       <c r="E54" s="3">
-        <v>28966100</v>
+        <v>27914800</v>
       </c>
       <c r="F54" s="3">
-        <v>25735600</v>
+        <v>24801600</v>
       </c>
       <c r="G54" s="3">
-        <v>26195600</v>
+        <v>25244800</v>
       </c>
       <c r="H54" s="3">
-        <v>25473200</v>
+        <v>24548600</v>
       </c>
       <c r="I54" s="3">
-        <v>24631600</v>
+        <v>23737600</v>
       </c>
       <c r="J54" s="3">
-        <v>26931700</v>
+        <v>25954300</v>
       </c>
       <c r="K54" s="3">
         <v>26889400</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3643100</v>
+        <v>3510800</v>
       </c>
       <c r="E57" s="3">
-        <v>3382100</v>
+        <v>3259400</v>
       </c>
       <c r="F57" s="3">
-        <v>3031800</v>
+        <v>2921800</v>
       </c>
       <c r="G57" s="3">
-        <v>2881600</v>
+        <v>2777000</v>
       </c>
       <c r="H57" s="3">
-        <v>2832300</v>
+        <v>2729500</v>
       </c>
       <c r="I57" s="3">
-        <v>2494600</v>
+        <v>2404100</v>
       </c>
       <c r="J57" s="3">
-        <v>4849100</v>
+        <v>4673100</v>
       </c>
       <c r="K57" s="3">
         <v>2117100</v>
@@ -2576,25 +2576,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>802800</v>
+        <v>773600</v>
       </c>
       <c r="E58" s="3">
-        <v>1119700</v>
+        <v>1079100</v>
       </c>
       <c r="F58" s="3">
-        <v>960900</v>
+        <v>926000</v>
       </c>
       <c r="G58" s="3">
-        <v>1111400</v>
+        <v>1071100</v>
       </c>
       <c r="H58" s="3">
-        <v>213700</v>
+        <v>206000</v>
       </c>
       <c r="I58" s="3">
-        <v>241200</v>
+        <v>232500</v>
       </c>
       <c r="J58" s="3">
-        <v>1522700</v>
+        <v>1467500</v>
       </c>
       <c r="K58" s="3">
         <v>224700</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>9356000</v>
+        <v>9016400</v>
       </c>
       <c r="E59" s="3">
-        <v>7530700</v>
+        <v>7257300</v>
       </c>
       <c r="F59" s="3">
-        <v>6842500</v>
+        <v>6594200</v>
       </c>
       <c r="G59" s="3">
-        <v>7079100</v>
+        <v>6822200</v>
       </c>
       <c r="H59" s="3">
-        <v>7466400</v>
+        <v>7195400</v>
       </c>
       <c r="I59" s="3">
-        <v>9262800</v>
+        <v>8926600</v>
       </c>
       <c r="J59" s="3">
-        <v>11651200</v>
+        <v>11228300</v>
       </c>
       <c r="K59" s="3">
         <v>5893500</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13801900</v>
+        <v>13300900</v>
       </c>
       <c r="E60" s="3">
-        <v>12032500</v>
+        <v>11595800</v>
       </c>
       <c r="F60" s="3">
-        <v>10835200</v>
+        <v>10442000</v>
       </c>
       <c r="G60" s="3">
-        <v>11072100</v>
+        <v>10670200</v>
       </c>
       <c r="H60" s="3">
-        <v>10512400</v>
+        <v>10130900</v>
       </c>
       <c r="I60" s="3">
-        <v>9433400</v>
+        <v>9091000</v>
       </c>
       <c r="J60" s="3">
-        <v>9554100</v>
+        <v>9207300</v>
       </c>
       <c r="K60" s="3">
         <v>8235200</v>
@@ -2702,25 +2702,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3200200</v>
+        <v>3084000</v>
       </c>
       <c r="E61" s="3">
-        <v>2778900</v>
+        <v>2678100</v>
       </c>
       <c r="F61" s="3">
-        <v>2779100</v>
+        <v>2678300</v>
       </c>
       <c r="G61" s="3">
-        <v>3398100</v>
+        <v>3274700</v>
       </c>
       <c r="H61" s="3">
-        <v>2925900</v>
+        <v>2819700</v>
       </c>
       <c r="I61" s="3">
-        <v>2890800</v>
+        <v>2785900</v>
       </c>
       <c r="J61" s="3">
-        <v>1767900</v>
+        <v>1703800</v>
       </c>
       <c r="K61" s="3">
         <v>2150700</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3492500</v>
+        <v>3365800</v>
       </c>
       <c r="E62" s="3">
-        <v>4003800</v>
+        <v>3858500</v>
       </c>
       <c r="F62" s="3">
-        <v>4048100</v>
+        <v>3901200</v>
       </c>
       <c r="G62" s="3">
-        <v>3965000</v>
+        <v>3821100</v>
       </c>
       <c r="H62" s="3">
-        <v>3716000</v>
+        <v>3581200</v>
       </c>
       <c r="I62" s="3">
-        <v>3059700</v>
+        <v>2948600</v>
       </c>
       <c r="J62" s="3">
-        <v>2790000</v>
+        <v>2688800</v>
       </c>
       <c r="K62" s="3">
         <v>2568500</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>20351400</v>
+        <v>19612800</v>
       </c>
       <c r="E66" s="3">
-        <v>18656400</v>
+        <v>17979300</v>
       </c>
       <c r="F66" s="3">
-        <v>17520700</v>
+        <v>16884700</v>
       </c>
       <c r="G66" s="3">
-        <v>18370600</v>
+        <v>17703900</v>
       </c>
       <c r="H66" s="3">
-        <v>17229400</v>
+        <v>16604100</v>
       </c>
       <c r="I66" s="3">
-        <v>15444100</v>
+        <v>14883600</v>
       </c>
       <c r="J66" s="3">
-        <v>14176100</v>
+        <v>13661500</v>
       </c>
       <c r="K66" s="3">
         <v>13034000</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>8076200</v>
+        <v>7783100</v>
       </c>
       <c r="E72" s="3">
-        <v>6342500</v>
+        <v>6112300</v>
       </c>
       <c r="F72" s="3">
-        <v>4545600</v>
+        <v>4380700</v>
       </c>
       <c r="G72" s="3">
-        <v>3683500</v>
+        <v>3549800</v>
       </c>
       <c r="H72" s="3">
-        <v>4319600</v>
+        <v>4162800</v>
       </c>
       <c r="I72" s="3">
-        <v>5263300</v>
+        <v>5072300</v>
       </c>
       <c r="J72" s="3">
-        <v>8832900</v>
+        <v>8512300</v>
       </c>
       <c r="K72" s="3">
         <v>9954100</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>12777700</v>
+        <v>12313900</v>
       </c>
       <c r="E76" s="3">
-        <v>10309700</v>
+        <v>9935500</v>
       </c>
       <c r="F76" s="3">
-        <v>8215000</v>
+        <v>7916800</v>
       </c>
       <c r="G76" s="3">
-        <v>7824900</v>
+        <v>7540900</v>
       </c>
       <c r="H76" s="3">
-        <v>8243800</v>
+        <v>7944600</v>
       </c>
       <c r="I76" s="3">
-        <v>9187500</v>
+        <v>8854000</v>
       </c>
       <c r="J76" s="3">
-        <v>12755700</v>
+        <v>12292700</v>
       </c>
       <c r="K76" s="3">
         <v>13855400</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1774700</v>
+        <v>1710300</v>
       </c>
       <c r="E81" s="3">
-        <v>2150900</v>
+        <v>2072900</v>
       </c>
       <c r="F81" s="3">
-        <v>1657000</v>
+        <v>1596900</v>
       </c>
       <c r="G81" s="3">
-        <v>210700</v>
+        <v>203000</v>
       </c>
       <c r="H81" s="3">
-        <v>-618900</v>
+        <v>-596500</v>
       </c>
       <c r="I81" s="3">
-        <v>-3087600</v>
+        <v>-2975500</v>
       </c>
       <c r="J81" s="3">
-        <v>79000</v>
+        <v>76100</v>
       </c>
       <c r="K81" s="3">
         <v>1281200</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>993500</v>
+        <v>957400</v>
       </c>
       <c r="E83" s="3">
-        <v>820400</v>
+        <v>790600</v>
       </c>
       <c r="F83" s="3">
-        <v>809100</v>
+        <v>779800</v>
       </c>
       <c r="G83" s="3">
-        <v>815000</v>
+        <v>785400</v>
       </c>
       <c r="H83" s="3">
-        <v>684400</v>
+        <v>659600</v>
       </c>
       <c r="I83" s="3">
-        <v>801000</v>
+        <v>771900</v>
       </c>
       <c r="J83" s="3">
-        <v>842200</v>
+        <v>811600</v>
       </c>
       <c r="K83" s="3">
         <v>966700</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2925200</v>
+        <v>2819000</v>
       </c>
       <c r="E89" s="3">
-        <v>3702600</v>
+        <v>3568200</v>
       </c>
       <c r="F89" s="3">
-        <v>2742300</v>
+        <v>2642700</v>
       </c>
       <c r="G89" s="3">
-        <v>1599200</v>
+        <v>1541200</v>
       </c>
       <c r="H89" s="3">
-        <v>885400</v>
+        <v>853300</v>
       </c>
       <c r="I89" s="3">
-        <v>910000</v>
+        <v>877000</v>
       </c>
       <c r="J89" s="3">
-        <v>1327900</v>
+        <v>1279700</v>
       </c>
       <c r="K89" s="3">
         <v>1947700</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-424300</v>
+        <v>-408900</v>
       </c>
       <c r="E91" s="3">
-        <v>-347200</v>
+        <v>-334600</v>
       </c>
       <c r="F91" s="3">
-        <v>-425800</v>
+        <v>-410400</v>
       </c>
       <c r="G91" s="3">
-        <v>-485100</v>
+        <v>-467500</v>
       </c>
       <c r="H91" s="3">
-        <v>-376800</v>
+        <v>-363100</v>
       </c>
       <c r="I91" s="3">
-        <v>-367500</v>
+        <v>-354100</v>
       </c>
       <c r="J91" s="3">
-        <v>-580900</v>
+        <v>-559800</v>
       </c>
       <c r="K91" s="3">
         <v>-788400</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3260100</v>
+        <v>-3141800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1884500</v>
+        <v>-1816100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1440800</v>
+        <v>-1388500</v>
       </c>
       <c r="G94" s="3">
-        <v>-335600</v>
+        <v>-323400</v>
       </c>
       <c r="H94" s="3">
-        <v>-391600</v>
+        <v>-377400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1523100</v>
+        <v>-1467800</v>
       </c>
       <c r="J94" s="3">
-        <v>-785100</v>
+        <v>-756600</v>
       </c>
       <c r="K94" s="3">
         <v>-755300</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-789000</v>
+        <v>-760400</v>
       </c>
       <c r="E96" s="3">
-        <v>-631000</v>
+        <v>-608100</v>
       </c>
       <c r="F96" s="3">
-        <v>-472500</v>
+        <v>-455300</v>
       </c>
       <c r="G96" s="3">
-        <v>-312900</v>
+        <v>-301500</v>
       </c>
       <c r="H96" s="3">
-        <v>-324600</v>
+        <v>-312800</v>
       </c>
       <c r="I96" s="3">
-        <v>-324500</v>
+        <v>-312700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1162300</v>
+        <v>-1120100</v>
       </c>
       <c r="K96" s="3">
         <v>-1072000</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1509800</v>
+        <v>-1455000</v>
       </c>
       <c r="E100" s="3">
-        <v>-882100</v>
+        <v>-850100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1184000</v>
+        <v>-1141000</v>
       </c>
       <c r="G100" s="3">
-        <v>-654000</v>
+        <v>-630200</v>
       </c>
       <c r="H100" s="3">
-        <v>-386400</v>
+        <v>-372400</v>
       </c>
       <c r="I100" s="3">
-        <v>519200</v>
+        <v>500400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1112900</v>
+        <v>-1072500</v>
       </c>
       <c r="K100" s="3">
         <v>-1012700</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>356700</v>
+        <v>343700</v>
       </c>
       <c r="E101" s="3">
-        <v>53400</v>
+        <v>51400</v>
       </c>
       <c r="F101" s="3">
-        <v>-256600</v>
+        <v>-247300</v>
       </c>
       <c r="G101" s="3">
-        <v>24500</v>
+        <v>23600</v>
       </c>
       <c r="H101" s="3">
-        <v>130000</v>
+        <v>125300</v>
       </c>
       <c r="I101" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="J101" s="3">
-        <v>261300</v>
+        <v>251800</v>
       </c>
       <c r="K101" s="3">
         <v>-251900</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1488100</v>
+        <v>-1434100</v>
       </c>
       <c r="E102" s="3">
-        <v>989300</v>
+        <v>953400</v>
       </c>
       <c r="F102" s="3">
-        <v>-139000</v>
+        <v>-134000</v>
       </c>
       <c r="G102" s="3">
-        <v>634100</v>
+        <v>611100</v>
       </c>
       <c r="H102" s="3">
-        <v>237400</v>
+        <v>228800</v>
       </c>
       <c r="I102" s="3">
-        <v>-102600</v>
+        <v>-98800</v>
       </c>
       <c r="J102" s="3">
-        <v>-308800</v>
+        <v>-297600</v>
       </c>
       <c r="K102" s="3">
         <v>-72200</v>

--- a/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERIC_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24803000</v>
+        <v>25639400</v>
       </c>
       <c r="E8" s="3">
-        <v>21219600</v>
+        <v>21935100</v>
       </c>
       <c r="F8" s="3">
-        <v>21226500</v>
+        <v>21942300</v>
       </c>
       <c r="G8" s="3">
-        <v>20753900</v>
+        <v>21453700</v>
       </c>
       <c r="H8" s="3">
-        <v>19257900</v>
+        <v>19907300</v>
       </c>
       <c r="I8" s="3">
-        <v>18759200</v>
+        <v>19391800</v>
       </c>
       <c r="J8" s="3">
-        <v>20123700</v>
+        <v>20802200</v>
       </c>
       <c r="K8" s="3">
         <v>23348800</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14436800</v>
+        <v>14923600</v>
       </c>
       <c r="E9" s="3">
-        <v>11992200</v>
+        <v>12396600</v>
       </c>
       <c r="F9" s="3">
-        <v>12599500</v>
+        <v>13024400</v>
       </c>
       <c r="G9" s="3">
-        <v>12975300</v>
+        <v>13412800</v>
       </c>
       <c r="H9" s="3">
-        <v>12486200</v>
+        <v>12907200</v>
       </c>
       <c r="I9" s="3">
-        <v>13902800</v>
+        <v>14371600</v>
       </c>
       <c r="J9" s="3">
-        <v>13846000</v>
+        <v>14312800</v>
       </c>
       <c r="K9" s="3">
         <v>15018700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10366200</v>
+        <v>10715700</v>
       </c>
       <c r="E10" s="3">
-        <v>9227300</v>
+        <v>9538500</v>
       </c>
       <c r="F10" s="3">
-        <v>8627000</v>
+        <v>8917900</v>
       </c>
       <c r="G10" s="3">
-        <v>7778600</v>
+        <v>8040900</v>
       </c>
       <c r="H10" s="3">
-        <v>6771800</v>
+        <v>7000100</v>
       </c>
       <c r="I10" s="3">
-        <v>4856500</v>
+        <v>5020200</v>
       </c>
       <c r="J10" s="3">
-        <v>6277700</v>
+        <v>6489400</v>
       </c>
       <c r="K10" s="3">
         <v>8330100</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4315300</v>
+        <v>4460800</v>
       </c>
       <c r="E12" s="3">
-        <v>3830500</v>
+        <v>3959700</v>
       </c>
       <c r="F12" s="3">
-        <v>3589900</v>
+        <v>3711000</v>
       </c>
       <c r="G12" s="3">
-        <v>3513900</v>
+        <v>3632400</v>
       </c>
       <c r="H12" s="3">
-        <v>3435800</v>
+        <v>3551700</v>
       </c>
       <c r="I12" s="3">
-        <v>3249900</v>
+        <v>3359500</v>
       </c>
       <c r="J12" s="3">
-        <v>2639000</v>
+        <v>2728000</v>
       </c>
       <c r="K12" s="3">
         <v>3103700</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>279000</v>
+        <v>288500</v>
       </c>
       <c r="E14" s="3">
-        <v>63200</v>
+        <v>65300</v>
       </c>
       <c r="F14" s="3">
-        <v>131900</v>
+        <v>136300</v>
       </c>
       <c r="G14" s="3">
-        <v>163000</v>
+        <v>168500</v>
       </c>
       <c r="H14" s="3">
-        <v>772600</v>
+        <v>798600</v>
       </c>
       <c r="I14" s="3">
-        <v>2371900</v>
+        <v>2451900</v>
       </c>
       <c r="J14" s="3">
-        <v>683600</v>
+        <v>706600</v>
       </c>
       <c r="K14" s="3">
         <v>476600</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22335000</v>
+        <v>23088100</v>
       </c>
       <c r="E17" s="3">
-        <v>18316800</v>
+        <v>18934400</v>
       </c>
       <c r="F17" s="3">
-        <v>18686500</v>
+        <v>19316600</v>
       </c>
       <c r="G17" s="3">
-        <v>19789000</v>
+        <v>20456300</v>
       </c>
       <c r="H17" s="3">
-        <v>19144500</v>
+        <v>19790100</v>
       </c>
       <c r="I17" s="3">
-        <v>21932700</v>
+        <v>22672200</v>
       </c>
       <c r="J17" s="3">
-        <v>19649900</v>
+        <v>20312500</v>
       </c>
       <c r="K17" s="3">
         <v>21286900</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2468000</v>
+        <v>2551200</v>
       </c>
       <c r="E18" s="3">
-        <v>2902800</v>
+        <v>3000700</v>
       </c>
       <c r="F18" s="3">
-        <v>2540000</v>
+        <v>2625600</v>
       </c>
       <c r="G18" s="3">
-        <v>964900</v>
+        <v>997500</v>
       </c>
       <c r="H18" s="3">
-        <v>113400</v>
+        <v>117300</v>
       </c>
       <c r="I18" s="3">
-        <v>-3173400</v>
+        <v>-3280400</v>
       </c>
       <c r="J18" s="3">
-        <v>473800</v>
+        <v>489800</v>
       </c>
       <c r="K18" s="3">
         <v>2061900</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-89100</v>
+        <v>-92100</v>
       </c>
       <c r="E20" s="3">
-        <v>-144200</v>
+        <v>-149100</v>
       </c>
       <c r="F20" s="3">
-        <v>70100</v>
+        <v>72400</v>
       </c>
       <c r="G20" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="H20" s="3">
-        <v>-156000</v>
+        <v>-161300</v>
       </c>
       <c r="I20" s="3">
-        <v>-17200</v>
+        <v>-17800</v>
       </c>
       <c r="J20" s="3">
-        <v>-85700</v>
+        <v>-88600</v>
       </c>
       <c r="K20" s="3">
         <v>-47800</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3336400</v>
+        <v>3453000</v>
       </c>
       <c r="E21" s="3">
-        <v>3549200</v>
+        <v>3672300</v>
       </c>
       <c r="F21" s="3">
-        <v>3389800</v>
+        <v>3507400</v>
       </c>
       <c r="G21" s="3">
-        <v>1763200</v>
+        <v>1826000</v>
       </c>
       <c r="H21" s="3">
-        <v>617000</v>
+        <v>640600</v>
       </c>
       <c r="I21" s="3">
-        <v>-2418700</v>
+        <v>-2496900</v>
       </c>
       <c r="J21" s="3">
-        <v>1199800</v>
+        <v>1243700</v>
       </c>
       <c r="K21" s="3">
         <v>2953700</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>131200</v>
+        <v>135600</v>
       </c>
       <c r="E22" s="3">
-        <v>86900</v>
+        <v>89800</v>
       </c>
       <c r="F22" s="3">
-        <v>124500</v>
+        <v>128700</v>
       </c>
       <c r="G22" s="3">
-        <v>177500</v>
+        <v>183500</v>
       </c>
       <c r="H22" s="3">
-        <v>91100</v>
+        <v>94100</v>
       </c>
       <c r="I22" s="3">
-        <v>93800</v>
+        <v>97000</v>
       </c>
       <c r="J22" s="3">
-        <v>123800</v>
+        <v>127900</v>
       </c>
       <c r="K22" s="3">
         <v>135000</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2247800</v>
+        <v>2323600</v>
       </c>
       <c r="E23" s="3">
-        <v>2671700</v>
+        <v>2761800</v>
       </c>
       <c r="F23" s="3">
-        <v>2485500</v>
+        <v>2569400</v>
       </c>
       <c r="G23" s="3">
-        <v>800300</v>
+        <v>827300</v>
       </c>
       <c r="H23" s="3">
-        <v>-133600</v>
+        <v>-138100</v>
       </c>
       <c r="I23" s="3">
-        <v>-3284400</v>
+        <v>-3395200</v>
       </c>
       <c r="J23" s="3">
-        <v>264300</v>
+        <v>273300</v>
       </c>
       <c r="K23" s="3">
         <v>1879100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>502100</v>
+        <v>519000</v>
       </c>
       <c r="E24" s="3">
-        <v>572700</v>
+        <v>592000</v>
       </c>
       <c r="F24" s="3">
-        <v>875900</v>
+        <v>905400</v>
       </c>
       <c r="G24" s="3">
-        <v>632300</v>
+        <v>653600</v>
       </c>
       <c r="H24" s="3">
-        <v>439600</v>
+        <v>454400</v>
       </c>
       <c r="I24" s="3">
-        <v>-322000</v>
+        <v>-332800</v>
       </c>
       <c r="J24" s="3">
-        <v>171900</v>
+        <v>177700</v>
       </c>
       <c r="K24" s="3">
         <v>586200</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1745700</v>
+        <v>1804600</v>
       </c>
       <c r="E26" s="3">
-        <v>2099000</v>
+        <v>2169800</v>
       </c>
       <c r="F26" s="3">
-        <v>1609700</v>
+        <v>1664000</v>
       </c>
       <c r="G26" s="3">
-        <v>168100</v>
+        <v>173700</v>
       </c>
       <c r="H26" s="3">
-        <v>-573200</v>
+        <v>-592600</v>
       </c>
       <c r="I26" s="3">
-        <v>-2962400</v>
+        <v>-3062300</v>
       </c>
       <c r="J26" s="3">
-        <v>92400</v>
+        <v>95600</v>
       </c>
       <c r="K26" s="3">
         <v>1292900</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1710300</v>
+        <v>1767900</v>
       </c>
       <c r="E27" s="3">
-        <v>2072900</v>
+        <v>2142800</v>
       </c>
       <c r="F27" s="3">
-        <v>1596900</v>
+        <v>1650700</v>
       </c>
       <c r="G27" s="3">
-        <v>203000</v>
+        <v>209900</v>
       </c>
       <c r="H27" s="3">
-        <v>-596500</v>
+        <v>-616600</v>
       </c>
       <c r="I27" s="3">
-        <v>-2975500</v>
+        <v>-3075800</v>
       </c>
       <c r="J27" s="3">
-        <v>76100</v>
+        <v>78700</v>
       </c>
       <c r="K27" s="3">
         <v>1281200</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>89100</v>
+        <v>92100</v>
       </c>
       <c r="E32" s="3">
-        <v>144200</v>
+        <v>149100</v>
       </c>
       <c r="F32" s="3">
-        <v>-70100</v>
+        <v>-72400</v>
       </c>
       <c r="G32" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="H32" s="3">
-        <v>156000</v>
+        <v>161300</v>
       </c>
       <c r="I32" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="J32" s="3">
-        <v>85700</v>
+        <v>88600</v>
       </c>
       <c r="K32" s="3">
         <v>47800</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1710300</v>
+        <v>1767900</v>
       </c>
       <c r="E33" s="3">
-        <v>2072900</v>
+        <v>2142800</v>
       </c>
       <c r="F33" s="3">
-        <v>1596900</v>
+        <v>1650700</v>
       </c>
       <c r="G33" s="3">
-        <v>203000</v>
+        <v>209900</v>
       </c>
       <c r="H33" s="3">
-        <v>-596500</v>
+        <v>-616600</v>
       </c>
       <c r="I33" s="3">
-        <v>-2975500</v>
+        <v>-3075800</v>
       </c>
       <c r="J33" s="3">
-        <v>76100</v>
+        <v>78700</v>
       </c>
       <c r="K33" s="3">
         <v>1281200</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1710300</v>
+        <v>1767900</v>
       </c>
       <c r="E35" s="3">
-        <v>2072900</v>
+        <v>2142800</v>
       </c>
       <c r="F35" s="3">
-        <v>1596900</v>
+        <v>1650700</v>
       </c>
       <c r="G35" s="3">
-        <v>203000</v>
+        <v>209900</v>
       </c>
       <c r="H35" s="3">
-        <v>-596500</v>
+        <v>-616600</v>
       </c>
       <c r="I35" s="3">
-        <v>-2975500</v>
+        <v>-3075800</v>
       </c>
       <c r="J35" s="3">
-        <v>76100</v>
+        <v>78700</v>
       </c>
       <c r="K35" s="3">
         <v>1281200</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3502800</v>
+        <v>3620900</v>
       </c>
       <c r="E41" s="3">
-        <v>4936900</v>
+        <v>5103400</v>
       </c>
       <c r="F41" s="3">
-        <v>3983500</v>
+        <v>4117800</v>
       </c>
       <c r="G41" s="3">
-        <v>4117500</v>
+        <v>4256400</v>
       </c>
       <c r="H41" s="3">
-        <v>3506500</v>
+        <v>3624700</v>
       </c>
       <c r="I41" s="3">
-        <v>3277600</v>
+        <v>3388200</v>
       </c>
       <c r="J41" s="3">
-        <v>6752900</v>
+        <v>6980700</v>
       </c>
       <c r="K41" s="3">
         <v>2121100</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>797900</v>
+        <v>824900</v>
       </c>
       <c r="E42" s="3">
-        <v>1181200</v>
+        <v>1221000</v>
       </c>
       <c r="F42" s="3">
-        <v>622900</v>
+        <v>643900</v>
       </c>
       <c r="G42" s="3">
-        <v>617400</v>
+        <v>638200</v>
       </c>
       <c r="H42" s="3">
-        <v>605100</v>
+        <v>625500</v>
       </c>
       <c r="I42" s="3">
-        <v>613200</v>
+        <v>633800</v>
       </c>
       <c r="J42" s="3">
-        <v>1217100</v>
+        <v>1258100</v>
       </c>
       <c r="K42" s="3">
         <v>4145400</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7012400</v>
+        <v>7248800</v>
       </c>
       <c r="E43" s="3">
-        <v>6359600</v>
+        <v>6574100</v>
       </c>
       <c r="F43" s="3">
-        <v>6159100</v>
+        <v>6366800</v>
       </c>
       <c r="G43" s="3">
-        <v>6324500</v>
+        <v>6537700</v>
       </c>
       <c r="H43" s="3">
-        <v>7684000</v>
+        <v>7943100</v>
       </c>
       <c r="I43" s="3">
-        <v>13311900</v>
+        <v>13760800</v>
       </c>
       <c r="J43" s="3">
-        <v>16326400</v>
+        <v>16876900</v>
       </c>
       <c r="K43" s="3">
         <v>8365800</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4187600</v>
+        <v>4328800</v>
       </c>
       <c r="E44" s="3">
-        <v>3211900</v>
+        <v>3320200</v>
       </c>
       <c r="F44" s="3">
-        <v>2566400</v>
+        <v>2652900</v>
       </c>
       <c r="G44" s="3">
-        <v>2819000</v>
+        <v>2914100</v>
       </c>
       <c r="H44" s="3">
-        <v>2672200</v>
+        <v>2762300</v>
       </c>
       <c r="I44" s="3">
-        <v>2333500</v>
+        <v>2412100</v>
       </c>
       <c r="J44" s="3">
-        <v>5656200</v>
+        <v>5847000</v>
       </c>
       <c r="K44" s="3">
         <v>2688900</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>374500</v>
+        <v>387100</v>
       </c>
       <c r="E45" s="3">
-        <v>277000</v>
+        <v>286400</v>
       </c>
       <c r="F45" s="3">
-        <v>350300</v>
+        <v>362100</v>
       </c>
       <c r="G45" s="3">
-        <v>180100</v>
+        <v>186200</v>
       </c>
       <c r="H45" s="3">
-        <v>253300</v>
+        <v>261800</v>
       </c>
       <c r="I45" s="3">
-        <v>373700</v>
+        <v>386300</v>
       </c>
       <c r="J45" s="3">
-        <v>638700</v>
+        <v>660300</v>
       </c>
       <c r="K45" s="3">
         <v>600300</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>15875200</v>
+        <v>16410500</v>
       </c>
       <c r="E46" s="3">
-        <v>15966700</v>
+        <v>16505100</v>
       </c>
       <c r="F46" s="3">
-        <v>13682300</v>
+        <v>14143600</v>
       </c>
       <c r="G46" s="3">
-        <v>14058500</v>
+        <v>14532600</v>
       </c>
       <c r="H46" s="3">
-        <v>14721000</v>
+        <v>15217400</v>
       </c>
       <c r="I46" s="3">
-        <v>14013700</v>
+        <v>14486200</v>
       </c>
       <c r="J46" s="3">
-        <v>15993400</v>
+        <v>16532700</v>
       </c>
       <c r="K46" s="3">
         <v>17921500</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1792000</v>
+        <v>1852400</v>
       </c>
       <c r="E47" s="3">
-        <v>3709300</v>
+        <v>3834400</v>
       </c>
       <c r="F47" s="3">
-        <v>2783000</v>
+        <v>2876900</v>
       </c>
       <c r="G47" s="3">
-        <v>2852300</v>
+        <v>2948500</v>
       </c>
       <c r="H47" s="3">
-        <v>3091600</v>
+        <v>3195800</v>
       </c>
       <c r="I47" s="3">
-        <v>3196600</v>
+        <v>3304400</v>
       </c>
       <c r="J47" s="3">
-        <v>1877300</v>
+        <v>1940600</v>
       </c>
       <c r="K47" s="3">
         <v>889400</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2019200</v>
+        <v>2087200</v>
       </c>
       <c r="E48" s="3">
-        <v>1966400</v>
+        <v>2032700</v>
       </c>
       <c r="F48" s="3">
-        <v>1951300</v>
+        <v>2017100</v>
       </c>
       <c r="G48" s="3">
-        <v>2040300</v>
+        <v>2109100</v>
       </c>
       <c r="H48" s="3">
-        <v>1173600</v>
+        <v>1213200</v>
       </c>
       <c r="I48" s="3">
-        <v>1174400</v>
+        <v>1214000</v>
       </c>
       <c r="J48" s="3">
-        <v>3057000</v>
+        <v>3160000</v>
       </c>
       <c r="K48" s="3">
         <v>1503600</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>10468900</v>
+        <v>10821900</v>
       </c>
       <c r="E49" s="3">
-        <v>4161600</v>
+        <v>4302000</v>
       </c>
       <c r="F49" s="3">
-        <v>3983100</v>
+        <v>4117400</v>
       </c>
       <c r="G49" s="3">
-        <v>3446300</v>
+        <v>3562600</v>
       </c>
       <c r="H49" s="3">
-        <v>3447700</v>
+        <v>3564000</v>
       </c>
       <c r="I49" s="3">
-        <v>3339000</v>
+        <v>3451600</v>
       </c>
       <c r="J49" s="3">
-        <v>10816500</v>
+        <v>11181200</v>
       </c>
       <c r="K49" s="3">
         <v>5285500</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1771400</v>
+        <v>1831200</v>
       </c>
       <c r="E52" s="3">
-        <v>2110800</v>
+        <v>2182000</v>
       </c>
       <c r="F52" s="3">
-        <v>2401900</v>
+        <v>2482900</v>
       </c>
       <c r="G52" s="3">
-        <v>2847400</v>
+        <v>2943400</v>
       </c>
       <c r="H52" s="3">
-        <v>2114700</v>
+        <v>2186000</v>
       </c>
       <c r="I52" s="3">
-        <v>2014000</v>
+        <v>2081900</v>
       </c>
       <c r="J52" s="3">
-        <v>1552600</v>
+        <v>1605000</v>
       </c>
       <c r="K52" s="3">
         <v>1289300</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>31926700</v>
+        <v>33003300</v>
       </c>
       <c r="E54" s="3">
-        <v>27914800</v>
+        <v>28856100</v>
       </c>
       <c r="F54" s="3">
-        <v>24801600</v>
+        <v>25637900</v>
       </c>
       <c r="G54" s="3">
-        <v>25244800</v>
+        <v>26096100</v>
       </c>
       <c r="H54" s="3">
-        <v>24548600</v>
+        <v>25376400</v>
       </c>
       <c r="I54" s="3">
-        <v>23737600</v>
+        <v>24538100</v>
       </c>
       <c r="J54" s="3">
-        <v>25954300</v>
+        <v>26829400</v>
       </c>
       <c r="K54" s="3">
         <v>26889400</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3510800</v>
+        <v>3629200</v>
       </c>
       <c r="E57" s="3">
-        <v>3259400</v>
+        <v>3369300</v>
       </c>
       <c r="F57" s="3">
-        <v>2921800</v>
+        <v>3020300</v>
       </c>
       <c r="G57" s="3">
-        <v>2777000</v>
+        <v>2870700</v>
       </c>
       <c r="H57" s="3">
-        <v>2729500</v>
+        <v>2821600</v>
       </c>
       <c r="I57" s="3">
-        <v>2404100</v>
+        <v>2485100</v>
       </c>
       <c r="J57" s="3">
-        <v>4673100</v>
+        <v>4830700</v>
       </c>
       <c r="K57" s="3">
         <v>2117100</v>
@@ -2576,25 +2576,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>773600</v>
+        <v>799700</v>
       </c>
       <c r="E58" s="3">
-        <v>1079100</v>
+        <v>1115500</v>
       </c>
       <c r="F58" s="3">
-        <v>926000</v>
+        <v>957200</v>
       </c>
       <c r="G58" s="3">
-        <v>1071100</v>
+        <v>1107200</v>
       </c>
       <c r="H58" s="3">
-        <v>206000</v>
+        <v>212900</v>
       </c>
       <c r="I58" s="3">
-        <v>232500</v>
+        <v>240300</v>
       </c>
       <c r="J58" s="3">
-        <v>1467500</v>
+        <v>1517000</v>
       </c>
       <c r="K58" s="3">
         <v>224700</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>9016400</v>
+        <v>9320500</v>
       </c>
       <c r="E59" s="3">
-        <v>7257300</v>
+        <v>7502000</v>
       </c>
       <c r="F59" s="3">
-        <v>6594200</v>
+        <v>6816600</v>
       </c>
       <c r="G59" s="3">
-        <v>6822200</v>
+        <v>7052200</v>
       </c>
       <c r="H59" s="3">
-        <v>7195400</v>
+        <v>7438000</v>
       </c>
       <c r="I59" s="3">
-        <v>8926600</v>
+        <v>9227600</v>
       </c>
       <c r="J59" s="3">
-        <v>11228300</v>
+        <v>11607000</v>
       </c>
       <c r="K59" s="3">
         <v>5893500</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>13300900</v>
+        <v>13749400</v>
       </c>
       <c r="E60" s="3">
-        <v>11595800</v>
+        <v>11986800</v>
       </c>
       <c r="F60" s="3">
-        <v>10442000</v>
+        <v>10794100</v>
       </c>
       <c r="G60" s="3">
-        <v>10670200</v>
+        <v>11030000</v>
       </c>
       <c r="H60" s="3">
-        <v>10130900</v>
+        <v>10472500</v>
       </c>
       <c r="I60" s="3">
-        <v>9091000</v>
+        <v>9397500</v>
       </c>
       <c r="J60" s="3">
-        <v>9207300</v>
+        <v>9517800</v>
       </c>
       <c r="K60" s="3">
         <v>8235200</v>
@@ -2702,25 +2702,25 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>3084000</v>
+        <v>3188000</v>
       </c>
       <c r="E61" s="3">
-        <v>2678100</v>
+        <v>2768400</v>
       </c>
       <c r="F61" s="3">
-        <v>2678300</v>
+        <v>2768600</v>
       </c>
       <c r="G61" s="3">
-        <v>3274700</v>
+        <v>3385100</v>
       </c>
       <c r="H61" s="3">
-        <v>2819700</v>
+        <v>2914700</v>
       </c>
       <c r="I61" s="3">
-        <v>2785900</v>
+        <v>2879800</v>
       </c>
       <c r="J61" s="3">
-        <v>1703800</v>
+        <v>1761200</v>
       </c>
       <c r="K61" s="3">
         <v>2150700</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>3365800</v>
+        <v>3479300</v>
       </c>
       <c r="E62" s="3">
-        <v>3858500</v>
+        <v>3988600</v>
       </c>
       <c r="F62" s="3">
-        <v>3901200</v>
+        <v>4032800</v>
       </c>
       <c r="G62" s="3">
-        <v>3821100</v>
+        <v>3950000</v>
       </c>
       <c r="H62" s="3">
-        <v>3581200</v>
+        <v>3701900</v>
       </c>
       <c r="I62" s="3">
-        <v>2948600</v>
+        <v>3048100</v>
       </c>
       <c r="J62" s="3">
-        <v>2688800</v>
+        <v>2779400</v>
       </c>
       <c r="K62" s="3">
         <v>2568500</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>19612800</v>
+        <v>20274100</v>
       </c>
       <c r="E66" s="3">
-        <v>17979300</v>
+        <v>18585500</v>
       </c>
       <c r="F66" s="3">
-        <v>16884700</v>
+        <v>17454100</v>
       </c>
       <c r="G66" s="3">
-        <v>17703900</v>
+        <v>18300900</v>
       </c>
       <c r="H66" s="3">
-        <v>16604100</v>
+        <v>17164000</v>
       </c>
       <c r="I66" s="3">
-        <v>14883600</v>
+        <v>15385500</v>
       </c>
       <c r="J66" s="3">
-        <v>13661500</v>
+        <v>14122200</v>
       </c>
       <c r="K66" s="3">
         <v>13034000</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>7783100</v>
+        <v>8045500</v>
       </c>
       <c r="E72" s="3">
-        <v>6112300</v>
+        <v>6318400</v>
       </c>
       <c r="F72" s="3">
-        <v>4380700</v>
+        <v>4528400</v>
       </c>
       <c r="G72" s="3">
-        <v>3549800</v>
+        <v>3669500</v>
       </c>
       <c r="H72" s="3">
-        <v>4162800</v>
+        <v>4303200</v>
       </c>
       <c r="I72" s="3">
-        <v>5072300</v>
+        <v>5243300</v>
       </c>
       <c r="J72" s="3">
-        <v>8512300</v>
+        <v>8799400</v>
       </c>
       <c r="K72" s="3">
         <v>9954100</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>12313900</v>
+        <v>12729100</v>
       </c>
       <c r="E76" s="3">
-        <v>9935500</v>
+        <v>10270500</v>
       </c>
       <c r="F76" s="3">
-        <v>7916800</v>
+        <v>8183800</v>
       </c>
       <c r="G76" s="3">
-        <v>7540900</v>
+        <v>7795200</v>
       </c>
       <c r="H76" s="3">
-        <v>7944600</v>
+        <v>8212500</v>
       </c>
       <c r="I76" s="3">
-        <v>8854000</v>
+        <v>9152600</v>
       </c>
       <c r="J76" s="3">
-        <v>12292700</v>
+        <v>12707200</v>
       </c>
       <c r="K76" s="3">
         <v>13855400</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1710300</v>
+        <v>1767900</v>
       </c>
       <c r="E81" s="3">
-        <v>2072900</v>
+        <v>2142800</v>
       </c>
       <c r="F81" s="3">
-        <v>1596900</v>
+        <v>1650700</v>
       </c>
       <c r="G81" s="3">
-        <v>203000</v>
+        <v>209900</v>
       </c>
       <c r="H81" s="3">
-        <v>-596500</v>
+        <v>-616600</v>
       </c>
       <c r="I81" s="3">
-        <v>-2975500</v>
+        <v>-3075800</v>
       </c>
       <c r="J81" s="3">
-        <v>76100</v>
+        <v>78700</v>
       </c>
       <c r="K81" s="3">
         <v>1281200</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>957400</v>
+        <v>989700</v>
       </c>
       <c r="E83" s="3">
-        <v>790600</v>
+        <v>817300</v>
       </c>
       <c r="F83" s="3">
-        <v>779800</v>
+        <v>806100</v>
       </c>
       <c r="G83" s="3">
-        <v>785400</v>
+        <v>811900</v>
       </c>
       <c r="H83" s="3">
-        <v>659600</v>
+        <v>681800</v>
       </c>
       <c r="I83" s="3">
-        <v>771900</v>
+        <v>797900</v>
       </c>
       <c r="J83" s="3">
-        <v>811600</v>
+        <v>839000</v>
       </c>
       <c r="K83" s="3">
         <v>966700</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2819000</v>
+        <v>2914100</v>
       </c>
       <c r="E89" s="3">
-        <v>3568200</v>
+        <v>3688500</v>
       </c>
       <c r="F89" s="3">
-        <v>2642700</v>
+        <v>2731900</v>
       </c>
       <c r="G89" s="3">
-        <v>1541200</v>
+        <v>1593100</v>
       </c>
       <c r="H89" s="3">
-        <v>853300</v>
+        <v>882100</v>
       </c>
       <c r="I89" s="3">
-        <v>877000</v>
+        <v>906500</v>
       </c>
       <c r="J89" s="3">
-        <v>1279700</v>
+        <v>1322800</v>
       </c>
       <c r="K89" s="3">
         <v>1947700</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-408900</v>
+        <v>-422700</v>
       </c>
       <c r="E91" s="3">
-        <v>-334600</v>
+        <v>-345900</v>
       </c>
       <c r="F91" s="3">
-        <v>-410400</v>
+        <v>-424200</v>
       </c>
       <c r="G91" s="3">
-        <v>-467500</v>
+        <v>-483200</v>
       </c>
       <c r="H91" s="3">
-        <v>-363100</v>
+        <v>-375300</v>
       </c>
       <c r="I91" s="3">
-        <v>-354100</v>
+        <v>-366100</v>
       </c>
       <c r="J91" s="3">
-        <v>-559800</v>
+        <v>-578700</v>
       </c>
       <c r="K91" s="3">
         <v>-788400</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3141800</v>
+        <v>-3247800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1816100</v>
+        <v>-1877400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1388500</v>
+        <v>-1435300</v>
       </c>
       <c r="G94" s="3">
-        <v>-323400</v>
+        <v>-334300</v>
       </c>
       <c r="H94" s="3">
-        <v>-377400</v>
+        <v>-390100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1467800</v>
+        <v>-1517300</v>
       </c>
       <c r="J94" s="3">
-        <v>-756600</v>
+        <v>-782100</v>
       </c>
       <c r="K94" s="3">
         <v>-755300</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-760400</v>
+        <v>-786000</v>
       </c>
       <c r="E96" s="3">
-        <v>-608100</v>
+        <v>-628600</v>
       </c>
       <c r="F96" s="3">
-        <v>-455300</v>
+        <v>-470700</v>
       </c>
       <c r="G96" s="3">
-        <v>-301500</v>
+        <v>-311700</v>
       </c>
       <c r="H96" s="3">
-        <v>-312800</v>
+        <v>-323400</v>
       </c>
       <c r="I96" s="3">
-        <v>-312700</v>
+        <v>-323300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1120100</v>
+        <v>-1157900</v>
       </c>
       <c r="K96" s="3">
         <v>-1072000</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1455000</v>
+        <v>-1504100</v>
       </c>
       <c r="E100" s="3">
-        <v>-850100</v>
+        <v>-878800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1141000</v>
+        <v>-1179500</v>
       </c>
       <c r="G100" s="3">
-        <v>-630200</v>
+        <v>-651500</v>
       </c>
       <c r="H100" s="3">
-        <v>-372400</v>
+        <v>-385000</v>
       </c>
       <c r="I100" s="3">
-        <v>500400</v>
+        <v>517200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1072500</v>
+        <v>-1108700</v>
       </c>
       <c r="K100" s="3">
         <v>-1012700</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>343700</v>
+        <v>355300</v>
       </c>
       <c r="E101" s="3">
-        <v>51400</v>
+        <v>53200</v>
       </c>
       <c r="F101" s="3">
-        <v>-247300</v>
+        <v>-255600</v>
       </c>
       <c r="G101" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="H101" s="3">
-        <v>125300</v>
+        <v>129500</v>
       </c>
       <c r="I101" s="3">
-        <v>-8300</v>
+        <v>-8600</v>
       </c>
       <c r="J101" s="3">
-        <v>251800</v>
+        <v>260300</v>
       </c>
       <c r="K101" s="3">
         <v>-251900</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1434100</v>
+        <v>-1482500</v>
       </c>
       <c r="E102" s="3">
-        <v>953400</v>
+        <v>985600</v>
       </c>
       <c r="F102" s="3">
-        <v>-134000</v>
+        <v>-138500</v>
       </c>
       <c r="G102" s="3">
-        <v>611100</v>
+        <v>631700</v>
       </c>
       <c r="H102" s="3">
-        <v>228800</v>
+        <v>236500</v>
       </c>
       <c r="I102" s="3">
-        <v>-98800</v>
+        <v>-102200</v>
       </c>
       <c r="J102" s="3">
-        <v>-297600</v>
+        <v>-307600</v>
       </c>
       <c r="K102" s="3">
         <v>-72200</v>
